--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27ECD96-B16A-4B97-A468-CC66C806CAD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627A339D-29DA-46EC-95F6-78238DF44FDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="2" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
-    <sheet name="CLM" sheetId="1" r:id="rId1"/>
-    <sheet name="THUNDER" sheetId="2" r:id="rId2"/>
-    <sheet name="ZEN" sheetId="3" r:id="rId3"/>
+    <sheet name="ZEN" sheetId="3" r:id="rId1"/>
+    <sheet name="CLM" sheetId="1" r:id="rId2"/>
+    <sheet name="THUNDER" sheetId="2" r:id="rId3"/>
     <sheet name="TOTAL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -87,9 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,11 +404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1F6DF5-0B9D-48B1-96CA-E450A31D5D35}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -440,16 +441,16 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F2">
-        <v>0.79</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -460,16 +461,16 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F3">
-        <v>0.81</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -480,16 +481,16 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F4">
-        <v>1.22</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -500,16 +501,16 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.4</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F5">
-        <v>0.87</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -520,16 +521,16 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.8</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -540,16 +541,26 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.75</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F7">
-        <v>0.92</v>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12">
+        <f>SUM(C2:C7)</f>
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D7)</f>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -558,23 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1F6DF5-0B9D-48B1-96CA-E450A31D5D35}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -610,13 +609,13 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.28570000000000001</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.32</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -627,16 +626,16 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F3">
-        <v>1.1200000000000001</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -647,16 +646,16 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0.28570000000000001</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.77</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -667,16 +666,16 @@
         <v>8001</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5" s="1">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F5">
-        <v>1.64</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -687,16 +686,16 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="F6">
-        <v>1.32</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -707,16 +706,179 @@
         <v>8003</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F7">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12">
+        <f>SUM(C2:C7)</f>
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D7)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>7000</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>7001</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.1429</v>
+      </c>
+      <c r="F3">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>8001</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>8002</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="F6">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>8003</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.5</v>
+      <c r="E7">
+        <v>0.25</v>
       </c>
       <c r="F7">
-        <v>1.51</v>
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12">
+        <f>SUM(C2:C7)</f>
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D7)</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -726,15 +888,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -750,8 +912,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <f>+CLM!A2</f>
         <v>20</v>
@@ -761,19 +926,23 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <f>CLM!C2+ZEN!C2</f>
-        <v>12</v>
+        <f>CLM!C2+ZEN!C2 + THUNDER!C2</f>
+        <v>19</v>
       </c>
       <c r="D2">
-        <f>CLM!D2+ZEN!D2</f>
+        <f>CLM!D2+ZEN!D2 + THUNDER!D2</f>
         <v>2</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="F2" s="2">
+        <f>(CLM!F2 * CLM!C2 + ZEN!F2 * ZEN!C2 + THUNDER!F2 * THUNDER!C2) / (CLM!C2 +  ZEN!C2 + THUNDER!C2)</f>
+        <v>1.2463157894736843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>+CLM!A3</f>
         <v>20</v>
@@ -783,19 +952,23 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <f>CLM!C3+ZEN!C3</f>
-        <v>8</v>
+        <f>CLM!C3+ZEN!C3 + THUNDER!C3</f>
+        <v>17</v>
       </c>
       <c r="D3">
-        <f>CLM!D3+ZEN!D3</f>
-        <v>1</v>
+        <f>CLM!D3+ZEN!D3 + THUNDER!D3</f>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E7" si="0">D3/C3</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="F3" s="2">
+        <f>(CLM!F3 * CLM!C3 + ZEN!F3 * ZEN!C3 + THUNDER!F3 * THUNDER!C3) / (CLM!C3 +  ZEN!C3 + THUNDER!C3)</f>
+        <v>1.2105882352941175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f>+CLM!A4</f>
         <v>20</v>
@@ -805,19 +978,23 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <f>CLM!C4+ZEN!C4</f>
-        <v>10</v>
+        <f>CLM!C4+ZEN!C4 + THUNDER!C4</f>
+        <v>13</v>
       </c>
       <c r="D4">
-        <f>CLM!D4+ZEN!D4</f>
+        <f>CLM!D4+ZEN!D4 + THUNDER!D4</f>
         <v>2</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="F4" s="2">
+        <f>(CLM!F4 * CLM!C4 + ZEN!F4 * ZEN!C4 + THUNDER!F4 * THUNDER!C4) / (CLM!C4 +  ZEN!C4 + THUNDER!C4)</f>
+        <v>1.6430769230769231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f>+CLM!A5</f>
         <v>20</v>
@@ -827,19 +1004,23 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <f>CLM!C5+ZEN!C5</f>
-        <v>7</v>
+        <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
+        <v>13</v>
       </c>
       <c r="D5">
-        <f>CLM!D5+ZEN!D5</f>
+        <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
         <v>3</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="F5" s="2">
+        <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
+        <v>1.3492307692307692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f>+CLM!A6</f>
         <v>20</v>
@@ -849,19 +1030,23 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <f>CLM!C6+ZEN!C6</f>
-        <v>8</v>
+        <f>CLM!C6+ZEN!C6 + THUNDER!C6</f>
+        <v>17</v>
       </c>
       <c r="D6">
-        <f>CLM!D6+ZEN!D6</f>
-        <v>5</v>
+        <f>CLM!D6+ZEN!D6 + THUNDER!D6</f>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="F6" s="2">
+        <f>(CLM!F6 * CLM!C6 + ZEN!F6 * ZEN!C6 + THUNDER!F6 * THUNDER!C6) / (CLM!C6 +  ZEN!C6 + THUNDER!C6)</f>
+        <v>1.2335294117647058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f>+CLM!A7</f>
         <v>20</v>
@@ -871,16 +1056,20 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <f>CLM!C7+ZEN!C7</f>
-        <v>6</v>
+        <f>CLM!C7+ZEN!C7 + THUNDER!C7</f>
+        <v>13</v>
       </c>
       <c r="D7">
-        <f>CLM!D7+ZEN!D7</f>
-        <v>4</v>
+        <f>CLM!D7+ZEN!D7 + THUNDER!D7</f>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="F7" s="2">
+        <f>(CLM!F7 * CLM!C7 + ZEN!F7 * ZEN!C7 + THUNDER!F7 * THUNDER!C7) / (CLM!C7 +  ZEN!C7 + THUNDER!C7)</f>
+        <v>1.3415384615384616</v>
       </c>
     </row>
   </sheetData>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627A339D-29DA-46EC-95F6-78238DF44FDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9B3B4-5B79-48D8-8264-37198B8254E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="2" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -53,12 +53,24 @@
   <si>
     <t>runTime</t>
   </si>
+  <si>
+    <t>T/C</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>mu-sigma</t>
+  </si>
+  <si>
+    <t>mu+sigma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,13 +78,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,10 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +435,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -441,13 +468,13 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0.25</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F2">
         <v>1.42</v>
@@ -461,16 +488,16 @@
         <v>7001</v>
       </c>
       <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>1.1200000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -481,16 +508,16 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F4">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -501,16 +528,16 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -521,16 +548,16 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F6">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -541,26 +568,26 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F7">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +600,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -606,7 +633,7 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -615,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -626,16 +653,16 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1429</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="F3">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -646,7 +673,7 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -655,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.36</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -666,16 +693,16 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F5">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -686,16 +713,16 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.42859999999999998</v>
+        <v>0.21429999999999999</v>
       </c>
       <c r="F6">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -706,26 +733,26 @@
         <v>8003</v>
       </c>
       <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
       <c r="E7" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="F7">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -735,15 +762,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="8" max="8" width="8.83984375" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -756,14 +786,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>20</v>
       </c>
@@ -771,19 +804,23 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.1875</v>
       </c>
       <c r="F2">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.1</v>
+      </c>
+      <c r="H2" s="2">
+        <f>F2/CLM!F2</f>
+        <v>2.3076923076923079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>20</v>
       </c>
@@ -791,27 +828,47 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.1429</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.16669999999999999</v>
       </c>
       <c r="F3">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.02</v>
+      </c>
+      <c r="H3" s="2">
+        <f>F3/CLM!F3</f>
+        <v>2.3218390804597702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
       <c r="B4">
         <v>8000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F4">
+        <v>3.06</v>
+      </c>
+      <c r="H4" s="2">
+        <f>F4/CLM!F4</f>
+        <v>2.013157894736842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
@@ -819,19 +876,23 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="F5">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.44</v>
+      </c>
+      <c r="H5" s="2">
+        <f>F5/CLM!F5</f>
+        <v>2.4158415841584158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
@@ -839,19 +900,23 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0.71430000000000005</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.4</v>
       </c>
       <c r="F6">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.02</v>
+      </c>
+      <c r="H6" s="2">
+        <f>F6/CLM!F6</f>
+        <v>2.104166666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
@@ -859,44 +924,62 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.25</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.35289999999999999</v>
       </c>
       <c r="F7">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <f>F7/CLM!F7</f>
+        <v>2.1538461538461542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="H12" s="2">
+        <f>SUMPRODUCT(C2:C7,H2:H7)/SUM(C2:C7)</f>
+        <v>2.240033538501967</v>
+      </c>
+      <c r="I12" s="3">
+        <f>4/H12</f>
+        <v>1.7856875494261657</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -915,8 +998,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <f>+CLM!A2</f>
         <v>20</v>
@@ -927,22 +1019,34 @@
       </c>
       <c r="C2">
         <f>CLM!C2+ZEN!C2 + THUNDER!C2</f>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <f>CLM!D2+ZEN!D2 + THUNDER!D2</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.10526315789473684</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="F2" s="2">
         <f>(CLM!F2 * CLM!C2 + ZEN!F2 * ZEN!C2 + THUNDER!F2 * THUNDER!C2) / (CLM!C2 +  ZEN!C2 + THUNDER!C2)</f>
-        <v>1.2463157894736843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.496904761904762</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SQRT(C2*E2*(1-E2))/C2</f>
+        <v>4.9970296759725655E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>E2-G2</f>
+        <v>6.9077322287893386E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>E2+G2</f>
+        <v>0.16901791580734471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>+CLM!A3</f>
         <v>20</v>
@@ -953,22 +1057,34 @@
       </c>
       <c r="C3">
         <f>CLM!C3+ZEN!C3 + THUNDER!C3</f>
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <f>CLM!D3+ZEN!D3 + THUNDER!D3</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E7" si="0">D3/C3</f>
-        <v>0.17647058823529413</v>
+        <v>0.17948717948717949</v>
       </c>
       <c r="F3" s="2">
         <f>(CLM!F3 * CLM!C3 + ZEN!F3 * ZEN!C3 + THUNDER!F3 * THUNDER!C3) / (CLM!C3 +  ZEN!C3 + THUNDER!C3)</f>
-        <v>1.2105882352941175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.4453846153846153</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G7" si="1">SQRT(C3*E3*(1-E3))/C3</f>
+        <v>6.1450737386182369E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H7" si="2">E3-G3</f>
+        <v>0.11803644210099712</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I7" si="3">E3+G3</f>
+        <v>0.24093791687336186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f>+CLM!A4</f>
         <v>20</v>
@@ -979,22 +1095,34 @@
       </c>
       <c r="C4">
         <f>CLM!C4+ZEN!C4 + THUNDER!C4</f>
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <f>CLM!D4+ZEN!D4 + THUNDER!D4</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.15384615384615385</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="F4" s="2">
         <f>(CLM!F4 * CLM!C4 + ZEN!F4 * ZEN!C4 + THUNDER!F4 * THUNDER!C4) / (CLM!C4 +  ZEN!C4 + THUNDER!C4)</f>
-        <v>1.6430769230769231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.9317241379310344</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4032875233466152E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>7.3898159249292467E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20196390971622477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f>+CLM!A5</f>
         <v>20</v>
@@ -1005,7 +1133,7 @@
       </c>
       <c r="C5">
         <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
@@ -1013,14 +1141,26 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.23076923076923078</v>
+        <v>8.1081081081081086E-2</v>
       </c>
       <c r="F5" s="2">
         <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
-        <v>1.3492307692307692</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.7497297297297296</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4874280652761632E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6206800428319454E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12595536173384272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f>+CLM!A6</f>
         <v>20</v>
@@ -1031,22 +1171,34 @@
       </c>
       <c r="C6">
         <f>CLM!C6+ZEN!C6 + THUNDER!C6</f>
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <f>CLM!D6+ZEN!D6 + THUNDER!D6</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.6470588235294118</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F6" s="2">
         <f>(CLM!F6 * CLM!C6 + ZEN!F6 * ZEN!C6 + THUNDER!F6 * THUNDER!C6) / (CLM!C6 +  ZEN!C6 + THUNDER!C6)</f>
-        <v>1.2335294117647058</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.526</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>7.4056566217993128E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2509434337820069</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.39905656621799313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f>+CLM!A7</f>
         <v>20</v>
@@ -1057,19 +1209,57 @@
       </c>
       <c r="C7">
         <f>CLM!C7+ZEN!C7 + THUNDER!C7</f>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <f>CLM!D7+ZEN!D7 + THUNDER!D7</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.53846153846153844</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="F7" s="2">
         <f>(CLM!F7 * CLM!C7 + ZEN!F7 * ZEN!C7 + THUNDER!F7 * THUNDER!C7) / (CLM!C7 +  ZEN!C7 + THUNDER!C7)</f>
-        <v>1.3415384615384616</v>
+        <v>1.6708108108108111</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>7.848284013769638E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27286851121365496</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.42983419148904778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10">
+        <f>C6*2.5</f>
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <f>D6*2.5</f>
+        <v>32.5</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ref="E10" si="4">D10/C10</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10" si="5">SQRT(C10*E10*(1-E10))/C10</f>
+        <v>4.6837484987987982E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" ref="H10" si="6">E10-G10</f>
+        <v>0.27816251501201206</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10" si="7">E10+G10</f>
+        <v>0.37183748498798797</v>
       </c>
     </row>
   </sheetData>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9B3B4-5B79-48D8-8264-37198B8254E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDABB6C-4B19-4441-87B4-5B72F7B3F45B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -488,16 +488,16 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="F3">
-        <v>1.1599999999999999</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -528,7 +528,7 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -568,26 +568,26 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F7">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +633,7 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -653,13 +653,13 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>6.6699999999999995E-2</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="F3">
         <v>0.87</v>
@@ -673,7 +673,7 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -693,16 +693,16 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.1429</v>
+        <v>0.125</v>
       </c>
       <c r="F5">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -713,16 +713,16 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>0.21429999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F6">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -733,26 +733,26 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>0.42859999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="F7">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -764,9 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -804,20 +802,20 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>0.1875</v>
+        <v>0.26319999999999999</v>
       </c>
       <c r="F2">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H2" s="2">
         <f>F2/CLM!F2</f>
-        <v>2.3076923076923079</v>
+        <v>2.3736263736263736</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -828,20 +826,20 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="F3">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="H3" s="2">
         <f>F3/CLM!F3</f>
-        <v>2.3218390804597702</v>
+        <v>2.4252873563218391</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -852,20 +850,20 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F4">
-        <v>3.06</v>
+        <v>3.27</v>
       </c>
       <c r="H4" s="2">
         <f>F4/CLM!F4</f>
-        <v>2.013157894736842</v>
+        <v>2.1372549019607843</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -889,7 +887,7 @@
       </c>
       <c r="H5" s="2">
         <f>F5/CLM!F5</f>
-        <v>2.4158415841584158</v>
+        <v>2.3689320388349513</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -900,20 +898,20 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>0.4</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="F6">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
         <f>F6/CLM!F6</f>
-        <v>2.104166666666667</v>
+        <v>2.061855670103093</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -924,20 +922,20 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>0.35289999999999999</v>
+        <v>0.31580000000000003</v>
       </c>
       <c r="F7">
-        <v>2.2400000000000002</v>
+        <v>2.27</v>
       </c>
       <c r="H7" s="2">
         <f>F7/CLM!F7</f>
-        <v>2.1538461538461542</v>
+        <v>2.1619047619047618</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -948,19 +946,19 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2">
         <f>SUMPRODUCT(C2:C7,H2:H7)/SUM(C2:C7)</f>
-        <v>2.240033538501967</v>
+        <v>2.2641984150253691</v>
       </c>
       <c r="I12" s="3">
         <f>4/H12</f>
-        <v>1.7856875494261657</v>
+        <v>1.7666296263859818</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +972,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1019,31 +1017,31 @@
       </c>
       <c r="C2">
         <f>CLM!C2+ZEN!C2 + THUNDER!C2</f>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <f>CLM!D2+ZEN!D2 + THUNDER!D2</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.11904761904761904</v>
+        <v>0.14893617021276595</v>
       </c>
       <c r="F2" s="2">
         <f>(CLM!F2 * CLM!C2 + ZEN!F2 * ZEN!C2 + THUNDER!F2 * THUNDER!C2) / (CLM!C2 +  ZEN!C2 + THUNDER!C2)</f>
-        <v>1.496904761904762</v>
+        <v>1.5346808510638299</v>
       </c>
       <c r="G2" s="1">
         <f>SQRT(C2*E2*(1-E2))/C2</f>
-        <v>4.9970296759725655E-2</v>
+        <v>5.1931662832774964E-2</v>
       </c>
       <c r="H2" s="1">
         <f>E2-G2</f>
-        <v>6.9077322287893386E-2</v>
+        <v>9.7004507379990987E-2</v>
       </c>
       <c r="I2" s="1">
         <f>E2+G2</f>
-        <v>0.16901791580734471</v>
+        <v>0.2008678330455409</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1057,7 +1055,7 @@
       </c>
       <c r="C3">
         <f>CLM!C3+ZEN!C3 + THUNDER!C3</f>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <f>CLM!D3+ZEN!D3 + THUNDER!D3</f>
@@ -1065,23 +1063,23 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E7" si="0">D3/C3</f>
-        <v>0.17948717948717949</v>
+        <v>0.15909090909090909</v>
       </c>
       <c r="F3" s="2">
         <f>(CLM!F3 * CLM!C3 + ZEN!F3 * ZEN!C3 + THUNDER!F3 * THUNDER!C3) / (CLM!C3 +  ZEN!C3 + THUNDER!C3)</f>
-        <v>1.4453846153846153</v>
+        <v>1.4956818181818183</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G7" si="1">SQRT(C3*E3*(1-E3))/C3</f>
-        <v>6.1450737386182369E-2</v>
+        <v>5.5140521260671566E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H7" si="2">E3-G3</f>
-        <v>0.11803644210099712</v>
+        <v>0.10395038783023752</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I7" si="3">E3+G3</f>
-        <v>0.24093791687336186</v>
+        <v>0.21423143035158065</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1095,7 +1093,7 @@
       </c>
       <c r="C4">
         <f>CLM!C4+ZEN!C4 + THUNDER!C4</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <f>CLM!D4+ZEN!D4 + THUNDER!D4</f>
@@ -1103,23 +1101,23 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.13793103448275862</v>
+        <v>0.12903225806451613</v>
       </c>
       <c r="F4" s="2">
         <f>(CLM!F4 * CLM!C4 + ZEN!F4 * ZEN!C4 + THUNDER!F4 * THUNDER!C4) / (CLM!C4 +  ZEN!C4 + THUNDER!C4)</f>
-        <v>1.9317241379310344</v>
+        <v>2.0067741935483872</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>6.4032875233466152E-2</v>
+        <v>6.0210098403702117E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>7.3898159249292467E-2</v>
+        <v>6.8822159660814008E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>0.20196390971622477</v>
+        <v>0.18924235646821824</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1133,7 +1131,7 @@
       </c>
       <c r="C5">
         <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
@@ -1141,23 +1139,23 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>8.1081081081081086E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F5" s="2">
         <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
-        <v>1.7497297297297296</v>
+        <v>1.7324999999999999</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>4.4874280652761632E-2</v>
+        <v>4.1645828122394209E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>3.6206800428319454E-2</v>
+        <v>3.3354171877605789E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.12595536173384272</v>
+        <v>0.11664582812239421</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1171,31 +1169,31 @@
       </c>
       <c r="C6">
         <f>CLM!C6+ZEN!C6 + THUNDER!C6</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <f>CLM!D6+ZEN!D6 + THUNDER!D6</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.32500000000000001</v>
+        <v>0.32558139534883723</v>
       </c>
       <c r="F6" s="2">
         <f>(CLM!F6 * CLM!C6 + ZEN!F6 * ZEN!C6 + THUNDER!F6 * THUNDER!C6) / (CLM!C6 +  ZEN!C6 + THUNDER!C6)</f>
-        <v>1.526</v>
+        <v>1.5051162790697674</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>7.4056566217993128E-2</v>
+        <v>7.1459559282341947E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>0.2509434337820069</v>
+        <v>0.2541218360664953</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>0.39905656621799313</v>
+        <v>0.39704095463117917</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1209,57 +1207,57 @@
       </c>
       <c r="C7">
         <f>CLM!C7+ZEN!C7 + THUNDER!C7</f>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <f>CLM!D7+ZEN!D7 + THUNDER!D7</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.35135135135135137</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F7" s="2">
         <f>(CLM!F7 * CLM!C7 + ZEN!F7 * ZEN!C7 + THUNDER!F7 * THUNDER!C7) / (CLM!C7 +  ZEN!C7 + THUNDER!C7)</f>
-        <v>1.6708108108108111</v>
+        <v>1.6869047619047617</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>7.848284013769638E-2</v>
+        <v>7.2739296745330792E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>0.27286851121365496</v>
+        <v>0.26059403658800251</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.42983419148904778</v>
+        <v>0.40607263007866412</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C10">
         <f>C6*2.5</f>
-        <v>100</v>
+        <v>107.5</v>
       </c>
       <c r="D10">
         <f>D6*2.5</f>
-        <v>32.5</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ref="E10" si="4">D10/C10</f>
-        <v>0.32500000000000001</v>
+        <v>0.32558139534883723</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ref="G10" si="5">SQRT(C10*E10*(1-E10))/C10</f>
-        <v>4.6837484987987982E-2</v>
+        <v>4.5194993584805582E-2</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ref="H10" si="6">E10-G10</f>
-        <v>0.27816251501201206</v>
+        <v>0.28038640176403162</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ref="I10" si="7">E10+G10</f>
-        <v>0.37183748498798797</v>
+        <v>0.37077638893364284</v>
       </c>
     </row>
   </sheetData>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDABB6C-4B19-4441-87B4-5B72F7B3F45B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22D28A8-B775-4581-86C6-365B316DF0DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -468,16 +468,16 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0.18179999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F2">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -488,16 +488,16 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>0.42859999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="F3">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -508,16 +508,16 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.2</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F4">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -548,16 +548,16 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="F6">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -583,11 +583,11 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -633,7 +633,7 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -653,16 +653,16 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>5.8799999999999998E-2</v>
+        <v>0.1053</v>
       </c>
       <c r="F3">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -673,13 +673,13 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>5.8799999999999998E-2</v>
       </c>
       <c r="F4">
         <v>1.53</v>
@@ -693,13 +693,13 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.125</v>
+        <v>0.1053</v>
       </c>
       <c r="F5">
         <v>1.03</v>
@@ -713,16 +713,16 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>0.25</v>
+        <v>0.26319999999999999</v>
       </c>
       <c r="F6">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -733,26 +733,26 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>0.375</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F7">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -802,20 +804,20 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>0.26319999999999999</v>
+        <v>0.20830000000000001</v>
       </c>
       <c r="F2">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="H2" s="2">
         <f>F2/CLM!F2</f>
-        <v>2.3736263736263736</v>
+        <v>2.3369565217391304</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -826,20 +828,20 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>0.15</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="F3">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="H3" s="2">
         <f>F3/CLM!F3</f>
-        <v>2.4252873563218391</v>
+        <v>2.3636363636363638</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -850,20 +852,20 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.1111</v>
       </c>
       <c r="F4">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="H4" s="2">
         <f>F4/CLM!F4</f>
-        <v>2.1372549019607843</v>
+        <v>2.2418300653594772</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -874,20 +876,20 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>5.8799999999999998E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F5">
-        <v>2.44</v>
+        <v>2.37</v>
       </c>
       <c r="H5" s="2">
         <f>F5/CLM!F5</f>
-        <v>2.3689320388349513</v>
+        <v>2.3009708737864076</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -898,20 +900,20 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>0.38100000000000001</v>
+        <v>0.39129999999999998</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H6" s="2">
         <f>F6/CLM!F6</f>
-        <v>2.061855670103093</v>
+        <v>2.010204081632653</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -922,20 +924,20 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>0.31580000000000003</v>
+        <v>0.30430000000000001</v>
       </c>
       <c r="F7">
         <v>2.27</v>
       </c>
       <c r="H7" s="2">
         <f>F7/CLM!F7</f>
-        <v>2.1619047619047618</v>
+        <v>2.1018518518518516</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -946,19 +948,19 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2">
         <f>SUMPRODUCT(C2:C7,H2:H7)/SUM(C2:C7)</f>
-        <v>2.2641984150253691</v>
+        <v>2.2251091298153436</v>
       </c>
       <c r="I12" s="3">
         <f>4/H12</f>
-        <v>1.7666296263859818</v>
+        <v>1.797664638737045</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1019,7 @@
       </c>
       <c r="C2">
         <f>CLM!C2+ZEN!C2 + THUNDER!C2</f>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <f>CLM!D2+ZEN!D2 + THUNDER!D2</f>
@@ -1025,23 +1027,23 @@
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.14893617021276595</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="F2" s="2">
         <f>(CLM!F2 * CLM!C2 + ZEN!F2 * ZEN!C2 + THUNDER!F2 * THUNDER!C2) / (CLM!C2 +  ZEN!C2 + THUNDER!C2)</f>
-        <v>1.5346808510638299</v>
+        <v>1.5941818181818181</v>
       </c>
       <c r="G2" s="1">
         <f>SQRT(C2*E2*(1-E2))/C2</f>
-        <v>5.1931662832774964E-2</v>
+        <v>4.4939227683878154E-2</v>
       </c>
       <c r="H2" s="1">
         <f>E2-G2</f>
-        <v>9.7004507379990987E-2</v>
+        <v>8.2333499588849113E-2</v>
       </c>
       <c r="I2" s="1">
         <f>E2+G2</f>
-        <v>0.2008678330455409</v>
+        <v>0.17221195495660541</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1055,31 +1057,31 @@
       </c>
       <c r="C3">
         <f>CLM!C3+ZEN!C3 + THUNDER!C3</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <f>CLM!D3+ZEN!D3 + THUNDER!D3</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E7" si="0">D3/C3</f>
-        <v>0.15909090909090909</v>
+        <v>0.16326530612244897</v>
       </c>
       <c r="F3" s="2">
         <f>(CLM!F3 * CLM!C3 + ZEN!F3 * ZEN!C3 + THUNDER!F3 * THUNDER!C3) / (CLM!C3 +  ZEN!C3 + THUNDER!C3)</f>
-        <v>1.4956818181818183</v>
+        <v>1.4906122448979593</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G7" si="1">SQRT(C3*E3*(1-E3))/C3</f>
-        <v>5.5140521260671566E-2</v>
+        <v>5.2801079522667153E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H7" si="2">E3-G3</f>
-        <v>0.10395038783023752</v>
+        <v>0.11046422659978181</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I7" si="3">E3+G3</f>
-        <v>0.21423143035158065</v>
+        <v>0.21606638564511613</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1093,31 +1095,31 @@
       </c>
       <c r="C4">
         <f>CLM!C4+ZEN!C4 + THUNDER!C4</f>
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <f>CLM!D4+ZEN!D4 + THUNDER!D4</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.12903225806451613</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="F4" s="2">
         <f>(CLM!F4 * CLM!C4 + ZEN!F4 * ZEN!C4 + THUNDER!F4 * THUNDER!C4) / (CLM!C4 +  ZEN!C4 + THUNDER!C4)</f>
-        <v>2.0067741935483872</v>
+        <v>2.3547826086956518</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>6.0210098403702117E-2</v>
+        <v>4.5892337944462062E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>6.8822159660814008E-2</v>
+        <v>6.2803314229450985E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>0.18924235646821824</v>
+        <v>0.1545879901183751</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1131,31 +1133,31 @@
       </c>
       <c r="C5">
         <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>8.1632653061224483E-2</v>
       </c>
       <c r="F5" s="2">
         <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
-        <v>1.7324999999999999</v>
+        <v>1.743265306122449</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>4.1645828122394209E-2</v>
+        <v>3.9114891734690196E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>3.3354171877605789E-2</v>
+        <v>4.2517761326534287E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.11664582812239421</v>
+        <v>0.12074754479591468</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1169,31 +1171,31 @@
       </c>
       <c r="C6">
         <f>CLM!C6+ZEN!C6 + THUNDER!C6</f>
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <f>CLM!D6+ZEN!D6 + THUNDER!D6</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.32558139534883723</v>
+        <v>0.34</v>
       </c>
       <c r="F6" s="2">
         <f>(CLM!F6 * CLM!C6 + ZEN!F6 * ZEN!C6 + THUNDER!F6 * THUNDER!C6) / (CLM!C6 +  ZEN!C6 + THUNDER!C6)</f>
-        <v>1.5051162790697674</v>
+        <v>1.4994000000000001</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>7.1459559282341947E-2</v>
+        <v>6.69925368977769E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>0.2541218360664953</v>
+        <v>0.27300746310222312</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>0.39704095463117917</v>
+        <v>0.40699253689777692</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1207,57 +1209,57 @@
       </c>
       <c r="C7">
         <f>CLM!C7+ZEN!C7 + THUNDER!C7</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <f>CLM!D7+ZEN!D7 + THUNDER!D7</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="F7" s="2">
         <f>(CLM!F7 * CLM!C7 + ZEN!F7 * ZEN!C7 + THUNDER!F7 * THUNDER!C7) / (CLM!C7 +  ZEN!C7 + THUNDER!C7)</f>
-        <v>1.6869047619047617</v>
+        <v>1.7202083333333331</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>7.2739296745330792E-2</v>
+        <v>6.6902253013880877E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>0.26059403658800251</v>
+        <v>0.24559774698611914</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.40607263007866412</v>
+        <v>0.37940225301388086</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C10">
         <f>C6*2.5</f>
-        <v>107.5</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <f>D6*2.5</f>
-        <v>35</v>
+        <v>42.5</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ref="E10" si="4">D10/C10</f>
-        <v>0.32558139534883723</v>
+        <v>0.34</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ref="G10" si="5">SQRT(C10*E10*(1-E10))/C10</f>
-        <v>4.5194993584805582E-2</v>
+        <v>4.2369800565969153E-2</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ref="H10" si="6">E10-G10</f>
-        <v>0.28038640176403162</v>
+        <v>0.29763019943403085</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ref="I10" si="7">E10+G10</f>
-        <v>0.37077638893364284</v>
+        <v>0.3823698005659692</v>
       </c>
     </row>
   </sheetData>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22D28A8-B775-4581-86C6-365B316DF0DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FCD169-E22D-4ECF-9B33-D79CC5D5BE6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -468,16 +468,16 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="F2">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -508,16 +508,16 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.18179999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="F4">
-        <v>1.87</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -528,7 +528,7 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -548,13 +548,13 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.375</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F6">
         <v>1.38</v>
@@ -568,22 +568,22 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F7">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
@@ -633,7 +633,7 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -653,13 +653,13 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1053</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="F3">
         <v>0.88</v>
@@ -673,13 +673,13 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>5.8799999999999998E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="F4">
         <v>1.53</v>
@@ -693,13 +693,13 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>0.1053</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="F5">
         <v>1.03</v>
@@ -713,13 +713,13 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>0.26319999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F6">
         <v>0.98</v>
@@ -733,10 +733,10 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <v>0.33329999999999999</v>
@@ -748,11 +748,11 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -765,7 +765,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -804,20 +804,20 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>0.20830000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="H2" s="2">
         <f>F2/CLM!F2</f>
-        <v>2.3369565217391304</v>
+        <v>2.3225806451612905</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -828,20 +828,20 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.13639999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="F3">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="H3" s="2">
         <f>F3/CLM!F3</f>
-        <v>2.3636363636363638</v>
+        <v>2.4318181818181821</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -852,20 +852,20 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.1111</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="F4">
-        <v>3.43</v>
+        <v>3.54</v>
       </c>
       <c r="H4" s="2">
         <f>F4/CLM!F4</f>
-        <v>2.2418300653594772</v>
+        <v>2.3137254901960782</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -876,20 +876,20 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>8.6999999999999994E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F5">
-        <v>2.37</v>
+        <v>2.44</v>
       </c>
       <c r="H5" s="2">
         <f>F5/CLM!F5</f>
-        <v>2.3009708737864076</v>
+        <v>2.3689320388349513</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -900,20 +900,20 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>0.39129999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="F6">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="H6" s="2">
         <f>F6/CLM!F6</f>
-        <v>2.010204081632653</v>
+        <v>2.0612244897959182</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -924,20 +924,20 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>0.30430000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="F7">
-        <v>2.27</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H7" s="2">
         <f>F7/CLM!F7</f>
-        <v>2.1018518518518516</v>
+        <v>2.1296296296296293</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -948,19 +948,19 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2">
         <f>SUMPRODUCT(C2:C7,H2:H7)/SUM(C2:C7)</f>
-        <v>2.2251091298153436</v>
+        <v>2.2701565748295685</v>
       </c>
       <c r="I12" s="3">
         <f>4/H12</f>
-        <v>1.797664638737045</v>
+        <v>1.761993002751495</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C2">
         <f>CLM!C2+ZEN!C2 + THUNDER!C2</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D2">
         <f>CLM!D2+ZEN!D2 + THUNDER!D2</f>
@@ -1027,23 +1027,23 @@
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.12727272727272726</v>
+        <v>0.11864406779661017</v>
       </c>
       <c r="F2" s="2">
         <f>(CLM!F2 * CLM!C2 + ZEN!F2 * ZEN!C2 + THUNDER!F2 * THUNDER!C2) / (CLM!C2 +  ZEN!C2 + THUNDER!C2)</f>
-        <v>1.5941818181818181</v>
+        <v>1.6010169491525426</v>
       </c>
       <c r="G2" s="1">
         <f>SQRT(C2*E2*(1-E2))/C2</f>
-        <v>4.4939227683878154E-2</v>
+        <v>4.2099086703182687E-2</v>
       </c>
       <c r="H2" s="1">
         <f>E2-G2</f>
-        <v>8.2333499588849113E-2</v>
+        <v>7.6544981093427486E-2</v>
       </c>
       <c r="I2" s="1">
         <f>E2+G2</f>
-        <v>0.17221195495660541</v>
+        <v>0.16074315449979287</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1057,31 +1057,31 @@
       </c>
       <c r="C3">
         <f>CLM!C3+ZEN!C3 + THUNDER!C3</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <f>CLM!D3+ZEN!D3 + THUNDER!D3</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E7" si="0">D3/C3</f>
-        <v>0.16326530612244897</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F3" s="2">
         <f>(CLM!F3 * CLM!C3 + ZEN!F3 * ZEN!C3 + THUNDER!F3 * THUNDER!C3) / (CLM!C3 +  ZEN!C3 + THUNDER!C3)</f>
-        <v>1.4906122448979593</v>
+        <v>1.5285185185185184</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G7" si="1">SQRT(C3*E3*(1-E3))/C3</f>
-        <v>5.2801079522667153E-2</v>
+        <v>5.0715051620848717E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H7" si="2">E3-G3</f>
-        <v>0.11046422659978181</v>
+        <v>0.11595161504581794</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I7" si="3">E3+G3</f>
-        <v>0.21606638564511613</v>
+        <v>0.21738171828751537</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C4">
         <f>CLM!C4+ZEN!C4 + THUNDER!C4</f>
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <f>CLM!D4+ZEN!D4 + THUNDER!D4</f>
@@ -1103,23 +1103,23 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10869565217391304</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="F4" s="2">
         <f>(CLM!F4 * CLM!C4 + ZEN!F4 * ZEN!C4 + THUNDER!F4 * THUNDER!C4) / (CLM!C4 +  ZEN!C4 + THUNDER!C4)</f>
-        <v>2.3547826086956518</v>
+        <v>2.441698113207547</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>4.5892337944462062E-2</v>
+        <v>4.015057936595709E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>6.2803314229450985E-2</v>
+        <v>5.4189043275552351E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>0.1545879901183751</v>
+        <v>0.13449020200746653</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="C5">
         <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
@@ -1141,23 +1141,23 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>8.1632653061224483E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="F5" s="2">
         <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
-        <v>1.743265306122449</v>
+        <v>1.7835185185185185</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>3.9114891734690196E-2</v>
+        <v>3.5638905505532455E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>4.2517761326534287E-2</v>
+        <v>3.8435168568541615E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.12074754479591468</v>
+        <v>0.10971297957960652</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1171,31 +1171,31 @@
       </c>
       <c r="C6">
         <f>CLM!C6+ZEN!C6 + THUNDER!C6</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <f>CLM!D6+ZEN!D6 + THUNDER!D6</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.34</v>
+        <v>0.34545454545454546</v>
       </c>
       <c r="F6" s="2">
         <f>(CLM!F6 * CLM!C6 + ZEN!F6 * ZEN!C6 + THUNDER!F6 * THUNDER!C6) / (CLM!C6 +  ZEN!C6 + THUNDER!C6)</f>
-        <v>1.4994000000000001</v>
+        <v>1.5181818181818181</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>6.69925368977769E-2</v>
+        <v>6.4118597852210038E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>0.27300746310222312</v>
+        <v>0.28133594760233543</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>0.40699253689777692</v>
+        <v>0.40957314330675548</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1209,57 +1209,57 @@
       </c>
       <c r="C7">
         <f>CLM!C7+ZEN!C7 + THUNDER!C7</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <f>CLM!D7+ZEN!D7 + THUNDER!D7</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>0.31481481481481483</v>
       </c>
       <c r="F7" s="2">
         <f>(CLM!F7 * CLM!C7 + ZEN!F7 * ZEN!C7 + THUNDER!F7 * THUNDER!C7) / (CLM!C7 +  ZEN!C7 + THUNDER!C7)</f>
-        <v>1.7202083333333331</v>
+        <v>1.7277777777777774</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>6.6902253013880877E-2</v>
+        <v>6.3202561948179706E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>0.24559774698611914</v>
+        <v>0.25161225286663513</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.37940225301388086</v>
+        <v>0.37801737676299452</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C10">
         <f>C6*2.5</f>
-        <v>125</v>
+        <v>137.5</v>
       </c>
       <c r="D10">
         <f>D6*2.5</f>
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ref="E10" si="4">D10/C10</f>
-        <v>0.34</v>
+        <v>0.34545454545454546</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ref="G10" si="5">SQRT(C10*E10*(1-E10))/C10</f>
-        <v>4.2369800565969153E-2</v>
+        <v>4.0552161917872802E-2</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ref="H10" si="6">E10-G10</f>
-        <v>0.29763019943403085</v>
+        <v>0.30490238353667265</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ref="I10" si="7">E10+G10</f>
-        <v>0.3823698005659692</v>
+        <v>0.38600670737241827</v>
       </c>
     </row>
   </sheetData>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FCD169-E22D-4ECF-9B33-D79CC5D5BE6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A64B321-3E0C-421A-B9E5-AA549A7F8D7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="2" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -434,9 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -488,16 +486,16 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>0.375</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F3">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -583,7 +581,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
@@ -633,7 +631,7 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -653,13 +651,13 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>9.5200000000000007E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="F3">
         <v>0.88</v>
@@ -673,13 +671,13 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>5.2600000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F4">
         <v>1.53</v>
@@ -693,16 +691,16 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>9.5200000000000007E-2</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="F5">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -713,16 +711,16 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.2727</v>
       </c>
       <c r="F6">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -748,11 +746,11 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -764,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -852,20 +850,20 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>9.5200000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F4">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="H4" s="2">
         <f>F4/CLM!F4</f>
-        <v>2.3137254901960782</v>
+        <v>2.3594771241830066</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -889,7 +887,7 @@
       </c>
       <c r="H5" s="2">
         <f>F5/CLM!F5</f>
-        <v>2.3689320388349513</v>
+        <v>2.3461538461538458</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -913,7 +911,7 @@
       </c>
       <c r="H6" s="2">
         <f>F6/CLM!F6</f>
-        <v>2.0612244897959182</v>
+        <v>2.0404040404040402</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -948,7 +946,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
@@ -956,11 +954,11 @@
       </c>
       <c r="H12" s="2">
         <f>SUMPRODUCT(C2:C7,H2:H7)/SUM(C2:C7)</f>
-        <v>2.2701565748295685</v>
+        <v>2.2716772445583318</v>
       </c>
       <c r="I12" s="3">
         <f>4/H12</f>
-        <v>1.761993002751495</v>
+        <v>1.7608135176692741</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1019,7 +1017,7 @@
       </c>
       <c r="C2">
         <f>CLM!C2+ZEN!C2 + THUNDER!C2</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <f>CLM!D2+ZEN!D2 + THUNDER!D2</f>
@@ -1027,23 +1025,23 @@
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.11864406779661017</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="F2" s="2">
         <f>(CLM!F2 * CLM!C2 + ZEN!F2 * ZEN!C2 + THUNDER!F2 * THUNDER!C2) / (CLM!C2 +  ZEN!C2 + THUNDER!C2)</f>
-        <v>1.6010169491525426</v>
+        <v>1.5898333333333334</v>
       </c>
       <c r="G2" s="1">
         <f>SQRT(C2*E2*(1-E2))/C2</f>
-        <v>4.2099086703182687E-2</v>
+        <v>4.1443848670129478E-2</v>
       </c>
       <c r="H2" s="1">
         <f>E2-G2</f>
-        <v>7.6544981093427486E-2</v>
+        <v>7.5222817996537183E-2</v>
       </c>
       <c r="I2" s="1">
         <f>E2+G2</f>
-        <v>0.16074315449979287</v>
+        <v>0.15811051533679615</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1057,7 +1055,7 @@
       </c>
       <c r="C3">
         <f>CLM!C3+ZEN!C3 + THUNDER!C3</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <f>CLM!D3+ZEN!D3 + THUNDER!D3</f>
@@ -1065,23 +1063,23 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E7" si="0">D3/C3</f>
-        <v>0.16666666666666666</v>
+        <v>0.16071428571428573</v>
       </c>
       <c r="F3" s="2">
         <f>(CLM!F3 * CLM!C3 + ZEN!F3 * ZEN!C3 + THUNDER!F3 * THUNDER!C3) / (CLM!C3 +  ZEN!C3 + THUNDER!C3)</f>
-        <v>1.5285185185185184</v>
+        <v>1.5180357142857142</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G7" si="1">SQRT(C3*E3*(1-E3))/C3</f>
-        <v>5.0715051620848717E-2</v>
+        <v>4.9078145427477016E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H7" si="2">E3-G3</f>
-        <v>0.11595161504581794</v>
+        <v>0.11163614028680871</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I7" si="3">E3+G3</f>
-        <v>0.21738171828751537</v>
+        <v>0.20979243114176274</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1095,31 +1093,31 @@
       </c>
       <c r="C4">
         <f>CLM!C4+ZEN!C4 + THUNDER!C4</f>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D4">
         <f>CLM!D4+ZEN!D4 + THUNDER!D4</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>9.4339622641509441E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="F4" s="2">
         <f>(CLM!F4 * CLM!C4 + ZEN!F4 * ZEN!C4 + THUNDER!F4 * THUNDER!C4) / (CLM!C4 +  ZEN!C4 + THUNDER!C4)</f>
-        <v>2.441698113207547</v>
+        <v>2.5318965517241376</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>4.015057936595709E-2</v>
+        <v>3.9988517766469049E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>5.4189043275552351E-2</v>
+        <v>6.3459758095599922E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>0.13449020200746653</v>
+        <v>0.14343679362853801</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1133,7 +1131,7 @@
       </c>
       <c r="C5">
         <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
@@ -1141,23 +1139,23 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>7.407407407407407E-2</v>
+        <v>7.2727272727272724E-2</v>
       </c>
       <c r="F5" s="2">
         <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
-        <v>1.7835185185185185</v>
+        <v>1.773818181818182</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>3.5638905505532455E-2</v>
+        <v>3.5016364104106738E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>3.8435168568541615E-2</v>
+        <v>3.7710908623165985E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.10971297957960652</v>
+        <v>0.10774363683137947</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1171,7 +1169,7 @@
       </c>
       <c r="C6">
         <f>CLM!C6+ZEN!C6 + THUNDER!C6</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <f>CLM!D6+ZEN!D6 + THUNDER!D6</f>
@@ -1179,23 +1177,23 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.34545454545454546</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="F6" s="2">
         <f>(CLM!F6 * CLM!C6 + ZEN!F6 * ZEN!C6 + THUNDER!F6 * THUNDER!C6) / (CLM!C6 +  ZEN!C6 + THUNDER!C6)</f>
-        <v>1.5181818181818181</v>
+        <v>1.5125</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>6.4118597852210038E-2</v>
+        <v>6.3269677679775038E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>0.28133594760233543</v>
+        <v>0.27601603660593926</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>0.40957314330675548</v>
+        <v>0.40255539196548934</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1239,7 +1237,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C10">
         <f>C6*2.5</f>
-        <v>137.5</v>
+        <v>140</v>
       </c>
       <c r="D10">
         <f>D6*2.5</f>
@@ -1247,19 +1245,19 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" ref="E10" si="4">D10/C10</f>
-        <v>0.34545454545454546</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ref="G10" si="5">SQRT(C10*E10*(1-E10))/C10</f>
-        <v>4.0552161917872802E-2</v>
+        <v>4.0015257658561308E-2</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ref="H10" si="6">E10-G10</f>
-        <v>0.30490238353667265</v>
+        <v>0.29927045662715301</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ref="I10" si="7">E10+G10</f>
-        <v>0.38600670737241827</v>
+        <v>0.37930097194427559</v>
       </c>
     </row>
   </sheetData>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A64B321-3E0C-421A-B9E5-AA549A7F8D7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4353E7E-ABEC-4438-9420-1F3CE87193B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="2" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -434,7 +434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -466,16 +468,16 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0.15379999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="F2">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -486,16 +488,16 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>0.33329999999999999</v>
       </c>
       <c r="F3">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -506,16 +508,16 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.15379999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -526,16 +528,16 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="F5">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -546,16 +548,16 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
         <v>0.33329999999999999</v>
       </c>
       <c r="F6">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -566,26 +568,26 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>0.25</v>
+        <v>0.2727</v>
       </c>
       <c r="F7">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +600,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -631,13 +633,13 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F2">
         <v>0.93</v>
@@ -651,13 +653,13 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>9.0899999999999995E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F3">
         <v>0.88</v>
@@ -671,16 +673,16 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F4">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -691,13 +693,13 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>9.0899999999999995E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F5">
         <v>1.04</v>
@@ -711,13 +713,13 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>0.2727</v>
+        <v>0.24</v>
       </c>
       <c r="F6">
         <v>0.99</v>
@@ -731,13 +733,13 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F7">
         <v>1.08</v>
@@ -746,11 +748,11 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -863,7 +865,7 @@
       </c>
       <c r="H4" s="2">
         <f>F4/CLM!F4</f>
-        <v>2.3594771241830066</v>
+        <v>2.4066666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -954,11 +956,11 @@
       </c>
       <c r="H12" s="2">
         <f>SUMPRODUCT(C2:C7,H2:H7)/SUM(C2:C7)</f>
-        <v>2.2716772445583318</v>
+        <v>2.2795421683056087</v>
       </c>
       <c r="I12" s="3">
         <f>4/H12</f>
-        <v>1.7608135176692741</v>
+        <v>1.7547383222891697</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1017,31 +1019,31 @@
       </c>
       <c r="C2">
         <f>CLM!C2+ZEN!C2 + THUNDER!C2</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <f>CLM!D2+ZEN!D2 + THUNDER!D2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.11666666666666667</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="F2" s="2">
         <f>(CLM!F2 * CLM!C2 + ZEN!F2 * ZEN!C2 + THUNDER!F2 * THUNDER!C2) / (CLM!C2 +  ZEN!C2 + THUNDER!C2)</f>
-        <v>1.5898333333333334</v>
+        <v>1.5874242424242424</v>
       </c>
       <c r="G2" s="1">
         <f>SQRT(C2*E2*(1-E2))/C2</f>
-        <v>4.1443848670129478E-2</v>
+        <v>4.0173816077552542E-2</v>
       </c>
       <c r="H2" s="1">
         <f>E2-G2</f>
-        <v>7.5222817996537183E-2</v>
+        <v>8.1038305134568667E-2</v>
       </c>
       <c r="I2" s="1">
         <f>E2+G2</f>
-        <v>0.15811051533679615</v>
+        <v>0.16138593728967376</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1055,31 +1057,31 @@
       </c>
       <c r="C3">
         <f>CLM!C3+ZEN!C3 + THUNDER!C3</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <f>CLM!D3+ZEN!D3 + THUNDER!D3</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E7" si="0">D3/C3</f>
-        <v>0.16071428571428573</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="F3" s="2">
         <f>(CLM!F3 * CLM!C3 + ZEN!F3 * ZEN!C3 + THUNDER!F3 * THUNDER!C3) / (CLM!C3 +  ZEN!C3 + THUNDER!C3)</f>
-        <v>1.5180357142857142</v>
+        <v>1.4848387096774194</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G7" si="1">SQRT(C3*E3*(1-E3))/C3</f>
-        <v>4.9078145427477016E-2</v>
+        <v>4.671045928712475E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H7" si="2">E3-G3</f>
-        <v>0.11163614028680871</v>
+        <v>0.11457986329352041</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I7" si="3">E3+G3</f>
-        <v>0.20979243114176274</v>
+        <v>0.20800078186776991</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1093,7 +1095,7 @@
       </c>
       <c r="C4">
         <f>CLM!C4+ZEN!C4 + THUNDER!C4</f>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <f>CLM!D4+ZEN!D4 + THUNDER!D4</f>
@@ -1101,23 +1103,23 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.10344827586206896</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F4" s="2">
         <f>(CLM!F4 * CLM!C4 + ZEN!F4 * ZEN!C4 + THUNDER!F4 * THUNDER!C4) / (CLM!C4 +  ZEN!C4 + THUNDER!C4)</f>
-        <v>2.5318965517241376</v>
+        <v>2.4374242424242425</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>3.9988517766469049E-2</v>
+        <v>3.538631564370559E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>6.3459758095599922E-2</v>
+        <v>5.5522775265385321E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>0.14343679362853801</v>
+        <v>0.1262954065527965</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1131,31 +1133,31 @@
       </c>
       <c r="C5">
         <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>7.2727272727272724E-2</v>
+        <v>8.1967213114754092E-2</v>
       </c>
       <c r="F5" s="2">
         <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
-        <v>1.773818181818182</v>
+        <v>1.752622950819672</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>3.5016364104106738E-2</v>
+        <v>3.5122406348195731E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>3.7710908623165985E-2</v>
+        <v>4.6844806766558361E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.10774363683137947</v>
+        <v>0.11708961946294982</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1169,31 +1171,31 @@
       </c>
       <c r="C6">
         <f>CLM!C6+ZEN!C6 + THUNDER!C6</f>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <f>CLM!D6+ZEN!D6 + THUNDER!D6</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.3392857142857143</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="F6" s="2">
         <f>(CLM!F6 * CLM!C6 + ZEN!F6 * ZEN!C6 + THUNDER!F6 * THUNDER!C6) / (CLM!C6 +  ZEN!C6 + THUNDER!C6)</f>
-        <v>1.5125</v>
+        <v>1.4827419354838711</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>6.3269677679775038E-2</v>
+        <v>5.9367957650763428E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>0.27601603660593926</v>
+        <v>0.2632126875105269</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>0.40255539196548934</v>
+        <v>0.38194860281205373</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1207,57 +1209,57 @@
       </c>
       <c r="C7">
         <f>CLM!C7+ZEN!C7 + THUNDER!C7</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <f>CLM!D7+ZEN!D7 + THUNDER!D7</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.31481481481481483</v>
+        <v>0.34426229508196721</v>
       </c>
       <c r="F7" s="2">
         <f>(CLM!F7 * CLM!C7 + ZEN!F7 * ZEN!C7 + THUNDER!F7 * THUNDER!C7) / (CLM!C7 +  ZEN!C7 + THUNDER!C7)</f>
-        <v>1.7277777777777774</v>
+        <v>1.711639344262295</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>6.3202561948179706E-2</v>
+        <v>6.083379227915469E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>0.25161225286663513</v>
+        <v>0.28342850280281251</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.37801737676299452</v>
+        <v>0.4050960873611219</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C10">
         <f>C6*2.5</f>
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="D10">
         <f>D6*2.5</f>
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ref="E10" si="4">D10/C10</f>
-        <v>0.3392857142857143</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" ref="G10" si="5">SQRT(C10*E10*(1-E10))/C10</f>
-        <v>4.0015257658561308E-2</v>
+        <v>3.7547593241766319E-2</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ref="H10" si="6">E10-G10</f>
-        <v>0.29927045662715301</v>
+        <v>0.28503305191952399</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ref="I10" si="7">E10+G10</f>
-        <v>0.37930097194427559</v>
+        <v>0.36012823840305663</v>
       </c>
     </row>
   </sheetData>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4353E7E-ABEC-4438-9420-1F3CE87193B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F24E5D-D745-43ED-96C4-36A56E39643F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -468,16 +468,16 @@
         <v>7000</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0.125</v>
+        <v>0.1176</v>
       </c>
       <c r="F2">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -488,16 +488,16 @@
         <v>7001</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="F3">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -508,16 +508,16 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>0.125</v>
+        <v>0.17649999999999999</v>
       </c>
       <c r="F4">
-        <v>2.0699999999999998</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -528,13 +528,13 @@
         <v>8001</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>9.0899999999999995E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F5">
         <v>1.81</v>
@@ -548,16 +548,16 @@
         <v>8002</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="F6">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -568,26 +568,26 @@
         <v>8003</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>0.2727</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F7">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <f>SUM(C2:C7)</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D7)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -973,9 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -1019,7 +1017,7 @@
       </c>
       <c r="C2">
         <f>CLM!C2+ZEN!C2 + THUNDER!C2</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <f>CLM!D2+ZEN!D2 + THUNDER!D2</f>
@@ -1027,23 +1025,23 @@
       </c>
       <c r="E2" s="1">
         <f>D2/C2</f>
-        <v>0.12121212121212122</v>
+        <v>0.11940298507462686</v>
       </c>
       <c r="F2" s="2">
         <f>(CLM!F2 * CLM!C2 + ZEN!F2 * ZEN!C2 + THUNDER!F2 * THUNDER!C2) / (CLM!C2 +  ZEN!C2 + THUNDER!C2)</f>
-        <v>1.5874242424242424</v>
+        <v>1.5919402985074627</v>
       </c>
       <c r="G2" s="1">
         <f>SQRT(C2*E2*(1-E2))/C2</f>
-        <v>4.0173816077552542E-2</v>
+        <v>3.961492109774456E-2</v>
       </c>
       <c r="H2" s="1">
         <f>E2-G2</f>
-        <v>8.1038305134568667E-2</v>
+        <v>7.9788063976882304E-2</v>
       </c>
       <c r="I2" s="1">
         <f>E2+G2</f>
-        <v>0.16138593728967376</v>
+        <v>0.15901790617237144</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1057,7 +1055,7 @@
       </c>
       <c r="C3">
         <f>CLM!C3+ZEN!C3 + THUNDER!C3</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <f>CLM!D3+ZEN!D3 + THUNDER!D3</f>
@@ -1065,23 +1063,23 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E7" si="0">D3/C3</f>
-        <v>0.16129032258064516</v>
+        <v>0.15873015873015872</v>
       </c>
       <c r="F3" s="2">
         <f>(CLM!F3 * CLM!C3 + ZEN!F3 * ZEN!C3 + THUNDER!F3 * THUNDER!C3) / (CLM!C3 +  ZEN!C3 + THUNDER!C3)</f>
-        <v>1.4848387096774194</v>
+        <v>1.485238095238095</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G7" si="1">SQRT(C3*E3*(1-E3))/C3</f>
-        <v>4.671045928712475E-2</v>
+        <v>4.6039130258022865E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H7" si="2">E3-G3</f>
-        <v>0.11457986329352041</v>
+        <v>0.11269102847213586</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I7" si="3">E3+G3</f>
-        <v>0.20800078186776991</v>
+        <v>0.20476928898818159</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1095,31 +1093,31 @@
       </c>
       <c r="C4">
         <f>CLM!C4+ZEN!C4 + THUNDER!C4</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <f>CLM!D4+ZEN!D4 + THUNDER!D4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="F4" s="2">
         <f>(CLM!F4 * CLM!C4 + ZEN!F4 * ZEN!C4 + THUNDER!F4 * THUNDER!C4) / (CLM!C4 +  ZEN!C4 + THUNDER!C4)</f>
-        <v>2.4374242424242425</v>
+        <v>2.4344776119402987</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>3.538631564370559E-2</v>
+        <v>3.7369083027573149E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>5.5522775265385321E-2</v>
+        <v>6.7108528912725354E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>0.1262954065527965</v>
+        <v>0.14184669496787167</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1133,7 +1131,7 @@
       </c>
       <c r="C5">
         <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
@@ -1141,23 +1139,23 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>8.1967213114754092E-2</v>
+        <v>8.0645161290322578E-2</v>
       </c>
       <c r="F5" s="2">
         <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
-        <v>1.752622950819672</v>
+        <v>1.7535483870967741</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>3.5122406348195731E-2</v>
+        <v>3.4580788823532486E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>4.6844806766558361E-2</v>
+        <v>4.6064372466790092E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.11708961946294982</v>
+        <v>0.11522595011385506</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1171,7 +1169,7 @@
       </c>
       <c r="C6">
         <f>CLM!C6+ZEN!C6 + THUNDER!C6</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6">
         <f>CLM!D6+ZEN!D6 + THUNDER!D6</f>
@@ -1179,23 +1177,23 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.32258064516129031</v>
+        <v>0.31746031746031744</v>
       </c>
       <c r="F6" s="2">
         <f>(CLM!F6 * CLM!C6 + ZEN!F6 * ZEN!C6 + THUNDER!F6 * THUNDER!C6) / (CLM!C6 +  ZEN!C6 + THUNDER!C6)</f>
-        <v>1.4827419354838711</v>
+        <v>1.4853968253968253</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>5.9367957650763428E-2</v>
+        <v>5.8646000729465832E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>0.2632126875105269</v>
+        <v>0.25881431673085159</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>0.38194860281205373</v>
+        <v>0.3761063181897833</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1209,58 +1207,38 @@
       </c>
       <c r="C7">
         <f>CLM!C7+ZEN!C7 + THUNDER!C7</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <f>CLM!D7+ZEN!D7 + THUNDER!D7</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.34426229508196721</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="F7" s="2">
         <f>(CLM!F7 * CLM!C7 + ZEN!F7 * ZEN!C7 + THUNDER!F7 * THUNDER!C7) / (CLM!C7 +  ZEN!C7 + THUNDER!C7)</f>
-        <v>1.711639344262295</v>
+        <v>1.7151612903225808</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>6.083379227915469E-2</v>
+        <v>6.0765041917404512E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>0.28342850280281251</v>
+        <v>0.29407366776001487</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.4050960873611219</v>
+        <v>0.41560375159482388</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10">
-        <f>C6*2.5</f>
-        <v>155</v>
-      </c>
-      <c r="D10">
-        <f>D6*2.5</f>
-        <v>50</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" ref="E10" si="4">D10/C10</f>
-        <v>0.32258064516129031</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" ref="G10" si="5">SQRT(C10*E10*(1-E10))/C10</f>
-        <v>3.7547593241766319E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" ref="H10" si="6">E10-G10</f>
-        <v>0.28503305191952399</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" ref="I10" si="7">E10+G10</f>
-        <v>0.36012823840305663</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F24E5D-D745-43ED-96C4-36A56E39643F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B37CF32-9C9E-41F0-967A-6ED2079C1B41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="1" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -597,10 +597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1F6DF5-0B9D-48B1-96CA-E450A31D5D35}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -670,19 +670,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>8000</v>
+        <v>7002</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -690,19 +690,19 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>8001</v>
+        <v>7003</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.04</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -710,19 +710,19 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>8002</v>
+        <v>8000</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="F6">
-        <v>0.99</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -730,29 +730,279 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>8003</v>
+        <v>8001</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F7">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>8002</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0.24</v>
+      </c>
+      <c r="F8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>8003</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E9">
         <v>0.4</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>1.08</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>9000</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>9001</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.61</v>
+      </c>
+    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>9002</v>
+      </c>
       <c r="C12">
-        <f>SUM(C2:C7)</f>
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <f>SUM(D2:D7)</f>
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>9003</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>9004</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>9005</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>9006</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>9007</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>9008</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>10001</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.67</v>
       </c>
     </row>
   </sheetData>
@@ -762,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -773,7 +1023,7 @@
     <col min="8" max="8" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -796,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>20</v>
       </c>
@@ -819,8 +1069,15 @@
         <f>F2/CLM!F2</f>
         <v>2.3225806451612905</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2">
+        <f>SUMPRODUCT(C2:C7,H2:H7)/SUM(C2:C7)</f>
+        <v>2.890460447557222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>20</v>
       </c>
@@ -843,8 +1100,12 @@
         <f>F3/CLM!F3</f>
         <v>2.4318181818181821</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" s="3">
+        <f>4/K2</f>
+        <v>1.3838625618906044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
@@ -865,10 +1126,10 @@
       </c>
       <c r="H4" s="2">
         <f>F4/CLM!F4</f>
-        <v>2.4066666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>5.1571428571428575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
@@ -889,10 +1150,10 @@
       </c>
       <c r="H5" s="2">
         <f>F5/CLM!F5</f>
-        <v>2.3461538461538458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>3.873015873015873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
@@ -913,10 +1174,10 @@
       </c>
       <c r="H6" s="2">
         <f>F6/CLM!F6</f>
-        <v>2.0404040404040402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>1.3466666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
@@ -937,30 +1198,7 @@
       </c>
       <c r="H7" s="2">
         <f>F7/CLM!F7</f>
-        <v>2.1296296296296293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12">
-        <f>SUM(C2:C7)</f>
-        <v>150</v>
-      </c>
-      <c r="D12">
-        <f>SUM(D2:D7)</f>
-        <v>31</v>
-      </c>
-      <c r="H12" s="2">
-        <f>SUMPRODUCT(C2:C7,H2:H7)/SUM(C2:C7)</f>
-        <v>2.2795421683056087</v>
-      </c>
-      <c r="I12" s="3">
-        <f>4/H12</f>
-        <v>1.7547383222891697</v>
+        <v>2.2115384615384612</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -1089,35 +1327,35 @@
       </c>
       <c r="B4">
         <f>+CLM!B4</f>
-        <v>8000</v>
+        <v>7002</v>
       </c>
       <c r="C4">
         <f>CLM!C4+ZEN!C4 + THUNDER!C4</f>
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <f>CLM!D4+ZEN!D4 + THUNDER!D4</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.1044776119402985</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="F4" s="2">
         <f>(CLM!F4 * CLM!C4 + ZEN!F4 * ZEN!C4 + THUNDER!F4 * THUNDER!C4) / (CLM!C4 +  ZEN!C4 + THUNDER!C4)</f>
-        <v>2.4344776119402987</v>
+        <v>2.8865909090909088</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>3.7369083027573149E-2</v>
+        <v>4.7845190813675248E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>6.7108528912725354E-2</v>
+        <v>6.5791172822688385E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>0.14184669496787167</v>
+        <v>0.16148155445003887</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1127,35 +1365,35 @@
       </c>
       <c r="B5">
         <f>+CLM!B5</f>
-        <v>8001</v>
+        <v>7003</v>
       </c>
       <c r="C5">
         <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>8.0645161290322578E-2</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="F5" s="2">
         <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
-        <v>1.7535483870967741</v>
+        <v>2.1934210526315789</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>3.4580788823532486E-2</v>
+        <v>4.3744076723971625E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>4.6064372466790092E-2</v>
+        <v>3.5203291697081002E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.11522595011385506</v>
+        <v>0.12269144514502425</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1165,7 +1403,7 @@
       </c>
       <c r="B6">
         <f>+CLM!B6</f>
-        <v>8002</v>
+        <v>8000</v>
       </c>
       <c r="C6">
         <f>CLM!C6+ZEN!C6 + THUNDER!C6</f>
@@ -1173,27 +1411,27 @@
       </c>
       <c r="D6">
         <f>CLM!D6+ZEN!D6 + THUNDER!D6</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.31746031746031744</v>
+        <v>0.25396825396825395</v>
       </c>
       <c r="F6" s="2">
         <f>(CLM!F6 * CLM!C6 + ZEN!F6 * ZEN!C6 + THUNDER!F6 * THUNDER!C6) / (CLM!C6 +  ZEN!C6 + THUNDER!C6)</f>
-        <v>1.4853968253968253</v>
+        <v>1.6877777777777778</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>5.8646000729465832E-2</v>
+        <v>5.484008207775376E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
-        <v>0.25881431673085159</v>
+        <v>0.19912817189050019</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="3"/>
-        <v>0.3761063181897833</v>
+        <v>0.30880833604600771</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1203,7 +1441,7 @@
       </c>
       <c r="B7">
         <f>+CLM!B7</f>
-        <v>8003</v>
+        <v>8001</v>
       </c>
       <c r="C7">
         <f>CLM!C7+ZEN!C7 + THUNDER!C7</f>
@@ -1211,27 +1449,27 @@
       </c>
       <c r="D7">
         <f>CLM!D7+ZEN!D7 + THUNDER!D7</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.35483870967741937</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="F7" s="2">
         <f>(CLM!F7 * CLM!C7 + ZEN!F7 * ZEN!C7 + THUNDER!F7 * THUNDER!C7) / (CLM!C7 +  ZEN!C7 + THUNDER!C7)</f>
-        <v>1.7151612903225808</v>
+        <v>1.6990322580645161</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>6.0765041917404512E-2</v>
+        <v>5.3100315596974292E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="2"/>
-        <v>0.29407366776001487</v>
+        <v>0.17270613601592893</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="3"/>
-        <v>0.41560375159482388</v>
+        <v>0.2789067672098775</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B37CF32-9C9E-41F0-967A-6ED2079C1B41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CAE393-615D-4E41-AE9D-A5E43E3E75A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="1" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -758,7 +758,7 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.24</v>
       </c>
       <c r="F8">
@@ -778,7 +778,7 @@
       <c r="D9">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.4</v>
       </c>
       <c r="F9">
@@ -798,7 +798,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.5</v>
       </c>
       <c r="F10">
@@ -818,7 +818,7 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
       <c r="F11">
@@ -838,7 +838,7 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
       <c r="F12">
@@ -858,7 +858,7 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
       <c r="F13">
@@ -878,7 +878,7 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
       <c r="F14">
@@ -898,7 +898,7 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
       <c r="F15">
@@ -918,7 +918,7 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16">
@@ -938,7 +938,7 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0</v>
       </c>
       <c r="F17">
@@ -958,7 +958,7 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18">
@@ -973,16 +973,16 @@
         <v>10000</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.5</v>
       </c>
       <c r="F19">
-        <v>0.64</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -998,7 +998,7 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0</v>
       </c>
       <c r="F20">

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CAE393-615D-4E41-AE9D-A5E43E3E75A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F259BECF-5C8F-4BBB-BF71-18EF12EC4716}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="1" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -87,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -113,11 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +444,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -600,7 +609,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -626,162 +635,162 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="4">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4">
         <v>7000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>0.04</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="4">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
         <v>7001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>0.08</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>0.88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
         <v>7002</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7003</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
+        <v>8000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>7003</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>8000</v>
-      </c>
-      <c r="C6">
+      <c r="E6" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8001</v>
+      </c>
+      <c r="C7" s="4">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="5">
         <v>0.08</v>
       </c>
-      <c r="F6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>8001</v>
-      </c>
-      <c r="C7">
+      <c r="F7" s="6">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8002</v>
+      </c>
+      <c r="C8" s="4">
         <v>25</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="F7">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>8002</v>
-      </c>
-      <c r="C8">
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8003</v>
+      </c>
+      <c r="C9" s="4">
         <v>25</v>
       </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F8">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>8003</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="5">
         <v>0.4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>1.08</v>
       </c>
     </row>
@@ -793,16 +802,16 @@
         <v>9000</v>
       </c>
       <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
         <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>0.5</v>
       </c>
-      <c r="F10">
-        <v>0.7</v>
+      <c r="F10" s="2">
+        <v>0.69</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -813,7 +822,7 @@
         <v>9001</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -821,8 +830,8 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>0.61</v>
+      <c r="F11" s="2">
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -833,16 +842,16 @@
         <v>9002</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.69</v>
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.72</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -853,7 +862,7 @@
         <v>9003</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -861,8 +870,8 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>0.69</v>
+      <c r="F13" s="2">
+        <v>1.08</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -873,7 +882,7 @@
         <v>9004</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -881,8 +890,8 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>0.51</v>
+      <c r="F14" s="2">
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -893,16 +902,16 @@
         <v>9005</v>
       </c>
       <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.7</v>
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -913,16 +922,16 @@
         <v>9006</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.57999999999999996</v>
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.08</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -933,16 +942,16 @@
         <v>9007</v>
       </c>
       <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0.67</v>
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.08</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -953,16 +962,16 @@
         <v>9008</v>
       </c>
       <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="2">
         <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -973,16 +982,16 @@
         <v>10000</v>
       </c>
       <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
         <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>0.5</v>
       </c>
-      <c r="F19">
-        <v>0.9</v>
+      <c r="F19" s="2">
+        <v>0.82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -993,7 +1002,7 @@
         <v>10001</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1001,8 +1010,8 @@
       <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>0.67</v>
+      <c r="F20" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1012,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1062,7 +1071,7 @@
       <c r="E2" s="1">
         <v>0.2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>2.16</v>
       </c>
       <c r="H2" s="2">
@@ -1074,7 +1083,7 @@
       </c>
       <c r="K2" s="2">
         <f>SUMPRODUCT(C2:C7,H2:H7)/SUM(C2:C7)</f>
-        <v>2.890460447557222</v>
+        <v>2.5907791103758848</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1093,7 +1102,7 @@
       <c r="E3" s="1">
         <v>0.16</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>2.14</v>
       </c>
       <c r="H3" s="2">
@@ -1102,7 +1111,7 @@
       </c>
       <c r="K3" s="3">
         <f>4/K2</f>
-        <v>1.3838625618906044</v>
+        <v>1.5439371052438575</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1121,12 +1130,12 @@
       <c r="E4" s="1">
         <v>0.08</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>3.61</v>
       </c>
       <c r="H4" s="2">
         <f>F4/CLM!F4</f>
-        <v>5.1571428571428575</v>
+        <v>5.0138888888888893</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1145,12 +1154,12 @@
       <c r="E5" s="1">
         <v>0.08</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>2.44</v>
       </c>
       <c r="H5" s="2">
         <f>F5/CLM!F5</f>
-        <v>3.873015873015873</v>
+        <v>2.2181818181818178</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1169,7 +1178,7 @@
       <c r="E6" s="1">
         <v>0.4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>2.02</v>
       </c>
       <c r="H6" s="2">
@@ -1193,13 +1202,37 @@
       <c r="E7" s="1">
         <v>0.32</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="H7" s="2">
         <f>F7/CLM!F7</f>
         <v>2.2115384615384612</v>
       </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1331,7 +1364,7 @@
       </c>
       <c r="C4">
         <f>CLM!C4+ZEN!C4 + THUNDER!C4</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <f>CLM!D4+ZEN!D4 + THUNDER!D4</f>
@@ -1339,23 +1372,23 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.11363636363636363</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="F4" s="2">
         <f>(CLM!F4 * CLM!C4 + ZEN!F4 * ZEN!C4 + THUNDER!F4 * THUNDER!C4) / (CLM!C4 +  ZEN!C4 + THUNDER!C4)</f>
-        <v>2.8865909090909088</v>
+        <v>2.7932608695652177</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>4.7845190813675248E-2</v>
+        <v>4.5892337944462062E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="2"/>
-        <v>6.5791172822688385E-2</v>
+        <v>6.2803314229450985E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>0.16148155445003887</v>
+        <v>0.1545879901183751</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1369,7 +1402,7 @@
       </c>
       <c r="C5">
         <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
@@ -1377,23 +1410,23 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>7.8947368421052627E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F5" s="2">
         <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
-        <v>2.1934210526315789</v>
+        <v>2.1505000000000001</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>4.3744076723971625E-2</v>
+        <v>4.1645828122394209E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>3.5203291697081002E-2</v>
+        <v>3.3354171877605789E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.12269144514502425</v>
+        <v>0.11664582812239421</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F259BECF-5C8F-4BBB-BF71-18EF12EC4716}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3291FA44-92B6-449C-8B4E-BBAD89BF6A13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="1" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -87,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +106,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -115,11 +121,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -127,6 +213,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,10 +717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1F6DF5-0B9D-48B1-96CA-E450A31D5D35}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -702,7 +813,7 @@
         <v>7003</v>
       </c>
       <c r="C5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
@@ -711,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -774,7 +885,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="4">
         <v>20</v>
       </c>
@@ -795,224 +906,232 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>20</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="7">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
         <v>9000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="9">
         <v>0.5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="10">
         <v>0.69</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="11">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12">
         <v>9001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="12">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="13">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="14">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>20</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="15">
+        <v>20</v>
+      </c>
+      <c r="B12" s="16">
         <v>9002</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="16">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="16">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="17">
         <v>0.25</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="18">
         <v>0.72</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="19">
+        <v>20</v>
+      </c>
+      <c r="B13" s="20">
         <v>9003</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="20">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="20">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="21">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="22">
         <v>1.08</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="23">
+        <v>20</v>
+      </c>
+      <c r="B14" s="24">
         <v>9004</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="24">
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="24">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="25">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="26">
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="27">
+        <v>20</v>
+      </c>
+      <c r="B15" s="28">
         <v>9005</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="28">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="28">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="29">
         <v>0.25</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="30">
         <v>0.88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="7">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
         <v>9006</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="8">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="9">
         <v>0.66669999999999996</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="10">
         <v>1.08</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>20</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="11">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12">
         <v>9007</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="12">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="13">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="14">
         <v>1.08</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="15">
+        <v>20</v>
+      </c>
+      <c r="B18" s="16">
         <v>9008</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="16">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="16">
         <v>3</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="17">
         <v>0.75</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="19">
+        <v>20</v>
+      </c>
+      <c r="B19" s="20">
         <v>10000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="20">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="20">
         <v>2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="21">
         <v>0.5</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="22">
         <v>0.82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="23">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24">
         <v>10001</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="24">
         <v>4</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="24">
         <v>0</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="25">
         <v>0</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="26">
         <v>1</v>
       </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1083,7 +1202,7 @@
       </c>
       <c r="K2" s="2">
         <f>SUMPRODUCT(C2:C7,H2:H7)/SUM(C2:C7)</f>
-        <v>2.5907791103758848</v>
+        <v>2.6083837279805024</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1111,7 +1230,7 @@
       </c>
       <c r="K3" s="3">
         <f>4/K2</f>
-        <v>1.5439371052438575</v>
+        <v>1.5335166973675813</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1159,7 +1278,7 @@
       </c>
       <c r="H5" s="2">
         <f>F5/CLM!F5</f>
-        <v>2.2181818181818178</v>
+        <v>2.3238095238095235</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1402,7 +1521,7 @@
       </c>
       <c r="C5">
         <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
@@ -1410,23 +1529,23 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>7.3170731707317069E-2</v>
       </c>
       <c r="F5" s="2">
         <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
-        <v>2.1505000000000001</v>
+        <v>2.12</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>4.1645828122394209E-2</v>
+        <v>4.0670231136554935E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="2"/>
-        <v>3.3354171877605789E-2</v>
+        <v>3.2500500570762134E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="3"/>
-        <v>0.11664582812239421</v>
+        <v>0.113840962843872</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3291FA44-92B6-449C-8B4E-BBAD89BF6A13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9209D3-8A81-4B18-88A3-9E2761578CE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="1" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -113,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -201,11 +201,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -237,7 +274,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -700,14 +759,164 @@
         <v>1.82</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>9000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>9002</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>9004</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>9006</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.54</v>
+      </c>
+    </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>9007</v>
+      </c>
       <c r="C12">
-        <f>SUM(C2:C7)</f>
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <f>SUM(D2:D7)</f>
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>9008</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>10001</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -719,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1F6DF5-0B9D-48B1-96CA-E450A31D5D35}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -896,10 +1105,10 @@
         <v>25</v>
       </c>
       <c r="D9" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="5">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="F9" s="6">
         <v>1.08</v>
@@ -916,10 +1125,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F10" s="10">
         <v>0.69</v>
@@ -1036,10 +1245,10 @@
         <v>3</v>
       </c>
       <c r="D16" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="9">
-        <v>0.66669999999999996</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10">
         <v>1.08</v>
@@ -1076,10 +1285,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="17">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F18" s="18">
         <v>1</v>
@@ -1126,12 +1335,24 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="31"/>
+      <c r="A21" s="27">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28">
+        <v>10002</v>
+      </c>
+      <c r="C21" s="28">
+        <v>0</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1143,7 +1364,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1216,10 +1437,10 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="F3" s="2">
         <v>2.14</v>
@@ -1292,10 +1513,10 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="F6" s="2">
         <v>2.02</v>
@@ -1316,10 +1537,10 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F7" s="2">
         <v>2.2999999999999998</v>
@@ -1361,274 +1582,709 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <f>+CLM!A2</f>
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <f>+CLM!B2</f>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="32">
+        <v>20</v>
+      </c>
+      <c r="B2" s="33">
         <v>7000</v>
       </c>
-      <c r="C2">
-        <f>CLM!C2+ZEN!C2 + THUNDER!C2</f>
+      <c r="C2" s="33">
+        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>67</v>
       </c>
-      <c r="D2">
-        <f>CLM!D2+ZEN!D2 + THUNDER!D2</f>
+      <c r="D2" s="33">
+        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
-      <c r="E2" s="1">
-        <f>D2/C2</f>
+      <c r="E2" s="34">
+        <f>IFERROR(D2/C2, 0)</f>
         <v>0.11940298507462686</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="35">
         <f>(CLM!F2 * CLM!C2 + ZEN!F2 * ZEN!C2 + THUNDER!F2 * THUNDER!C2) / (CLM!C2 +  ZEN!C2 + THUNDER!C2)</f>
         <v>1.5919402985074627</v>
       </c>
-      <c r="G2" s="1">
-        <f>SQRT(C2*E2*(1-E2))/C2</f>
+      <c r="G2" s="34">
+        <f>IFERROR(SQRT(C2*E2*(1-E2))/C2, 0)</f>
         <v>3.961492109774456E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="34">
         <f>E2-G2</f>
         <v>7.9788063976882304E-2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="36">
         <f>E2+G2</f>
         <v>0.15901790617237144</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <f>+CLM!A3</f>
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <f>+CLM!B3</f>
+      <c r="K2">
+        <f>VLOOKUP($B2, ZEN!$B$2:$D$101, 2,FALSE) + VLOOKUP($B2, CLM!$B$2:$D$101, 2,FALSE) + VLOOKUP($B2, THUNDER!$B$2:$D$101, 2,FALSE)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="37">
+        <v>20</v>
+      </c>
+      <c r="B3" s="38">
         <v>7001</v>
       </c>
-      <c r="C3">
-        <f>CLM!C3+ZEN!C3 + THUNDER!C3</f>
+      <c r="C3" s="38">
+        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>63</v>
       </c>
-      <c r="D3">
-        <f>CLM!D3+ZEN!D3 + THUNDER!D3</f>
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E7" si="0">D3/C3</f>
-        <v>0.15873015873015872</v>
-      </c>
-      <c r="F3" s="2">
-        <f>(CLM!F3 * CLM!C3 + ZEN!F3 * ZEN!C3 + THUNDER!F3 * THUNDER!C3) / (CLM!C3 +  ZEN!C3 + THUNDER!C3)</f>
-        <v>1.485238095238095</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G7" si="1">SQRT(C3*E3*(1-E3))/C3</f>
-        <v>4.6039130258022865E-2</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="D3" s="38">
+        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>9</v>
+      </c>
+      <c r="E3" s="39">
+        <f t="shared" ref="E3:E21" si="0">IFERROR(D3/C3, 0)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="39">
+        <f t="shared" ref="G3:G21" si="1">IFERROR(SQRT(C3*E3*(1-E3))/C3, 0)</f>
+        <v>4.4086671417740551E-2</v>
+      </c>
+      <c r="H3" s="39">
         <f t="shared" ref="H3:H7" si="2">E3-G3</f>
-        <v>0.11269102847213586</v>
-      </c>
-      <c r="I3" s="1">
+        <v>9.8770471439402291E-2</v>
+      </c>
+      <c r="I3" s="41">
         <f t="shared" ref="I3:I7" si="3">E3+G3</f>
-        <v>0.20476928898818159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <f>+CLM!A4</f>
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <f>+CLM!B4</f>
+        <v>0.18694381427488341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="37">
+        <v>20</v>
+      </c>
+      <c r="B4" s="38">
         <v>7002</v>
       </c>
-      <c r="C4">
-        <f>CLM!C4+ZEN!C4 + THUNDER!C4</f>
-        <v>46</v>
-      </c>
-      <c r="D4">
-        <f>CLM!D4+ZEN!D4 + THUNDER!D4</f>
+      <c r="C4" s="38">
+        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="D4" s="38">
+        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="37">
+        <v>20</v>
+      </c>
+      <c r="B5" s="38">
+        <v>7003</v>
+      </c>
+      <c r="C5" s="38">
+        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="38">
+        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="37">
+        <v>20</v>
+      </c>
+      <c r="B6" s="38">
+        <v>8000</v>
+      </c>
+      <c r="C6" s="38">
+        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>67</v>
+      </c>
+      <c r="D6" s="38">
+        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>7</v>
+      </c>
+      <c r="E6" s="39">
+        <f t="shared" si="0"/>
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="39">
+        <f t="shared" si="1"/>
+        <v>3.7369083027573149E-2</v>
+      </c>
+      <c r="H6" s="39">
+        <f t="shared" si="2"/>
+        <v>6.7108528912725354E-2</v>
+      </c>
+      <c r="I6" s="41">
+        <f t="shared" si="3"/>
+        <v>0.14184669496787167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="37">
+        <v>20</v>
+      </c>
+      <c r="B7" s="38">
+        <v>8001</v>
+      </c>
+      <c r="C7" s="38">
+        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>62</v>
+      </c>
+      <c r="D7" s="38">
+        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E7" s="39">
         <f t="shared" si="0"/>
-        <v>0.10869565217391304</v>
-      </c>
-      <c r="F4" s="2">
-        <f>(CLM!F4 * CLM!C4 + ZEN!F4 * ZEN!C4 + THUNDER!F4 * THUNDER!C4) / (CLM!C4 +  ZEN!C4 + THUNDER!C4)</f>
-        <v>2.7932608695652177</v>
-      </c>
-      <c r="G4" s="1">
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="39">
         <f t="shared" si="1"/>
-        <v>4.5892337944462062E-2</v>
-      </c>
-      <c r="H4" s="1">
+        <v>3.4580788823532486E-2</v>
+      </c>
+      <c r="H7" s="39">
         <f t="shared" si="2"/>
-        <v>6.2803314229450985E-2</v>
-      </c>
-      <c r="I4" s="1">
+        <v>4.6064372466790092E-2</v>
+      </c>
+      <c r="I7" s="41">
         <f t="shared" si="3"/>
-        <v>0.1545879901183751</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <f>+CLM!A5</f>
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <f>+CLM!B5</f>
-        <v>7003</v>
-      </c>
-      <c r="C5">
-        <f>CLM!C5+ZEN!C5 + THUNDER!C5</f>
-        <v>41</v>
-      </c>
-      <c r="D5">
-        <f>CLM!D5+ZEN!D5 + THUNDER!D5</f>
+        <v>0.11522595011385506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="37">
+        <v>20</v>
+      </c>
+      <c r="B8" s="38">
+        <v>8002</v>
+      </c>
+      <c r="C8" s="38">
+        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>63</v>
+      </c>
+      <c r="D8" s="38">
+        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>18</v>
+      </c>
+      <c r="E8" s="39">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39">
+        <f t="shared" si="1"/>
+        <v>5.6915648063542552E-2</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" ref="H8:H21" si="4">E8-G8</f>
+        <v>0.22879863765074315</v>
+      </c>
+      <c r="I8" s="41">
+        <f t="shared" ref="I8:I21" si="5">E8+G8</f>
+        <v>0.34262993377782824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="42">
+        <v>20</v>
+      </c>
+      <c r="B9" s="43">
+        <v>8003</v>
+      </c>
+      <c r="C9" s="43">
+        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>62</v>
+      </c>
+      <c r="D9" s="43">
+        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>20</v>
+      </c>
+      <c r="E9" s="44">
+        <f t="shared" si="0"/>
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44">
+        <f t="shared" si="1"/>
+        <v>5.9367957650763428E-2</v>
+      </c>
+      <c r="H9" s="44">
+        <f t="shared" si="4"/>
+        <v>0.2632126875105269</v>
+      </c>
+      <c r="I9" s="48">
+        <f t="shared" si="5"/>
+        <v>0.38194860281205373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9000</v>
+      </c>
+      <c r="C10" s="8">
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="8">
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.17888543819998318</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="4"/>
+        <v>2.1114561800016834E-2</v>
+      </c>
+      <c r="I10" s="31">
+        <f t="shared" si="5"/>
+        <v>0.37888543819998322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12">
+        <v>9001</v>
+      </c>
+      <c r="C11" s="12">
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D11" s="12">
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
         <f t="shared" si="0"/>
-        <v>7.3170731707317069E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <f>(CLM!F5 * CLM!C5 + ZEN!F5 * ZEN!C5 + THUNDER!F5 * THUNDER!C5) / (CLM!C5 +  ZEN!C5 + THUNDER!C5)</f>
-        <v>2.12</v>
-      </c>
-      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13">
         <f t="shared" si="1"/>
-        <v>4.0670231136554935E-2</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="2"/>
-        <v>3.2500500570762134E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="3"/>
-        <v>0.113840962843872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <f>+CLM!A6</f>
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <f>+CLM!B6</f>
-        <v>8000</v>
-      </c>
-      <c r="C6">
-        <f>CLM!C6+ZEN!C6 + THUNDER!C6</f>
-        <v>63</v>
-      </c>
-      <c r="D6">
-        <f>CLM!D6+ZEN!D6 + THUNDER!D6</f>
-        <v>16</v>
-      </c>
-      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="15">
+        <v>20</v>
+      </c>
+      <c r="B12" s="16">
+        <v>9002</v>
+      </c>
+      <c r="C12" s="16">
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="16">
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
-        <v>0.25396825396825395</v>
-      </c>
-      <c r="F6" s="2">
-        <f>(CLM!F6 * CLM!C6 + ZEN!F6 * ZEN!C6 + THUNDER!F6 * THUNDER!C6) / (CLM!C6 +  ZEN!C6 + THUNDER!C6)</f>
-        <v>1.6877777777777778</v>
-      </c>
-      <c r="G6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>5.484008207775376E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19912817189050019</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="3"/>
-        <v>0.30880833604600771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <f>+CLM!A7</f>
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <f>+CLM!B7</f>
-        <v>8001</v>
-      </c>
-      <c r="C7">
-        <f>CLM!C7+ZEN!C7 + THUNDER!C7</f>
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <f>CLM!D7+ZEN!D7 + THUNDER!D7</f>
-        <v>14</v>
-      </c>
-      <c r="E7" s="1">
+        <v>0.21908902300206642</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="4"/>
+        <v>0.1809109769979336</v>
+      </c>
+      <c r="I12" s="50">
+        <f t="shared" si="5"/>
+        <v>0.61908902300206647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="19">
+        <v>20</v>
+      </c>
+      <c r="B13" s="20">
+        <v>9003</v>
+      </c>
+      <c r="C13" s="20">
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>3</v>
+      </c>
+      <c r="D13" s="20">
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
-        <v>0.22580645161290322</v>
-      </c>
-      <c r="F7" s="2">
-        <f>(CLM!F7 * CLM!C7 + ZEN!F7 * ZEN!C7 + THUNDER!F7 * THUNDER!C7) / (CLM!C7 +  ZEN!C7 + THUNDER!C7)</f>
-        <v>1.6990322580645161</v>
-      </c>
-      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>5.3100315596974292E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17270613601592893</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>0.2789067672098775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="23">
+        <v>20</v>
+      </c>
+      <c r="B14" s="24">
+        <v>9004</v>
+      </c>
+      <c r="C14" s="24">
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="24">
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="27">
+        <v>20</v>
+      </c>
+      <c r="B15" s="28">
+        <v>9005</v>
+      </c>
+      <c r="C15" s="28">
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="28">
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29">
+        <f t="shared" si="1"/>
+        <v>0.21650635094610965</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="4"/>
+        <v>3.3493649053890351E-2</v>
+      </c>
+      <c r="I15" s="53">
+        <f t="shared" si="5"/>
+        <v>0.46650635094610965</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>9006</v>
+      </c>
+      <c r="C16" s="8">
+        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="D16" s="8">
+        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.21650635094610965</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="4"/>
+        <v>3.3493649053890351E-2</v>
+      </c>
+      <c r="I16" s="31">
+        <f t="shared" si="5"/>
+        <v>0.46650635094610965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12">
+        <v>9007</v>
+      </c>
+      <c r="C17" s="12">
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="D17" s="12">
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13">
+        <f t="shared" si="1"/>
+        <v>0.21650635094610965</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="4"/>
+        <v>3.3493649053890351E-2</v>
+      </c>
+      <c r="I17" s="49">
+        <f t="shared" si="5"/>
+        <v>0.46650635094610965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="15">
+        <v>20</v>
+      </c>
+      <c r="B18" s="16">
+        <v>9008</v>
+      </c>
+      <c r="C18" s="16">
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="16">
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17">
+        <f t="shared" si="1"/>
+        <v>0.21908902300206642</v>
+      </c>
+      <c r="H18" s="17">
+        <f t="shared" si="4"/>
+        <v>0.1809109769979336</v>
+      </c>
+      <c r="I18" s="50">
+        <f t="shared" si="5"/>
+        <v>0.61908902300206647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="19">
+        <v>20</v>
+      </c>
+      <c r="B19" s="20">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="20">
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="D19" s="20">
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21">
+        <f t="shared" si="1"/>
+        <v>0.21908902300206642</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="4"/>
+        <v>0.1809109769979336</v>
+      </c>
+      <c r="I19" s="51">
+        <f t="shared" si="5"/>
+        <v>0.61908902300206647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="23">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24">
+        <v>10001</v>
+      </c>
+      <c r="C20" s="24">
+        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="D20" s="24">
+        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="27">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28">
+        <v>10002</v>
+      </c>
+      <c r="C21" s="28">
+        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="28">
+        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9209D3-8A81-4B18-88A3-9E2761578CE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD26C6F0-5850-4BD4-A905-06E38DF07FC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="1" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -297,6 +297,16 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,151 +621,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="4">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4">
         <v>7000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>17</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>0.1176</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>1.73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="4">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
         <v>7001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>0.30769999999999997</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>1.39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
         <v>8000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>0.17649999999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>2.08</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="4">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
         <v>8001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>1.81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="4">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
         <v>8002</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>0.30769999999999997</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>1.41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="4">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
         <v>8003</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>12</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <v>1.82</v>
       </c>
     </row>
@@ -764,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>9000</v>
+        <v>7002</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -775,8 +785,8 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0.57999999999999996</v>
+      <c r="F8" s="2">
+        <v>1.25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -784,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>9002</v>
+        <v>7003</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -795,8 +805,8 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.52</v>
+      <c r="F9" s="2">
+        <v>1.17</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -804,19 +814,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>9004</v>
+        <v>9000</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1.07</v>
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -824,19 +834,19 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>9006</v>
+        <v>9001</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.54</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -844,19 +854,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9007</v>
+        <v>9002</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0.55000000000000004</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -864,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>9008</v>
+        <v>9003</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -875,8 +885,8 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>1.1000000000000001</v>
+      <c r="F13" s="2">
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -884,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>10000</v>
+        <v>9004</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -895,8 +905,8 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>0.64</v>
+      <c r="F14" s="2">
+        <v>1.07</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -904,20 +914,132 @@
         <v>20</v>
       </c>
       <c r="B15">
+        <v>9005</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>9006</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>9007</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>9008</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>10000</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>10001</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.61</v>
-      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -928,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1F6DF5-0B9D-48B1-96CA-E450A31D5D35}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1584,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1603,7 +1725,7 @@
       <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="46" t="s">
@@ -1634,7 +1756,7 @@
         <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="55">
         <f>IFERROR(D2/C2, 0)</f>
         <v>0.11940298507462686</v>
       </c>
@@ -1674,7 +1796,7 @@
         <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>9</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="56">
         <f t="shared" ref="E3:E21" si="0">IFERROR(D3/C3, 0)</f>
         <v>0.14285714285714285</v>
       </c>
@@ -1701,13 +1823,13 @@
       </c>
       <c r="C4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1734,28 +1856,28 @@
       </c>
       <c r="C5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="39">
+        <v>1</v>
+      </c>
+      <c r="E5" s="56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.17888543819998318</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.1114561800016834E-2</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.37888543819998322</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1773,7 +1895,7 @@
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>7</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="56">
         <f t="shared" si="0"/>
         <v>0.1044776119402985</v>
       </c>
@@ -1806,7 +1928,7 @@
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="56">
         <f t="shared" si="0"/>
         <v>8.0645161290322578E-2</v>
       </c>
@@ -1839,7 +1961,7 @@
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>18</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="56">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
@@ -1872,7 +1994,7 @@
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>20</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="57">
         <f t="shared" si="0"/>
         <v>0.32258064516129031</v>
       </c>
@@ -1899,28 +2021,28 @@
       </c>
       <c r="C10" s="8">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="8">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10" s="58">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9">
         <f t="shared" si="1"/>
-        <v>0.17888543819998318</v>
+        <v>0.19245008972987529</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="4"/>
-        <v>2.1114561800016834E-2</v>
+        <v>0.14088324360345802</v>
       </c>
       <c r="I10" s="31">
         <f t="shared" si="5"/>
-        <v>0.37888543819998322</v>
+        <v>0.52578342306320858</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1932,13 +2054,13 @@
       </c>
       <c r="C11" s="12">
         <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="12">
         <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1965,28 +2087,28 @@
       </c>
       <c r="C12" s="16">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="16">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="E12" s="17">
+        <v>3</v>
+      </c>
+      <c r="E12" s="60">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>0.21908902300206642</v>
+        <v>0.20412414523193148</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="4"/>
-        <v>0.1809109769979336</v>
+        <v>0.29587585476806855</v>
       </c>
       <c r="I12" s="50">
         <f t="shared" si="5"/>
-        <v>0.61908902300206647</v>
+        <v>0.70412414523193145</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1998,28 +2120,28 @@
       </c>
       <c r="C13" s="20">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="20">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="E13" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.21650635094610965</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.3493649053890351E-2</v>
       </c>
       <c r="I13" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.46650635094610965</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2037,7 +2159,7 @@
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2064,28 +2186,28 @@
       </c>
       <c r="C15" s="28">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="28">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="63">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>0.21650635094610965</v>
+        <v>0.17888543819998318</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="4"/>
-        <v>3.3493649053890351E-2</v>
+        <v>2.1114561800016834E-2</v>
       </c>
       <c r="I15" s="53">
         <f t="shared" si="5"/>
-        <v>0.46650635094610965</v>
+        <v>0.37888543819998322</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2097,28 +2219,28 @@
       </c>
       <c r="C16" s="8">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="8">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="58">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>0.21650635094610965</v>
+        <v>0.17888543819998318</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="4"/>
-        <v>3.3493649053890351E-2</v>
+        <v>2.1114561800016834E-2</v>
       </c>
       <c r="I16" s="31">
         <f t="shared" si="5"/>
-        <v>0.46650635094610965</v>
+        <v>0.37888543819998322</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2130,28 +2252,28 @@
       </c>
       <c r="C17" s="12">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="12">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
+        <v>2</v>
+      </c>
+      <c r="E17" s="59">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13">
         <f t="shared" si="1"/>
-        <v>0.21650635094610965</v>
+        <v>0.21908902300206642</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="4"/>
-        <v>3.3493649053890351E-2</v>
+        <v>0.1809109769979336</v>
       </c>
       <c r="I17" s="49">
         <f t="shared" si="5"/>
-        <v>0.46650635094610965</v>
+        <v>0.61908902300206647</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2169,7 +2291,7 @@
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="60">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -2202,7 +2324,7 @@
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="61">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
@@ -2229,13 +2351,13 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2268,7 +2390,7 @@
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD26C6F0-5850-4BD4-A905-06E38DF07FC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99EAD35-0ECF-4B50-9742-9D78DC1CD43D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
     <sheet name="CLM" sheetId="1" r:id="rId2"/>
-    <sheet name="THUNDER" sheetId="2" r:id="rId3"/>
-    <sheet name="TOTAL" sheetId="4" r:id="rId4"/>
+    <sheet name="CLM_3200" sheetId="6" r:id="rId3"/>
+    <sheet name="THUNDER" sheetId="2" r:id="rId4"/>
+    <sheet name="TOTAL" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -113,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -233,6 +234,58 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -297,16 +350,16 @@
     <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +677,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -997,7 +1050,7 @@
         <v>10000</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1006,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>0.64</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1051,7 +1104,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1482,11 +1535,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>9008</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1495,22 +1603,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1518,22 +1626,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>20</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="4">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4">
         <v>7000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>25</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="5">
         <v>0.2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>2.16</v>
       </c>
       <c r="H2" s="2">
@@ -1549,22 +1657,22 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="4">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4">
         <v>7001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>25</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>0.12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <v>2.14</v>
       </c>
       <c r="H3" s="2">
@@ -1577,22 +1685,22 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="4">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
         <v>8000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>25</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>0.08</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="6">
         <v>3.61</v>
       </c>
       <c r="H4" s="2">
@@ -1601,22 +1709,22 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="4">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
         <v>8001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>0.08</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>2.44</v>
       </c>
       <c r="H5" s="2">
@@ -1625,22 +1733,22 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="4">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4">
         <v>8002</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="5">
         <v>0.32</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="6">
         <v>2.02</v>
       </c>
       <c r="H6" s="2">
@@ -1649,22 +1757,22 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="4">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
         <v>8003</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <v>2.2999999999999998</v>
       </c>
       <c r="H7" s="2">
@@ -1673,16 +1781,84 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F8" s="2"/>
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>9003</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F9" s="2"/>
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>9005</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F10" s="2"/>
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>9008</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F11" s="2"/>
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" s="2"/>
@@ -1702,12 +1878,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1749,11 +1925,11 @@
         <v>7000</v>
       </c>
       <c r="C2" s="33">
-        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>67</v>
       </c>
       <c r="D2" s="33">
-        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
       <c r="E2" s="55">
@@ -1789,11 +1965,11 @@
         <v>7001</v>
       </c>
       <c r="C3" s="38">
-        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>63</v>
       </c>
       <c r="D3" s="38">
-        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>9</v>
       </c>
       <c r="E3" s="56">
@@ -1822,11 +1998,11 @@
         <v>7002</v>
       </c>
       <c r="C4" s="38">
-        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="D4" s="38">
-        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="56">
@@ -1855,11 +2031,11 @@
         <v>7003</v>
       </c>
       <c r="C5" s="38">
-        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="D5" s="38">
-        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E5" s="56">
@@ -1888,11 +2064,11 @@
         <v>8000</v>
       </c>
       <c r="C6" s="38">
-        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>67</v>
       </c>
       <c r="D6" s="38">
-        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>7</v>
       </c>
       <c r="E6" s="56">
@@ -1921,11 +2097,11 @@
         <v>8001</v>
       </c>
       <c r="C7" s="38">
-        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>62</v>
       </c>
       <c r="D7" s="38">
-        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="E7" s="56">
@@ -1954,11 +2130,11 @@
         <v>8002</v>
       </c>
       <c r="C8" s="38">
-        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>63</v>
       </c>
       <c r="D8" s="38">
-        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>18</v>
       </c>
       <c r="E8" s="56">
@@ -1987,11 +2163,11 @@
         <v>8003</v>
       </c>
       <c r="C9" s="43">
-        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>62</v>
       </c>
       <c r="D9" s="43">
-        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>20</v>
       </c>
       <c r="E9" s="57">
@@ -2020,11 +2196,11 @@
         <v>9000</v>
       </c>
       <c r="C10" s="8">
-        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="D10" s="8">
-        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E10" s="58">
@@ -2053,11 +2229,11 @@
         <v>9001</v>
       </c>
       <c r="C11" s="12">
-        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="D11" s="12">
-        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E11" s="59">
@@ -2086,11 +2262,11 @@
         <v>9002</v>
       </c>
       <c r="C12" s="16">
-        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="D12" s="16">
-        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
       <c r="E12" s="60">
@@ -2119,29 +2295,29 @@
         <v>9003</v>
       </c>
       <c r="C13" s="20">
-        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>5</v>
       </c>
       <c r="D13" s="20">
-        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E13" s="61">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>0.21650635094610965</v>
+        <v>0.17888543819998318</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="4"/>
-        <v>3.3493649053890351E-2</v>
+        <v>2.1114561800016834E-2</v>
       </c>
       <c r="I13" s="51">
         <f t="shared" si="5"/>
-        <v>0.46650635094610965</v>
+        <v>0.37888543819998322</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2152,11 +2328,11 @@
         <v>9004</v>
       </c>
       <c r="C14" s="24">
-        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="D14" s="24">
-        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="62">
@@ -2185,29 +2361,29 @@
         <v>9005</v>
       </c>
       <c r="C15" s="28">
-        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>6</v>
       </c>
       <c r="D15" s="28">
-        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>2</v>
       </c>
       <c r="E15" s="63">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>0.17888543819998318</v>
+        <v>0.19245008972987529</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="4"/>
-        <v>2.1114561800016834E-2</v>
+        <v>0.14088324360345802</v>
       </c>
       <c r="I15" s="53">
         <f t="shared" si="5"/>
-        <v>0.37888543819998322</v>
+        <v>0.52578342306320858</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2218,11 +2394,11 @@
         <v>9006</v>
       </c>
       <c r="C16" s="8">
-        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="D16" s="8">
-        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E16" s="58">
@@ -2251,11 +2427,11 @@
         <v>9007</v>
       </c>
       <c r="C17" s="12">
-        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="D17" s="12">
-        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E17" s="59">
@@ -2284,29 +2460,29 @@
         <v>9008</v>
       </c>
       <c r="C18" s="16">
-        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>7</v>
       </c>
       <c r="D18" s="16">
-        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>3</v>
       </c>
       <c r="E18" s="60">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17">
         <f t="shared" si="1"/>
-        <v>0.21908902300206642</v>
+        <v>0.18704390591656489</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="4"/>
-        <v>0.1809109769979336</v>
+        <v>0.24152752265486366</v>
       </c>
       <c r="I18" s="50">
         <f t="shared" si="5"/>
-        <v>0.61908902300206647</v>
+        <v>0.61561533448799344</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2317,29 +2493,29 @@
         <v>10000</v>
       </c>
       <c r="C19" s="20">
-        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>7</v>
       </c>
       <c r="D19" s="20">
-        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E19" s="61">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
-        <v>0.21908902300206642</v>
+        <v>0.17074694419062766</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="4"/>
-        <v>0.1809109769979336</v>
+        <v>0.11496734152365803</v>
       </c>
       <c r="I19" s="51">
         <f t="shared" si="5"/>
-        <v>0.61908902300206647</v>
+        <v>0.45646122990491333</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2350,11 +2526,11 @@
         <v>10001</v>
       </c>
       <c r="C20" s="24">
-        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="D20" s="24">
-        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E20" s="62">
@@ -2383,11 +2559,11 @@
         <v>10002</v>
       </c>
       <c r="C21" s="28">
-        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="D21" s="28">
-        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="63">

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99EAD35-0ECF-4B50-9742-9D78DC1CD43D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3E6597-D4B2-4344-912D-3174019004D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -950,7 +950,7 @@
         <v>9004</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1030,16 +1030,16 @@
         <v>9008</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1536,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1569,19 +1569,139 @@
         <v>20</v>
       </c>
       <c r="B2">
+        <v>7003</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>9000</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>9002</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>9003</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>9007</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
         <v>9008</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1714,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1785,7 +1905,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1797,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1805,19 +1925,19 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1825,7 +1945,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>9008</v>
+        <v>9005</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1837,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1845,29 +1965,80 @@
         <v>20</v>
       </c>
       <c r="B11">
+        <v>9006</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>9007</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>9008</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
         <v>10000</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F14" s="2"/>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" s="2"/>
@@ -2032,7 +2203,7 @@
       </c>
       <c r="C5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2040,20 +2211,20 @@
       </c>
       <c r="E5" s="56">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>0.17888543819998318</v>
+        <v>0.15214515486254615</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
-        <v>2.1114561800016834E-2</v>
+        <v>1.4521511804120507E-2</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="3"/>
-        <v>0.37888543819998322</v>
+        <v>0.31881182152921284</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2197,7 +2368,7 @@
       </c>
       <c r="C10" s="8">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="8">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2205,20 +2376,20 @@
       </c>
       <c r="E10" s="58">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9">
         <f t="shared" si="1"/>
-        <v>0.19245008972987529</v>
+        <v>0.17074694419062766</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="4"/>
-        <v>0.14088324360345802</v>
+        <v>0.11496734152365803</v>
       </c>
       <c r="I10" s="31">
         <f t="shared" si="5"/>
-        <v>0.52578342306320858</v>
+        <v>0.45646122990491333</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2263,11 +2434,11 @@
       </c>
       <c r="C12" s="16">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="16">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="60">
         <f t="shared" si="0"/>
@@ -2276,15 +2447,15 @@
       <c r="F12" s="16"/>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>0.20412414523193148</v>
+        <v>0.17677669529663689</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="4"/>
-        <v>0.29587585476806855</v>
+        <v>0.32322330470336313</v>
       </c>
       <c r="I12" s="50">
         <f t="shared" si="5"/>
-        <v>0.70412414523193145</v>
+        <v>0.67677669529663687</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2296,28 +2467,28 @@
       </c>
       <c r="C13" s="20">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="20">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="61">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>0.17888543819998318</v>
+        <v>0.17074694419062766</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="4"/>
-        <v>2.1114561800016834E-2</v>
+        <v>0.11496734152365803</v>
       </c>
       <c r="I13" s="51">
         <f t="shared" si="5"/>
-        <v>0.37888543819998322</v>
+        <v>0.45646122990491333</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2329,7 +2500,7 @@
       </c>
       <c r="C14" s="24">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="24">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2395,28 +2566,28 @@
       </c>
       <c r="C16" s="8">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" s="8">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="58">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>0.17888543819998318</v>
+        <v>0.18704390591656489</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="4"/>
-        <v>2.1114561800016834E-2</v>
+        <v>0.24152752265486366</v>
       </c>
       <c r="I16" s="31">
         <f t="shared" si="5"/>
-        <v>0.37888543819998322</v>
+        <v>0.61561533448799344</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2428,7 +2599,7 @@
       </c>
       <c r="C17" s="12">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" s="12">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2436,20 +2607,20 @@
       </c>
       <c r="E17" s="59">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13">
         <f t="shared" si="1"/>
-        <v>0.21908902300206642</v>
+        <v>0.17074694419062766</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="4"/>
-        <v>0.1809109769979336</v>
+        <v>0.11496734152365803</v>
       </c>
       <c r="I17" s="49">
         <f t="shared" si="5"/>
-        <v>0.61908902300206647</v>
+        <v>0.45646122990491333</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2461,28 +2632,28 @@
       </c>
       <c r="C18" s="16">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="16">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="60">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17">
         <f t="shared" si="1"/>
-        <v>0.18704390591656489</v>
+        <v>0.17677669529663689</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="4"/>
-        <v>0.24152752265486366</v>
+        <v>0.32322330470336313</v>
       </c>
       <c r="I18" s="50">
         <f t="shared" si="5"/>
-        <v>0.61561533448799344</v>
+        <v>0.67677669529663687</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2494,28 +2665,28 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="61">
         <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
-        <v>0.17074694419062766</v>
+        <v>0.15713484026367724</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="4"/>
-        <v>0.11496734152365803</v>
+        <v>0.17619849306965607</v>
       </c>
       <c r="I19" s="51">
         <f t="shared" si="5"/>
-        <v>0.45646122990491333</v>
+        <v>0.49046817359701056</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3E6597-D4B2-4344-912D-3174019004D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C9BD78-AA2C-4921-9FD9-65822C23589F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -850,16 +850,16 @@
         <v>7003</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="2">
-        <v>1.17</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -890,7 +890,7 @@
         <v>9001</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -930,16 +930,16 @@
         <v>9003</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1536,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1569,7 +1569,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1589,7 +1589,7 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>9000</v>
+        <v>7003</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1609,19 +1609,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>9002</v>
+        <v>9000</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1629,19 +1629,19 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>9003</v>
+        <v>9001</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1649,19 +1649,19 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>9007</v>
+        <v>9002</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1669,19 +1669,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>9008</v>
+        <v>9003</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1689,19 +1689,119 @@
         <v>20</v>
       </c>
       <c r="B8">
+        <v>9004</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>9005</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>9007</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>9008</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
         <v>10000</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1.3</v>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>10002</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
@@ -1711,10 +1811,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1905,10 +2005,10 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>9002</v>
+        <v>7002</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1917,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1925,10 +2025,10 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>9003</v>
+        <v>7003</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1937,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1945,19 +2045,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>9005</v>
+        <v>9000</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1965,19 +2065,19 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>9006</v>
+        <v>9001</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -1985,10 +2085,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9007</v>
+        <v>9002</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1997,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2005,19 +2105,19 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>9008</v>
+        <v>9003</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2025,23 +2125,140 @@
         <v>20</v>
       </c>
       <c r="B14">
+        <v>9004</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>9005</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>9006</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>9007</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>9008</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F18">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
         <v>10000</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>1.57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F15" s="2"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>10001</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F20">
+        <v>1.74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2170,7 +2387,7 @@
       </c>
       <c r="C4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2203,7 +2420,7 @@
       </c>
       <c r="C5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2211,20 +2428,20 @@
       </c>
       <c r="E5" s="56">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>0.15214515486254615</v>
+        <v>9.4868329805051374E-2</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
-        <v>1.4521511804120507E-2</v>
+        <v>5.1316701949486315E-3</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="3"/>
-        <v>0.31881182152921284</v>
+        <v>0.19486832980505137</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2368,7 +2585,7 @@
       </c>
       <c r="C10" s="8">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" s="8">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2376,20 +2593,20 @@
       </c>
       <c r="E10" s="58">
         <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9">
         <f t="shared" si="1"/>
-        <v>0.17074694419062766</v>
+        <v>0.12649110640673517</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="4"/>
-        <v>0.11496734152365803</v>
+        <v>7.3508893593264846E-2</v>
       </c>
       <c r="I10" s="31">
         <f t="shared" si="5"/>
-        <v>0.45646122990491333</v>
+        <v>0.32649110640673518</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2401,7 +2618,7 @@
       </c>
       <c r="C11" s="12">
         <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D11" s="12">
         <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2434,7 +2651,7 @@
       </c>
       <c r="C12" s="16">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" s="16">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2442,20 +2659,20 @@
       </c>
       <c r="E12" s="60">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>0.17677669529663689</v>
+        <v>0.15491933384829668</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="4"/>
-        <v>0.32322330470336313</v>
+        <v>0.24508066615170335</v>
       </c>
       <c r="I12" s="50">
         <f t="shared" si="5"/>
-        <v>0.67677669529663687</v>
+        <v>0.55491933384829673</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2467,7 +2684,7 @@
       </c>
       <c r="C13" s="20">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="20">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2475,20 +2692,20 @@
       </c>
       <c r="E13" s="61">
         <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>0.17074694419062766</v>
+        <v>0.13857990321384966</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="4"/>
-        <v>0.11496734152365803</v>
+        <v>8.3642319008372545E-2</v>
       </c>
       <c r="I13" s="51">
         <f t="shared" si="5"/>
-        <v>0.45646122990491333</v>
+        <v>0.36080212543607187</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2500,7 +2717,7 @@
       </c>
       <c r="C14" s="24">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" s="24">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2533,28 +2750,28 @@
       </c>
       <c r="C15" s="28">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="28">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="63">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>0.19245008972987529</v>
+        <v>0.17116329922036441</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="4"/>
-        <v>0.14088324360345802</v>
+        <v>0.20383670077963559</v>
       </c>
       <c r="I15" s="53">
         <f t="shared" si="5"/>
-        <v>0.52578342306320858</v>
+        <v>0.54616329922036444</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2599,28 +2816,28 @@
       </c>
       <c r="C17" s="12">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="12">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="59">
         <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="13">
         <f t="shared" si="1"/>
-        <v>0.17074694419062766</v>
+        <v>0.15713484026367724</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="4"/>
-        <v>0.11496734152365803</v>
+        <v>0.17619849306965607</v>
       </c>
       <c r="I17" s="49">
         <f t="shared" si="5"/>
-        <v>0.45646122990491333</v>
+        <v>0.49046817359701056</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2632,7 +2849,7 @@
       </c>
       <c r="C18" s="16">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18" s="16">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2640,20 +2857,20 @@
       </c>
       <c r="E18" s="60">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17">
         <f t="shared" si="1"/>
-        <v>0.17677669529663689</v>
+        <v>0.15491933384829668</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="4"/>
-        <v>0.32322330470336313</v>
+        <v>0.24508066615170335</v>
       </c>
       <c r="I18" s="50">
         <f t="shared" si="5"/>
-        <v>0.67677669529663687</v>
+        <v>0.55491933384829673</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2665,28 +2882,28 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="61">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="1"/>
-        <v>0.15713484026367724</v>
+        <v>0.15491933384829668</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="4"/>
-        <v>0.17619849306965607</v>
+        <v>0.24508066615170335</v>
       </c>
       <c r="I19" s="51">
         <f t="shared" si="5"/>
-        <v>0.49046817359701056</v>
+        <v>0.55491933384829673</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2698,28 +2915,28 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.10475656017578482</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.3545509353262891E-3</v>
       </c>
       <c r="I20" s="52">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.21586767128689593</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -2731,15 +2948,15 @@
       </c>
       <c r="C21" s="28">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="28">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="29">
@@ -2748,11 +2965,11 @@
       </c>
       <c r="H21" s="29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C9BD78-AA2C-4921-9FD9-65822C23589F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF67054-26ED-40DC-9526-3B740E1F6682}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>mu+sigma</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -291,11 +297,222 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -360,6 +577,21 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,6 +607,1055 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>TOTAL!$N$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D255-449B-A493-F43B23E3A661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>TOTAL!$N$9:$P$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36363636363636365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D255-449B-A493-F43B23E3A661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>TOTAL!$N$10:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36363636363636365</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D255-449B-A493-F43B23E3A661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="681249280"/>
+        <c:axId val="950880848"/>
+        <c:axId val="947281040"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="681249280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950880848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="950880848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681249280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="947281040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950880848"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F81D4DB-6648-4FDC-9A7C-45DA80D503B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,7 +1958,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -830,7 +2111,7 @@
         <v>7002</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -839,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -870,16 +2151,16 @@
         <v>9000</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>0.81</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -970,7 +2251,7 @@
         <v>9005</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -979,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -990,16 +2271,16 @@
         <v>9006</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F16" s="2">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1070,7 +2351,7 @@
         <v>10001</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1079,12 +2360,28 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10004</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="1"/>
@@ -1536,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1572,7 +2869,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1581,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1592,7 +2889,7 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1601,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1612,16 +2909,16 @@
         <v>9000</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1672,16 +2969,16 @@
         <v>9003</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F7">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1692,7 +2989,7 @@
         <v>9004</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1701,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1712,7 +3009,7 @@
         <v>9005</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1721,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1729,19 +3026,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F10">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1749,10 +3046,10 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>9008</v>
+        <v>9007</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1761,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1769,19 +3066,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>10000</v>
+        <v>9008</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1789,19 +3086,79 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>10002</v>
+        <v>10000</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>10001</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>10002</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>10004</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
@@ -1813,9 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2088,7 +3443,7 @@
         <v>9002</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2097,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -2168,16 +3523,16 @@
         <v>9006</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F16">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2268,15 +3623,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2305,7 +3660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="32">
         <v>20</v>
       </c>
@@ -2345,7 +3700,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="37">
         <v>20</v>
       </c>
@@ -2378,7 +3733,7 @@
         <v>0.18694381427488341</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="37">
         <v>20</v>
       </c>
@@ -2387,7 +3742,7 @@
       </c>
       <c r="C4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2411,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="37">
         <v>20</v>
       </c>
@@ -2420,7 +3775,7 @@
       </c>
       <c r="C5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2428,23 +3783,23 @@
       </c>
       <c r="E5" s="56">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>9.4868329805051374E-2</v>
+        <v>8.6678417204144764E-2</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
-        <v>5.1316701949486315E-3</v>
+        <v>4.2306737049461474E-3</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="3"/>
-        <v>0.19486832980505137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.17758750811323568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="37">
         <v>20</v>
       </c>
@@ -2476,8 +3831,11 @@
         <f t="shared" si="3"/>
         <v>0.14184669496787167</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="37">
         <v>20</v>
       </c>
@@ -2509,8 +3867,18 @@
         <f t="shared" si="3"/>
         <v>0.11522595011385506</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="M7" s="45"/>
+      <c r="N7" s="64">
+        <v>5</v>
+      </c>
+      <c r="O7" s="65">
+        <v>10</v>
+      </c>
+      <c r="P7" s="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="37">
         <v>20</v>
       </c>
@@ -2542,8 +3910,26 @@
         <f t="shared" ref="I8:I21" si="5">E8+G8</f>
         <v>0.34262993377782824</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="67">
+        <v>5</v>
+      </c>
+      <c r="N8" s="74">
+        <f>+E14</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="73">
+        <f>+E13</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="P8" s="75">
+        <f>+E15</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="42">
         <v>20</v>
       </c>
@@ -2575,8 +3961,23 @@
         <f t="shared" si="5"/>
         <v>0.38194860281205373</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="M9" s="68">
+        <v>10</v>
+      </c>
+      <c r="N9" s="71">
+        <f>E11</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="70">
+        <f>+E10</f>
+        <v>0.25</v>
+      </c>
+      <c r="P9" s="72">
+        <f>+E12</f>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="7">
         <v>20</v>
       </c>
@@ -2585,31 +3986,46 @@
       </c>
       <c r="C10" s="8">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" s="8">
         <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="58">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9">
         <f t="shared" si="1"/>
-        <v>0.12649110640673517</v>
+        <v>0.125</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="4"/>
-        <v>7.3508893593264846E-2</v>
+        <v>0.125</v>
       </c>
       <c r="I10" s="31">
         <f t="shared" si="5"/>
-        <v>0.32649110640673518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.375</v>
+      </c>
+      <c r="M10" s="69">
+        <v>20</v>
+      </c>
+      <c r="N10" s="77">
+        <f>+E17</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O10" s="76">
+        <f>+E16</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P10" s="78">
+        <f>+E18</f>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11">
         <v>20</v>
       </c>
@@ -2642,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="15">
         <v>20</v>
       </c>
@@ -2651,7 +4067,7 @@
       </c>
       <c r="C12" s="16">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="16">
         <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2659,23 +4075,23 @@
       </c>
       <c r="E12" s="60">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17">
         <f t="shared" si="1"/>
-        <v>0.15491933384829668</v>
+        <v>0.14504073367590284</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="4"/>
-        <v>0.24508066615170335</v>
+        <v>0.21859562996046081</v>
       </c>
       <c r="I12" s="50">
         <f t="shared" si="5"/>
-        <v>0.55491933384829673</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.50867709731226651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19">
         <v>20</v>
       </c>
@@ -2684,7 +4100,7 @@
       </c>
       <c r="C13" s="20">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" s="20">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2692,23 +4108,23 @@
       </c>
       <c r="E13" s="61">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="21">
         <f t="shared" si="1"/>
-        <v>0.13857990321384966</v>
+        <v>0.11629129983033297</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="4"/>
-        <v>8.3642319008372545E-2</v>
+        <v>6.5526881987848853E-2</v>
       </c>
       <c r="I13" s="51">
         <f t="shared" si="5"/>
-        <v>0.36080212543607187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.29810948164851481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="23">
         <v>20</v>
       </c>
@@ -2717,7 +4133,7 @@
       </c>
       <c r="C14" s="24">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="24">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2741,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="27">
         <v>20</v>
       </c>
@@ -2750,7 +4166,7 @@
       </c>
       <c r="C15" s="28">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="28">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2758,23 +4174,23 @@
       </c>
       <c r="E15" s="63">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>0.17116329922036441</v>
+        <v>0.14491376746189438</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="4"/>
-        <v>0.20383670077963559</v>
+        <v>0.15508623253810561</v>
       </c>
       <c r="I15" s="53">
         <f t="shared" si="5"/>
-        <v>0.54616329922036444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>0.44491376746189437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
         <v>20</v>
       </c>
@@ -2783,28 +4199,28 @@
       </c>
       <c r="C16" s="8">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D16" s="8">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="58">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>0.18704390591656489</v>
+        <v>0.14231876063832774</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="4"/>
-        <v>0.24152752265486366</v>
+        <v>0.27434790602833892</v>
       </c>
       <c r="I16" s="31">
         <f t="shared" si="5"/>
-        <v>0.61561533448799344</v>
+        <v>0.55898542730499445</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2841,36 +4257,36 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="15">
-        <v>20</v>
-      </c>
-      <c r="B18" s="16">
+      <c r="A18" s="11">
+        <v>20</v>
+      </c>
+      <c r="B18" s="12">
         <v>9008</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="12">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
-      </c>
-      <c r="D18" s="16">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="59">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13">
         <f t="shared" si="1"/>
-        <v>0.15491933384829668</v>
-      </c>
-      <c r="H18" s="17">
+        <v>0.14504073367590284</v>
+      </c>
+      <c r="H18" s="13">
         <f t="shared" si="4"/>
-        <v>0.24508066615170335</v>
-      </c>
-      <c r="I18" s="50">
+        <v>0.21859562996046081</v>
+      </c>
+      <c r="I18" s="49">
         <f t="shared" si="5"/>
-        <v>0.55491933384829673</v>
+        <v>0.50867709731226651</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2915,7 +4331,7 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -2923,57 +4339,124 @@
       </c>
       <c r="E20" s="62">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
         <f t="shared" si="1"/>
-        <v>0.10475656017578482</v>
+        <v>7.3905301756194058E-2</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="4"/>
-        <v>6.3545509353262891E-3</v>
+        <v>3.017775166882869E-3</v>
       </c>
       <c r="I20" s="52">
         <f t="shared" si="5"/>
-        <v>0.21586767128689593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="27">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28">
+        <v>0.15082837867927099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="23">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24">
         <v>10002</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="28">
+        <v>2</v>
+      </c>
+      <c r="D21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="62">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="29">
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="H21" s="25">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="53">
+        <v>0.14644660940672621</v>
+      </c>
+      <c r="I21" s="52">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.85355339059327373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="23">
+        <v>20</v>
+      </c>
+      <c r="B22" s="24">
+        <v>10003</v>
+      </c>
+      <c r="C22" s="24">
+        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="24">
+        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="62">
+        <f t="shared" ref="E22:E23" si="6">IFERROR(D22/C22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25">
+        <f t="shared" ref="G22:G23" si="7">IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" ref="H22:H23" si="8">E22-G22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="52">
+        <f t="shared" ref="I22:I23" si="9">E22+G22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="27">
+        <v>20</v>
+      </c>
+      <c r="B23" s="28">
+        <v>10004</v>
+      </c>
+      <c r="C23" s="28">
+        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="28">
+        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="53">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF67054-26ED-40DC-9526-3B740E1F6682}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8235C5-2CA0-49D6-A094-C0FDD21BA981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -714,18 +717,18 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>TOTAL!$N$8:$P$8</c:f>
+              <c:f>TOTAL!$AA$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,18 +755,18 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>TOTAL!$N$9:$P$9</c:f>
+              <c:f>TOTAL!$AA$4:$AC$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36363636363636365</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,18 +793,18 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>TOTAL!$N$10:$P$10</c:f>
+              <c:f>TOTAL!$AA$5:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>0.46153846153846156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36363636363636365</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,7 +1064,463 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TOTAL!$AA$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TOTAL!$Z$8:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TOTAL!$AA$8:$AA$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11940298507462686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BDE-4D36-91F1-4C85A6B74F2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TOTAL!$AB$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TOTAL!$Z$8:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TOTAL!$AB$8:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BDE-4D36-91F1-4C85A6B74F2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="875338992"/>
+        <c:axId val="938670176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="875338992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="938670176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="938670176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875338992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1617,20 +2076,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>274319</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141418</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1650,6 +2612,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>338417</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>423582</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FDBCB8-9777-47C7-A3C4-5A09E1B2CE5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1958,7 +2956,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2148,19 +3146,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>9000</v>
+        <v>7004</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0.94</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2168,19 +3166,19 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F11" s="2">
-        <v>1.55</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2188,19 +3186,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0.91</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2208,19 +3206,19 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.5</v>
-      </c>
       <c r="F13" s="2">
-        <v>1.49</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2228,19 +3226,19 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="2">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2248,19 +3246,19 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>1.91</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2268,19 +3266,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0.66669999999999996</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>0.97</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2288,19 +3286,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F17" s="2">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2308,19 +3306,19 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>9008</v>
+        <v>9007</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>1.38</v>
+        <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2328,19 +3326,19 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>10000</v>
+        <v>9008</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2348,19 +3346,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2368,24 +3366,40 @@
         <v>20</v>
       </c>
       <c r="B21">
+        <v>10001</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>10004</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" s="1"/>
@@ -2833,10 +3847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2869,7 +3883,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2878,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2889,16 +3903,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F3">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2906,19 +3920,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>9000</v>
+        <v>7004</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2926,10 +3940,10 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>9001</v>
+        <v>7005</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2938,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2946,19 +3960,19 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>9002</v>
+        <v>7006</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2966,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>9003</v>
+        <v>9000</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2978,7 +3992,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="F7">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2986,10 +4000,10 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>9004</v>
+        <v>9001</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2998,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3006,19 +4020,19 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>9005</v>
+        <v>9002</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F9">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3026,7 +4040,7 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>9006</v>
+        <v>9003</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -3038,7 +4052,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="F10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3046,10 +4060,10 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>9007</v>
+        <v>9004</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3058,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3066,10 +4080,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9008</v>
+        <v>9005</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3078,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3086,19 +4100,19 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>10000</v>
+        <v>9006</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F13">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3106,7 +4120,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>10001</v>
+        <v>9007</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -3118,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3126,19 +4140,19 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>10002</v>
+        <v>9008</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F15">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3146,19 +4160,119 @@
         <v>20</v>
       </c>
       <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F16">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>10001</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>10002</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F18">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>10003</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>10004</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10005</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
@@ -3170,7 +4284,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3363,7 +4479,7 @@
         <v>7002</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3372,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3383,16 +4499,16 @@
         <v>7003</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="2">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3403,7 +4519,7 @@
         <v>9000</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3412,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>1.79</v>
+        <v>2.0099999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3423,16 +4539,16 @@
         <v>9001</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F11" s="2">
-        <v>1.79</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3443,7 +4559,7 @@
         <v>9002</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3452,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.96</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3463,16 +4579,16 @@
         <v>9003</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="2">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3483,16 +4599,16 @@
         <v>9004</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F14" s="2">
-        <v>1.72</v>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3503,16 +4619,16 @@
         <v>9005</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="2">
-        <v>1.64</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3523,16 +4639,16 @@
         <v>9006</v>
       </c>
       <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
       <c r="E16">
-        <v>0.66669999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="F16">
-        <v>1.89</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3543,16 +4659,16 @@
         <v>9007</v>
       </c>
       <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F17">
-        <v>1.77</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3563,16 +4679,16 @@
         <v>9008</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F18">
-        <v>1.71</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3583,7 +4699,7 @@
         <v>10000</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3592,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.57</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3603,16 +4719,16 @@
         <v>10001</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F20">
-        <v>1.74</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3623,15 +4739,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -3659,8 +4775,11 @@
       <c r="I1" s="47" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="32">
         <v>20</v>
       </c>
@@ -3695,12 +4814,18 @@
         <f>E2+G2</f>
         <v>0.15901790617237144</v>
       </c>
-      <c r="K2">
-        <f>VLOOKUP($B2, ZEN!$B$2:$D$101, 2,FALSE) + VLOOKUP($B2, CLM!$B$2:$D$101, 2,FALSE) + VLOOKUP($B2, THUNDER!$B$2:$D$101, 2,FALSE)</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="64">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="65">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="37">
         <v>20</v>
       </c>
@@ -3716,24 +4841,42 @@
         <v>9</v>
       </c>
       <c r="E3" s="56">
-        <f t="shared" ref="E3:E21" si="0">IFERROR(D3/C3, 0)</f>
+        <f t="shared" ref="E3:E5" si="0">IFERROR(D3/C3, 0)</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="39">
-        <f t="shared" ref="G3:G21" si="1">IFERROR(SQRT(C3*E3*(1-E3))/C3, 0)</f>
+        <f t="shared" ref="G3:G5" si="1">IFERROR(SQRT(C3*E3*(1-E3))/C3, 0)</f>
         <v>4.4086671417740551E-2</v>
       </c>
       <c r="H3" s="39">
-        <f t="shared" ref="H3:H7" si="2">E3-G3</f>
+        <f t="shared" ref="H3:H5" si="2">E3-G3</f>
         <v>9.8770471439402291E-2</v>
       </c>
       <c r="I3" s="41">
-        <f t="shared" ref="I3:I7" si="3">E3+G3</f>
+        <f t="shared" ref="I3:I5" si="3">E3+G3</f>
         <v>0.18694381427488341</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="67">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="74">
+        <f>+E17</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AB3" s="73">
+        <f>+E16</f>
+        <v>0.25</v>
+      </c>
+      <c r="AC3" s="75">
+        <f>+E18</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="37">
         <v>20</v>
       </c>
@@ -3742,7 +4885,7 @@
       </c>
       <c r="C4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -3765,8 +4908,23 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z4" s="68">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="71">
+        <f>E14</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AB4" s="70">
+        <f>+E13</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AC4" s="72">
+        <f>+E15</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="37">
         <v>20</v>
       </c>
@@ -3775,682 +4933,843 @@
       </c>
       <c r="C5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="56">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>8.6678417204144764E-2</v>
+        <v>0.10966421051124835</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
-        <v>4.2306737049461474E-3</v>
+        <v>0.10462150377446593</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="3"/>
-        <v>0.17758750811323568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>0.32394992479696261</v>
+      </c>
+      <c r="Z5" s="69">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="77">
+        <f>+E20</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AB5" s="76">
+        <f>+E19</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="AC5" s="78">
+        <f>+E21</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="37">
         <v>20</v>
       </c>
       <c r="B6" s="38">
-        <v>8000</v>
+        <v>7004</v>
       </c>
       <c r="C6" s="38">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D6" s="38">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" s="56">
-        <f t="shared" si="0"/>
-        <v>0.1044776119402985</v>
+        <f t="shared" ref="E6:E7" si="4">IFERROR(D6/C6, 0)</f>
+        <v>0</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="39">
-        <f t="shared" si="1"/>
-        <v>3.7369083027573149E-2</v>
+        <f t="shared" ref="G6:G7" si="5">IFERROR(SQRT(C6*E6*(1-E6))/C6, 0)</f>
+        <v>0</v>
       </c>
       <c r="H6" s="39">
-        <f t="shared" si="2"/>
-        <v>6.7108528912725354E-2</v>
+        <f t="shared" ref="H6:H7" si="6">E6-G6</f>
+        <v>0</v>
       </c>
       <c r="I6" s="41">
-        <f t="shared" si="3"/>
-        <v>0.14184669496787167</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <f t="shared" ref="I6:I7" si="7">E6+G6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="37">
         <v>20</v>
       </c>
       <c r="B7" s="38">
-        <v>8001</v>
+        <v>7005</v>
       </c>
       <c r="C7" s="38">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D7" s="38">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="56">
-        <f t="shared" si="0"/>
-        <v>8.0645161290322578E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="39">
-        <f t="shared" si="1"/>
-        <v>3.4580788823532486E-2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H7" s="39">
-        <f t="shared" si="2"/>
-        <v>4.6064372466790092E-2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="I7" s="41">
-        <f t="shared" si="3"/>
-        <v>0.11522595011385506</v>
-      </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="64">
-        <v>5</v>
-      </c>
-      <c r="O7" s="65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="66">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="37">
         <v>20</v>
       </c>
       <c r="B8" s="38">
-        <v>8002</v>
+        <v>7006</v>
       </c>
       <c r="C8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="56">
+        <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="39">
+        <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="39">
+        <f t="shared" ref="H8" si="10">E8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="41">
+        <f t="shared" ref="I8" si="11">E8+G8</f>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="1">
+        <f>+E6</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <f>+E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="37">
+        <v>20</v>
+      </c>
+      <c r="B9" s="38">
+        <v>8000</v>
+      </c>
+      <c r="C9" s="38">
+        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>67</v>
+      </c>
+      <c r="D9" s="38">
+        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>7</v>
+      </c>
+      <c r="E9" s="56">
+        <f>IFERROR(D9/C9, 0)</f>
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="39">
+        <f>IFERROR(SQRT(C9*E9*(1-E9))/C9, 0)</f>
+        <v>3.7369083027573149E-2</v>
+      </c>
+      <c r="H9" s="39">
+        <f>E9-G9</f>
+        <v>6.7108528912725354E-2</v>
+      </c>
+      <c r="I9" s="41">
+        <f>E9+G9</f>
+        <v>0.14184669496787167</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="1">
+        <f>+E4</f>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <f>+E23</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="37">
+        <v>20</v>
+      </c>
+      <c r="B10" s="38">
+        <v>8001</v>
+      </c>
+      <c r="C10" s="38">
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>62</v>
+      </c>
+      <c r="D10" s="38">
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="56">
+        <f>IFERROR(D10/C10, 0)</f>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="39">
+        <f>IFERROR(SQRT(C10*E10*(1-E10))/C10, 0)</f>
+        <v>3.4580788823532486E-2</v>
+      </c>
+      <c r="H10" s="39">
+        <f>E10-G10</f>
+        <v>4.6064372466790092E-2</v>
+      </c>
+      <c r="I10" s="41">
+        <f>E10+G10</f>
+        <v>0.11522595011385506</v>
+      </c>
+      <c r="Z10">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="1">
+        <f>+E2</f>
+        <v>0.11940298507462686</v>
+      </c>
+      <c r="AB10" s="1">
+        <f>+E22</f>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="37">
+        <v>20</v>
+      </c>
+      <c r="B11" s="38">
+        <v>8002</v>
+      </c>
+      <c r="C11" s="38">
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>63</v>
+      </c>
+      <c r="D11" s="38">
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>18</v>
       </c>
-      <c r="E8" s="56">
-        <f t="shared" si="0"/>
+      <c r="E11" s="56">
+        <f>IFERROR(D11/C11, 0)</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39">
-        <f t="shared" si="1"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39">
+        <f>IFERROR(SQRT(C11*E11*(1-E11))/C11, 0)</f>
         <v>5.6915648063542552E-2</v>
       </c>
-      <c r="H8" s="39">
-        <f t="shared" ref="H8:H21" si="4">E8-G8</f>
+      <c r="H11" s="39">
+        <f t="shared" ref="H11:H24" si="12">E11-G11</f>
         <v>0.22879863765074315</v>
       </c>
-      <c r="I8" s="41">
-        <f t="shared" ref="I8:I21" si="5">E8+G8</f>
+      <c r="I11" s="41">
+        <f t="shared" ref="I11:I24" si="13">E11+G11</f>
         <v>0.34262993377782824</v>
       </c>
-      <c r="L8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="67">
+      <c r="Z11">
+        <v>20</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>+E3</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AB11" s="1">
+        <f>+E24</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="42">
+        <v>20</v>
+      </c>
+      <c r="B12" s="43">
+        <v>8003</v>
+      </c>
+      <c r="C12" s="43">
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>62</v>
+      </c>
+      <c r="D12" s="43">
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>20</v>
+      </c>
+      <c r="E12" s="57">
+        <f>IFERROR(D12/C12, 0)</f>
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44">
+        <f>IFERROR(SQRT(C12*E12*(1-E12))/C12, 0)</f>
+        <v>5.9367957650763428E-2</v>
+      </c>
+      <c r="H12" s="44">
+        <f t="shared" si="12"/>
+        <v>0.2632126875105269</v>
+      </c>
+      <c r="I12" s="48">
+        <f t="shared" si="13"/>
+        <v>0.38194860281205373</v>
+      </c>
+      <c r="Z12">
+        <v>50</v>
+      </c>
+      <c r="AA12" s="1">
+        <f>+E5</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="AB12" s="1">
+        <f>+E25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7">
+        <v>20</v>
+      </c>
+      <c r="B13" s="8">
+        <v>9000</v>
+      </c>
+      <c r="C13" s="8">
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>14</v>
+      </c>
+      <c r="D13" s="8">
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="58">
+        <f>IFERROR(D13/C13, 0)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9">
+        <f>IFERROR(SQRT(C13*E13*(1-E13))/C13, 0)</f>
+        <v>0.10966421051124835</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="12"/>
+        <v>0.10462150377446593</v>
+      </c>
+      <c r="I13" s="31">
+        <f t="shared" si="13"/>
+        <v>0.32394992479696261</v>
+      </c>
+      <c r="Z13">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="1">
+        <f>+E7</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <f>+E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12">
+        <v>9001</v>
+      </c>
+      <c r="C14" s="12">
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>13</v>
+      </c>
+      <c r="D14" s="12">
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="59">
+        <f>IFERROR(D14/C14, 0)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13">
+        <f>IFERROR(SQRT(C14*E14*(1-E14))/C14, 0)</f>
+        <v>7.3905301756194058E-2</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="12"/>
+        <v>3.017775166882869E-3</v>
+      </c>
+      <c r="I14" s="49">
+        <f t="shared" si="13"/>
+        <v>0.15082837867927099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="15">
+        <v>20</v>
+      </c>
+      <c r="B15" s="16">
+        <v>9002</v>
+      </c>
+      <c r="C15" s="16">
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>15</v>
+      </c>
+      <c r="D15" s="16">
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="N8" s="74">
-        <f>+E14</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="73">
-        <f>+E13</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="P8" s="75">
-        <f>+E15</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="42">
-        <v>20</v>
-      </c>
-      <c r="B9" s="43">
-        <v>8003</v>
-      </c>
-      <c r="C9" s="43">
-        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>62</v>
-      </c>
-      <c r="D9" s="43">
-        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>20</v>
-      </c>
-      <c r="E9" s="57">
-        <f t="shared" si="0"/>
-        <v>0.32258064516129031</v>
-      </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44">
-        <f t="shared" si="1"/>
-        <v>5.9367957650763428E-2</v>
-      </c>
-      <c r="H9" s="44">
-        <f t="shared" si="4"/>
-        <v>0.2632126875105269</v>
-      </c>
-      <c r="I9" s="48">
-        <f t="shared" si="5"/>
-        <v>0.38194860281205373</v>
-      </c>
-      <c r="M9" s="68">
-        <v>10</v>
-      </c>
-      <c r="N9" s="71">
-        <f>E11</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="70">
-        <f>+E10</f>
-        <v>0.25</v>
-      </c>
-      <c r="P9" s="72">
-        <f>+E12</f>
-        <v>0.36363636363636365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="7">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8">
-        <v>9000</v>
-      </c>
-      <c r="C10" s="8">
-        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>12</v>
-      </c>
-      <c r="D10" s="8">
-        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
-      </c>
-      <c r="E10" s="58">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="H10" s="9">
-        <f t="shared" si="4"/>
-        <v>0.125</v>
-      </c>
-      <c r="I10" s="31">
-        <f t="shared" si="5"/>
-        <v>0.375</v>
-      </c>
-      <c r="M10" s="69">
-        <v>20</v>
-      </c>
-      <c r="N10" s="77">
-        <f>+E17</f>
+      <c r="E15" s="60">
+        <f>IFERROR(D15/C15, 0)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O10" s="76">
-        <f>+E16</f>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="P10" s="78">
-        <f>+E18</f>
-        <v>0.36363636363636365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11">
-        <v>20</v>
-      </c>
-      <c r="B11" s="12">
-        <v>9001</v>
-      </c>
-      <c r="C11" s="12">
-        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
-      </c>
-      <c r="D11" s="12">
-        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="15">
-        <v>20</v>
-      </c>
-      <c r="B12" s="16">
-        <v>9002</v>
-      </c>
-      <c r="C12" s="16">
-        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>11</v>
-      </c>
-      <c r="D12" s="16">
-        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
-      </c>
-      <c r="E12" s="60">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17">
-        <f t="shared" si="1"/>
-        <v>0.14504073367590284</v>
-      </c>
-      <c r="H12" s="17">
-        <f t="shared" si="4"/>
-        <v>0.21859562996046081</v>
-      </c>
-      <c r="I12" s="50">
-        <f t="shared" si="5"/>
-        <v>0.50867709731226651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="19">
-        <v>20</v>
-      </c>
-      <c r="B13" s="20">
+      <c r="F15" s="16"/>
+      <c r="G15" s="17">
+        <f>IFERROR(SQRT(C15*E15*(1-E15))/C15, 0)</f>
+        <v>0.12171612389003691</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="12"/>
+        <v>0.2116172094432964</v>
+      </c>
+      <c r="I15" s="50">
+        <f t="shared" si="13"/>
+        <v>0.4550494572233702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="19">
+        <v>20</v>
+      </c>
+      <c r="B16" s="20">
         <v>9003</v>
       </c>
-      <c r="C13" s="20">
-        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>11</v>
-      </c>
-      <c r="D13" s="20">
-        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="E13" s="61">
-        <f t="shared" si="0"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21">
-        <f t="shared" si="1"/>
-        <v>0.11629129983033297</v>
-      </c>
-      <c r="H13" s="21">
-        <f t="shared" si="4"/>
-        <v>6.5526881987848853E-2</v>
-      </c>
-      <c r="I13" s="51">
-        <f t="shared" si="5"/>
-        <v>0.29810948164851481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="23">
-        <v>20</v>
-      </c>
-      <c r="B14" s="24">
-        <v>9004</v>
-      </c>
-      <c r="C14" s="24">
-        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
-      </c>
-      <c r="D14" s="24">
-        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="25">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="27">
-        <v>20</v>
-      </c>
-      <c r="B15" s="28">
-        <v>9005</v>
-      </c>
-      <c r="C15" s="28">
-        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
-      </c>
-      <c r="D15" s="28">
-        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
-      </c>
-      <c r="E15" s="63">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29">
-        <f t="shared" si="1"/>
-        <v>0.14491376746189438</v>
-      </c>
-      <c r="H15" s="29">
-        <f t="shared" si="4"/>
-        <v>0.15508623253810561</v>
-      </c>
-      <c r="I15" s="53">
-        <f t="shared" si="5"/>
-        <v>0.44491376746189437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8">
-        <v>9006</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="C16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>12</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="61">
+        <f>IFERROR(D16/C16, 0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21">
+        <f>IFERROR(SQRT(C16*E16*(1-E16))/C16, 0)</f>
+        <v>0.125</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="12"/>
+        <v>0.125</v>
+      </c>
+      <c r="I16" s="51">
+        <f t="shared" si="13"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="23">
+        <v>20</v>
+      </c>
+      <c r="B17" s="24">
+        <v>9004</v>
+      </c>
+      <c r="C17" s="24">
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>14</v>
+      </c>
+      <c r="D17" s="24">
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>2</v>
+      </c>
+      <c r="E17" s="62">
+        <f>IFERROR(D17/C17, 0)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25">
+        <f>IFERROR(SQRT(C17*E17*(1-E17))/C17, 0)</f>
+        <v>9.3521952958282459E-2</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="12"/>
+        <v>4.933518989886039E-2</v>
+      </c>
+      <c r="I17" s="52">
+        <f t="shared" si="13"/>
+        <v>0.23637909581542532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="27">
+        <v>20</v>
+      </c>
+      <c r="B18" s="28">
+        <v>9005</v>
+      </c>
+      <c r="C18" s="28">
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>13</v>
+      </c>
+      <c r="D18" s="28">
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="63">
+        <f>IFERROR(D18/C18, 0)</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29">
+        <f>IFERROR(SQRT(C18*E18*(1-E18))/C18, 0)</f>
+        <v>0.11685454235580768</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="12"/>
+        <v>0.1139146884134231</v>
+      </c>
+      <c r="I18" s="53">
+        <f t="shared" si="13"/>
+        <v>0.34762377312503845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8">
+        <v>9006</v>
+      </c>
+      <c r="C19" s="8">
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>13</v>
+      </c>
+      <c r="D19" s="8">
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="58">
+        <f>IFERROR(D19/C19, 0)</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9">
+        <f>IFERROR(SQRT(C19*E19*(1-E19))/C19, 0)</f>
+        <v>0.13826415911891032</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="12"/>
+        <v>0.32327430241955124</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="13"/>
+        <v>0.59980262065737189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12">
+        <v>9007</v>
+      </c>
+      <c r="C20" s="12">
+        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>14</v>
+      </c>
+      <c r="D20" s="12">
+        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="59">
+        <f>IFERROR(D20/C20, 0)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13">
+        <f>IFERROR(SQRT(C20*E20*(1-E20))/C20, 0)</f>
+        <v>0.1207363221040738</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="12"/>
+        <v>0.16497796361021189</v>
+      </c>
+      <c r="I20" s="49">
+        <f t="shared" si="13"/>
+        <v>0.40645060781835951</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12">
+        <v>9008</v>
+      </c>
+      <c r="C21" s="12">
+        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>14</v>
+      </c>
+      <c r="D21" s="12">
+        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="E21" s="59">
+        <f>IFERROR(D21/C21, 0)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13">
+        <f>IFERROR(SQRT(C21*E21*(1-E21))/C21, 0)</f>
+        <v>0.13226001425322162</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="12"/>
+        <v>0.29631141431820696</v>
+      </c>
+      <c r="I21" s="49">
+        <f t="shared" si="13"/>
+        <v>0.56083144282465014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="19">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20">
+        <v>10000</v>
+      </c>
+      <c r="C22" s="20">
+        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>14</v>
+      </c>
+      <c r="D22" s="20">
+        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="E16" s="58">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9">
-        <f t="shared" si="1"/>
-        <v>0.14231876063832774</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="4"/>
-        <v>0.27434790602833892</v>
-      </c>
-      <c r="I16" s="31">
-        <f t="shared" si="5"/>
-        <v>0.55898542730499445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="11">
-        <v>20</v>
-      </c>
-      <c r="B17" s="12">
-        <v>9007</v>
-      </c>
-      <c r="C17" s="12">
-        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>9</v>
-      </c>
-      <c r="D17" s="12">
-        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+      <c r="E22" s="61">
+        <f>IFERROR(D22/C22, 0)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21">
+        <f>IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
+        <v>0.12806020814297076</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="12"/>
+        <v>0.2290826489998864</v>
+      </c>
+      <c r="I22" s="51">
+        <f t="shared" si="13"/>
+        <v>0.48520306528582791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="24">
+        <v>10001</v>
+      </c>
+      <c r="C23" s="24">
+        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>14</v>
+      </c>
+      <c r="D23" s="24">
+        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="62">
+        <f>IFERROR(D23/C23, 0)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25">
+        <f>IFERROR(SQRT(C23*E23*(1-E23))/C23, 0)</f>
+        <v>6.8830293689959396E-2</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="12"/>
+        <v>2.5982777386120287E-3</v>
+      </c>
+      <c r="I23" s="52">
+        <f t="shared" si="13"/>
+        <v>0.14025886511853081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="23">
+        <v>20</v>
+      </c>
+      <c r="B24" s="24">
+        <v>10002</v>
+      </c>
+      <c r="C24" s="24">
+        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E17" s="59">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13">
-        <f t="shared" si="1"/>
-        <v>0.15713484026367724</v>
-      </c>
-      <c r="H17" s="13">
-        <f t="shared" si="4"/>
-        <v>0.17619849306965607</v>
-      </c>
-      <c r="I17" s="49">
-        <f t="shared" si="5"/>
-        <v>0.49046817359701056</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="11">
-        <v>20</v>
-      </c>
-      <c r="B18" s="12">
-        <v>9008</v>
-      </c>
-      <c r="C18" s="12">
-        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>11</v>
-      </c>
-      <c r="D18" s="12">
-        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
-      </c>
-      <c r="E18" s="59">
-        <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13">
-        <f t="shared" si="1"/>
-        <v>0.14504073367590284</v>
-      </c>
-      <c r="H18" s="13">
-        <f t="shared" si="4"/>
-        <v>0.21859562996046081</v>
-      </c>
-      <c r="I18" s="49">
-        <f t="shared" si="5"/>
-        <v>0.50867709731226651</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="19">
-        <v>20</v>
-      </c>
-      <c r="B19" s="20">
-        <v>10000</v>
-      </c>
-      <c r="C19" s="20">
-        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
-      </c>
-      <c r="D19" s="20">
-        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
-      </c>
-      <c r="E19" s="61">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21">
-        <f t="shared" si="1"/>
-        <v>0.15491933384829668</v>
-      </c>
-      <c r="H19" s="21">
-        <f t="shared" si="4"/>
-        <v>0.24508066615170335</v>
-      </c>
-      <c r="I19" s="51">
-        <f t="shared" si="5"/>
-        <v>0.55491933384829673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="23">
-        <v>20</v>
-      </c>
-      <c r="B20" s="24">
-        <v>10001</v>
-      </c>
-      <c r="C20" s="24">
-        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>13</v>
-      </c>
-      <c r="D20" s="24">
-        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+      <c r="D24" s="24">
+        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="62">
+        <f>IFERROR(D24/C24, 0)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25">
+        <f>IFERROR(SQRT(C24*E24*(1-E24))/C24, 0)</f>
+        <v>0.27216552697590868</v>
+      </c>
+      <c r="H24" s="25">
+        <f t="shared" si="12"/>
+        <v>0.39450113969075795</v>
+      </c>
+      <c r="I24" s="52">
+        <f t="shared" si="13"/>
+        <v>0.93883219364257531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="23">
+        <v>20</v>
+      </c>
+      <c r="B25" s="24">
+        <v>10003</v>
+      </c>
+      <c r="C25" s="24">
+        <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E20" s="62">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25">
-        <f t="shared" si="1"/>
-        <v>7.3905301756194058E-2</v>
-      </c>
-      <c r="H20" s="25">
-        <f t="shared" si="4"/>
-        <v>3.017775166882869E-3</v>
-      </c>
-      <c r="I20" s="52">
-        <f t="shared" si="5"/>
-        <v>0.15082837867927099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="23">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24">
-        <v>10002</v>
-      </c>
-      <c r="C21" s="24">
-        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+      <c r="D25" s="24">
+        <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="62">
+        <f t="shared" ref="E25:E26" si="14">IFERROR(D25/C25, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25">
+        <f t="shared" ref="G25:G26" si="15">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" ref="H25:H26" si="16">E25-G25</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="52">
+        <f t="shared" ref="I25:I26" si="17">E25+G25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="27">
+        <v>20</v>
+      </c>
+      <c r="B26" s="28">
+        <v>10004</v>
+      </c>
+      <c r="C26" s="28">
+        <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="D21" s="24">
-        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+      <c r="D26" s="28">
+        <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="63">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="29">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="53">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="27">
+        <v>20</v>
+      </c>
+      <c r="B27" s="28">
+        <v>10005</v>
+      </c>
+      <c r="C27" s="28">
+        <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="62">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25">
-        <f t="shared" si="1"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="H21" s="25">
-        <f t="shared" si="4"/>
-        <v>0.14644660940672621</v>
-      </c>
-      <c r="I21" s="52">
-        <f t="shared" si="5"/>
-        <v>0.85355339059327373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="23">
-        <v>20</v>
-      </c>
-      <c r="B22" s="24">
-        <v>10003</v>
-      </c>
-      <c r="C22" s="24">
-        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="24">
-        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="62">
-        <f t="shared" ref="E22:E23" si="6">IFERROR(D22/C22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25">
-        <f t="shared" ref="G22:G23" si="7">IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="25">
-        <f t="shared" ref="H22:H23" si="8">E22-G22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="52">
-        <f t="shared" ref="I22:I23" si="9">E22+G22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="27">
-        <v>20</v>
-      </c>
-      <c r="B23" s="28">
-        <v>10004</v>
-      </c>
-      <c r="C23" s="28">
-        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="D23" s="28">
-        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="63">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="53">
-        <f t="shared" si="9"/>
+      <c r="D27" s="28">
+        <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="63">
+        <f t="shared" ref="E27" si="18">IFERROR(D27/C27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29">
+        <f t="shared" ref="G27" si="19">IFERROR(SQRT(C27*E27*(1-E27))/C27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="29">
+        <f t="shared" ref="H27" si="20">E27-G27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="53">
+        <f t="shared" ref="I27" si="21">E27+G27</f>
         <v>0</v>
       </c>
     </row>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8235C5-2CA0-49D6-A094-C0FDD21BA981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE7FA16-DDA5-420F-BFB9-C153AB0C49DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -722,13 +722,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.15789473684210525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,13 +760,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>0.15789473684210525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.38095238095238093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,13 +798,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46153846153846156</c:v>
+                  <c:v>0.38095238095238093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,7 +1185,7 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1260,16 +1260,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1428571428571425E-2</c:v>
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35714285714285715</c:v>
+                  <c:v>0.38095238095238093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1351,7 +1351,7 @@
         <c:axId val="938670176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2953,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A8" sqref="A8:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3109,7 +3109,7 @@
         <v>7002</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.76</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3129,16 +3129,16 @@
         <v>7003</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>1.51</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3149,7 +3149,7 @@
         <v>7004</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3166,19 +3166,19 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>9000</v>
+        <v>7005</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0.94</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3186,10 +3186,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9001</v>
+        <v>7006</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.55</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3206,19 +3206,19 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>9002</v>
+        <v>9000</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3226,19 +3226,19 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>9003</v>
+        <v>9001</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F14" s="2">
-        <v>1.49</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3246,19 +3246,19 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>9004</v>
+        <v>9002</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <v>0.33329999999999999</v>
-      </c>
       <c r="F15" s="2">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3266,19 +3266,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>9005</v>
+        <v>9003</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F16" s="2">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3286,19 +3286,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>9006</v>
+        <v>9004</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F17" s="2">
-        <v>0.97</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3306,19 +3306,19 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>9007</v>
+        <v>9005</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1.1200000000000001</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3326,19 +3326,19 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>9008</v>
+        <v>9006</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="2">
-        <v>1.38</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3346,19 +3346,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10000</v>
+        <v>9007</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F20" s="2">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3366,19 +3366,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10001</v>
+        <v>9008</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3386,24 +3386,120 @@
         <v>20</v>
       </c>
       <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10001</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>10002</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>10003</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
         <v>10004</v>
       </c>
-      <c r="C22">
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>10005</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>3.12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3850,7 +3946,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3883,7 +3979,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3903,16 +3999,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F3">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3923,7 +4019,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3932,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3943,7 +4039,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3952,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3963,16 +4059,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F6">
-        <v>1.37</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3983,16 +4079,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F7">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4003,7 +4099,7 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4012,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4023,16 +4119,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0.33329999999999999</v>
       </c>
       <c r="F9">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4043,16 +4139,16 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.33329999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F10">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4063,7 +4159,7 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4083,7 +4179,7 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4092,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4103,16 +4199,16 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.33329999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F13">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4123,7 +4219,7 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4143,16 +4239,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F15">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4163,16 +4259,16 @@
         <v>10000</v>
       </c>
       <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
       <c r="E16">
-        <v>0.66669999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4183,16 +4279,16 @@
         <v>10001</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F17">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4203,16 +4299,16 @@
         <v>10002</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>0.66669999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="F18">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4223,16 +4319,16 @@
         <v>10003</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F19">
-        <v>1.18</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4243,7 +4339,7 @@
         <v>10004</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4252,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.76</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4263,7 +4359,7 @@
         <v>10005</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4272,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -4282,10 +4378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4479,7 +4575,7 @@
         <v>7002</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4488,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4499,16 +4595,16 @@
         <v>7003</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="F9" s="2">
-        <v>2.1</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4516,10 +4612,10 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>9000</v>
+        <v>7004</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4528,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>2.0099999999999998</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4536,19 +4632,19 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>9001</v>
+        <v>7005</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>2.1800000000000002</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4556,10 +4652,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9002</v>
+        <v>7006</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4568,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4576,19 +4672,19 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>9003</v>
+        <v>9000</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1.89</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4596,19 +4692,19 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>9004</v>
+        <v>9001</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0.25</v>
       </c>
       <c r="F14" s="2">
-        <v>2.2599999999999998</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4616,19 +4712,19 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>9005</v>
+        <v>9002</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0.5</v>
+        <v>0.1429</v>
       </c>
       <c r="F15" s="2">
-        <v>2.3199999999999998</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4636,19 +4732,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>9006</v>
+        <v>9003</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0.75</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F16">
-        <v>2.08</v>
+        <v>2.2200000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4656,19 +4752,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>9007</v>
+        <v>9004</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>0.4</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F17">
-        <v>2.37</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4676,19 +4772,19 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>9008</v>
+        <v>9005</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="F18">
-        <v>2.1800000000000002</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4696,19 +4792,19 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>10000</v>
+        <v>9006</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="F19">
-        <v>2.2799999999999998</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4716,19 +4812,139 @@
         <v>20</v>
       </c>
       <c r="B20">
+        <v>9007</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="F20">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>9008</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0.375</v>
+      </c>
+      <c r="F21">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.1429</v>
+      </c>
+      <c r="F22">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
         <v>10001</v>
       </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20">
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>0.25</v>
-      </c>
-      <c r="F20">
+      <c r="E23">
+        <v>0.1429</v>
+      </c>
+      <c r="F23">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>10002</v>
+      </c>
+      <c r="C24">
         <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>10003</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+      <c r="F25">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>10005</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2.2799999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -4741,8 +4957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4865,15 +5081,15 @@
       </c>
       <c r="AA3" s="74">
         <f>+E17</f>
-        <v>0.14285714285714285</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="AB3" s="73">
         <f>+E16</f>
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AC3" s="75">
         <f>+E18</f>
-        <v>0.23076923076923078</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -4885,7 +5101,7 @@
       </c>
       <c r="C4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -4913,15 +5129,15 @@
       </c>
       <c r="AA4" s="71">
         <f>E14</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="AB4" s="70">
         <f>+E13</f>
-        <v>0.21428571428571427</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="AC4" s="72">
         <f>+E15</f>
-        <v>0.33333333333333331</v>
+        <v>0.38095238095238093</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -4933,43 +5149,43 @@
       </c>
       <c r="C5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="56">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>0.10966421051124835</v>
+        <v>8.9442719099991588E-2</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
-        <v>0.10462150377446593</v>
+        <v>0.11055728090000842</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="3"/>
-        <v>0.32394992479696261</v>
+        <v>0.28944271909999159</v>
       </c>
       <c r="Z5" s="69">
         <v>20</v>
       </c>
       <c r="AA5" s="77">
         <f>+E20</f>
-        <v>0.2857142857142857</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="AB5" s="76">
         <f>+E19</f>
-        <v>0.46153846153846156</v>
+        <v>0.38095238095238093</v>
       </c>
       <c r="AC5" s="78">
         <f>+E21</f>
-        <v>0.42857142857142855</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -4981,7 +5197,7 @@
       </c>
       <c r="C6" s="38">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" s="38">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5014,7 +5230,7 @@
       </c>
       <c r="C7" s="38">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" s="38">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5056,28 +5272,28 @@
       </c>
       <c r="C8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="56">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="39">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0</v>
+        <v>0.15214515486254615</v>
       </c>
       <c r="H8" s="39">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>0</v>
+        <v>1.4521511804120507E-2</v>
       </c>
       <c r="I8" s="41">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0</v>
+        <v>0.31881182152921284</v>
       </c>
       <c r="Z8">
         <v>2</v>
@@ -5107,12 +5323,12 @@
         <v>7</v>
       </c>
       <c r="E9" s="56">
-        <f>IFERROR(D9/C9, 0)</f>
+        <f t="shared" ref="E9:E24" si="12">IFERROR(D9/C9, 0)</f>
         <v>0.1044776119402985</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="39">
-        <f>IFERROR(SQRT(C9*E9*(1-E9))/C9, 0)</f>
+        <f t="shared" ref="G9:G24" si="13">IFERROR(SQRT(C9*E9*(1-E9))/C9, 0)</f>
         <v>3.7369083027573149E-2</v>
       </c>
       <c r="H9" s="39">
@@ -5132,7 +5348,7 @@
       </c>
       <c r="AB9" s="1">
         <f>+E23</f>
-        <v>7.1428571428571425E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5151,12 +5367,12 @@
         <v>5</v>
       </c>
       <c r="E10" s="56">
-        <f>IFERROR(D10/C10, 0)</f>
+        <f t="shared" si="12"/>
         <v>8.0645161290322578E-2</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="39">
-        <f>IFERROR(SQRT(C10*E10*(1-E10))/C10, 0)</f>
+        <f t="shared" si="13"/>
         <v>3.4580788823532486E-2</v>
       </c>
       <c r="H10" s="39">
@@ -5176,7 +5392,7 @@
       </c>
       <c r="AB10" s="1">
         <f>+E22</f>
-        <v>0.35714285714285715</v>
+        <v>0.38095238095238093</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5195,20 +5411,20 @@
         <v>18</v>
       </c>
       <c r="E11" s="56">
-        <f>IFERROR(D11/C11, 0)</f>
+        <f t="shared" si="12"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="39">
-        <f>IFERROR(SQRT(C11*E11*(1-E11))/C11, 0)</f>
+        <f t="shared" si="13"/>
         <v>5.6915648063542552E-2</v>
       </c>
       <c r="H11" s="39">
-        <f t="shared" ref="H11:H24" si="12">E11-G11</f>
+        <f t="shared" ref="H11:H24" si="14">E11-G11</f>
         <v>0.22879863765074315</v>
       </c>
       <c r="I11" s="41">
-        <f t="shared" ref="I11:I24" si="13">E11+G11</f>
+        <f t="shared" ref="I11:I24" si="15">E11+G11</f>
         <v>0.34262993377782824</v>
       </c>
       <c r="Z11">
@@ -5220,7 +5436,7 @@
       </c>
       <c r="AB11" s="1">
         <f>+E24</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5239,32 +5455,32 @@
         <v>20</v>
       </c>
       <c r="E12" s="57">
-        <f>IFERROR(D12/C12, 0)</f>
+        <f t="shared" si="12"/>
         <v>0.32258064516129031</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="44">
-        <f>IFERROR(SQRT(C12*E12*(1-E12))/C12, 0)</f>
+        <f t="shared" si="13"/>
         <v>5.9367957650763428E-2</v>
       </c>
       <c r="H12" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.2632126875105269</v>
       </c>
       <c r="I12" s="48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.38194860281205373</v>
       </c>
       <c r="Z12">
         <v>50</v>
       </c>
       <c r="AA12" s="1">
-        <f>+E5</f>
-        <v>0.21428571428571427</v>
+        <f>+E8</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AB12" s="1">
         <f>+E25</f>
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5276,28 +5492,28 @@
       </c>
       <c r="C13" s="8">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" s="8">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="58">
-        <f>IFERROR(D13/C13, 0)</f>
-        <v>0.21428571428571427</v>
+        <f t="shared" si="12"/>
+        <v>0.21052631578947367</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9">
-        <f>IFERROR(SQRT(C13*E13*(1-E13))/C13, 0)</f>
-        <v>0.10966421051124835</v>
+        <f t="shared" si="13"/>
+        <v>9.3528770172488271E-2</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="12"/>
-        <v>0.10462150377446593</v>
+        <f t="shared" si="14"/>
+        <v>0.1169975456169854</v>
       </c>
       <c r="I13" s="31">
-        <f t="shared" si="13"/>
-        <v>0.32394992479696261</v>
+        <f t="shared" si="15"/>
+        <v>0.30405508596196196</v>
       </c>
       <c r="Z13">
         <v>100</v>
@@ -5320,28 +5536,28 @@
       </c>
       <c r="C14" s="12">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D14" s="12">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="59">
-        <f>IFERROR(D14/C14, 0)</f>
-        <v>7.6923076923076927E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.15789473684210525</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13">
-        <f>IFERROR(SQRT(C14*E14*(1-E14))/C14, 0)</f>
-        <v>7.3905301756194058E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.3654675183055402E-2</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="12"/>
-        <v>3.017775166882869E-3</v>
+        <f t="shared" si="14"/>
+        <v>7.4240061659049852E-2</v>
       </c>
       <c r="I14" s="49">
-        <f t="shared" si="13"/>
-        <v>0.15082837867927099</v>
+        <f t="shared" si="15"/>
+        <v>0.24154941202516067</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5353,28 +5569,28 @@
       </c>
       <c r="C15" s="16">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15" s="16">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E15" s="60">
-        <f>IFERROR(D15/C15, 0)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="12"/>
+        <v>0.38095238095238093</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17">
-        <f>IFERROR(SQRT(C15*E15*(1-E15))/C15, 0)</f>
-        <v>0.12171612389003691</v>
+        <f t="shared" si="13"/>
+        <v>0.10597116957413083</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="12"/>
-        <v>0.2116172094432964</v>
+        <f t="shared" si="14"/>
+        <v>0.2749812113782501</v>
       </c>
       <c r="I15" s="50">
-        <f t="shared" si="13"/>
-        <v>0.4550494572233702</v>
+        <f t="shared" si="15"/>
+        <v>0.48692355052651176</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5386,28 +5602,28 @@
       </c>
       <c r="C16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
       <c r="E16" s="61">
-        <f>IFERROR(D16/C16, 0)</f>
-        <v>0.25</v>
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21">
-        <f>IFERROR(SQRT(C16*E16*(1-E16))/C16, 0)</f>
-        <v>0.125</v>
+        <f t="shared" si="13"/>
+        <v>8.7841046115788315E-2</v>
       </c>
       <c r="H16" s="21">
-        <f t="shared" si="12"/>
-        <v>0.125</v>
+        <f t="shared" si="14"/>
+        <v>7.8825620550878342E-2</v>
       </c>
       <c r="I16" s="51">
-        <f t="shared" si="13"/>
-        <v>0.375</v>
+        <f t="shared" si="15"/>
+        <v>0.25450771278245499</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5419,28 +5635,28 @@
       </c>
       <c r="C17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="62">
-        <f>IFERROR(D17/C17, 0)</f>
-        <v>0.14285714285714285</v>
+        <f t="shared" si="12"/>
+        <v>0.15789473684210525</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
-        <f>IFERROR(SQRT(C17*E17*(1-E17))/C17, 0)</f>
-        <v>9.3521952958282459E-2</v>
+        <f t="shared" si="13"/>
+        <v>8.3654675183055402E-2</v>
       </c>
       <c r="H17" s="25">
-        <f t="shared" si="12"/>
-        <v>4.933518989886039E-2</v>
+        <f t="shared" si="14"/>
+        <v>7.4240061659049852E-2</v>
       </c>
       <c r="I17" s="52">
-        <f t="shared" si="13"/>
-        <v>0.23637909581542532</v>
+        <f t="shared" si="15"/>
+        <v>0.24154941202516067</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5452,28 +5668,28 @@
       </c>
       <c r="C18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="63">
-        <f>IFERROR(D18/C18, 0)</f>
-        <v>0.23076923076923078</v>
+        <f t="shared" si="12"/>
+        <v>0.2</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="29">
-        <f>IFERROR(SQRT(C18*E18*(1-E18))/C18, 0)</f>
-        <v>0.11685454235580768</v>
+        <f t="shared" si="13"/>
+        <v>8.9442719099991588E-2</v>
       </c>
       <c r="H18" s="29">
-        <f t="shared" si="12"/>
-        <v>0.1139146884134231</v>
+        <f t="shared" si="14"/>
+        <v>0.11055728090000842</v>
       </c>
       <c r="I18" s="53">
-        <f t="shared" si="13"/>
-        <v>0.34762377312503845</v>
+        <f t="shared" si="15"/>
+        <v>0.28944271909999159</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5485,28 +5701,28 @@
       </c>
       <c r="C19" s="8">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D19" s="8">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E19" s="58">
-        <f>IFERROR(D19/C19, 0)</f>
-        <v>0.46153846153846156</v>
+        <f t="shared" si="12"/>
+        <v>0.38095238095238093</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9">
-        <f>IFERROR(SQRT(C19*E19*(1-E19))/C19, 0)</f>
-        <v>0.13826415911891032</v>
+        <f t="shared" si="13"/>
+        <v>0.10597116957413083</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="12"/>
-        <v>0.32327430241955124</v>
+        <f t="shared" si="14"/>
+        <v>0.2749812113782501</v>
       </c>
       <c r="I19" s="31">
-        <f t="shared" si="13"/>
-        <v>0.59980262065737189</v>
+        <f t="shared" si="15"/>
+        <v>0.48692355052651176</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5518,28 +5734,28 @@
       </c>
       <c r="C20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="E20" s="59">
-        <f>IFERROR(D20/C20, 0)</f>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="12"/>
+        <v>0.21052631578947367</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="13">
-        <f>IFERROR(SQRT(C20*E20*(1-E20))/C20, 0)</f>
-        <v>0.1207363221040738</v>
+        <f t="shared" si="13"/>
+        <v>9.3528770172488271E-2</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="12"/>
-        <v>0.16497796361021189</v>
+        <f t="shared" si="14"/>
+        <v>0.1169975456169854</v>
       </c>
       <c r="I20" s="49">
-        <f t="shared" si="13"/>
-        <v>0.40645060781835951</v>
+        <f t="shared" si="15"/>
+        <v>0.30405508596196196</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5551,28 +5767,28 @@
       </c>
       <c r="C21" s="12">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21" s="12">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E21" s="59">
-        <f>IFERROR(D21/C21, 0)</f>
-        <v>0.42857142857142855</v>
+        <f t="shared" si="12"/>
+        <v>0.45</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13">
-        <f>IFERROR(SQRT(C21*E21*(1-E21))/C21, 0)</f>
-        <v>0.13226001425322162</v>
+        <f t="shared" si="13"/>
+        <v>0.11124297730643495</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="12"/>
-        <v>0.29631141431820696</v>
+        <f t="shared" si="14"/>
+        <v>0.33875702269356506</v>
       </c>
       <c r="I21" s="49">
-        <f t="shared" si="13"/>
-        <v>0.56083144282465014</v>
+        <f t="shared" si="15"/>
+        <v>0.56124297730643491</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5584,28 +5800,28 @@
       </c>
       <c r="C22" s="20">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D22" s="20">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E22" s="61">
-        <f>IFERROR(D22/C22, 0)</f>
-        <v>0.35714285714285715</v>
+        <f t="shared" si="12"/>
+        <v>0.38095238095238093</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21">
-        <f>IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
-        <v>0.12806020814297076</v>
+        <f t="shared" si="13"/>
+        <v>0.10597116957413083</v>
       </c>
       <c r="H22" s="21">
-        <f t="shared" si="12"/>
-        <v>0.2290826489998864</v>
+        <f t="shared" si="14"/>
+        <v>0.2749812113782501</v>
       </c>
       <c r="I22" s="51">
-        <f t="shared" si="13"/>
-        <v>0.48520306528582791</v>
+        <f t="shared" si="15"/>
+        <v>0.48692355052651176</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5617,28 +5833,28 @@
       </c>
       <c r="C23" s="24">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D23" s="24">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="62">
-        <f>IFERROR(D23/C23, 0)</f>
-        <v>7.1428571428571425E-2</v>
+        <f t="shared" si="12"/>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="25">
-        <f>IFERROR(SQRT(C23*E23*(1-E23))/C23, 0)</f>
-        <v>6.8830293689959396E-2</v>
+        <f t="shared" si="13"/>
+        <v>6.4056448489004686E-2</v>
       </c>
       <c r="H23" s="25">
-        <f t="shared" si="12"/>
-        <v>2.5982777386120287E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.1181646749090547E-2</v>
       </c>
       <c r="I23" s="52">
-        <f t="shared" si="13"/>
-        <v>0.14025886511853081</v>
+        <f t="shared" si="15"/>
+        <v>0.15929454372709992</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5650,28 +5866,28 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="62">
-        <f>IFERROR(D24/C24, 0)</f>
-        <v>0.66666666666666663</v>
+        <f t="shared" si="12"/>
+        <v>0.5</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
-        <f>IFERROR(SQRT(C24*E24*(1-E24))/C24, 0)</f>
-        <v>0.27216552697590868</v>
+        <f t="shared" si="13"/>
+        <v>0.17677669529663689</v>
       </c>
       <c r="H24" s="25">
-        <f t="shared" si="12"/>
-        <v>0.39450113969075795</v>
+        <f t="shared" si="14"/>
+        <v>0.32322330470336313</v>
       </c>
       <c r="I24" s="52">
-        <f t="shared" si="13"/>
-        <v>0.93883219364257531</v>
+        <f t="shared" si="15"/>
+        <v>0.67677669529663687</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5683,28 +5899,28 @@
       </c>
       <c r="C25" s="24">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D25" s="24">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="62">
-        <f t="shared" ref="E25:E26" si="14">IFERROR(D25/C25, 0)</f>
-        <v>1</v>
+        <f t="shared" ref="E25:E26" si="16">IFERROR(D25/C25, 0)</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="25">
-        <f t="shared" ref="G25:G26" si="15">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
-        <v>0</v>
+        <f t="shared" ref="G25:G26" si="17">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
+        <v>0.17074694419062766</v>
       </c>
       <c r="H25" s="25">
-        <f t="shared" ref="H25:H26" si="16">E25-G25</f>
-        <v>1</v>
+        <f t="shared" ref="H25:H26" si="18">E25-G25</f>
+        <v>0.11496734152365803</v>
       </c>
       <c r="I25" s="52">
-        <f t="shared" ref="I25:I26" si="17">E25+G25</f>
-        <v>1</v>
+        <f t="shared" ref="I25:I26" si="19">E25+G25</f>
+        <v>0.45646122990491333</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5716,27 +5932,27 @@
       </c>
       <c r="C26" s="28">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D26" s="28">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E26" s="63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H26" s="29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I26" s="53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -5749,27 +5965,27 @@
       </c>
       <c r="C27" s="28">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D27" s="28">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E27" s="63">
-        <f t="shared" ref="E27" si="18">IFERROR(D27/C27, 0)</f>
+        <f t="shared" ref="E27" si="20">IFERROR(D27/C27, 0)</f>
         <v>0</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="29">
-        <f t="shared" ref="G27" si="19">IFERROR(SQRT(C27*E27*(1-E27))/C27, 0)</f>
+        <f t="shared" ref="G27" si="21">IFERROR(SQRT(C27*E27*(1-E27))/C27, 0)</f>
         <v>0</v>
       </c>
       <c r="H27" s="29">
-        <f t="shared" ref="H27" si="20">E27-G27</f>
+        <f t="shared" ref="H27" si="22">E27-G27</f>
         <v>0</v>
       </c>
       <c r="I27" s="53">
-        <f t="shared" ref="I27" si="21">E27+G27</f>
+        <f t="shared" ref="I27" si="23">E27+G27</f>
         <v>0</v>
       </c>
     </row>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE7FA16-DDA5-420F-BFB9-C153AB0C49DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FCEC1E-49DE-40DF-88A7-D16337C17699}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -722,13 +722,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.15789473684210525</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19047619047619047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,10 +763,10 @@
                   <c:v>0.15789473684210525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38095238095238093</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,13 +798,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.38095238095238093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45</c:v>
+                  <c:v>0.47619047619047616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2955,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3289,16 +3289,16 @@
         <v>9004</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F17" s="2">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3369,16 +3369,16 @@
         <v>9008</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3494,10 +3494,10 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
         <v>3.12</v>
       </c>
     </row>
@@ -3946,7 +3946,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4019,7 +4019,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4079,16 +4079,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4179,7 +4179,7 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4219,7 +4219,7 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4359,7 +4359,7 @@
         <v>10005</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
@@ -4380,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4575,7 +4575,7 @@
         <v>7002</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4595,16 +4595,16 @@
         <v>7003</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.125</v>
+        <v>0.1111</v>
       </c>
       <c r="F9" s="2">
-        <v>2.39</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4615,7 +4615,7 @@
         <v>7004</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>3.43</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4715,16 +4715,16 @@
         <v>9002</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.1429</v>
+        <v>0.125</v>
       </c>
       <c r="F15" s="2">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4735,16 +4735,16 @@
         <v>9003</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>0.16669999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F16">
-        <v>2.2200000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4935,7 +4935,7 @@
         <v>10005</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.2799999999999998</v>
+        <v>2.76</v>
       </c>
     </row>
   </sheetData>
@@ -4957,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
@@ -5081,15 +5081,15 @@
       </c>
       <c r="AA3" s="74">
         <f>+E17</f>
-        <v>0.15789473684210525</v>
+        <v>0.15</v>
       </c>
       <c r="AB3" s="73">
         <f>+E16</f>
-        <v>0.16666666666666666</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="AC3" s="75">
         <f>+E18</f>
-        <v>0.2</v>
+        <v>0.19047619047619047</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="C4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5133,11 +5133,11 @@
       </c>
       <c r="AB4" s="70">
         <f>+E13</f>
-        <v>0.21052631578947367</v>
+        <v>0.25</v>
       </c>
       <c r="AC4" s="72">
         <f>+E15</f>
-        <v>0.38095238095238093</v>
+        <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="C5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5157,27 +5157,27 @@
       </c>
       <c r="E5" s="56">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>8.9442719099991588E-2</v>
+        <v>8.568908674689879E-2</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
-        <v>0.11055728090000842</v>
+        <v>0.10478710372929168</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="3"/>
-        <v>0.28944271909999159</v>
+        <v>0.27616527722308926</v>
       </c>
       <c r="Z5" s="69">
         <v>20</v>
       </c>
       <c r="AA5" s="77">
         <f>+E20</f>
-        <v>0.21052631578947367</v>
+        <v>0.2</v>
       </c>
       <c r="AB5" s="76">
         <f>+E19</f>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="AC5" s="78">
         <f>+E21</f>
-        <v>0.45</v>
+        <v>0.47619047619047616</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="C6" s="38">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="38">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5492,28 +5492,28 @@
       </c>
       <c r="C13" s="8">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="58">
         <f t="shared" si="12"/>
-        <v>0.21052631578947367</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9">
         <f t="shared" si="13"/>
-        <v>9.3528770172488271E-2</v>
+        <v>9.6824583655185426E-2</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="14"/>
-        <v>0.1169975456169854</v>
+        <v>0.15317541634481457</v>
       </c>
       <c r="I13" s="31">
         <f t="shared" si="15"/>
-        <v>0.30405508596196196</v>
+        <v>0.34682458365518543</v>
       </c>
       <c r="Z13">
         <v>100</v>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="C15" s="16">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="16">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5577,20 +5577,20 @@
       </c>
       <c r="E15" s="60">
         <f t="shared" si="12"/>
-        <v>0.38095238095238093</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17">
         <f t="shared" si="13"/>
-        <v>0.10597116957413083</v>
+        <v>0.10255928633050294</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="14"/>
-        <v>0.2749812113782501</v>
+        <v>0.26107707730586072</v>
       </c>
       <c r="I15" s="50">
         <f t="shared" si="15"/>
-        <v>0.48692355052651176</v>
+        <v>0.46619564996686658</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5602,28 +5602,28 @@
       </c>
       <c r="C16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="61">
         <f t="shared" si="12"/>
-        <v>0.16666666666666666</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21">
         <f t="shared" si="13"/>
-        <v>8.7841046115788315E-2</v>
+        <v>9.3528770172488271E-2</v>
       </c>
       <c r="H16" s="21">
         <f t="shared" si="14"/>
-        <v>7.8825620550878342E-2</v>
+        <v>0.1169975456169854</v>
       </c>
       <c r="I16" s="51">
         <f t="shared" si="15"/>
-        <v>0.25450771278245499</v>
+        <v>0.30405508596196196</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5635,7 +5635,7 @@
       </c>
       <c r="C17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5643,20 +5643,20 @@
       </c>
       <c r="E17" s="62">
         <f t="shared" si="12"/>
-        <v>0.15789473684210525</v>
+        <v>0.15</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
         <f t="shared" si="13"/>
-        <v>8.3654675183055402E-2</v>
+        <v>7.9843597113356563E-2</v>
       </c>
       <c r="H17" s="25">
         <f t="shared" si="14"/>
-        <v>7.4240061659049852E-2</v>
+        <v>7.0156402886643432E-2</v>
       </c>
       <c r="I17" s="52">
         <f t="shared" si="15"/>
-        <v>0.24154941202516067</v>
+        <v>0.22984359711335656</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="C18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5676,20 +5676,20 @@
       </c>
       <c r="E18" s="63">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="29">
         <f t="shared" si="13"/>
-        <v>8.9442719099991588E-2</v>
+        <v>8.568908674689879E-2</v>
       </c>
       <c r="H18" s="29">
         <f t="shared" si="14"/>
-        <v>0.11055728090000842</v>
+        <v>0.10478710372929168</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="15"/>
-        <v>0.28944271909999159</v>
+        <v>0.27616527722308926</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="C20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5742,20 +5742,20 @@
       </c>
       <c r="E20" s="59">
         <f t="shared" si="12"/>
-        <v>0.21052631578947367</v>
+        <v>0.2</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="13">
         <f t="shared" si="13"/>
-        <v>9.3528770172488271E-2</v>
+        <v>8.9442719099991588E-2</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="14"/>
-        <v>0.1169975456169854</v>
+        <v>0.11055728090000842</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="15"/>
-        <v>0.30405508596196196</v>
+        <v>0.28944271909999159</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5767,28 +5767,28 @@
       </c>
       <c r="C21" s="12">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="12">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="59">
         <f t="shared" si="12"/>
-        <v>0.45</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13">
         <f t="shared" si="13"/>
-        <v>0.11124297730643495</v>
+        <v>0.10898516862311036</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" si="14"/>
-        <v>0.33875702269356506</v>
+        <v>0.3672053075673658</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="15"/>
-        <v>0.56124297730643491</v>
+        <v>0.58517564481358653</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="C27" s="28">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" s="28">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FCEC1E-49DE-40DF-88A7-D16337C17699}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D833681F-4D7C-42C0-BB95-04F1D2703ECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -722,13 +722,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>0.2608695652173913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19047619047619047</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,13 +760,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.15789473684210525</c:v>
+                  <c:v>0.13043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.27272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36363636363636365</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,13 +798,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38095238095238093</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47619047619047616</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,7 +1185,7 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1260,16 +1260,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38095238095238093</c:v>
+                  <c:v>0.39130434782608697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.45454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2955,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3109,7 +3109,7 @@
         <v>7002</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>2.23</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3129,16 +3129,16 @@
         <v>7003</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F9" s="2">
-        <v>1.84</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3189,16 +3189,16 @@
         <v>7006</v>
       </c>
       <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="2">
-        <v>2.17</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3229,16 +3229,16 @@
         <v>9001</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F14" s="2">
-        <v>1.92</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3269,16 +3269,16 @@
         <v>9003</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="2">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3429,16 +3429,16 @@
         <v>10002</v>
       </c>
       <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="2">
-        <v>2.0299999999999998</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3449,7 +3449,7 @@
         <v>10003</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3946,7 +3946,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3979,7 +3979,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3999,16 +3999,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0.4</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F3">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4019,7 +4019,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4039,7 +4039,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4059,16 +4059,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F6">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4079,16 +4079,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="F7">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4099,7 +4099,7 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4119,16 +4119,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>0.33329999999999999</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="F9">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4139,16 +4139,16 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F10">
-        <v>1.21</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4159,7 +4159,7 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4179,7 +4179,7 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4199,16 +4199,16 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F13">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4219,7 +4219,7 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4239,16 +4239,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F15">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4259,16 +4259,16 @@
         <v>10000</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>0.5</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="F16">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4279,16 +4279,16 @@
         <v>10001</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F17">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4299,16 +4299,16 @@
         <v>10002</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>0.4</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F18">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4319,16 +4319,16 @@
         <v>10003</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F19">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4339,7 +4339,7 @@
         <v>10004</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4359,7 +4359,7 @@
         <v>10005</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
@@ -4378,10 +4378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4595,16 +4595,16 @@
         <v>7003</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0.1111</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4655,7 +4655,7 @@
         <v>7006</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>2.17</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4675,16 +4675,16 @@
         <v>9000</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="F13" s="2">
-        <v>2.5499999999999998</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4695,16 +4695,16 @@
         <v>9001</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>0.25</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="F14" s="2">
-        <v>2.31</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4715,16 +4715,16 @@
         <v>9002</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0.125</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="F15" s="2">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4735,16 +4735,16 @@
         <v>9003</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>0.28570000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F16">
-        <v>2.1800000000000002</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4775,16 +4775,16 @@
         <v>9005</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>0.375</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F18">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4815,16 +4815,16 @@
         <v>9007</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>0.28570000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F20">
-        <v>2.5099999999999998</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4835,16 +4835,16 @@
         <v>9008</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="F21">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4855,16 +4855,16 @@
         <v>10000</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>0.1429</v>
+        <v>0.25</v>
       </c>
       <c r="F22">
-        <v>2.59</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4895,16 +4895,16 @@
         <v>10002</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F24">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4932,7 +4932,7 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -4944,6 +4944,26 @@
         <v>0</v>
       </c>
       <c r="F26">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>10005</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>2.76</v>
       </c>
     </row>
@@ -4957,7 +4977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
@@ -5081,15 +5101,15 @@
       </c>
       <c r="AA3" s="74">
         <f>+E17</f>
-        <v>0.15</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB3" s="73">
         <f>+E16</f>
-        <v>0.21052631578947367</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="AC3" s="75">
         <f>+E18</f>
-        <v>0.19047619047619047</v>
+        <v>0.17391304347826086</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5101,7 +5121,7 @@
       </c>
       <c r="C4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5129,15 +5149,15 @@
       </c>
       <c r="AA4" s="71">
         <f>E14</f>
-        <v>0.15789473684210525</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="AB4" s="70">
         <f>+E13</f>
-        <v>0.25</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="AC4" s="72">
         <f>+E15</f>
-        <v>0.36363636363636365</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5149,43 +5169,43 @@
       </c>
       <c r="C5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="56">
         <f t="shared" si="0"/>
-        <v>0.19047619047619047</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>8.568908674689879E-2</v>
+        <v>8.2898169349398074E-2</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
-        <v>0.10478710372929168</v>
+        <v>0.12543516398393528</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="3"/>
-        <v>0.27616527722308926</v>
+        <v>0.2912315026827314</v>
       </c>
       <c r="Z5" s="69">
         <v>20</v>
       </c>
       <c r="AA5" s="77">
         <f>+E20</f>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="AB5" s="76">
         <f>+E19</f>
-        <v>0.38095238095238093</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="AC5" s="78">
         <f>+E21</f>
-        <v>0.47619047619047616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5197,7 +5217,7 @@
       </c>
       <c r="C6" s="38">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="38">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5230,7 +5250,7 @@
       </c>
       <c r="C7" s="38">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="38">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5272,28 +5292,28 @@
       </c>
       <c r="C8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="56">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="39">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0.15214515486254615</v>
+        <v>0.12649110640673517</v>
       </c>
       <c r="H8" s="39">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>1.4521511804120507E-2</v>
+        <v>7.3508893593264846E-2</v>
       </c>
       <c r="I8" s="41">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.31881182152921284</v>
+        <v>0.32649110640673518</v>
       </c>
       <c r="Z8">
         <v>2</v>
@@ -5348,7 +5368,7 @@
       </c>
       <c r="AB9" s="1">
         <f>+E23</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5392,7 +5412,7 @@
       </c>
       <c r="AB10" s="1">
         <f>+E22</f>
-        <v>0.38095238095238093</v>
+        <v>0.39130434782608697</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5436,7 +5456,7 @@
       </c>
       <c r="AB11" s="1">
         <f>+E24</f>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5476,11 +5496,11 @@
       </c>
       <c r="AA12" s="1">
         <f>+E8</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="AB12" s="1">
         <f>+E25</f>
-        <v>0.2857142857142857</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5492,28 +5512,28 @@
       </c>
       <c r="C13" s="8">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" s="8">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="58">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9">
         <f t="shared" si="13"/>
-        <v>9.6824583655185426E-2</v>
+        <v>9.4951448703107913E-2</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="14"/>
-        <v>0.15317541634481457</v>
+        <v>0.17777582402416481</v>
       </c>
       <c r="I13" s="31">
         <f t="shared" si="15"/>
-        <v>0.34682458365518543</v>
+        <v>0.36767872143038061</v>
       </c>
       <c r="Z13">
         <v>100</v>
@@ -5536,7 +5556,7 @@
       </c>
       <c r="C14" s="12">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D14" s="12">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5544,20 +5564,20 @@
       </c>
       <c r="E14" s="59">
         <f t="shared" si="12"/>
-        <v>0.15789473684210525</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13">
         <f t="shared" si="13"/>
-        <v>8.3654675183055402E-2</v>
+        <v>7.0223726355412894E-2</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="14"/>
-        <v>7.4240061659049852E-2</v>
+        <v>6.0211056253282755E-2</v>
       </c>
       <c r="I14" s="49">
         <f t="shared" si="15"/>
-        <v>0.24154941202516067</v>
+        <v>0.20065850896410853</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5569,28 +5589,28 @@
       </c>
       <c r="C15" s="16">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D15" s="16">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" s="60">
         <f t="shared" si="12"/>
-        <v>0.36363636363636365</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17">
         <f t="shared" si="13"/>
-        <v>0.10255928633050294</v>
+        <v>0.10063456073742665</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="14"/>
-        <v>0.26107707730586072</v>
+        <v>0.31603210592924003</v>
       </c>
       <c r="I15" s="50">
         <f t="shared" si="15"/>
-        <v>0.46619564996686658</v>
+        <v>0.51730122740409334</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5602,28 +5622,28 @@
       </c>
       <c r="C16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" s="61">
         <f t="shared" si="12"/>
-        <v>0.21052631578947367</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21">
         <f t="shared" si="13"/>
-        <v>9.3528770172488271E-2</v>
+        <v>9.1560537151700067E-2</v>
       </c>
       <c r="H16" s="21">
         <f t="shared" si="14"/>
-        <v>0.1169975456169854</v>
+        <v>0.16930902806569123</v>
       </c>
       <c r="I16" s="51">
         <f t="shared" si="15"/>
-        <v>0.30405508596196196</v>
+        <v>0.35243010236909134</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5635,7 +5655,7 @@
       </c>
       <c r="C17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5643,20 +5663,20 @@
       </c>
       <c r="E17" s="62">
         <f t="shared" si="12"/>
-        <v>0.15</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
         <f t="shared" si="13"/>
-        <v>7.9843597113356563E-2</v>
+        <v>7.6360354832121252E-2</v>
       </c>
       <c r="H17" s="25">
         <f t="shared" si="14"/>
-        <v>7.0156402886643432E-2</v>
+        <v>6.6496788025021597E-2</v>
       </c>
       <c r="I17" s="52">
         <f t="shared" si="15"/>
-        <v>0.22984359711335656</v>
+        <v>0.2192174976892641</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5668,7 +5688,7 @@
       </c>
       <c r="C18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5676,20 +5696,20 @@
       </c>
       <c r="E18" s="63">
         <f t="shared" si="12"/>
-        <v>0.19047619047619047</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="29">
         <f t="shared" si="13"/>
-        <v>8.568908674689879E-2</v>
+        <v>7.9034196447511806E-2</v>
       </c>
       <c r="H18" s="29">
         <f t="shared" si="14"/>
-        <v>0.10478710372929168</v>
+        <v>9.4878847030749058E-2</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="15"/>
-        <v>0.27616527722308926</v>
+        <v>0.25294723992577267</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5701,7 +5721,7 @@
       </c>
       <c r="C19" s="8">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="8">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5709,20 +5729,20 @@
       </c>
       <c r="E19" s="58">
         <f t="shared" si="12"/>
-        <v>0.38095238095238093</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9">
         <f t="shared" si="13"/>
-        <v>0.10597116957413083</v>
+        <v>0.10255928633050294</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="14"/>
-        <v>0.2749812113782501</v>
+        <v>0.26107707730586072</v>
       </c>
       <c r="I19" s="31">
         <f t="shared" si="15"/>
-        <v>0.48692355052651176</v>
+        <v>0.46619564996686658</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5734,7 +5754,7 @@
       </c>
       <c r="C20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5742,20 +5762,20 @@
       </c>
       <c r="E20" s="59">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="13">
         <f t="shared" si="13"/>
-        <v>8.9442719099991588E-2</v>
+        <v>8.2230366703026442E-2</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="14"/>
-        <v>0.11055728090000842</v>
+        <v>9.9587815115155381E-2</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="15"/>
-        <v>0.28944271909999159</v>
+        <v>0.26404854852120829</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5767,28 +5787,28 @@
       </c>
       <c r="C21" s="12">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D21" s="12">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21" s="59">
         <f t="shared" si="12"/>
-        <v>0.47619047619047616</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13">
         <f t="shared" si="13"/>
-        <v>0.10898516862311036</v>
+        <v>0.10206207261596574</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" si="14"/>
-        <v>0.3672053075673658</v>
+        <v>0.39793792738403427</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="15"/>
-        <v>0.58517564481358653</v>
+        <v>0.60206207261596578</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5800,28 +5820,28 @@
       </c>
       <c r="C22" s="20">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22" s="20">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="61">
         <f t="shared" si="12"/>
-        <v>0.38095238095238093</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21">
         <f t="shared" si="13"/>
-        <v>0.10597116957413083</v>
+        <v>0.10176384751376009</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="14"/>
-        <v>0.2749812113782501</v>
+        <v>0.28954050031232687</v>
       </c>
       <c r="I22" s="51">
         <f t="shared" si="15"/>
-        <v>0.48692355052651176</v>
+        <v>0.49306819533984708</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5833,7 +5853,7 @@
       </c>
       <c r="C23" s="24">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="24">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5841,20 +5861,20 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" si="12"/>
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="25">
         <f t="shared" si="13"/>
-        <v>6.4056448489004686E-2</v>
+        <v>6.1290896587567457E-2</v>
       </c>
       <c r="H23" s="25">
         <f t="shared" si="14"/>
-        <v>3.1181646749090547E-2</v>
+        <v>2.9618194321523454E-2</v>
       </c>
       <c r="I23" s="52">
         <f t="shared" si="15"/>
-        <v>0.15929454372709992</v>
+        <v>0.15219998749665836</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5866,28 +5886,28 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="62">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f t="shared" si="13"/>
-        <v>0.17677669529663689</v>
+        <v>0.15013142251723099</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="14"/>
-        <v>0.32322330470336313</v>
+        <v>0.30441403202822354</v>
       </c>
       <c r="I24" s="52">
         <f t="shared" si="15"/>
-        <v>0.67677669529663687</v>
+        <v>0.60467687706268558</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5899,7 +5919,7 @@
       </c>
       <c r="C25" s="24">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D25" s="24">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5907,20 +5927,20 @@
       </c>
       <c r="E25" s="62">
         <f t="shared" ref="E25:E26" si="16">IFERROR(D25/C25, 0)</f>
-        <v>0.2857142857142857</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="25">
         <f t="shared" ref="G25:G26" si="17">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
-        <v>0.17074694419062766</v>
+        <v>0.13857990321384966</v>
       </c>
       <c r="H25" s="25">
         <f t="shared" ref="H25:H26" si="18">E25-G25</f>
-        <v>0.11496734152365803</v>
+        <v>8.3642319008372545E-2</v>
       </c>
       <c r="I25" s="52">
         <f t="shared" ref="I25:I26" si="19">E25+G25</f>
-        <v>0.45646122990491333</v>
+        <v>0.36080212543607187</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5932,7 +5952,7 @@
       </c>
       <c r="C26" s="28">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D26" s="28">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5965,7 +5985,7 @@
       </c>
       <c r="C27" s="28">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="28">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D833681F-4D7C-42C0-BB95-04F1D2703ECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C39E2F-C32F-4190-8C20-B1FFF3B002A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -722,13 +722,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.13636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2608695652173913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17391304347826086</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,7 +804,7 @@
                   <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,10 +1185,10 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,7 +1266,7 @@
                   <c:v>0.39130434782608697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45454545454545453</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.22222222222222221</c:v>
@@ -2955,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3169,16 +3169,16 @@
         <v>7005</v>
       </c>
       <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="2">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3489,7 +3489,7 @@
         <v>10005</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>3.12</v>
+        <v>3.21</v>
       </c>
     </row>
   </sheetData>
@@ -4059,16 +4059,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F6">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4159,7 +4159,7 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4239,16 +4239,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>0.5</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="F15">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4299,16 +4299,16 @@
         <v>10002</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>0.33329999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F18">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4380,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4775,16 +4775,16 @@
         <v>9005</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>0.33329999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="F18">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4977,7 +4977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="AA3" s="74">
         <f>+E17</f>
-        <v>0.14285714285714285</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="AB3" s="73">
         <f>+E16</f>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="AC3" s="75">
         <f>+E18</f>
-        <v>0.17391304347826086</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="AC5" s="78">
         <f>+E21</f>
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5250,28 +5250,28 @@
       </c>
       <c r="C7" s="38">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="38">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="39">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.4868329805051374E-2</v>
       </c>
       <c r="H7" s="39">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.1316701949486315E-3</v>
       </c>
       <c r="I7" s="41">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.19486832980505137</v>
       </c>
       <c r="Z7" t="s">
         <v>12</v>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="C8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5300,20 +5300,20 @@
       </c>
       <c r="E8" s="56">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="39">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0.12649110640673517</v>
+        <v>0.11629129983033297</v>
       </c>
       <c r="H8" s="39">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>7.3508893593264846E-2</v>
+        <v>6.5526881987848853E-2</v>
       </c>
       <c r="I8" s="41">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.32649110640673518</v>
+        <v>0.29810948164851481</v>
       </c>
       <c r="Z8">
         <v>2</v>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="AB11" s="1">
         <f>+E24</f>
-        <v>0.45454545454545453</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="AA12" s="1">
         <f>+E8</f>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="AB12" s="1">
         <f>+E25</f>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="AA13" s="1">
         <f>+E7</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AB13" s="1">
         <f>+E27</f>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5663,20 +5663,20 @@
       </c>
       <c r="E17" s="62">
         <f t="shared" si="12"/>
-        <v>0.14285714285714285</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
         <f t="shared" si="13"/>
-        <v>7.6360354832121252E-2</v>
+        <v>7.3165004998453603E-2</v>
       </c>
       <c r="H17" s="25">
         <f t="shared" si="14"/>
-        <v>6.6496788025021597E-2</v>
+        <v>6.319863136518275E-2</v>
       </c>
       <c r="I17" s="52">
         <f t="shared" si="15"/>
-        <v>0.2192174976892641</v>
+        <v>0.20952864136208996</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="C18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5696,20 +5696,20 @@
       </c>
       <c r="E18" s="63">
         <f t="shared" si="12"/>
-        <v>0.17391304347826086</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="29">
         <f t="shared" si="13"/>
-        <v>7.9034196447511806E-2</v>
+        <v>7.6072577431273075E-2</v>
       </c>
       <c r="H18" s="29">
         <f t="shared" si="14"/>
-        <v>9.4878847030749058E-2</v>
+        <v>9.0594089235393582E-2</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="15"/>
-        <v>0.25294723992577267</v>
+        <v>0.24273924409793973</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5787,28 +5787,28 @@
       </c>
       <c r="C21" s="12">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="12">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="59">
         <f t="shared" si="12"/>
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13">
         <f t="shared" si="13"/>
-        <v>0.10206207261596574</v>
+        <v>9.9919967974374371E-2</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" si="14"/>
-        <v>0.39793792738403427</v>
+        <v>0.42008003202562566</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="15"/>
-        <v>0.60206207261596578</v>
+        <v>0.61991996797437443</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5886,7 +5886,7 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5894,20 +5894,20 @@
       </c>
       <c r="E24" s="62">
         <f t="shared" si="12"/>
-        <v>0.45454545454545453</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f t="shared" si="13"/>
-        <v>0.15013142251723099</v>
+        <v>0.14231876063832774</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="14"/>
-        <v>0.30441403202822354</v>
+        <v>0.27434790602833892</v>
       </c>
       <c r="I24" s="52">
         <f t="shared" si="15"/>
-        <v>0.60467687706268558</v>
+        <v>0.55898542730499445</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="C27" s="28">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="28">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C39E2F-C32F-4190-8C20-B1FFF3B002A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF5CCB-CA74-4E0A-B1CC-68BC19829E0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -725,10 +725,10 @@
                   <c:v>0.13636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2608695652173913</c:v>
+                  <c:v>0.29166666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,10 +760,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.13043478260869565</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27272727272727271</c:v>
+                  <c:v>0.2608695652173913</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.41666666666666669</c:v>
@@ -798,10 +798,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36363636363636365</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.52</c:v>
@@ -1260,16 +1260,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.13043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39130434782608697</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2956,7 +2956,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F27"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3209,13 +3209,13 @@
         <v>9000</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F13" s="2">
         <v>1.08</v>
@@ -3309,7 +3309,7 @@
         <v>9005</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3329,16 +3329,16 @@
         <v>9006</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F19" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3469,7 +3469,7 @@
         <v>10004</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3946,7 +3946,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="C11" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3999,16 +3999,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0.33329999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F3">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4139,13 +4139,13 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0.1429</v>
+        <v>0.25</v>
       </c>
       <c r="F10">
         <v>1.1499999999999999</v>
@@ -4199,16 +4199,16 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.1429</v>
+        <v>0.125</v>
       </c>
       <c r="F13">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4259,16 +4259,16 @@
         <v>10000</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>0.42859999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="F16">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4279,16 +4279,16 @@
         <v>10001</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>0.1429</v>
+        <v>0.25</v>
       </c>
       <c r="F17">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4339,7 +4339,7 @@
         <v>10004</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.98</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4380,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4575,7 +4575,7 @@
         <v>7002</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>2.66</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4695,16 +4695,16 @@
         <v>9001</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>0.22220000000000001</v>
+        <v>0.2727</v>
       </c>
       <c r="F14" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4795,16 +4795,16 @@
         <v>9006</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>0.625</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F19">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4815,16 +4815,16 @@
         <v>9007</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20">
-        <v>0.25</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="F20">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4855,16 +4855,16 @@
         <v>10000</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>0.25</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="F22">
-        <v>2.78</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4895,16 +4895,16 @@
         <v>10002</v>
       </c>
       <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
       <c r="E24">
-        <v>0.66669999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="F24">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4915,16 +4915,16 @@
         <v>10003</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F25">
-        <v>2.82</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4977,8 +4977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5105,11 +5105,11 @@
       </c>
       <c r="AB3" s="73">
         <f>+E16</f>
-        <v>0.2608695652173913</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="AC3" s="75">
         <f>+E18</f>
-        <v>0.16666666666666666</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="C4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5149,11 +5149,11 @@
       </c>
       <c r="AA4" s="71">
         <f>E14</f>
-        <v>0.13043478260869565</v>
+        <v>0.16</v>
       </c>
       <c r="AB4" s="70">
         <f>+E13</f>
-        <v>0.27272727272727271</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="AC4" s="72">
         <f>+E15</f>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="C5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5177,31 +5177,31 @@
       </c>
       <c r="E5" s="56">
         <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>8.2898169349398074E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
-        <v>0.12543516398393528</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="3"/>
-        <v>0.2912315026827314</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Z5" s="69">
         <v>20</v>
       </c>
       <c r="AA5" s="77">
         <f>+E20</f>
-        <v>0.18181818181818182</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="AB5" s="76">
         <f>+E19</f>
-        <v>0.36363636363636365</v>
+        <v>0.4</v>
       </c>
       <c r="AC5" s="78">
         <f>+E21</f>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="AB9" s="1">
         <f>+E23</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.13043478260869565</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5412,7 +5412,7 @@
       </c>
       <c r="AB10" s="1">
         <f>+E22</f>
-        <v>0.39130434782608697</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="AB11" s="1">
         <f>+E24</f>
-        <v>0.41666666666666669</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5500,7 +5500,7 @@
       </c>
       <c r="AB12" s="1">
         <f>+E25</f>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="C13" s="8">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5520,20 +5520,20 @@
       </c>
       <c r="E13" s="58">
         <f t="shared" si="12"/>
-        <v>0.27272727272727271</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9">
         <f t="shared" si="13"/>
-        <v>9.4951448703107913E-2</v>
+        <v>9.1560537151700067E-2</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="14"/>
-        <v>0.17777582402416481</v>
+        <v>0.16930902806569123</v>
       </c>
       <c r="I13" s="31">
         <f t="shared" si="15"/>
-        <v>0.36767872143038061</v>
+        <v>0.35243010236909134</v>
       </c>
       <c r="Z13">
         <v>100</v>
@@ -5556,28 +5556,28 @@
       </c>
       <c r="C14" s="12">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="12">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="59">
         <f t="shared" si="12"/>
-        <v>0.13043478260869565</v>
+        <v>0.16</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13">
         <f t="shared" si="13"/>
-        <v>7.0223726355412894E-2</v>
+        <v>7.3321211119293433E-2</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="14"/>
-        <v>6.0211056253282755E-2</v>
+        <v>8.667878888070657E-2</v>
       </c>
       <c r="I14" s="49">
         <f t="shared" si="15"/>
-        <v>0.20065850896410853</v>
+        <v>0.23332121111929344</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5622,28 +5622,28 @@
       </c>
       <c r="C16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" s="61">
         <f t="shared" si="12"/>
-        <v>0.2608695652173913</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21">
         <f t="shared" si="13"/>
-        <v>9.1560537151700067E-2</v>
+        <v>9.2780480665884624E-2</v>
       </c>
       <c r="H16" s="21">
         <f t="shared" si="14"/>
-        <v>0.16930902806569123</v>
+        <v>0.19888618600078206</v>
       </c>
       <c r="I16" s="51">
         <f t="shared" si="15"/>
-        <v>0.35243010236909134</v>
+        <v>0.38444714733255131</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="C18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5696,20 +5696,20 @@
       </c>
       <c r="E18" s="63">
         <f t="shared" si="12"/>
-        <v>0.16666666666666666</v>
+        <v>0.16</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="29">
         <f t="shared" si="13"/>
-        <v>7.6072577431273075E-2</v>
+        <v>7.3321211119293433E-2</v>
       </c>
       <c r="H18" s="29">
         <f t="shared" si="14"/>
-        <v>9.0594089235393582E-2</v>
+        <v>8.667878888070657E-2</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="15"/>
-        <v>0.24273924409793973</v>
+        <v>0.23332121111929344</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5721,28 +5721,28 @@
       </c>
       <c r="C19" s="8">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" s="58">
         <f t="shared" si="12"/>
-        <v>0.36363636363636365</v>
+        <v>0.4</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9">
         <f t="shared" si="13"/>
-        <v>0.10255928633050294</v>
+        <v>9.7979589711327114E-2</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="14"/>
-        <v>0.26107707730586072</v>
+        <v>0.30202041028867288</v>
       </c>
       <c r="I19" s="31">
         <f t="shared" si="15"/>
-        <v>0.46619564996686658</v>
+        <v>0.49797958971132716</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="C20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5762,20 +5762,20 @@
       </c>
       <c r="E20" s="59">
         <f t="shared" si="12"/>
-        <v>0.18181818181818182</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="13">
         <f t="shared" si="13"/>
-        <v>8.2230366703026442E-2</v>
+        <v>7.9034196447511806E-2</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="14"/>
-        <v>9.9587815115155381E-2</v>
+        <v>9.4878847030749058E-2</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="15"/>
-        <v>0.26404854852120829</v>
+        <v>0.25294723992577267</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="C22" s="20">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D22" s="20">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5828,20 +5828,20 @@
       </c>
       <c r="E22" s="61">
         <f t="shared" si="12"/>
-        <v>0.39130434782608697</v>
+        <v>0.36</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21">
         <f t="shared" si="13"/>
-        <v>0.10176384751376009</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="14"/>
-        <v>0.28954050031232687</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="I22" s="51">
         <f t="shared" si="15"/>
-        <v>0.49306819533984708</v>
+        <v>0.45599999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5853,28 +5853,28 @@
       </c>
       <c r="C23" s="24">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" s="24">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="62">
         <f t="shared" si="12"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="25">
         <f t="shared" si="13"/>
-        <v>6.1290896587567457E-2</v>
+        <v>7.0223726355412894E-2</v>
       </c>
       <c r="H23" s="25">
         <f t="shared" si="14"/>
-        <v>2.9618194321523454E-2</v>
+        <v>6.0211056253282755E-2</v>
       </c>
       <c r="I23" s="52">
         <f t="shared" si="15"/>
-        <v>0.15219998749665836</v>
+        <v>0.20065850896410853</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5886,28 +5886,28 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="62">
         <f t="shared" si="12"/>
-        <v>0.41666666666666669</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f t="shared" si="13"/>
-        <v>0.14231876063832774</v>
+        <v>0.13226001425322162</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="14"/>
-        <v>0.27434790602833892</v>
+        <v>0.29631141431820696</v>
       </c>
       <c r="I24" s="52">
         <f t="shared" si="15"/>
-        <v>0.55898542730499445</v>
+        <v>0.56083144282465014</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="C25" s="24">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="24">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5927,20 +5927,20 @@
       </c>
       <c r="E25" s="62">
         <f t="shared" ref="E25:E26" si="16">IFERROR(D25/C25, 0)</f>
-        <v>0.22222222222222221</v>
+        <v>0.2</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="25">
         <f t="shared" ref="G25:G26" si="17">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
-        <v>0.13857990321384966</v>
+        <v>0.12649110640673517</v>
       </c>
       <c r="H25" s="25">
         <f t="shared" ref="H25:H26" si="18">E25-G25</f>
-        <v>8.3642319008372545E-2</v>
+        <v>7.3508893593264846E-2</v>
       </c>
       <c r="I25" s="52">
         <f t="shared" ref="I25:I26" si="19">E25+G25</f>
-        <v>0.36080212543607187</v>
+        <v>0.32649110640673518</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="C26" s="28">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" s="28">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF5CCB-CA74-4E0A-B1CC-68BC19829E0A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D8F325-19CF-4F13-BA73-159028B9733E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.13636363636363635</c:v>
+                  <c:v>0.13043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.29166666666666669</c:v>
@@ -760,13 +763,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2608695652173913</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,10 +801,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.17391304347826086</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.38461538461538464</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.52</c:v>
@@ -1188,7 +1191,7 @@
                   <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,16 +1263,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13043478260869565</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2953,15 +2956,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2981,7 +2984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -3001,7 +3004,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>20</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>20</v>
       </c>
@@ -3061,7 +3064,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>20</v>
       </c>
@@ -3081,7 +3084,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>20</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>20</v>
       </c>
@@ -3120,8 +3123,23 @@
       <c r="F8" s="2">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>20</v>
       </c>
@@ -3140,8 +3158,23 @@
       <c r="F9" s="2">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>20</v>
       </c>
@@ -3160,8 +3193,23 @@
       <c r="F10" s="2">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>20</v>
       </c>
@@ -3180,8 +3228,23 @@
       <c r="F11" s="2">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>20</v>
       </c>
@@ -3200,8 +3263,23 @@
       <c r="F12" s="2">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>20</v>
       </c>
@@ -3220,8 +3298,23 @@
       <c r="F13" s="2">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>20</v>
       </c>
@@ -3240,8 +3333,23 @@
       <c r="F14" s="2">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>20</v>
       </c>
@@ -3260,8 +3368,23 @@
       <c r="F15" s="2">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>20</v>
       </c>
@@ -3280,8 +3403,23 @@
       <c r="F16" s="2">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>20</v>
       </c>
@@ -3300,8 +3438,23 @@
       <c r="F17" s="2">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>0.2</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>20</v>
       </c>
@@ -3320,8 +3473,23 @@
       <c r="F18" s="2">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>20</v>
       </c>
@@ -3340,8 +3508,23 @@
       <c r="F19" s="2">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3360,8 +3543,23 @@
       <c r="F20" s="2">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>0.2</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3380,8 +3578,23 @@
       <c r="F21" s="2">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3400,8 +3613,23 @@
       <c r="F22" s="2">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3409,7 +3637,7 @@
         <v>10001</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3418,10 +3646,25 @@
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.21</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>20</v>
       </c>
@@ -3440,8 +3683,23 @@
       <c r="F24" s="2">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>20</v>
       </c>
@@ -3460,8 +3718,23 @@
       <c r="F25" s="2">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>20</v>
       </c>
@@ -3480,8 +3753,23 @@
       <c r="F26" s="2">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>20</v>
       </c>
@@ -3499,6 +3787,21 @@
       </c>
       <c r="F27" s="2">
         <v>3.21</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3946,7 +4249,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C10:C11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4019,7 +4322,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4028,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4039,7 +4342,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4048,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4079,13 +4382,13 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0.42859999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="F7">
         <v>1.43</v>
@@ -4099,7 +4402,7 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4108,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4119,16 +4422,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>0.42859999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="F9">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4159,7 +4462,7 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4168,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4219,7 +4522,7 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4228,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4299,16 +4602,16 @@
         <v>10002</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18">
-        <v>0.28570000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F18">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4319,16 +4622,16 @@
         <v>10003</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F19">
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4381,7 +4684,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4615,7 +4918,7 @@
         <v>7004</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4624,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>2.99</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4635,7 +4938,7 @@
         <v>7005</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4644,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4795,16 +5098,16 @@
         <v>9006</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19">
-        <v>0.66669999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="F19">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4977,7 +5280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -5101,7 +5404,7 @@
       </c>
       <c r="AA3" s="74">
         <f>+E17</f>
-        <v>0.13636363636363635</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="AB3" s="73">
         <f>+E16</f>
@@ -5149,15 +5452,15 @@
       </c>
       <c r="AA4" s="71">
         <f>E14</f>
-        <v>0.16</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="AB4" s="70">
         <f>+E13</f>
-        <v>0.2608695652173913</v>
+        <v>0.25</v>
       </c>
       <c r="AC4" s="72">
         <f>+E15</f>
-        <v>0.41666666666666669</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5197,11 +5500,11 @@
       </c>
       <c r="AA5" s="77">
         <f>+E20</f>
-        <v>0.17391304347826086</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AB5" s="76">
         <f>+E19</f>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AC5" s="78">
         <f>+E21</f>
@@ -5217,7 +5520,7 @@
       </c>
       <c r="C6" s="38">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="38">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5250,7 +5553,7 @@
       </c>
       <c r="C7" s="38">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="38">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5258,20 +5561,20 @@
       </c>
       <c r="E7" s="56">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="39">
         <f t="shared" si="5"/>
-        <v>9.4868329805051374E-2</v>
+        <v>7.9785592313028175E-2</v>
       </c>
       <c r="H7" s="39">
         <f t="shared" si="6"/>
-        <v>5.1316701949486315E-3</v>
+        <v>3.5477410203051535E-3</v>
       </c>
       <c r="I7" s="41">
         <f t="shared" si="7"/>
-        <v>0.19486832980505137</v>
+        <v>0.16311892564636149</v>
       </c>
       <c r="Z7" t="s">
         <v>12</v>
@@ -5368,7 +5671,7 @@
       </c>
       <c r="AB9" s="1">
         <f>+E23</f>
-        <v>0.13043478260869565</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5456,7 +5759,7 @@
       </c>
       <c r="AB11" s="1">
         <f>+E24</f>
-        <v>0.42857142857142855</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5500,7 +5803,7 @@
       </c>
       <c r="AB12" s="1">
         <f>+E25</f>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5512,7 +5815,7 @@
       </c>
       <c r="C13" s="8">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5520,27 +5823,27 @@
       </c>
       <c r="E13" s="58">
         <f t="shared" si="12"/>
-        <v>0.2608695652173913</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9">
         <f t="shared" si="13"/>
-        <v>9.1560537151700067E-2</v>
+        <v>8.8388347648318433E-2</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="14"/>
-        <v>0.16930902806569123</v>
+        <v>0.16161165235168157</v>
       </c>
       <c r="I13" s="31">
         <f t="shared" si="15"/>
-        <v>0.35243010236909134</v>
+        <v>0.33838834764831843</v>
       </c>
       <c r="Z13">
         <v>100</v>
       </c>
       <c r="AA13" s="1">
         <f>+E7</f>
-        <v>0.1</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AB13" s="1">
         <f>+E27</f>
@@ -5556,7 +5859,7 @@
       </c>
       <c r="C14" s="12">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="12">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5564,20 +5867,20 @@
       </c>
       <c r="E14" s="59">
         <f t="shared" si="12"/>
-        <v>0.16</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13">
         <f t="shared" si="13"/>
-        <v>7.3321211119293433E-2</v>
+        <v>7.0758939308292301E-2</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="14"/>
-        <v>8.667878888070657E-2</v>
+        <v>8.3087214537861553E-2</v>
       </c>
       <c r="I14" s="49">
         <f t="shared" si="15"/>
-        <v>0.23332121111929344</v>
+        <v>0.22460509315444616</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5589,7 +5892,7 @@
       </c>
       <c r="C15" s="16">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="16">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5597,20 +5900,20 @@
       </c>
       <c r="E15" s="60">
         <f t="shared" si="12"/>
-        <v>0.41666666666666669</v>
+        <v>0.4</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17">
         <f t="shared" si="13"/>
-        <v>0.10063456073742665</v>
+        <v>9.7979589711327114E-2</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="14"/>
-        <v>0.31603210592924003</v>
+        <v>0.30202041028867288</v>
       </c>
       <c r="I15" s="50">
         <f t="shared" si="15"/>
-        <v>0.51730122740409334</v>
+        <v>0.49797958971132716</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5655,7 +5958,7 @@
       </c>
       <c r="C17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5663,20 +5966,20 @@
       </c>
       <c r="E17" s="62">
         <f t="shared" si="12"/>
-        <v>0.13636363636363635</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
         <f t="shared" si="13"/>
-        <v>7.3165004998453603E-2</v>
+        <v>7.0223726355412894E-2</v>
       </c>
       <c r="H17" s="25">
         <f t="shared" si="14"/>
-        <v>6.319863136518275E-2</v>
+        <v>6.0211056253282755E-2</v>
       </c>
       <c r="I17" s="52">
         <f t="shared" si="15"/>
-        <v>0.20952864136208996</v>
+        <v>0.20065850896410853</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5721,7 +6024,7 @@
       </c>
       <c r="C19" s="8">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="8">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5729,20 +6032,20 @@
       </c>
       <c r="E19" s="58">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9">
         <f t="shared" si="13"/>
-        <v>9.7979589711327114E-2</v>
+        <v>9.5411334299391123E-2</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="14"/>
-        <v>0.30202041028867288</v>
+        <v>0.2892040503159935</v>
       </c>
       <c r="I19" s="31">
         <f t="shared" si="15"/>
-        <v>0.49797958971132716</v>
+        <v>0.48002671891477577</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5754,7 +6057,7 @@
       </c>
       <c r="C20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5762,20 +6065,20 @@
       </c>
       <c r="E20" s="59">
         <f t="shared" si="12"/>
-        <v>0.17391304347826086</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="13">
         <f t="shared" si="13"/>
-        <v>7.9034196447511806E-2</v>
+        <v>7.6072577431273075E-2</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="14"/>
-        <v>9.4878847030749058E-2</v>
+        <v>9.0594089235393582E-2</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="15"/>
-        <v>0.25294723992577267</v>
+        <v>0.24273924409793973</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5853,7 +6156,7 @@
       </c>
       <c r="C23" s="24">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="24">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5861,20 +6164,20 @@
       </c>
       <c r="E23" s="62">
         <f t="shared" si="12"/>
-        <v>0.13043478260869565</v>
+        <v>0.125</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="25">
         <f t="shared" si="13"/>
-        <v>7.0223726355412894E-2</v>
+        <v>6.7507715608415217E-2</v>
       </c>
       <c r="H23" s="25">
         <f t="shared" si="14"/>
-        <v>6.0211056253282755E-2</v>
+        <v>5.7492284391584783E-2</v>
       </c>
       <c r="I23" s="52">
         <f t="shared" si="15"/>
-        <v>0.20065850896410853</v>
+        <v>0.19250771560841523</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5886,7 +6189,7 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5894,20 +6197,20 @@
       </c>
       <c r="E24" s="62">
         <f t="shared" si="12"/>
-        <v>0.42857142857142855</v>
+        <v>0.4</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f t="shared" si="13"/>
-        <v>0.13226001425322162</v>
+        <v>0.12649110640673517</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="14"/>
-        <v>0.29631141431820696</v>
+        <v>0.27350889359326486</v>
       </c>
       <c r="I24" s="52">
         <f t="shared" si="15"/>
-        <v>0.56083144282465014</v>
+        <v>0.52649110640673524</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5919,7 +6222,7 @@
       </c>
       <c r="C25" s="24">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" s="24">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5927,20 +6230,20 @@
       </c>
       <c r="E25" s="62">
         <f t="shared" ref="E25:E26" si="16">IFERROR(D25/C25, 0)</f>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="25">
         <f t="shared" ref="G25:G26" si="17">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
-        <v>0.12649110640673517</v>
+        <v>0.11629129983033297</v>
       </c>
       <c r="H25" s="25">
         <f t="shared" ref="H25:H26" si="18">E25-G25</f>
-        <v>7.3508893593264846E-2</v>
+        <v>6.5526881987848853E-2</v>
       </c>
       <c r="I25" s="52">
         <f t="shared" ref="I25:I26" si="19">E25+G25</f>
-        <v>0.32649110640673518</v>
+        <v>0.29810948164851481</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D8F325-19CF-4F13-BA73-159028B9733E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5D3409-F8DC-41E7-8356-3CF51F08A8A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>v</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -769,7 +766,7 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.38461538461538464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,13 +798,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.38461538461538464</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52</c:v>
+                  <c:v>0.53846153846153844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,7 +1263,7 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.4</c:v>
@@ -2958,9 +2955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -3126,12 +3121,6 @@
       <c r="G8">
         <v>0.1</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
       <c r="J8">
         <v>0.2</v>
       </c>
@@ -3161,12 +3150,6 @@
       <c r="G9">
         <v>0.1</v>
       </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
       <c r="J9">
         <v>0.2</v>
       </c>
@@ -3196,12 +3179,6 @@
       <c r="G10">
         <v>0.1</v>
       </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
       <c r="J10">
         <v>0.2</v>
       </c>
@@ -3231,12 +3208,6 @@
       <c r="G11">
         <v>0.1</v>
       </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
       <c r="J11">
         <v>0.2</v>
       </c>
@@ -3266,12 +3237,6 @@
       <c r="G12">
         <v>0.1</v>
       </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
       <c r="J12">
         <v>0.2</v>
       </c>
@@ -3357,16 +3322,16 @@
         <v>9002</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F15" s="2">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -3532,16 +3497,16 @@
         <v>9007</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F20" s="2">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -3602,16 +3567,16 @@
         <v>10000</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F22" s="2">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -3622,12 +3587,6 @@
       <c r="I22">
         <v>10</v>
       </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
@@ -3657,12 +3616,6 @@
       <c r="I23">
         <v>5</v>
       </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
@@ -3692,12 +3645,6 @@
       <c r="I24">
         <v>20</v>
       </c>
-      <c r="J24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
@@ -3727,12 +3674,6 @@
       <c r="I25">
         <v>50</v>
       </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
@@ -3762,12 +3703,6 @@
       <c r="I26">
         <v>2</v>
       </c>
-      <c r="J26" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
@@ -3796,12 +3731,6 @@
       </c>
       <c r="I27">
         <v>100</v>
-      </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4249,7 +4178,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4662,7 +4591,7 @@
         <v>10005</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4671,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -4684,7 +4613,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5138,16 +5067,16 @@
         <v>9008</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>0.4</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="F21">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5158,16 +5087,16 @@
         <v>10000</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>0.22220000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F22">
-        <v>2.89</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -5280,7 +5209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -5460,7 +5389,7 @@
       </c>
       <c r="AC4" s="72">
         <f>+E15</f>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5500,7 +5429,7 @@
       </c>
       <c r="AA5" s="77">
         <f>+E20</f>
-        <v>0.16666666666666666</v>
+        <v>0.16</v>
       </c>
       <c r="AB5" s="76">
         <f>+E19</f>
@@ -5508,7 +5437,7 @@
       </c>
       <c r="AC5" s="78">
         <f>+E21</f>
-        <v>0.52</v>
+        <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5715,7 +5644,7 @@
       </c>
       <c r="AB10" s="1">
         <f>+E22</f>
-        <v>0.36</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5892,7 +5821,7 @@
       </c>
       <c r="C15" s="16">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" s="16">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -5900,20 +5829,20 @@
       </c>
       <c r="E15" s="60">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17">
         <f t="shared" si="13"/>
-        <v>9.7979589711327114E-2</v>
+        <v>9.5411334299391123E-2</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="14"/>
-        <v>0.30202041028867288</v>
+        <v>0.2892040503159935</v>
       </c>
       <c r="I15" s="50">
         <f t="shared" si="15"/>
-        <v>0.49797958971132716</v>
+        <v>0.48002671891477577</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -6057,7 +5986,7 @@
       </c>
       <c r="C20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="12">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6065,20 +5994,20 @@
       </c>
       <c r="E20" s="59">
         <f t="shared" si="12"/>
-        <v>0.16666666666666666</v>
+        <v>0.16</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="13">
         <f t="shared" si="13"/>
-        <v>7.6072577431273075E-2</v>
+        <v>7.3321211119293433E-2</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="14"/>
-        <v>9.0594089235393582E-2</v>
+        <v>8.667878888070657E-2</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="15"/>
-        <v>0.24273924409793973</v>
+        <v>0.23332121111929344</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -6090,28 +6019,28 @@
       </c>
       <c r="C21" s="12">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="12">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="59">
         <f t="shared" si="12"/>
-        <v>0.52</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13">
         <f t="shared" si="13"/>
-        <v>9.9919967974374371E-2</v>
+        <v>9.7767524508037315E-2</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" si="14"/>
-        <v>0.42008003202562566</v>
+        <v>0.44069401395350111</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="15"/>
-        <v>0.61991996797437443</v>
+        <v>0.63622906296957571</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6123,7 +6052,7 @@
       </c>
       <c r="C22" s="20">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" s="20">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6131,20 +6060,20 @@
       </c>
       <c r="E22" s="61">
         <f t="shared" si="12"/>
-        <v>0.36</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="21">
         <f t="shared" si="13"/>
-        <v>9.6000000000000002E-2</v>
+        <v>9.0721842325302907E-2</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="14"/>
-        <v>0.26400000000000001</v>
+        <v>0.24261149100803042</v>
       </c>
       <c r="I22" s="51">
         <f t="shared" si="15"/>
-        <v>0.45599999999999996</v>
+        <v>0.42405517565863621</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6288,7 +6217,7 @@
       </c>
       <c r="C27" s="28">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" s="28">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5D3409-F8DC-41E7-8356-3CF51F08A8A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DC75D-715E-4B44-96B9-C716E9211DCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
-    <sheet name="CLM" sheetId="1" r:id="rId2"/>
-    <sheet name="CLM_3200" sheetId="6" r:id="rId3"/>
-    <sheet name="THUNDER" sheetId="2" r:id="rId4"/>
-    <sheet name="TOTAL" sheetId="4" r:id="rId5"/>
+    <sheet name="ZEN_3200" sheetId="7" r:id="rId2"/>
+    <sheet name="CLM" sheetId="1" r:id="rId3"/>
+    <sheet name="CLM_3200" sheetId="6" r:id="rId4"/>
+    <sheet name="THUNDER" sheetId="2" r:id="rId5"/>
+    <sheet name="THUNDER_3200" sheetId="8" r:id="rId6"/>
+    <sheet name="TOTAL" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -74,6 +76,21 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>wasteRecyclingRate</t>
+  </si>
+  <si>
+    <t>catSynthSim</t>
+  </si>
+  <si>
+    <t>catSynthScarcity</t>
+  </si>
+  <si>
+    <t>catDestrSim</t>
+  </si>
+  <si>
+    <t>catDestrScarcity</t>
   </si>
 </sst>
 </file>
@@ -722,13 +739,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.13043478260869565</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29166666666666669</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,10 +780,10 @@
                   <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.37037037037037035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,13 +815,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.37037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53846153846153844</c:v>
+                  <c:v>0.5357142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,10 +1202,10 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,16 +1277,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.125</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.32142857142857145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2953,13 +2970,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2979,7 +2998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -2999,7 +3018,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>20</v>
       </c>
@@ -3019,7 +3038,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>20</v>
       </c>
@@ -3039,7 +3058,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>20</v>
       </c>
@@ -3059,7 +3078,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>20</v>
       </c>
@@ -3079,7 +3098,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>20</v>
       </c>
@@ -3099,639 +3118,85 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>7002</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2.46</v>
-      </c>
-      <c r="G8">
-        <v>0.1</v>
-      </c>
-      <c r="J8">
-        <v>0.2</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>7003</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="J9">
-        <v>0.2</v>
-      </c>
-      <c r="K9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>7004</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.91</v>
-      </c>
-      <c r="G10">
-        <v>0.1</v>
-      </c>
-      <c r="J10">
-        <v>0.2</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>7005</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-      <c r="J11">
-        <v>0.2</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>7006</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2.37</v>
-      </c>
-      <c r="G12">
-        <v>0.1</v>
-      </c>
-      <c r="J12">
-        <v>0.2</v>
-      </c>
-      <c r="K12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>9000</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="G13">
-        <v>0.1</v>
-      </c>
-      <c r="H13">
-        <v>0.2</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>0.2</v>
-      </c>
-      <c r="K13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>9001</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.19</v>
-      </c>
-      <c r="G14">
-        <v>0.1</v>
-      </c>
-      <c r="H14">
-        <v>0.2</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>0.2</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>9002</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.36</v>
-      </c>
-      <c r="G15">
-        <v>0.1</v>
-      </c>
-      <c r="H15">
-        <v>0.2</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>0.2</v>
-      </c>
-      <c r="K15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>9003</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2.06</v>
-      </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <v>0.2</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <v>0.2</v>
-      </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>9004</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17">
-        <v>0.2</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-      <c r="J17">
-        <v>0.2</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>9005</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <v>0.2</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>0.2</v>
-      </c>
-      <c r="K18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>9006</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.08</v>
-      </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <v>0.2</v>
-      </c>
-      <c r="I19">
-        <v>20</v>
-      </c>
-      <c r="J19">
-        <v>0.2</v>
-      </c>
-      <c r="K19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>9007</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.34</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="H20">
-        <v>0.2</v>
-      </c>
-      <c r="I20">
-        <v>20</v>
-      </c>
-      <c r="J20">
-        <v>0.2</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>9008</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.82</v>
-      </c>
-      <c r="G21">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <v>0.2</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-      <c r="J21">
-        <v>0.2</v>
-      </c>
-      <c r="K21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>10000</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="G22">
-        <v>0.1</v>
-      </c>
-      <c r="H22">
-        <v>0.2</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>10001</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="G23">
-        <v>0.1</v>
-      </c>
-      <c r="H23">
-        <v>0.2</v>
-      </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>10002</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2.21</v>
-      </c>
-      <c r="G24">
-        <v>0.1</v>
-      </c>
-      <c r="H24">
-        <v>0.2</v>
-      </c>
-      <c r="I24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>10003</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="G25">
-        <v>0.1</v>
-      </c>
-      <c r="H25">
-        <v>0.2</v>
-      </c>
-      <c r="I25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>10004</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="G26">
-        <v>0.1</v>
-      </c>
-      <c r="H26">
-        <v>0.2</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>10005</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="G27">
-        <v>0.1</v>
-      </c>
-      <c r="H27">
-        <v>0.2</v>
-      </c>
-      <c r="I27">
-        <v>100</v>
-      </c>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3739,6 +3204,694 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA892EB-1C5D-4DA9-95FA-D6E2F64A7CF0}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="5" max="5" width="8.83984375" style="1"/>
+    <col min="6" max="6" width="8.83984375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>7002</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>7003</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>7004</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>7005</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>7006</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.37</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>9000</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>9001</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.19</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>9002</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>9003</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.06</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>9004</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>9005</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>9006</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>9007</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>9008</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>10001</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>10002</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>10003</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>10004</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10005</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1F6DF5-0B9D-48B1-96CA-E450A31D5D35}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -4173,17 +4326,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="5" max="5" width="8.83984375" style="1"/>
+    <col min="6" max="6" width="8.83984375" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4196,14 +4353,29 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>20</v>
       </c>
@@ -4211,19 +4383,28 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>20</v>
       </c>
@@ -4231,19 +4412,28 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0.28570000000000001</v>
-      </c>
-      <c r="F3">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>20</v>
       </c>
@@ -4251,19 +4441,28 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.31</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>20</v>
       </c>
@@ -4271,19 +4470,28 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>20</v>
       </c>
@@ -4291,19 +4499,28 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>0.2</v>
-      </c>
-      <c r="F6">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="1">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>20</v>
       </c>
@@ -4311,19 +4528,34 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>0.375</v>
-      </c>
-      <c r="F7">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>20</v>
       </c>
@@ -4336,14 +4568,29 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>1.46</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>20</v>
       </c>
@@ -4351,19 +4598,34 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>0.375</v>
-      </c>
-      <c r="F9">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>20</v>
       </c>
@@ -4371,19 +4633,34 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>0.25</v>
-      </c>
-      <c r="F10">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="1">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>20</v>
       </c>
@@ -4396,14 +4673,29 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>20</v>
       </c>
@@ -4411,19 +4703,34 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>20</v>
       </c>
@@ -4431,19 +4738,34 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>0.125</v>
-      </c>
-      <c r="F13">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="1">
+        <v>0.1111</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>20</v>
       </c>
@@ -4451,19 +4773,34 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>20</v>
       </c>
@@ -4471,19 +4808,34 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="F15">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>20</v>
       </c>
@@ -4491,19 +4843,28 @@
         <v>10000</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>0.375</v>
-      </c>
-      <c r="F16">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>20</v>
       </c>
@@ -4511,19 +4872,28 @@
         <v>10001</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17">
-        <v>0.25</v>
-      </c>
-      <c r="F17">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="1">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>20</v>
       </c>
@@ -4536,14 +4906,23 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.25</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>20</v>
       </c>
@@ -4551,19 +4930,28 @@
         <v>10003</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
-        <v>0.16669999999999999</v>
-      </c>
-      <c r="F19">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4571,19 +4959,28 @@
         <v>10004</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4591,16 +4988,25 @@
         <v>10005</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1.34</v>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4608,12 +5014,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4800,404 +5206,28 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>7002</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3.19</v>
-      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>7003</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.56</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>7004</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.86</v>
-      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>7005</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2.37</v>
-      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>7006</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2.54</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>9000</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0.1429</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2.7</v>
-      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>9001</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>0.2727</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.52</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>9002</v>
-      </c>
-      <c r="C15">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>9003</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="F16">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>9004</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0.28570000000000001</v>
-      </c>
-      <c r="F17">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>9005</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>0.3</v>
-      </c>
-      <c r="F18">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>9006</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>0.6</v>
-      </c>
-      <c r="F19">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>9007</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="F20">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>9008</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>0.45450000000000002</v>
-      </c>
-      <c r="F21">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>10000</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>0.2</v>
-      </c>
-      <c r="F22">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>10001</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0.1429</v>
-      </c>
-      <c r="F23">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>10002</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>0.6</v>
-      </c>
-      <c r="F24">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>10003</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="F25">
-        <v>3.21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>10004</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>10005</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>2.76</v>
-      </c>
+      <c r="F15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5205,12 +5235,700 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="5" max="5" width="8.83984375" style="1"/>
+    <col min="6" max="6" width="8.83984375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>7002</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>7003</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="G3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>7004</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="G4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>7005</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.37</v>
+      </c>
+      <c r="G5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>7006</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>9000</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>9001</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.2727</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="G8">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>9002</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.46</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.2</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>9003</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>9004</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>9005</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.89</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>9006</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.94</v>
+      </c>
+      <c r="G13">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>9007</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="G14">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <v>0.2</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>9008</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="G16">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>10001</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>10002</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>10003</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>10004</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10005</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.76</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5255,11 +5973,11 @@
         <v>7000</v>
       </c>
       <c r="C2" s="33">
-        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>67</v>
       </c>
       <c r="D2" s="33">
-        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
       <c r="E2" s="55">
@@ -5301,11 +6019,11 @@
         <v>7001</v>
       </c>
       <c r="C3" s="38">
-        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>63</v>
       </c>
       <c r="D3" s="38">
-        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>9</v>
       </c>
       <c r="E3" s="56">
@@ -5333,15 +6051,15 @@
       </c>
       <c r="AA3" s="74">
         <f>+E17</f>
-        <v>0.13043478260869565</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AB3" s="73">
         <f>+E16</f>
-        <v>0.29166666666666669</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AC3" s="75">
         <f>+E18</f>
-        <v>0.16</v>
+        <v>0.15384615384615385</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5352,11 +6070,11 @@
         <v>7002</v>
       </c>
       <c r="C4" s="38">
-        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>24</v>
       </c>
       <c r="D4" s="38">
-        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="56">
@@ -5385,11 +6103,11 @@
       </c>
       <c r="AB4" s="70">
         <f>+E13</f>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AC4" s="72">
         <f>+E15</f>
-        <v>0.38461538461538464</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5400,44 +6118,44 @@
         <v>7003</v>
       </c>
       <c r="C5" s="38">
-        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>26</v>
       </c>
       <c r="D5" s="38">
-        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>6</v>
       </c>
       <c r="E5" s="56">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>8.262863931224225E-2</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
-        <v>0.12000000000000001</v>
+        <v>0.14814059145698855</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.31339787008147302</v>
       </c>
       <c r="Z5" s="69">
         <v>20</v>
       </c>
       <c r="AA5" s="77">
         <f>+E20</f>
-        <v>0.16</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="AB5" s="76">
         <f>+E19</f>
-        <v>0.38461538461538464</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="AC5" s="78">
         <f>+E21</f>
-        <v>0.53846153846153844</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5448,11 +6166,11 @@
         <v>7004</v>
       </c>
       <c r="C6" s="38">
-        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>11</v>
+        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>13</v>
       </c>
       <c r="D6" s="38">
-        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56">
@@ -5481,29 +6199,29 @@
         <v>7005</v>
       </c>
       <c r="C7" s="38">
-        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>12</v>
+        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>13</v>
       </c>
       <c r="D7" s="38">
-        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
       <c r="E7" s="56">
         <f t="shared" si="4"/>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="39">
         <f t="shared" si="5"/>
-        <v>7.9785592313028175E-2</v>
+        <v>7.3905301756194058E-2</v>
       </c>
       <c r="H7" s="39">
         <f t="shared" si="6"/>
-        <v>3.5477410203051535E-3</v>
+        <v>3.017775166882869E-3</v>
       </c>
       <c r="I7" s="41">
         <f t="shared" si="7"/>
-        <v>0.16311892564636149</v>
+        <v>0.15082837867927099</v>
       </c>
       <c r="Z7" t="s">
         <v>12</v>
@@ -5523,29 +6241,29 @@
         <v>7006</v>
       </c>
       <c r="C8" s="38">
-        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>11</v>
+        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>12</v>
       </c>
       <c r="D8" s="38">
-        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
       <c r="E8" s="56">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.18181818181818182</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="39">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0.11629129983033297</v>
+        <v>0.1075828707279838</v>
       </c>
       <c r="H8" s="39">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>6.5526881987848853E-2</v>
+        <v>5.9083795938682862E-2</v>
       </c>
       <c r="I8" s="41">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.29810948164851481</v>
+        <v>0.27424953739465047</v>
       </c>
       <c r="Z8">
         <v>2</v>
@@ -5555,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <f>+E26</f>
+        <f>+E33</f>
         <v>0</v>
       </c>
     </row>
@@ -5567,20 +6285,20 @@
         <v>8000</v>
       </c>
       <c r="C9" s="38">
-        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>67</v>
       </c>
       <c r="D9" s="38">
-        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>7</v>
       </c>
       <c r="E9" s="56">
-        <f t="shared" ref="E9:E24" si="12">IFERROR(D9/C9, 0)</f>
+        <f t="shared" ref="E9:E31" si="12">IFERROR(D9/C9, 0)</f>
         <v>0.1044776119402985</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="39">
-        <f t="shared" ref="G9:G24" si="13">IFERROR(SQRT(C9*E9*(1-E9))/C9, 0)</f>
+        <f t="shared" ref="G9:G31" si="13">IFERROR(SQRT(C9*E9*(1-E9))/C9, 0)</f>
         <v>3.7369083027573149E-2</v>
       </c>
       <c r="H9" s="39">
@@ -5599,8 +6317,8 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <f>+E23</f>
-        <v>0.125</v>
+        <f>+E30</f>
+        <v>0.12</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5611,11 +6329,11 @@
         <v>8001</v>
       </c>
       <c r="C10" s="38">
-        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>62</v>
       </c>
       <c r="D10" s="38">
-        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
       <c r="E10" s="56">
@@ -5643,8 +6361,8 @@
         <v>0.11940298507462686</v>
       </c>
       <c r="AB10" s="1">
-        <f>+E22</f>
-        <v>0.33333333333333331</v>
+        <f>+E29</f>
+        <v>0.32142857142857145</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5655,11 +6373,11 @@
         <v>8002</v>
       </c>
       <c r="C11" s="38">
-        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>63</v>
       </c>
       <c r="D11" s="38">
-        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>18</v>
       </c>
       <c r="E11" s="56">
@@ -5672,11 +6390,11 @@
         <v>5.6915648063542552E-2</v>
       </c>
       <c r="H11" s="39">
-        <f t="shared" ref="H11:H24" si="14">E11-G11</f>
+        <f t="shared" ref="H11:H31" si="14">E11-G11</f>
         <v>0.22879863765074315</v>
       </c>
       <c r="I11" s="41">
-        <f t="shared" ref="I11:I24" si="15">E11+G11</f>
+        <f t="shared" ref="I11:I31" si="15">E11+G11</f>
         <v>0.34262993377782824</v>
       </c>
       <c r="Z11">
@@ -5687,8 +6405,8 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="AB11" s="1">
-        <f>+E24</f>
-        <v>0.4</v>
+        <f>+E31</f>
+        <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5699,11 +6417,11 @@
         <v>8003</v>
       </c>
       <c r="C12" s="43">
-        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>62</v>
       </c>
       <c r="D12" s="43">
-        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>20</v>
       </c>
       <c r="E12" s="57">
@@ -5728,11 +6446,11 @@
       </c>
       <c r="AA12" s="1">
         <f>+E8</f>
-        <v>0.18181818181818182</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AB12" s="1">
-        <f>+E25</f>
-        <v>0.18181818181818182</v>
+        <f>+E32</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5743,39 +6461,39 @@
         <v>9000</v>
       </c>
       <c r="C13" s="8">
-        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>24</v>
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>25</v>
       </c>
       <c r="D13" s="8">
-        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
       <c r="E13" s="58">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9">
         <f t="shared" si="13"/>
-        <v>8.8388347648318433E-2</v>
+        <v>8.5416626016250496E-2</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="14"/>
-        <v>0.16161165235168157</v>
+        <v>0.15458337398374949</v>
       </c>
       <c r="I13" s="31">
         <f t="shared" si="15"/>
-        <v>0.33838834764831843</v>
+        <v>0.32541662601625049</v>
       </c>
       <c r="Z13">
         <v>100</v>
       </c>
       <c r="AA13" s="1">
         <f>+E7</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AB13" s="1">
-        <f>+E27</f>
+        <f>+E34</f>
         <v>0</v>
       </c>
     </row>
@@ -5787,11 +6505,11 @@
         <v>9001</v>
       </c>
       <c r="C14" s="12">
-        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>26</v>
       </c>
       <c r="D14" s="12">
-        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="E14" s="59">
@@ -5820,29 +6538,29 @@
         <v>9002</v>
       </c>
       <c r="C15" s="16">
-        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>26</v>
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>27</v>
       </c>
       <c r="D15" s="16">
-        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>10</v>
       </c>
       <c r="E15" s="60">
         <f t="shared" si="12"/>
-        <v>0.38461538461538464</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17">
         <f t="shared" si="13"/>
-        <v>9.5411334299391123E-2</v>
+        <v>9.293489539618284E-2</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="14"/>
-        <v>0.2892040503159935</v>
+        <v>0.27743547497418752</v>
       </c>
       <c r="I15" s="50">
         <f t="shared" si="15"/>
-        <v>0.48002671891477577</v>
+        <v>0.46330526576655318</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -5853,29 +6571,29 @@
         <v>9003</v>
       </c>
       <c r="C16" s="20">
-        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>24</v>
+        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>25</v>
       </c>
       <c r="D16" s="20">
-        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>7</v>
       </c>
       <c r="E16" s="61">
         <f t="shared" si="12"/>
-        <v>0.29166666666666669</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21">
         <f t="shared" si="13"/>
-        <v>9.2780480665884624E-2</v>
+        <v>8.97997772825746E-2</v>
       </c>
       <c r="H16" s="21">
         <f t="shared" si="14"/>
-        <v>0.19888618600078206</v>
+        <v>0.19020022271742543</v>
       </c>
       <c r="I16" s="51">
         <f t="shared" si="15"/>
-        <v>0.38444714733255131</v>
+        <v>0.36979977728257463</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5886,29 +6604,29 @@
         <v>9004</v>
       </c>
       <c r="C17" s="24">
-        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>24</v>
       </c>
       <c r="D17" s="24">
-        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>4</v>
       </c>
       <c r="E17" s="62">
         <f t="shared" si="12"/>
-        <v>0.13043478260869565</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
         <f t="shared" si="13"/>
-        <v>7.0223726355412894E-2</v>
+        <v>7.6072577431273075E-2</v>
       </c>
       <c r="H17" s="25">
         <f t="shared" si="14"/>
-        <v>6.0211056253282755E-2</v>
+        <v>9.0594089235393582E-2</v>
       </c>
       <c r="I17" s="52">
         <f t="shared" si="15"/>
-        <v>0.20065850896410853</v>
+        <v>0.24273924409793973</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -5919,29 +6637,29 @@
         <v>9005</v>
       </c>
       <c r="C18" s="28">
-        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>26</v>
       </c>
       <c r="D18" s="28">
-        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="E18" s="63">
         <f t="shared" si="12"/>
-        <v>0.16</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="29">
         <f t="shared" si="13"/>
-        <v>7.3321211119293433E-2</v>
+        <v>7.0758939308292301E-2</v>
       </c>
       <c r="H18" s="29">
         <f t="shared" si="14"/>
-        <v>8.667878888070657E-2</v>
+        <v>8.3087214537861553E-2</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="15"/>
-        <v>0.23332121111929344</v>
+        <v>0.22460509315444616</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5952,29 +6670,29 @@
         <v>9006</v>
       </c>
       <c r="C19" s="8">
-        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>26</v>
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>27</v>
       </c>
       <c r="D19" s="8">
-        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>10</v>
       </c>
       <c r="E19" s="58">
         <f t="shared" si="12"/>
-        <v>0.38461538461538464</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9">
         <f t="shared" si="13"/>
-        <v>9.5411334299391123E-2</v>
+        <v>9.293489539618284E-2</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="14"/>
-        <v>0.2892040503159935</v>
+        <v>0.27743547497418752</v>
       </c>
       <c r="I19" s="31">
         <f t="shared" si="15"/>
-        <v>0.48002671891477577</v>
+        <v>0.46330526576655318</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5985,32 +6703,32 @@
         <v>9007</v>
       </c>
       <c r="C20" s="12">
-        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>26</v>
       </c>
       <c r="D20" s="12">
-        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+        <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
       <c r="E20" s="59">
         <f t="shared" si="12"/>
-        <v>0.16</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="13">
         <f t="shared" si="13"/>
-        <v>7.3321211119293433E-2</v>
+        <v>7.0758939308292301E-2</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="14"/>
-        <v>8.667878888070657E-2</v>
+        <v>8.3087214537861553E-2</v>
       </c>
       <c r="I20" s="49">
         <f t="shared" si="15"/>
-        <v>0.23332121111929344</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>0.22460509315444616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -6018,226 +6736,457 @@
         <v>9008</v>
       </c>
       <c r="C21" s="12">
-        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>26</v>
+        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>28</v>
       </c>
       <c r="D21" s="12">
-        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>14</v>
+        <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>15</v>
       </c>
       <c r="E21" s="59">
         <f t="shared" si="12"/>
-        <v>0.53846153846153844</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="13">
         <f t="shared" si="13"/>
-        <v>9.7767524508037315E-2</v>
+        <v>9.4249761234240642E-2</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" si="14"/>
-        <v>0.44069401395350111</v>
+        <v>0.44146452448004503</v>
       </c>
       <c r="I21" s="49">
         <f t="shared" si="15"/>
-        <v>0.63622906296957571</v>
+        <v>0.62996404694852637</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="19">
-        <v>20</v>
-      </c>
-      <c r="B22" s="20">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12">
+        <v>9010</v>
+      </c>
+      <c r="C22" s="12">
+        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="59">
+        <f t="shared" ref="E22:E28" si="16">IFERROR(D22/C22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13">
+        <f t="shared" ref="G22:G28" si="17">IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" ref="H22:H28" si="18">E22-G22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="49">
+        <f t="shared" ref="I22:I28" si="19">E22+G22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11">
+        <v>20</v>
+      </c>
+      <c r="B23" s="12">
+        <v>9013</v>
+      </c>
+      <c r="C23" s="12">
+        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="49">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11">
+        <v>20</v>
+      </c>
+      <c r="B24" s="12">
+        <v>9016</v>
+      </c>
+      <c r="C24" s="12">
+        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
+        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="49">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="11">
+        <v>20</v>
+      </c>
+      <c r="B25" s="12">
+        <v>9025</v>
+      </c>
+      <c r="C25" s="12">
+        <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="49">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="11">
+        <v>20</v>
+      </c>
+      <c r="B26" s="12">
+        <v>9026</v>
+      </c>
+      <c r="C26" s="12">
+        <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="49">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="11">
+        <v>20</v>
+      </c>
+      <c r="B27" s="12">
+        <v>9027</v>
+      </c>
+      <c r="C27" s="12">
+        <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="49">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="11">
+        <v>20</v>
+      </c>
+      <c r="B28" s="12">
+        <v>9028</v>
+      </c>
+      <c r="C28" s="12">
+        <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="49">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="19">
+        <v>20</v>
+      </c>
+      <c r="B29" s="20">
         <v>10000</v>
       </c>
-      <c r="C22" s="20">
-        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>27</v>
-      </c>
-      <c r="D22" s="20">
-        <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+      <c r="C29" s="20">
+        <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>28</v>
+      </c>
+      <c r="D29" s="20">
+        <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>9</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E29" s="61">
         <f t="shared" si="12"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21">
+        <v>0.32142857142857145</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21">
         <f t="shared" si="13"/>
-        <v>9.0721842325302907E-2</v>
-      </c>
-      <c r="H22" s="21">
+        <v>8.8259407612276491E-2</v>
+      </c>
+      <c r="H29" s="21">
         <f t="shared" si="14"/>
-        <v>0.24261149100803042</v>
-      </c>
-      <c r="I22" s="51">
+        <v>0.23316916381629496</v>
+      </c>
+      <c r="I29" s="51">
         <f t="shared" si="15"/>
-        <v>0.42405517565863621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="23">
-        <v>20</v>
-      </c>
-      <c r="B23" s="24">
+        <v>0.40968797904084797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="23">
+        <v>20</v>
+      </c>
+      <c r="B30" s="24">
         <v>10001</v>
       </c>
-      <c r="C23" s="24">
-        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>24</v>
-      </c>
-      <c r="D23" s="24">
-        <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+      <c r="C30" s="24">
+        <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>25</v>
+      </c>
+      <c r="D30" s="24">
+        <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E30" s="62">
         <f t="shared" si="12"/>
-        <v>0.125</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25">
+        <v>0.12</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25">
         <f t="shared" si="13"/>
-        <v>6.7507715608415217E-2</v>
-      </c>
-      <c r="H23" s="25">
+        <v>6.4992307237087682E-2</v>
+      </c>
+      <c r="H30" s="25">
         <f t="shared" si="14"/>
-        <v>5.7492284391584783E-2</v>
-      </c>
-      <c r="I23" s="52">
+        <v>5.5007692762912314E-2</v>
+      </c>
+      <c r="I30" s="52">
         <f t="shared" si="15"/>
-        <v>0.19250771560841523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="23">
-        <v>20</v>
-      </c>
-      <c r="B24" s="24">
+        <v>0.18499230723708768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="23">
+        <v>20</v>
+      </c>
+      <c r="B31" s="24">
         <v>10002</v>
       </c>
-      <c r="C24" s="24">
-        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>15</v>
-      </c>
-      <c r="D24" s="24">
-        <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+      <c r="C31" s="24">
+        <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>16</v>
+      </c>
+      <c r="D31" s="24">
+        <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E31" s="62">
         <f t="shared" si="12"/>
-        <v>0.4</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25">
         <f t="shared" si="13"/>
-        <v>0.12649110640673517</v>
-      </c>
-      <c r="H24" s="25">
+        <v>0.12103072956898178</v>
+      </c>
+      <c r="H31" s="25">
         <f t="shared" si="14"/>
-        <v>0.27350889359326486</v>
-      </c>
-      <c r="I24" s="52">
+        <v>0.25396927043101825</v>
+      </c>
+      <c r="I31" s="52">
         <f t="shared" si="15"/>
-        <v>0.52649110640673524</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="23">
-        <v>20</v>
-      </c>
-      <c r="B25" s="24">
+        <v>0.49603072956898175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="23">
+        <v>20</v>
+      </c>
+      <c r="B32" s="24">
         <v>10003</v>
       </c>
-      <c r="C25" s="24">
-        <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>11</v>
-      </c>
-      <c r="D25" s="24">
-        <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
+      <c r="C32" s="24">
+        <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>12</v>
+      </c>
+      <c r="D32" s="24">
+        <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>2</v>
       </c>
-      <c r="E25" s="62">
-        <f t="shared" ref="E25:E26" si="16">IFERROR(D25/C25, 0)</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25">
-        <f t="shared" ref="G25:G26" si="17">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
-        <v>0.11629129983033297</v>
-      </c>
-      <c r="H25" s="25">
-        <f t="shared" ref="H25:H26" si="18">E25-G25</f>
-        <v>6.5526881987848853E-2</v>
-      </c>
-      <c r="I25" s="52">
-        <f t="shared" ref="I25:I26" si="19">E25+G25</f>
-        <v>0.29810948164851481</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="27">
-        <v>20</v>
-      </c>
-      <c r="B26" s="28">
+      <c r="E32" s="62">
+        <f t="shared" ref="E32:E33" si="20">IFERROR(D32/C32, 0)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25">
+        <f t="shared" ref="G32:G33" si="21">IFERROR(SQRT(C32*E32*(1-E32))/C32, 0)</f>
+        <v>0.1075828707279838</v>
+      </c>
+      <c r="H32" s="25">
+        <f t="shared" ref="H32:H33" si="22">E32-G32</f>
+        <v>5.9083795938682862E-2</v>
+      </c>
+      <c r="I32" s="52">
+        <f t="shared" ref="I32:I33" si="23">E32+G32</f>
+        <v>0.27424953739465047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="27">
+        <v>20</v>
+      </c>
+      <c r="B33" s="28">
         <v>10004</v>
       </c>
-      <c r="C26" s="28">
-        <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
+      <c r="C33" s="28">
+        <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>13</v>
+      </c>
+      <c r="D33" s="28">
+        <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="63">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="29">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="53">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="27">
+        <v>20</v>
+      </c>
+      <c r="B34" s="28">
+        <v>10005</v>
+      </c>
+      <c r="C34" s="28">
+        <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>12</v>
       </c>
-      <c r="D26" s="28">
-        <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="63">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="53">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="27">
-        <v>20</v>
-      </c>
-      <c r="B27" s="28">
-        <v>10005</v>
-      </c>
-      <c r="C27" s="28">
-        <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>11</v>
-      </c>
-      <c r="D27" s="28">
-        <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="63">
-        <f t="shared" ref="E27" si="20">IFERROR(D27/C27, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29">
-        <f t="shared" ref="G27" si="21">IFERROR(SQRT(C27*E27*(1-E27))/C27, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="29">
-        <f t="shared" ref="H27" si="22">E27-G27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="53">
-        <f t="shared" ref="I27" si="23">E27+G27</f>
+      <c r="D34" s="28">
+        <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="63">
+        <f t="shared" ref="E34" si="24">IFERROR(D34/C34, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29">
+        <f t="shared" ref="G34" si="25">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="29">
+        <f t="shared" ref="H34" si="26">E34-G34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="53">
+        <f t="shared" ref="I34" si="27">E34+G34</f>
         <v>0</v>
       </c>
     </row>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DC75D-715E-4B44-96B9-C716E9211DCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9686A187-069B-4B8B-88BA-AC20507484E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,12 @@
     <sheet name="THUNDER" sheetId="2" r:id="rId5"/>
     <sheet name="THUNDER_3200" sheetId="8" r:id="rId6"/>
     <sheet name="TOTAL" sheetId="4" r:id="rId7"/>
+    <sheet name="Defaults_3200" sheetId="9" r:id="rId8"/>
+    <sheet name="Defaults_3201" sheetId="10" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Defaults_3201!$A$1:$R$133</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="44">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -91,6 +96,84 @@
   </si>
   <si>
     <t>catDestrScarcity</t>
+  </si>
+  <si>
+    <t>clmDefaultValueId</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Catalytic destruction for n = 20.</t>
+  </si>
+  <si>
+    <t>Catalytic destruction + sedimentation direct for n = 20.</t>
+  </si>
+  <si>
+    <t>Catalytic destruction for n = 25.</t>
+  </si>
+  <si>
+    <t>Catalytic synthesis + catalytic destruction for n = 20.</t>
+  </si>
+  <si>
+    <t>Catalytic synthesis + destruction for n = 20.</t>
+  </si>
+  <si>
+    <t>Catalytic synthesis for n = 20.</t>
+  </si>
+  <si>
+    <t>Catalytic synthesis + sedimentation direct for n = 11.</t>
+  </si>
+  <si>
+    <t>Catalytic destruction / forward only for n = 20 (sim param = 0.20).</t>
+  </si>
+  <si>
+    <t>Catalytic synthesis / forward only + catalytic destruction / forward only for n = 20.</t>
+  </si>
+  <si>
+    <t>Catalytic synthesis / forward only + catalytic destruction / forward only for n = 20 (both sim param = 0.20).</t>
+  </si>
+  <si>
+    <t>Catalytic synthesis / forward only for n = 20 (sim param = 0.20).</t>
+  </si>
+  <si>
+    <t>Tests.</t>
+  </si>
+  <si>
+    <t>Catalytic destruction / forward only for n = 20 (catDestrSim = 0.20, vary catDestrScarcity).</t>
+  </si>
+  <si>
+    <t>Catalytic synthesis / forward only + catalytic destruction / forward only for n = 20 (both sim param = 0.20, vary both scarcity param).</t>
+  </si>
+  <si>
+    <t>Catalytic synthesis / forward only for n = 20 (catSynthSim = 0.20, vary catSynthScarcity).</t>
+  </si>
+  <si>
+    <t>Catalytic destruction / forward only for n = 20 (catDestrScarcity = 20, vary catDestrSim).</t>
+  </si>
+  <si>
+    <t>Catalytic synthesis / forward only for n = 20 (catSynthScarcity = 20, vary catSynthSim).</t>
+  </si>
+  <si>
+    <t>Catalytic destruction / forward only for n = 20 (catDestrScarcity = 20, catDestrSim = 0.20, vary wasteRecyclingRate).</t>
+  </si>
+  <si>
+    <t>Catalytic synthesis / forward only for n = 20 (catSynthScarcity = 20, catSynthSim = 0.20, vary wasteRecyclingRate).</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1224,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>s</c:v>
+                  <c:v>d</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1202,7 +1285,7 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.6923076923076927E-2</c:v>
@@ -1225,7 +1308,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>d</c:v>
+                  <c:v>s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3208,7 +3291,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3376,16 +3459,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -3896,7 +3979,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4331,7 +4414,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5927,8 +6010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6227,10 +6310,10 @@
         <v>12</v>
       </c>
       <c r="AA7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
@@ -6242,7 +6325,7 @@
       </c>
       <c r="C8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6250,20 +6333,20 @@
       </c>
       <c r="E8" s="56">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.16666666666666666</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="39">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0.1075828707279838</v>
+        <v>0.10006825162892168</v>
       </c>
       <c r="H8" s="39">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>5.9083795938682862E-2</v>
+        <v>5.3777902217232179E-2</v>
       </c>
       <c r="I8" s="41">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.27424953739465047</v>
+        <v>0.25391440547507554</v>
       </c>
       <c r="Z8">
         <v>2</v>
@@ -6446,7 +6529,7 @@
       </c>
       <c r="AA12" s="1">
         <f>+E8</f>
-        <v>0.16666666666666666</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="AB12" s="1">
         <f>+E32</f>
@@ -7195,4 +7278,8671 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBEDCEB-7B03-453F-8008-6E0132AF4D7D}">
+  <dimension ref="A1:G105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="3" width="8.83984375" style="2"/>
+    <col min="5" max="5" width="8.83984375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>1001</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>1002</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>1003</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>2001</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>2002</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>2003</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>2004</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>2005</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>2006</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>2007</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>2008</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>2009</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>2010</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>2011</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>2012</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>2013</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>2014</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>3000</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>4000</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>4001</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>4002</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>4003</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>4004</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>4005</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>4006</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>4007</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>4008</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>4009</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>4010</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>4011</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>4012</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>4013</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>4014</v>
+      </c>
+      <c r="B57" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>4015</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>4016</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>4017</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>4018</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>4019</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>4020</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>5000</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>6000</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D65">
+        <v>200</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>6001</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>6002</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>6003</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>6004</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>6005</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>6006</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>7000</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>7001</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>7002</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>7003</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F75">
+        <v>40</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>7004</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>7005</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F77">
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>7006</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>8000</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D79">
+        <v>2000</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>8001</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D80">
+        <v>200</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>8002</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D81">
+        <v>20</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>8003</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D82">
+        <v>20</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>9000</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>9001</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>9002</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F85">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>9003</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>9004</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>9005</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>9006</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>9007</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>9008</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F91">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>9010</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F92">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>9013</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F93">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>9016</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F94">
+        <v>50</v>
+      </c>
+      <c r="G94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>9025</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>9026</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D96">
+        <v>50</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>9027</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D97">
+        <v>50</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>9028</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D98">
+        <v>50</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F98">
+        <v>50</v>
+      </c>
+      <c r="G98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>10000</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>10001</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>10002</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>10003</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D102">
+        <v>50</v>
+      </c>
+      <c r="G102" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>10004</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <v>10005</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D104">
+        <v>100</v>
+      </c>
+      <c r="G104" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <v>999000</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D105">
+        <v>20000</v>
+      </c>
+      <c r="E105" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F105">
+        <v>20000</v>
+      </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E76DC5-1049-4C8B-9BF5-A40E67654926}">
+  <dimension ref="A1:R133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2">
+        <f>+Defaults_3200!B2</f>
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="2">
+        <f>+Defaults_3200!C2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <f>+Defaults_3200!D2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <f>+Defaults_3200!E2</f>
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="2">
+        <f>+Defaults_3200!F2</f>
+        <v>10</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>IF(B2&lt;&gt;I2, "!ERR!", "")</f>
+        <v/>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f t="shared" ref="O2:O65" si="0">IF(C2&lt;&gt;J2, "!ERR!", "")</f>
+        <v/>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f t="shared" ref="P2:P65" si="1">IF(D2&lt;&gt;K2, "!ERR!", "")</f>
+        <v/>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f t="shared" ref="Q2:Q65" si="2">IF(E2&lt;&gt;L2, "!ERR!", "")</f>
+        <v/>
+      </c>
+      <c r="R2" s="2" t="str">
+        <f t="shared" ref="R2:R65" si="3">IF(F2&lt;&gt;M2, "!ERR!", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <f>+Defaults_3200!B3</f>
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="2">
+        <f>+Defaults_3200!C3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <f>+Defaults_3200!D3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <f>+Defaults_3200!E3</f>
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="2">
+        <f>+Defaults_3200!F3</f>
+        <v>7</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f t="shared" ref="N3:N66" si="4">IF(B3&lt;&gt;I3, "!ERR!", "")</f>
+        <v/>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <f>+Defaults_3200!B4</f>
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="2">
+        <f>+Defaults_3200!C4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f>+Defaults_3200!D4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f>+Defaults_3200!E4</f>
+        <v>0.2</v>
+      </c>
+      <c r="M4" s="2">
+        <f>+Defaults_3200!F4</f>
+        <v>15</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="E5">
+        <v>0.15</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2">
+        <f>+Defaults_3200!B5</f>
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="2">
+        <f>+Defaults_3200!C5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f>+Defaults_3200!D5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <f>+Defaults_3200!E5</f>
+        <v>0.15</v>
+      </c>
+      <c r="M5" s="2">
+        <f>+Defaults_3200!F5</f>
+        <v>10</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2">
+        <f>+Defaults_3200!B6</f>
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="2">
+        <f>+Defaults_3200!C6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f>+Defaults_3200!D6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <f>+Defaults_3200!E6</f>
+        <v>0.3</v>
+      </c>
+      <c r="M6" s="2">
+        <f>+Defaults_3200!F6</f>
+        <v>10</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <f>+Defaults_3200!B7</f>
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="2">
+        <f>+Defaults_3200!C7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <f>+Defaults_3200!D7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <f>+Defaults_3200!E7</f>
+        <v>0.25</v>
+      </c>
+      <c r="M7" s="2">
+        <f>+Defaults_3200!F7</f>
+        <v>10</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>0.05</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2">
+        <f>+Defaults_3200!B8</f>
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="2">
+        <f>+Defaults_3200!C8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <f>+Defaults_3200!D8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <f>+Defaults_3200!E8</f>
+        <v>0.05</v>
+      </c>
+      <c r="M8" s="2">
+        <f>+Defaults_3200!F8</f>
+        <v>10</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2">
+        <f>+Defaults_3200!B9</f>
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="2">
+        <f>+Defaults_3200!C9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <f>+Defaults_3200!D9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <f>+Defaults_3200!E9</f>
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="2">
+        <f>+Defaults_3200!F9</f>
+        <v>10</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
+        <v>0.35</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2">
+        <f>+Defaults_3200!B10</f>
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="2">
+        <f>+Defaults_3200!C10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <f>+Defaults_3200!D10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <f>+Defaults_3200!E10</f>
+        <v>0.35</v>
+      </c>
+      <c r="M10" s="2">
+        <f>+Defaults_3200!F10</f>
+        <v>10</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>0.4</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
+        <f>+Defaults_3200!B11</f>
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="2">
+        <f>+Defaults_3200!C11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <f>+Defaults_3200!D11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <f>+Defaults_3200!E11</f>
+        <v>0.4</v>
+      </c>
+      <c r="M11" s="2">
+        <f>+Defaults_3200!F11</f>
+        <v>10</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="E12">
+        <v>0.45</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2">
+        <f>+Defaults_3200!B12</f>
+        <v>0.1</v>
+      </c>
+      <c r="J12" s="2">
+        <f>+Defaults_3200!C12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f>+Defaults_3200!D12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <f>+Defaults_3200!E12</f>
+        <v>0.45</v>
+      </c>
+      <c r="M12" s="2">
+        <f>+Defaults_3200!F12</f>
+        <v>10</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2">
+        <f>+Defaults_3200!B13</f>
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="2">
+        <f>+Defaults_3200!C13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <f>+Defaults_3200!D13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <f>+Defaults_3200!E13</f>
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="2">
+        <f>+Defaults_3200!F13</f>
+        <v>10</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2">
+        <f>+Defaults_3200!B14</f>
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="2">
+        <f>+Defaults_3200!C14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <f>+Defaults_3200!D14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <f>+Defaults_3200!E14</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M14" s="2">
+        <f>+Defaults_3200!F14</f>
+        <v>10</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="E15">
+        <v>0.6</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2">
+        <f>+Defaults_3200!B15</f>
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="2">
+        <f>+Defaults_3200!C15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>+Defaults_3200!D15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <f>+Defaults_3200!E15</f>
+        <v>0.6</v>
+      </c>
+      <c r="M15" s="2">
+        <f>+Defaults_3200!F15</f>
+        <v>10</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>0.65</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2">
+        <f>+Defaults_3200!B16</f>
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="2">
+        <f>+Defaults_3200!C16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <f>+Defaults_3200!D16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <f>+Defaults_3200!E16</f>
+        <v>0.65</v>
+      </c>
+      <c r="M16" s="2">
+        <f>+Defaults_3200!F16</f>
+        <v>10</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q16" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="E17">
+        <v>0.7</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2">
+        <f>+Defaults_3200!B17</f>
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="2">
+        <f>+Defaults_3200!C17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <f>+Defaults_3200!D17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <f>+Defaults_3200!E17</f>
+        <v>0.7</v>
+      </c>
+      <c r="M17" s="2">
+        <f>+Defaults_3200!F17</f>
+        <v>10</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>0.75</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2">
+        <f>+Defaults_3200!B18</f>
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="2">
+        <f>+Defaults_3200!C18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <f>+Defaults_3200!D18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <f>+Defaults_3200!E18</f>
+        <v>0.75</v>
+      </c>
+      <c r="M18" s="2">
+        <f>+Defaults_3200!F18</f>
+        <v>10</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="E19">
+        <v>0.8</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2">
+        <f>+Defaults_3200!B19</f>
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="2">
+        <f>+Defaults_3200!C19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <f>+Defaults_3200!D19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <f>+Defaults_3200!E19</f>
+        <v>0.8</v>
+      </c>
+      <c r="M19" s="2">
+        <f>+Defaults_3200!F19</f>
+        <v>10</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <v>0.85</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2">
+        <f>+Defaults_3200!B20</f>
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="2">
+        <f>+Defaults_3200!C20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <f>+Defaults_3200!D20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <f>+Defaults_3200!E20</f>
+        <v>0.85</v>
+      </c>
+      <c r="M20" s="2">
+        <f>+Defaults_3200!F20</f>
+        <v>10</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="E21">
+        <v>0.9</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2">
+        <f>+Defaults_3200!B21</f>
+        <v>0.1</v>
+      </c>
+      <c r="J21" s="2">
+        <f>+Defaults_3200!C21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <f>+Defaults_3200!D21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <f>+Defaults_3200!E21</f>
+        <v>0.9</v>
+      </c>
+      <c r="M21" s="2">
+        <f>+Defaults_3200!F21</f>
+        <v>10</v>
+      </c>
+      <c r="N21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <v>0.95</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2">
+        <f>+Defaults_3200!B22</f>
+        <v>0.1</v>
+      </c>
+      <c r="J22" s="2">
+        <f>+Defaults_3200!C22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <f>+Defaults_3200!D22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <f>+Defaults_3200!E22</f>
+        <v>0.95</v>
+      </c>
+      <c r="M22" s="2">
+        <f>+Defaults_3200!F22</f>
+        <v>10</v>
+      </c>
+      <c r="N22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>0.2</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="2">
+        <f>+Defaults_3200!B23</f>
+        <v>0.1</v>
+      </c>
+      <c r="J23" s="2">
+        <f>+Defaults_3200!C23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <f>+Defaults_3200!D23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <f>+Defaults_3200!E23</f>
+        <v>0.2</v>
+      </c>
+      <c r="M23" s="2">
+        <f>+Defaults_3200!F23</f>
+        <v>10</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>1001</v>
+      </c>
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>0.2</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="2">
+        <f>+Defaults_3200!B24</f>
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="2">
+        <f>+Defaults_3200!C24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <f>+Defaults_3200!D24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <f>+Defaults_3200!E24</f>
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="2">
+        <f>+Defaults_3200!F24</f>
+        <v>10</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>1002</v>
+      </c>
+      <c r="B25">
+        <v>0.1</v>
+      </c>
+      <c r="E25">
+        <v>0.2</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="2">
+        <f>+Defaults_3200!B25</f>
+        <v>0.1</v>
+      </c>
+      <c r="J25" s="2">
+        <f>+Defaults_3200!C25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <f>+Defaults_3200!D25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <f>+Defaults_3200!E25</f>
+        <v>0.2</v>
+      </c>
+      <c r="M25" s="2">
+        <f>+Defaults_3200!F25</f>
+        <v>10</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>1003</v>
+      </c>
+      <c r="B26">
+        <v>0.1</v>
+      </c>
+      <c r="E26">
+        <v>0.2</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="2">
+        <f>+Defaults_3200!B26</f>
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="2">
+        <f>+Defaults_3200!C26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <f>+Defaults_3200!D26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <f>+Defaults_3200!E26</f>
+        <v>0.2</v>
+      </c>
+      <c r="M26" s="2">
+        <f>+Defaults_3200!F26</f>
+        <v>10</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q26" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27">
+        <v>0.1</v>
+      </c>
+      <c r="E27">
+        <v>0.2</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="2">
+        <f>+Defaults_3200!B27</f>
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="2">
+        <f>+Defaults_3200!C27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <f>+Defaults_3200!D27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <f>+Defaults_3200!E27</f>
+        <v>0.2</v>
+      </c>
+      <c r="M27" s="2">
+        <f>+Defaults_3200!F27</f>
+        <v>5</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>2001</v>
+      </c>
+      <c r="B28">
+        <v>0.1</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="2">
+        <f>+Defaults_3200!B28</f>
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="2">
+        <f>+Defaults_3200!C28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <f>+Defaults_3200!D28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <f>+Defaults_3200!E28</f>
+        <v>0.2</v>
+      </c>
+      <c r="M28" s="2">
+        <f>+Defaults_3200!F28</f>
+        <v>3</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q28" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>2002</v>
+      </c>
+      <c r="B29">
+        <v>0.1</v>
+      </c>
+      <c r="E29">
+        <v>0.2</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="2">
+        <f>+Defaults_3200!B29</f>
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="2">
+        <f>+Defaults_3200!C29</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <f>+Defaults_3200!D29</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <f>+Defaults_3200!E29</f>
+        <v>0.2</v>
+      </c>
+      <c r="M29" s="2">
+        <f>+Defaults_3200!F29</f>
+        <v>7</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q29" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>2003</v>
+      </c>
+      <c r="B30">
+        <v>0.1</v>
+      </c>
+      <c r="E30">
+        <v>0.1</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="2">
+        <f>+Defaults_3200!B30</f>
+        <v>0.1</v>
+      </c>
+      <c r="J30" s="2">
+        <f>+Defaults_3200!C30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <f>+Defaults_3200!D30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <f>+Defaults_3200!E30</f>
+        <v>0.1</v>
+      </c>
+      <c r="M30" s="2">
+        <f>+Defaults_3200!F30</f>
+        <v>5</v>
+      </c>
+      <c r="N30" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q30" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>2004</v>
+      </c>
+      <c r="B31">
+        <v>0.1</v>
+      </c>
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="2">
+        <f>+Defaults_3200!B31</f>
+        <v>0.1</v>
+      </c>
+      <c r="J31" s="2">
+        <f>+Defaults_3200!C31</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <f>+Defaults_3200!D31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <f>+Defaults_3200!E31</f>
+        <v>0.1</v>
+      </c>
+      <c r="M31" s="2">
+        <f>+Defaults_3200!F31</f>
+        <v>3</v>
+      </c>
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q31" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>2005</v>
+      </c>
+      <c r="B32">
+        <v>0.1</v>
+      </c>
+      <c r="E32">
+        <v>0.1</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="2">
+        <f>+Defaults_3200!B32</f>
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="2">
+        <f>+Defaults_3200!C32</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <f>+Defaults_3200!D32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <f>+Defaults_3200!E32</f>
+        <v>0.1</v>
+      </c>
+      <c r="M32" s="2">
+        <f>+Defaults_3200!F32</f>
+        <v>7</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q32" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>2006</v>
+      </c>
+      <c r="B33">
+        <v>0.1</v>
+      </c>
+      <c r="E33">
+        <v>0.15</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="2">
+        <f>+Defaults_3200!B33</f>
+        <v>0.1</v>
+      </c>
+      <c r="J33" s="2">
+        <f>+Defaults_3200!C33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <f>+Defaults_3200!D33</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <f>+Defaults_3200!E33</f>
+        <v>0.15</v>
+      </c>
+      <c r="M33" s="2">
+        <f>+Defaults_3200!F33</f>
+        <v>5</v>
+      </c>
+      <c r="N33" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q33" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R33" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>2007</v>
+      </c>
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="E34">
+        <v>0.15</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2">
+        <f>+Defaults_3200!B34</f>
+        <v>0.1</v>
+      </c>
+      <c r="J34" s="2">
+        <f>+Defaults_3200!C34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <f>+Defaults_3200!D34</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <f>+Defaults_3200!E34</f>
+        <v>0.15</v>
+      </c>
+      <c r="M34" s="2">
+        <f>+Defaults_3200!F34</f>
+        <v>3</v>
+      </c>
+      <c r="N34" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q34" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R34" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <v>2008</v>
+      </c>
+      <c r="B35">
+        <v>0.1</v>
+      </c>
+      <c r="E35">
+        <v>0.15</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="2">
+        <f>+Defaults_3200!B35</f>
+        <v>0.1</v>
+      </c>
+      <c r="J35" s="2">
+        <f>+Defaults_3200!C35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <f>+Defaults_3200!D35</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <f>+Defaults_3200!E35</f>
+        <v>0.15</v>
+      </c>
+      <c r="M35" s="2">
+        <f>+Defaults_3200!F35</f>
+        <v>7</v>
+      </c>
+      <c r="N35" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q35" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <v>2009</v>
+      </c>
+      <c r="B36">
+        <v>0.1</v>
+      </c>
+      <c r="E36">
+        <v>0.25</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="2">
+        <f>+Defaults_3200!B36</f>
+        <v>0.1</v>
+      </c>
+      <c r="J36" s="2">
+        <f>+Defaults_3200!C36</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <f>+Defaults_3200!D36</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <f>+Defaults_3200!E36</f>
+        <v>0.25</v>
+      </c>
+      <c r="M36" s="2">
+        <f>+Defaults_3200!F36</f>
+        <v>5</v>
+      </c>
+      <c r="N36" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q36" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R36" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <v>2010</v>
+      </c>
+      <c r="B37">
+        <v>0.1</v>
+      </c>
+      <c r="E37">
+        <v>0.25</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="2">
+        <f>+Defaults_3200!B37</f>
+        <v>0.1</v>
+      </c>
+      <c r="J37" s="2">
+        <f>+Defaults_3200!C37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <f>+Defaults_3200!D37</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <f>+Defaults_3200!E37</f>
+        <v>0.25</v>
+      </c>
+      <c r="M37" s="2">
+        <f>+Defaults_3200!F37</f>
+        <v>3</v>
+      </c>
+      <c r="N37" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q37" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>2011</v>
+      </c>
+      <c r="B38">
+        <v>0.1</v>
+      </c>
+      <c r="E38">
+        <v>0.25</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="2">
+        <f>+Defaults_3200!B38</f>
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="2">
+        <f>+Defaults_3200!C38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <f>+Defaults_3200!D38</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <f>+Defaults_3200!E38</f>
+        <v>0.25</v>
+      </c>
+      <c r="M38" s="2">
+        <f>+Defaults_3200!F38</f>
+        <v>7</v>
+      </c>
+      <c r="N38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <v>2012</v>
+      </c>
+      <c r="B39">
+        <v>0.1</v>
+      </c>
+      <c r="E39">
+        <v>0.3</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="2">
+        <f>+Defaults_3200!B39</f>
+        <v>0.1</v>
+      </c>
+      <c r="J39" s="2">
+        <f>+Defaults_3200!C39</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <f>+Defaults_3200!D39</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <f>+Defaults_3200!E39</f>
+        <v>0.3</v>
+      </c>
+      <c r="M39" s="2">
+        <f>+Defaults_3200!F39</f>
+        <v>5</v>
+      </c>
+      <c r="N39" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <v>2013</v>
+      </c>
+      <c r="B40">
+        <v>0.1</v>
+      </c>
+      <c r="E40">
+        <v>0.3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="2">
+        <f>+Defaults_3200!B40</f>
+        <v>0.1</v>
+      </c>
+      <c r="J40" s="2">
+        <f>+Defaults_3200!C40</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <f>+Defaults_3200!D40</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <f>+Defaults_3200!E40</f>
+        <v>0.3</v>
+      </c>
+      <c r="M40" s="2">
+        <f>+Defaults_3200!F40</f>
+        <v>3</v>
+      </c>
+      <c r="N40" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <v>2014</v>
+      </c>
+      <c r="B41">
+        <v>0.1</v>
+      </c>
+      <c r="E41">
+        <v>0.3</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="2">
+        <f>+Defaults_3200!B41</f>
+        <v>0.1</v>
+      </c>
+      <c r="J41" s="2">
+        <f>+Defaults_3200!C41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <f>+Defaults_3200!D41</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <f>+Defaults_3200!E41</f>
+        <v>0.3</v>
+      </c>
+      <c r="M41" s="2">
+        <f>+Defaults_3200!F41</f>
+        <v>7</v>
+      </c>
+      <c r="N41" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <v>3000</v>
+      </c>
+      <c r="B42">
+        <v>0.1</v>
+      </c>
+      <c r="C42">
+        <v>0.2</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>0.2</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="2">
+        <f>+Defaults_3200!B42</f>
+        <v>0.1</v>
+      </c>
+      <c r="J42" s="2">
+        <f>+Defaults_3200!C42</f>
+        <v>0.2</v>
+      </c>
+      <c r="K42" s="2">
+        <f>+Defaults_3200!D42</f>
+        <v>10</v>
+      </c>
+      <c r="L42" s="2">
+        <f>+Defaults_3200!E42</f>
+        <v>0.2</v>
+      </c>
+      <c r="M42" s="2">
+        <f>+Defaults_3200!F42</f>
+        <v>10</v>
+      </c>
+      <c r="N42" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <v>4000</v>
+      </c>
+      <c r="B43">
+        <v>0.1</v>
+      </c>
+      <c r="C43">
+        <v>0.2</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="2">
+        <f>+Defaults_3200!B43</f>
+        <v>0.1</v>
+      </c>
+      <c r="J43" s="2">
+        <f>+Defaults_3200!C43</f>
+        <v>0.2</v>
+      </c>
+      <c r="K43" s="2">
+        <f>+Defaults_3200!D43</f>
+        <v>10</v>
+      </c>
+      <c r="L43" s="2">
+        <f>+Defaults_3200!E43</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <f>+Defaults_3200!F43</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <v>4001</v>
+      </c>
+      <c r="B44">
+        <v>0.1</v>
+      </c>
+      <c r="C44">
+        <v>0.2</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="2">
+        <f>+Defaults_3200!B44</f>
+        <v>0.1</v>
+      </c>
+      <c r="J44" s="2">
+        <f>+Defaults_3200!C44</f>
+        <v>0.2</v>
+      </c>
+      <c r="K44" s="2">
+        <f>+Defaults_3200!D44</f>
+        <v>7</v>
+      </c>
+      <c r="L44" s="2">
+        <f>+Defaults_3200!E44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <f>+Defaults_3200!F44</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>4002</v>
+      </c>
+      <c r="B45">
+        <v>0.1</v>
+      </c>
+      <c r="C45">
+        <v>0.2</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="2">
+        <f>+Defaults_3200!B45</f>
+        <v>0.1</v>
+      </c>
+      <c r="J45" s="2">
+        <f>+Defaults_3200!C45</f>
+        <v>0.2</v>
+      </c>
+      <c r="K45" s="2">
+        <f>+Defaults_3200!D45</f>
+        <v>15</v>
+      </c>
+      <c r="L45" s="2">
+        <f>+Defaults_3200!E45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <f>+Defaults_3200!F45</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q45" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <v>4003</v>
+      </c>
+      <c r="B46">
+        <v>0.1</v>
+      </c>
+      <c r="C46">
+        <v>0.15</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="2">
+        <f>+Defaults_3200!B46</f>
+        <v>0.1</v>
+      </c>
+      <c r="J46" s="2">
+        <f>+Defaults_3200!C46</f>
+        <v>0.15</v>
+      </c>
+      <c r="K46" s="2">
+        <f>+Defaults_3200!D46</f>
+        <v>10</v>
+      </c>
+      <c r="L46" s="2">
+        <f>+Defaults_3200!E46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <f>+Defaults_3200!F46</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q46" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <v>4004</v>
+      </c>
+      <c r="B47">
+        <v>0.1</v>
+      </c>
+      <c r="C47">
+        <v>0.3</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="2">
+        <f>+Defaults_3200!B47</f>
+        <v>0.1</v>
+      </c>
+      <c r="J47" s="2">
+        <f>+Defaults_3200!C47</f>
+        <v>0.3</v>
+      </c>
+      <c r="K47" s="2">
+        <f>+Defaults_3200!D47</f>
+        <v>10</v>
+      </c>
+      <c r="L47" s="2">
+        <f>+Defaults_3200!E47</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <f>+Defaults_3200!F47</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q47" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>4005</v>
+      </c>
+      <c r="B48">
+        <v>0.1</v>
+      </c>
+      <c r="C48">
+        <v>0.25</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="2">
+        <f>+Defaults_3200!B48</f>
+        <v>0.1</v>
+      </c>
+      <c r="J48" s="2">
+        <f>+Defaults_3200!C48</f>
+        <v>0.25</v>
+      </c>
+      <c r="K48" s="2">
+        <f>+Defaults_3200!D48</f>
+        <v>10</v>
+      </c>
+      <c r="L48" s="2">
+        <f>+Defaults_3200!E48</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <f>+Defaults_3200!F48</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q48" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <v>4006</v>
+      </c>
+      <c r="B49">
+        <v>0.1</v>
+      </c>
+      <c r="C49">
+        <v>0.05</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="2">
+        <f>+Defaults_3200!B49</f>
+        <v>0.1</v>
+      </c>
+      <c r="J49" s="2">
+        <f>+Defaults_3200!C49</f>
+        <v>0.05</v>
+      </c>
+      <c r="K49" s="2">
+        <f>+Defaults_3200!D49</f>
+        <v>10</v>
+      </c>
+      <c r="L49" s="2">
+        <f>+Defaults_3200!E49</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <f>+Defaults_3200!F49</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q49" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <v>4007</v>
+      </c>
+      <c r="B50">
+        <v>0.1</v>
+      </c>
+      <c r="C50">
+        <v>0.1</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="2">
+        <f>+Defaults_3200!B50</f>
+        <v>0.1</v>
+      </c>
+      <c r="J50" s="2">
+        <f>+Defaults_3200!C50</f>
+        <v>0.1</v>
+      </c>
+      <c r="K50" s="2">
+        <f>+Defaults_3200!D50</f>
+        <v>10</v>
+      </c>
+      <c r="L50" s="2">
+        <f>+Defaults_3200!E50</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <f>+Defaults_3200!F50</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q50" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>4008</v>
+      </c>
+      <c r="B51">
+        <v>0.1</v>
+      </c>
+      <c r="C51">
+        <v>0.35</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="2">
+        <f>+Defaults_3200!B51</f>
+        <v>0.1</v>
+      </c>
+      <c r="J51" s="2">
+        <f>+Defaults_3200!C51</f>
+        <v>0.35</v>
+      </c>
+      <c r="K51" s="2">
+        <f>+Defaults_3200!D51</f>
+        <v>10</v>
+      </c>
+      <c r="L51" s="2">
+        <f>+Defaults_3200!E51</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
+        <f>+Defaults_3200!F51</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q51" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <v>4009</v>
+      </c>
+      <c r="B52">
+        <v>0.1</v>
+      </c>
+      <c r="C52">
+        <v>0.4</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="2">
+        <f>+Defaults_3200!B52</f>
+        <v>0.1</v>
+      </c>
+      <c r="J52" s="2">
+        <f>+Defaults_3200!C52</f>
+        <v>0.4</v>
+      </c>
+      <c r="K52" s="2">
+        <f>+Defaults_3200!D52</f>
+        <v>10</v>
+      </c>
+      <c r="L52" s="2">
+        <f>+Defaults_3200!E52</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <f>+Defaults_3200!F52</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q52" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <v>4010</v>
+      </c>
+      <c r="B53">
+        <v>0.1</v>
+      </c>
+      <c r="C53">
+        <v>0.45</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="2">
+        <f>+Defaults_3200!B53</f>
+        <v>0.1</v>
+      </c>
+      <c r="J53" s="2">
+        <f>+Defaults_3200!C53</f>
+        <v>0.45</v>
+      </c>
+      <c r="K53" s="2">
+        <f>+Defaults_3200!D53</f>
+        <v>10</v>
+      </c>
+      <c r="L53" s="2">
+        <f>+Defaults_3200!E53</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <f>+Defaults_3200!F53</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q53" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>4011</v>
+      </c>
+      <c r="B54">
+        <v>0.1</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="2">
+        <f>+Defaults_3200!B54</f>
+        <v>0.1</v>
+      </c>
+      <c r="J54" s="2">
+        <f>+Defaults_3200!C54</f>
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="2">
+        <f>+Defaults_3200!D54</f>
+        <v>10</v>
+      </c>
+      <c r="L54" s="2">
+        <f>+Defaults_3200!E54</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
+        <f>+Defaults_3200!F54</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q54" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>4012</v>
+      </c>
+      <c r="B55">
+        <v>0.1</v>
+      </c>
+      <c r="C55">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="2">
+        <f>+Defaults_3200!B55</f>
+        <v>0.1</v>
+      </c>
+      <c r="J55" s="2">
+        <f>+Defaults_3200!C55</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K55" s="2">
+        <f>+Defaults_3200!D55</f>
+        <v>10</v>
+      </c>
+      <c r="L55" s="2">
+        <f>+Defaults_3200!E55</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
+        <f>+Defaults_3200!F55</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q55" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <v>4013</v>
+      </c>
+      <c r="B56">
+        <v>0.1</v>
+      </c>
+      <c r="C56">
+        <v>0.6</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="2">
+        <f>+Defaults_3200!B56</f>
+        <v>0.1</v>
+      </c>
+      <c r="J56" s="2">
+        <f>+Defaults_3200!C56</f>
+        <v>0.6</v>
+      </c>
+      <c r="K56" s="2">
+        <f>+Defaults_3200!D56</f>
+        <v>10</v>
+      </c>
+      <c r="L56" s="2">
+        <f>+Defaults_3200!E56</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
+        <f>+Defaults_3200!F56</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q56" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <v>4014</v>
+      </c>
+      <c r="B57">
+        <v>0.1</v>
+      </c>
+      <c r="C57">
+        <v>0.65</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="2">
+        <f>+Defaults_3200!B57</f>
+        <v>0.1</v>
+      </c>
+      <c r="J57" s="2">
+        <f>+Defaults_3200!C57</f>
+        <v>0.65</v>
+      </c>
+      <c r="K57" s="2">
+        <f>+Defaults_3200!D57</f>
+        <v>10</v>
+      </c>
+      <c r="L57" s="2">
+        <f>+Defaults_3200!E57</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <f>+Defaults_3200!F57</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q57" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R57" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <v>4015</v>
+      </c>
+      <c r="B58">
+        <v>0.1</v>
+      </c>
+      <c r="C58">
+        <v>0.7</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="2">
+        <f>+Defaults_3200!B58</f>
+        <v>0.1</v>
+      </c>
+      <c r="J58" s="2">
+        <f>+Defaults_3200!C58</f>
+        <v>0.7</v>
+      </c>
+      <c r="K58" s="2">
+        <f>+Defaults_3200!D58</f>
+        <v>10</v>
+      </c>
+      <c r="L58" s="2">
+        <f>+Defaults_3200!E58</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <f>+Defaults_3200!F58</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q58" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>4016</v>
+      </c>
+      <c r="B59">
+        <v>0.1</v>
+      </c>
+      <c r="C59">
+        <v>0.75</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="2">
+        <f>+Defaults_3200!B59</f>
+        <v>0.1</v>
+      </c>
+      <c r="J59" s="2">
+        <f>+Defaults_3200!C59</f>
+        <v>0.75</v>
+      </c>
+      <c r="K59" s="2">
+        <f>+Defaults_3200!D59</f>
+        <v>10</v>
+      </c>
+      <c r="L59" s="2">
+        <f>+Defaults_3200!E59</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <f>+Defaults_3200!F59</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q59" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>4017</v>
+      </c>
+      <c r="B60">
+        <v>0.1</v>
+      </c>
+      <c r="C60">
+        <v>0.8</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="2">
+        <f>+Defaults_3200!B60</f>
+        <v>0.1</v>
+      </c>
+      <c r="J60" s="2">
+        <f>+Defaults_3200!C60</f>
+        <v>0.8</v>
+      </c>
+      <c r="K60" s="2">
+        <f>+Defaults_3200!D60</f>
+        <v>10</v>
+      </c>
+      <c r="L60" s="2">
+        <f>+Defaults_3200!E60</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
+        <f>+Defaults_3200!F60</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q60" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>4018</v>
+      </c>
+      <c r="B61">
+        <v>0.1</v>
+      </c>
+      <c r="C61">
+        <v>0.85</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="2">
+        <f>+Defaults_3200!B61</f>
+        <v>0.1</v>
+      </c>
+      <c r="J61" s="2">
+        <f>+Defaults_3200!C61</f>
+        <v>0.85</v>
+      </c>
+      <c r="K61" s="2">
+        <f>+Defaults_3200!D61</f>
+        <v>10</v>
+      </c>
+      <c r="L61" s="2">
+        <f>+Defaults_3200!E61</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <f>+Defaults_3200!F61</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q61" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>4019</v>
+      </c>
+      <c r="B62">
+        <v>0.1</v>
+      </c>
+      <c r="C62">
+        <v>0.9</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="2">
+        <f>+Defaults_3200!B62</f>
+        <v>0.1</v>
+      </c>
+      <c r="J62" s="2">
+        <f>+Defaults_3200!C62</f>
+        <v>0.9</v>
+      </c>
+      <c r="K62" s="2">
+        <f>+Defaults_3200!D62</f>
+        <v>10</v>
+      </c>
+      <c r="L62" s="2">
+        <f>+Defaults_3200!E62</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="2">
+        <f>+Defaults_3200!F62</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q62" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>4020</v>
+      </c>
+      <c r="B63">
+        <v>0.1</v>
+      </c>
+      <c r="C63">
+        <v>0.95</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="2">
+        <f>+Defaults_3200!B63</f>
+        <v>0.1</v>
+      </c>
+      <c r="J63" s="2">
+        <f>+Defaults_3200!C63</f>
+        <v>0.95</v>
+      </c>
+      <c r="K63" s="2">
+        <f>+Defaults_3200!D63</f>
+        <v>10</v>
+      </c>
+      <c r="L63" s="2">
+        <f>+Defaults_3200!E63</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <f>+Defaults_3200!F63</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>5000</v>
+      </c>
+      <c r="B64">
+        <v>0.1</v>
+      </c>
+      <c r="C64">
+        <v>0.2</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="2">
+        <f>+Defaults_3200!B64</f>
+        <v>0.1</v>
+      </c>
+      <c r="J64" s="2">
+        <f>+Defaults_3200!C64</f>
+        <v>0.2</v>
+      </c>
+      <c r="K64" s="2">
+        <f>+Defaults_3200!D64</f>
+        <v>10</v>
+      </c>
+      <c r="L64" s="2">
+        <f>+Defaults_3200!E64</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <f>+Defaults_3200!F64</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R64" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>6000</v>
+      </c>
+      <c r="B65">
+        <v>0.1</v>
+      </c>
+      <c r="C65">
+        <v>0.3</v>
+      </c>
+      <c r="D65">
+        <v>200</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="2">
+        <f>+Defaults_3200!B65</f>
+        <v>0.1</v>
+      </c>
+      <c r="J65" s="2">
+        <f>+Defaults_3200!C65</f>
+        <v>0.3</v>
+      </c>
+      <c r="K65" s="2">
+        <f>+Defaults_3200!D65</f>
+        <v>200</v>
+      </c>
+      <c r="L65" s="2">
+        <f>+Defaults_3200!E65</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <f>+Defaults_3200!F65</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="P65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R65" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <v>6001</v>
+      </c>
+      <c r="B66">
+        <v>0.1</v>
+      </c>
+      <c r="C66">
+        <v>0.2</v>
+      </c>
+      <c r="D66">
+        <v>100</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" s="2">
+        <f>+Defaults_3200!B66</f>
+        <v>0.1</v>
+      </c>
+      <c r="J66" s="2">
+        <f>+Defaults_3200!C66</f>
+        <v>0.2</v>
+      </c>
+      <c r="K66" s="2">
+        <f>+Defaults_3200!D66</f>
+        <v>100</v>
+      </c>
+      <c r="L66" s="2">
+        <f>+Defaults_3200!E66</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
+        <f>+Defaults_3200!F66</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O66" s="2" t="str">
+        <f t="shared" ref="O66:O104" si="5">IF(C66&lt;&gt;J66, "!ERR!", "")</f>
+        <v/>
+      </c>
+      <c r="P66" s="2" t="str">
+        <f t="shared" ref="P66:P104" si="6">IF(D66&lt;&gt;K66, "!ERR!", "")</f>
+        <v/>
+      </c>
+      <c r="Q66" s="2" t="str">
+        <f t="shared" ref="Q66:Q104" si="7">IF(E66&lt;&gt;L66, "!ERR!", "")</f>
+        <v/>
+      </c>
+      <c r="R66" s="2" t="str">
+        <f t="shared" ref="R66:R104" si="8">IF(F66&lt;&gt;M66, "!ERR!", "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>6002</v>
+      </c>
+      <c r="B67">
+        <v>0.1</v>
+      </c>
+      <c r="C67">
+        <v>0.2</v>
+      </c>
+      <c r="D67">
+        <v>100</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="2">
+        <f>+Defaults_3200!B67</f>
+        <v>0.1</v>
+      </c>
+      <c r="J67" s="2">
+        <f>+Defaults_3200!C67</f>
+        <v>0.2</v>
+      </c>
+      <c r="K67" s="2">
+        <f>+Defaults_3200!D67</f>
+        <v>100</v>
+      </c>
+      <c r="L67" s="2">
+        <f>+Defaults_3200!E67</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <f>+Defaults_3200!F67</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="2" t="str">
+        <f t="shared" ref="N67:N104" si="9">IF(B67&lt;&gt;I67, "!ERR!", "")</f>
+        <v/>
+      </c>
+      <c r="O67" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P67" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q67" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R67" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>6003</v>
+      </c>
+      <c r="B68">
+        <v>0.1</v>
+      </c>
+      <c r="C68">
+        <v>0.2</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="2">
+        <f>+Defaults_3200!B68</f>
+        <v>0.1</v>
+      </c>
+      <c r="J68" s="2">
+        <f>+Defaults_3200!C68</f>
+        <v>0.2</v>
+      </c>
+      <c r="K68" s="2">
+        <f>+Defaults_3200!D68</f>
+        <v>100</v>
+      </c>
+      <c r="L68" s="2">
+        <f>+Defaults_3200!E68</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="2">
+        <f>+Defaults_3200!F68</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O68" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P68" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q68" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R68" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>6004</v>
+      </c>
+      <c r="B69">
+        <v>0.1</v>
+      </c>
+      <c r="C69">
+        <v>0.2</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="2">
+        <f>+Defaults_3200!B69</f>
+        <v>0.1</v>
+      </c>
+      <c r="J69" s="2">
+        <f>+Defaults_3200!C69</f>
+        <v>0.2</v>
+      </c>
+      <c r="K69" s="2">
+        <f>+Defaults_3200!D69</f>
+        <v>100</v>
+      </c>
+      <c r="L69" s="2">
+        <f>+Defaults_3200!E69</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <f>+Defaults_3200!F69</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O69" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P69" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q69" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R69" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>6005</v>
+      </c>
+      <c r="B70">
+        <v>0.1</v>
+      </c>
+      <c r="C70">
+        <v>0.2</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" s="2">
+        <f>+Defaults_3200!B70</f>
+        <v>0.1</v>
+      </c>
+      <c r="J70" s="2">
+        <f>+Defaults_3200!C70</f>
+        <v>0.2</v>
+      </c>
+      <c r="K70" s="2">
+        <f>+Defaults_3200!D70</f>
+        <v>100</v>
+      </c>
+      <c r="L70" s="2">
+        <f>+Defaults_3200!E70</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
+        <f>+Defaults_3200!F70</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O70" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P70" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q70" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R70" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>6006</v>
+      </c>
+      <c r="B71">
+        <v>0.1</v>
+      </c>
+      <c r="C71">
+        <v>0.2</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" s="2">
+        <f>+Defaults_3200!B71</f>
+        <v>0.1</v>
+      </c>
+      <c r="J71" s="2">
+        <f>+Defaults_3200!C71</f>
+        <v>0.2</v>
+      </c>
+      <c r="K71" s="2">
+        <f>+Defaults_3200!D71</f>
+        <v>100</v>
+      </c>
+      <c r="L71" s="2">
+        <f>+Defaults_3200!E71</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <f>+Defaults_3200!F71</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O71" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P71" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q71" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R71" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>7000</v>
+      </c>
+      <c r="B72">
+        <v>0.1</v>
+      </c>
+      <c r="E72">
+        <v>0.2</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="2">
+        <f>+Defaults_3200!B72</f>
+        <v>0.1</v>
+      </c>
+      <c r="J72" s="2">
+        <f>+Defaults_3200!C72</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <f>+Defaults_3200!D72</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <f>+Defaults_3200!E72</f>
+        <v>0.2</v>
+      </c>
+      <c r="M72" s="2">
+        <f>+Defaults_3200!F72</f>
+        <v>10</v>
+      </c>
+      <c r="N72" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O72" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P72" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q72" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R72" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>7001</v>
+      </c>
+      <c r="B73">
+        <v>0.1</v>
+      </c>
+      <c r="E73">
+        <v>0.2</v>
+      </c>
+      <c r="F73">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="2">
+        <f>+Defaults_3200!B73</f>
+        <v>0.1</v>
+      </c>
+      <c r="J73" s="2">
+        <f>+Defaults_3200!C73</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <f>+Defaults_3200!D73</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <f>+Defaults_3200!E73</f>
+        <v>0.2</v>
+      </c>
+      <c r="M73" s="2">
+        <f>+Defaults_3200!F73</f>
+        <v>20</v>
+      </c>
+      <c r="N73" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O73" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P73" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q73" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R73" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>7002</v>
+      </c>
+      <c r="B74">
+        <v>0.1</v>
+      </c>
+      <c r="E74">
+        <v>0.2</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="2">
+        <f>+Defaults_3200!B74</f>
+        <v>0.1</v>
+      </c>
+      <c r="J74" s="2">
+        <f>+Defaults_3200!C74</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <f>+Defaults_3200!D74</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <f>+Defaults_3200!E74</f>
+        <v>0.2</v>
+      </c>
+      <c r="M74" s="2">
+        <f>+Defaults_3200!F74</f>
+        <v>5</v>
+      </c>
+      <c r="N74" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O74" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P74" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q74" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R74" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>7003</v>
+      </c>
+      <c r="B75">
+        <v>0.1</v>
+      </c>
+      <c r="E75">
+        <v>0.2</v>
+      </c>
+      <c r="F75">
+        <v>40</v>
+      </c>
+      <c r="G75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" s="2">
+        <f>+Defaults_3200!B75</f>
+        <v>0.1</v>
+      </c>
+      <c r="J75" s="2">
+        <f>+Defaults_3200!C75</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <f>+Defaults_3200!D75</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <f>+Defaults_3200!E75</f>
+        <v>0.2</v>
+      </c>
+      <c r="M75" s="2">
+        <f>+Defaults_3200!F75</f>
+        <v>40</v>
+      </c>
+      <c r="N75" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O75" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P75" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q75" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R75" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>7004</v>
+      </c>
+      <c r="B76">
+        <v>0.1</v>
+      </c>
+      <c r="E76">
+        <v>0.2</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" s="2">
+        <f>+Defaults_3200!B76</f>
+        <v>0.1</v>
+      </c>
+      <c r="J76" s="2">
+        <f>+Defaults_3200!C76</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <f>+Defaults_3200!D76</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <f>+Defaults_3200!E76</f>
+        <v>0.2</v>
+      </c>
+      <c r="M76" s="2">
+        <f>+Defaults_3200!F76</f>
+        <v>2</v>
+      </c>
+      <c r="N76" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O76" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P76" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q76" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R76" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>7005</v>
+      </c>
+      <c r="B77">
+        <v>0.1</v>
+      </c>
+      <c r="E77">
+        <v>0.2</v>
+      </c>
+      <c r="F77">
+        <v>100</v>
+      </c>
+      <c r="G77" t="s">
+        <v>32</v>
+      </c>
+      <c r="I77" s="2">
+        <f>+Defaults_3200!B77</f>
+        <v>0.1</v>
+      </c>
+      <c r="J77" s="2">
+        <f>+Defaults_3200!C77</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <f>+Defaults_3200!D77</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="2">
+        <f>+Defaults_3200!E77</f>
+        <v>0.2</v>
+      </c>
+      <c r="M77" s="2">
+        <f>+Defaults_3200!F77</f>
+        <v>100</v>
+      </c>
+      <c r="N77" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O77" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P77" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q77" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R77" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>7006</v>
+      </c>
+      <c r="B78">
+        <v>0.1</v>
+      </c>
+      <c r="E78">
+        <v>0.2</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+      <c r="G78" t="s">
+        <v>32</v>
+      </c>
+      <c r="I78" s="2">
+        <f>+Defaults_3200!B78</f>
+        <v>0.1</v>
+      </c>
+      <c r="J78" s="2">
+        <f>+Defaults_3200!C78</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <f>+Defaults_3200!D78</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <f>+Defaults_3200!E78</f>
+        <v>0.2</v>
+      </c>
+      <c r="M78" s="2">
+        <f>+Defaults_3200!F78</f>
+        <v>50</v>
+      </c>
+      <c r="N78" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O78" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P78" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q78" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R78" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>8000</v>
+      </c>
+      <c r="B79">
+        <v>0.1</v>
+      </c>
+      <c r="C79">
+        <v>0.3</v>
+      </c>
+      <c r="D79">
+        <v>2000</v>
+      </c>
+      <c r="E79">
+        <v>0.2</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" s="2">
+        <f>+Defaults_3200!B79</f>
+        <v>0.1</v>
+      </c>
+      <c r="J79" s="2">
+        <f>+Defaults_3200!C79</f>
+        <v>0.3</v>
+      </c>
+      <c r="K79" s="2">
+        <f>+Defaults_3200!D79</f>
+        <v>2000</v>
+      </c>
+      <c r="L79" s="2">
+        <f>+Defaults_3200!E79</f>
+        <v>0.2</v>
+      </c>
+      <c r="M79" s="2">
+        <f>+Defaults_3200!F79</f>
+        <v>10</v>
+      </c>
+      <c r="N79" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O79" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P79" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q79" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R79" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>8001</v>
+      </c>
+      <c r="B80">
+        <v>0.1</v>
+      </c>
+      <c r="C80">
+        <v>0.3</v>
+      </c>
+      <c r="D80">
+        <v>200</v>
+      </c>
+      <c r="E80">
+        <v>0.2</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" s="2">
+        <f>+Defaults_3200!B80</f>
+        <v>0.1</v>
+      </c>
+      <c r="J80" s="2">
+        <f>+Defaults_3200!C80</f>
+        <v>0.3</v>
+      </c>
+      <c r="K80" s="2">
+        <f>+Defaults_3200!D80</f>
+        <v>200</v>
+      </c>
+      <c r="L80" s="2">
+        <f>+Defaults_3200!E80</f>
+        <v>0.2</v>
+      </c>
+      <c r="M80" s="2">
+        <f>+Defaults_3200!F80</f>
+        <v>10</v>
+      </c>
+      <c r="N80" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O80" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P80" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q80" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R80" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>8002</v>
+      </c>
+      <c r="B81">
+        <v>0.1</v>
+      </c>
+      <c r="C81">
+        <v>0.3</v>
+      </c>
+      <c r="D81">
+        <v>20</v>
+      </c>
+      <c r="E81">
+        <v>0.2</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" s="2">
+        <f>+Defaults_3200!B81</f>
+        <v>0.1</v>
+      </c>
+      <c r="J81" s="2">
+        <f>+Defaults_3200!C81</f>
+        <v>0.3</v>
+      </c>
+      <c r="K81" s="2">
+        <f>+Defaults_3200!D81</f>
+        <v>20</v>
+      </c>
+      <c r="L81" s="2">
+        <f>+Defaults_3200!E81</f>
+        <v>0.2</v>
+      </c>
+      <c r="M81" s="2">
+        <f>+Defaults_3200!F81</f>
+        <v>10</v>
+      </c>
+      <c r="N81" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O81" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P81" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q81" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R81" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>8003</v>
+      </c>
+      <c r="B82">
+        <v>0.1</v>
+      </c>
+      <c r="C82">
+        <v>0.3</v>
+      </c>
+      <c r="D82">
+        <v>20</v>
+      </c>
+      <c r="E82">
+        <v>0.2</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" s="2">
+        <f>+Defaults_3200!B82</f>
+        <v>0.1</v>
+      </c>
+      <c r="J82" s="2">
+        <f>+Defaults_3200!C82</f>
+        <v>0.3</v>
+      </c>
+      <c r="K82" s="2">
+        <f>+Defaults_3200!D82</f>
+        <v>20</v>
+      </c>
+      <c r="L82" s="2">
+        <f>+Defaults_3200!E82</f>
+        <v>0.2</v>
+      </c>
+      <c r="M82" s="2">
+        <f>+Defaults_3200!F82</f>
+        <v>10</v>
+      </c>
+      <c r="N82" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O82" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P82" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q82" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R82" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>9000</v>
+      </c>
+      <c r="B83">
+        <v>0.1</v>
+      </c>
+      <c r="C83">
+        <v>0.2</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83">
+        <v>0.2</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" s="2">
+        <f>+Defaults_3200!B83</f>
+        <v>0.1</v>
+      </c>
+      <c r="J83" s="2">
+        <f>+Defaults_3200!C83</f>
+        <v>0.2</v>
+      </c>
+      <c r="K83" s="2">
+        <f>+Defaults_3200!D83</f>
+        <v>10</v>
+      </c>
+      <c r="L83" s="2">
+        <f>+Defaults_3200!E83</f>
+        <v>0.2</v>
+      </c>
+      <c r="M83" s="2">
+        <f>+Defaults_3200!F83</f>
+        <v>10</v>
+      </c>
+      <c r="N83" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O83" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P83" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q83" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R83" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>9001</v>
+      </c>
+      <c r="B84">
+        <v>0.1</v>
+      </c>
+      <c r="C84">
+        <v>0.2</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>0.2</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="2">
+        <f>+Defaults_3200!B84</f>
+        <v>0.1</v>
+      </c>
+      <c r="J84" s="2">
+        <f>+Defaults_3200!C84</f>
+        <v>0.2</v>
+      </c>
+      <c r="K84" s="2">
+        <f>+Defaults_3200!D84</f>
+        <v>10</v>
+      </c>
+      <c r="L84" s="2">
+        <f>+Defaults_3200!E84</f>
+        <v>0.2</v>
+      </c>
+      <c r="M84" s="2">
+        <f>+Defaults_3200!F84</f>
+        <v>5</v>
+      </c>
+      <c r="N84" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O84" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P84" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q84" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R84" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>9002</v>
+      </c>
+      <c r="B85">
+        <v>0.1</v>
+      </c>
+      <c r="C85">
+        <v>0.2</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>0.2</v>
+      </c>
+      <c r="F85">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" s="2">
+        <f>+Defaults_3200!B85</f>
+        <v>0.1</v>
+      </c>
+      <c r="J85" s="2">
+        <f>+Defaults_3200!C85</f>
+        <v>0.2</v>
+      </c>
+      <c r="K85" s="2">
+        <f>+Defaults_3200!D85</f>
+        <v>10</v>
+      </c>
+      <c r="L85" s="2">
+        <f>+Defaults_3200!E85</f>
+        <v>0.2</v>
+      </c>
+      <c r="M85" s="2">
+        <f>+Defaults_3200!F85</f>
+        <v>20</v>
+      </c>
+      <c r="N85" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O85" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P85" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q85" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R85" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>9003</v>
+      </c>
+      <c r="B86">
+        <v>0.1</v>
+      </c>
+      <c r="C86">
+        <v>0.2</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>0.2</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="2">
+        <f>+Defaults_3200!B86</f>
+        <v>0.1</v>
+      </c>
+      <c r="J86" s="2">
+        <f>+Defaults_3200!C86</f>
+        <v>0.2</v>
+      </c>
+      <c r="K86" s="2">
+        <f>+Defaults_3200!D86</f>
+        <v>5</v>
+      </c>
+      <c r="L86" s="2">
+        <f>+Defaults_3200!E86</f>
+        <v>0.2</v>
+      </c>
+      <c r="M86" s="2">
+        <f>+Defaults_3200!F86</f>
+        <v>10</v>
+      </c>
+      <c r="N86" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O86" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P86" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q86" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R86" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>9004</v>
+      </c>
+      <c r="B87">
+        <v>0.1</v>
+      </c>
+      <c r="C87">
+        <v>0.2</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>0.2</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="2">
+        <f>+Defaults_3200!B87</f>
+        <v>0.1</v>
+      </c>
+      <c r="J87" s="2">
+        <f>+Defaults_3200!C87</f>
+        <v>0.2</v>
+      </c>
+      <c r="K87" s="2">
+        <f>+Defaults_3200!D87</f>
+        <v>5</v>
+      </c>
+      <c r="L87" s="2">
+        <f>+Defaults_3200!E87</f>
+        <v>0.2</v>
+      </c>
+      <c r="M87" s="2">
+        <f>+Defaults_3200!F87</f>
+        <v>5</v>
+      </c>
+      <c r="N87" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O87" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P87" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q87" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R87" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>9005</v>
+      </c>
+      <c r="B88">
+        <v>0.1</v>
+      </c>
+      <c r="C88">
+        <v>0.2</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>0.2</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" s="2">
+        <f>+Defaults_3200!B88</f>
+        <v>0.1</v>
+      </c>
+      <c r="J88" s="2">
+        <f>+Defaults_3200!C88</f>
+        <v>0.2</v>
+      </c>
+      <c r="K88" s="2">
+        <f>+Defaults_3200!D88</f>
+        <v>5</v>
+      </c>
+      <c r="L88" s="2">
+        <f>+Defaults_3200!E88</f>
+        <v>0.2</v>
+      </c>
+      <c r="M88" s="2">
+        <f>+Defaults_3200!F88</f>
+        <v>20</v>
+      </c>
+      <c r="N88" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O88" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P88" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q88" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R88" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>9006</v>
+      </c>
+      <c r="B89">
+        <v>0.1</v>
+      </c>
+      <c r="C89">
+        <v>0.2</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>0.2</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="2">
+        <f>+Defaults_3200!B89</f>
+        <v>0.1</v>
+      </c>
+      <c r="J89" s="2">
+        <f>+Defaults_3200!C89</f>
+        <v>0.2</v>
+      </c>
+      <c r="K89" s="2">
+        <f>+Defaults_3200!D89</f>
+        <v>20</v>
+      </c>
+      <c r="L89" s="2">
+        <f>+Defaults_3200!E89</f>
+        <v>0.2</v>
+      </c>
+      <c r="M89" s="2">
+        <f>+Defaults_3200!F89</f>
+        <v>10</v>
+      </c>
+      <c r="N89" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O89" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P89" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q89" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R89" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>9007</v>
+      </c>
+      <c r="B90">
+        <v>0.1</v>
+      </c>
+      <c r="C90">
+        <v>0.2</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+      <c r="E90">
+        <v>0.2</v>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="2">
+        <f>+Defaults_3200!B90</f>
+        <v>0.1</v>
+      </c>
+      <c r="J90" s="2">
+        <f>+Defaults_3200!C90</f>
+        <v>0.2</v>
+      </c>
+      <c r="K90" s="2">
+        <f>+Defaults_3200!D90</f>
+        <v>20</v>
+      </c>
+      <c r="L90" s="2">
+        <f>+Defaults_3200!E90</f>
+        <v>0.2</v>
+      </c>
+      <c r="M90" s="2">
+        <f>+Defaults_3200!F90</f>
+        <v>5</v>
+      </c>
+      <c r="N90" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O90" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P90" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q90" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R90" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>9008</v>
+      </c>
+      <c r="B91">
+        <v>0.1</v>
+      </c>
+      <c r="C91">
+        <v>0.2</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <v>0.2</v>
+      </c>
+      <c r="F91">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" s="2">
+        <f>+Defaults_3200!B91</f>
+        <v>0.1</v>
+      </c>
+      <c r="J91" s="2">
+        <f>+Defaults_3200!C91</f>
+        <v>0.2</v>
+      </c>
+      <c r="K91" s="2">
+        <f>+Defaults_3200!D91</f>
+        <v>20</v>
+      </c>
+      <c r="L91" s="2">
+        <f>+Defaults_3200!E91</f>
+        <v>0.2</v>
+      </c>
+      <c r="M91" s="2">
+        <f>+Defaults_3200!F91</f>
+        <v>20</v>
+      </c>
+      <c r="N91" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O91" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P91" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q91" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R91" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>9010</v>
+      </c>
+      <c r="B92">
+        <v>0.1</v>
+      </c>
+      <c r="C92">
+        <v>0.2</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>0.2</v>
+      </c>
+      <c r="F92">
+        <v>50</v>
+      </c>
+      <c r="G92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="2">
+        <f>+Defaults_3200!B92</f>
+        <v>0.1</v>
+      </c>
+      <c r="J92" s="2">
+        <f>+Defaults_3200!C92</f>
+        <v>0.2</v>
+      </c>
+      <c r="K92" s="2">
+        <f>+Defaults_3200!D92</f>
+        <v>10</v>
+      </c>
+      <c r="L92" s="2">
+        <f>+Defaults_3200!E92</f>
+        <v>0.2</v>
+      </c>
+      <c r="M92" s="2">
+        <f>+Defaults_3200!F92</f>
+        <v>50</v>
+      </c>
+      <c r="N92" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O92" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P92" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q92" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R92" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>9013</v>
+      </c>
+      <c r="B93">
+        <v>0.1</v>
+      </c>
+      <c r="C93">
+        <v>0.2</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>0.2</v>
+      </c>
+      <c r="F93">
+        <v>50</v>
+      </c>
+      <c r="G93" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="2">
+        <f>+Defaults_3200!B93</f>
+        <v>0.1</v>
+      </c>
+      <c r="J93" s="2">
+        <f>+Defaults_3200!C93</f>
+        <v>0.2</v>
+      </c>
+      <c r="K93" s="2">
+        <f>+Defaults_3200!D93</f>
+        <v>5</v>
+      </c>
+      <c r="L93" s="2">
+        <f>+Defaults_3200!E93</f>
+        <v>0.2</v>
+      </c>
+      <c r="M93" s="2">
+        <f>+Defaults_3200!F93</f>
+        <v>50</v>
+      </c>
+      <c r="N93" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O93" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P93" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q93" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R93" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>9016</v>
+      </c>
+      <c r="B94">
+        <v>0.1</v>
+      </c>
+      <c r="C94">
+        <v>0.2</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>0.2</v>
+      </c>
+      <c r="F94">
+        <v>50</v>
+      </c>
+      <c r="G94" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" s="2">
+        <f>+Defaults_3200!B94</f>
+        <v>0.1</v>
+      </c>
+      <c r="J94" s="2">
+        <f>+Defaults_3200!C94</f>
+        <v>0.2</v>
+      </c>
+      <c r="K94" s="2">
+        <f>+Defaults_3200!D94</f>
+        <v>20</v>
+      </c>
+      <c r="L94" s="2">
+        <f>+Defaults_3200!E94</f>
+        <v>0.2</v>
+      </c>
+      <c r="M94" s="2">
+        <f>+Defaults_3200!F94</f>
+        <v>50</v>
+      </c>
+      <c r="N94" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O94" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P94" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q94" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R94" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>9025</v>
+      </c>
+      <c r="B95">
+        <v>0.1</v>
+      </c>
+      <c r="C95">
+        <v>0.2</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+      <c r="E95">
+        <v>0.2</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" s="2">
+        <f>+Defaults_3200!B95</f>
+        <v>0.1</v>
+      </c>
+      <c r="J95" s="2">
+        <f>+Defaults_3200!C95</f>
+        <v>0.2</v>
+      </c>
+      <c r="K95" s="2">
+        <f>+Defaults_3200!D95</f>
+        <v>50</v>
+      </c>
+      <c r="L95" s="2">
+        <f>+Defaults_3200!E95</f>
+        <v>0.2</v>
+      </c>
+      <c r="M95" s="2">
+        <f>+Defaults_3200!F95</f>
+        <v>5</v>
+      </c>
+      <c r="N95" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O95" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P95" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q95" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R95" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>9026</v>
+      </c>
+      <c r="B96">
+        <v>0.1</v>
+      </c>
+      <c r="C96">
+        <v>0.2</v>
+      </c>
+      <c r="D96">
+        <v>50</v>
+      </c>
+      <c r="E96">
+        <v>0.2</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" s="2">
+        <f>+Defaults_3200!B96</f>
+        <v>0.1</v>
+      </c>
+      <c r="J96" s="2">
+        <f>+Defaults_3200!C96</f>
+        <v>0.2</v>
+      </c>
+      <c r="K96" s="2">
+        <f>+Defaults_3200!D96</f>
+        <v>50</v>
+      </c>
+      <c r="L96" s="2">
+        <f>+Defaults_3200!E96</f>
+        <v>0.2</v>
+      </c>
+      <c r="M96" s="2">
+        <f>+Defaults_3200!F96</f>
+        <v>10</v>
+      </c>
+      <c r="N96" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O96" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P96" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q96" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R96" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>9027</v>
+      </c>
+      <c r="B97">
+        <v>0.1</v>
+      </c>
+      <c r="C97">
+        <v>0.2</v>
+      </c>
+      <c r="D97">
+        <v>50</v>
+      </c>
+      <c r="E97">
+        <v>0.2</v>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" s="2">
+        <f>+Defaults_3200!B97</f>
+        <v>0.1</v>
+      </c>
+      <c r="J97" s="2">
+        <f>+Defaults_3200!C97</f>
+        <v>0.2</v>
+      </c>
+      <c r="K97" s="2">
+        <f>+Defaults_3200!D97</f>
+        <v>50</v>
+      </c>
+      <c r="L97" s="2">
+        <f>+Defaults_3200!E97</f>
+        <v>0.2</v>
+      </c>
+      <c r="M97" s="2">
+        <f>+Defaults_3200!F97</f>
+        <v>20</v>
+      </c>
+      <c r="N97" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O97" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P97" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q97" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R97" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>9028</v>
+      </c>
+      <c r="B98">
+        <v>0.1</v>
+      </c>
+      <c r="C98">
+        <v>0.2</v>
+      </c>
+      <c r="D98">
+        <v>50</v>
+      </c>
+      <c r="E98">
+        <v>0.2</v>
+      </c>
+      <c r="F98">
+        <v>50</v>
+      </c>
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" s="2">
+        <f>+Defaults_3200!B98</f>
+        <v>0.1</v>
+      </c>
+      <c r="J98" s="2">
+        <f>+Defaults_3200!C98</f>
+        <v>0.2</v>
+      </c>
+      <c r="K98" s="2">
+        <f>+Defaults_3200!D98</f>
+        <v>50</v>
+      </c>
+      <c r="L98" s="2">
+        <f>+Defaults_3200!E98</f>
+        <v>0.2</v>
+      </c>
+      <c r="M98" s="2">
+        <f>+Defaults_3200!F98</f>
+        <v>50</v>
+      </c>
+      <c r="N98" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O98" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P98" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q98" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R98" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>10000</v>
+      </c>
+      <c r="B99">
+        <v>0.1</v>
+      </c>
+      <c r="C99">
+        <v>0.2</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>34</v>
+      </c>
+      <c r="I99" s="2">
+        <f>+Defaults_3200!B99</f>
+        <v>0.1</v>
+      </c>
+      <c r="J99" s="2">
+        <f>+Defaults_3200!C99</f>
+        <v>0.2</v>
+      </c>
+      <c r="K99" s="2">
+        <f>+Defaults_3200!D99</f>
+        <v>10</v>
+      </c>
+      <c r="L99" s="2">
+        <f>+Defaults_3200!E99</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="2">
+        <f>+Defaults_3200!F99</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O99" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P99" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q99" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R99" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>10001</v>
+      </c>
+      <c r="B100">
+        <v>0.1</v>
+      </c>
+      <c r="C100">
+        <v>0.2</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>34</v>
+      </c>
+      <c r="I100" s="2">
+        <f>+Defaults_3200!B100</f>
+        <v>0.1</v>
+      </c>
+      <c r="J100" s="2">
+        <f>+Defaults_3200!C100</f>
+        <v>0.2</v>
+      </c>
+      <c r="K100" s="2">
+        <f>+Defaults_3200!D100</f>
+        <v>5</v>
+      </c>
+      <c r="L100" s="2">
+        <f>+Defaults_3200!E100</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="2">
+        <f>+Defaults_3200!F100</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O100" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P100" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q100" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R100" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>10002</v>
+      </c>
+      <c r="B101">
+        <v>0.1</v>
+      </c>
+      <c r="C101">
+        <v>0.2</v>
+      </c>
+      <c r="D101">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" s="2">
+        <f>+Defaults_3200!B101</f>
+        <v>0.1</v>
+      </c>
+      <c r="J101" s="2">
+        <f>+Defaults_3200!C101</f>
+        <v>0.2</v>
+      </c>
+      <c r="K101" s="2">
+        <f>+Defaults_3200!D101</f>
+        <v>20</v>
+      </c>
+      <c r="L101" s="2">
+        <f>+Defaults_3200!E101</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
+        <f>+Defaults_3200!F101</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O101" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P101" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q101" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R101" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>10003</v>
+      </c>
+      <c r="B102">
+        <v>0.1</v>
+      </c>
+      <c r="C102">
+        <v>0.2</v>
+      </c>
+      <c r="D102">
+        <v>50</v>
+      </c>
+      <c r="G102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" s="2">
+        <f>+Defaults_3200!B102</f>
+        <v>0.1</v>
+      </c>
+      <c r="J102" s="2">
+        <f>+Defaults_3200!C102</f>
+        <v>0.2</v>
+      </c>
+      <c r="K102" s="2">
+        <f>+Defaults_3200!D102</f>
+        <v>50</v>
+      </c>
+      <c r="L102" s="2">
+        <f>+Defaults_3200!E102</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="2">
+        <f>+Defaults_3200!F102</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O102" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P102" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q102" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R102" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <v>10004</v>
+      </c>
+      <c r="B103">
+        <v>0.1</v>
+      </c>
+      <c r="C103">
+        <v>0.2</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" s="2">
+        <f>+Defaults_3200!B103</f>
+        <v>0.1</v>
+      </c>
+      <c r="J103" s="2">
+        <f>+Defaults_3200!C103</f>
+        <v>0.2</v>
+      </c>
+      <c r="K103" s="2">
+        <f>+Defaults_3200!D103</f>
+        <v>2</v>
+      </c>
+      <c r="L103" s="2">
+        <f>+Defaults_3200!E103</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="2">
+        <f>+Defaults_3200!F103</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O103" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P103" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q103" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R103" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <v>10005</v>
+      </c>
+      <c r="B104">
+        <v>0.1</v>
+      </c>
+      <c r="C104">
+        <v>0.2</v>
+      </c>
+      <c r="D104">
+        <v>100</v>
+      </c>
+      <c r="G104" t="s">
+        <v>34</v>
+      </c>
+      <c r="I104" s="2">
+        <f>+Defaults_3200!B104</f>
+        <v>0.1</v>
+      </c>
+      <c r="J104" s="2">
+        <f>+Defaults_3200!C104</f>
+        <v>0.2</v>
+      </c>
+      <c r="K104" s="2">
+        <f>+Defaults_3200!D104</f>
+        <v>100</v>
+      </c>
+      <c r="L104" s="2">
+        <f>+Defaults_3200!E104</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="2">
+        <f>+Defaults_3200!F104</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O104" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P104" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q104" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R104" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <v>11000</v>
+      </c>
+      <c r="B105">
+        <v>0.1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106">
+        <v>11001</v>
+      </c>
+      <c r="B106">
+        <v>0.1</v>
+      </c>
+      <c r="E106">
+        <v>0.1</v>
+      </c>
+      <c r="F106">
+        <v>20</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
+        <v>11002</v>
+      </c>
+      <c r="B107">
+        <v>0.1</v>
+      </c>
+      <c r="E107">
+        <v>0.2</v>
+      </c>
+      <c r="F107">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
+        <v>11003</v>
+      </c>
+      <c r="B108">
+        <v>0.1</v>
+      </c>
+      <c r="E108">
+        <v>0.3</v>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
+        <v>35</v>
+      </c>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
+        <v>11004</v>
+      </c>
+      <c r="B109">
+        <v>0.1</v>
+      </c>
+      <c r="E109">
+        <v>0.4</v>
+      </c>
+      <c r="F109">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <v>11005</v>
+      </c>
+      <c r="B110">
+        <v>0.1</v>
+      </c>
+      <c r="E110">
+        <v>0.5</v>
+      </c>
+      <c r="F110">
+        <v>20</v>
+      </c>
+      <c r="G110" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111">
+        <v>11006</v>
+      </c>
+      <c r="B111">
+        <v>0.1</v>
+      </c>
+      <c r="E111">
+        <v>0.6</v>
+      </c>
+      <c r="F111">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <v>11007</v>
+      </c>
+      <c r="B112">
+        <v>0.1</v>
+      </c>
+      <c r="E112">
+        <v>0.7</v>
+      </c>
+      <c r="F112">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
+        <v>35</v>
+      </c>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <v>11008</v>
+      </c>
+      <c r="B113">
+        <v>0.1</v>
+      </c>
+      <c r="E113">
+        <v>0.8</v>
+      </c>
+      <c r="F113">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>35</v>
+      </c>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
+        <v>11009</v>
+      </c>
+      <c r="B114">
+        <v>0.1</v>
+      </c>
+      <c r="E114">
+        <v>0.9</v>
+      </c>
+      <c r="F114">
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
+        <v>35</v>
+      </c>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115">
+        <v>11010</v>
+      </c>
+      <c r="B115">
+        <v>0.1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>35</v>
+      </c>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116">
+        <v>12000</v>
+      </c>
+      <c r="B116">
+        <v>0.1</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>36</v>
+      </c>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
+        <v>12001</v>
+      </c>
+      <c r="B117">
+        <v>0.1</v>
+      </c>
+      <c r="C117">
+        <v>0.1</v>
+      </c>
+      <c r="D117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>36</v>
+      </c>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118">
+        <v>12002</v>
+      </c>
+      <c r="B118">
+        <v>0.1</v>
+      </c>
+      <c r="C118">
+        <v>0.2</v>
+      </c>
+      <c r="D118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>36</v>
+      </c>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
+        <v>12003</v>
+      </c>
+      <c r="B119">
+        <v>0.1</v>
+      </c>
+      <c r="C119">
+        <v>0.3</v>
+      </c>
+      <c r="D119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>36</v>
+      </c>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120">
+        <v>12004</v>
+      </c>
+      <c r="B120">
+        <v>0.1</v>
+      </c>
+      <c r="C120">
+        <v>0.4</v>
+      </c>
+      <c r="D120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>36</v>
+      </c>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121">
+        <v>12005</v>
+      </c>
+      <c r="B121">
+        <v>0.1</v>
+      </c>
+      <c r="C121">
+        <v>0.5</v>
+      </c>
+      <c r="D121">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>36</v>
+      </c>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122">
+        <v>12006</v>
+      </c>
+      <c r="B122">
+        <v>0.1</v>
+      </c>
+      <c r="C122">
+        <v>0.6</v>
+      </c>
+      <c r="D122">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>36</v>
+      </c>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123">
+        <v>12007</v>
+      </c>
+      <c r="B123">
+        <v>0.1</v>
+      </c>
+      <c r="C123">
+        <v>0.7</v>
+      </c>
+      <c r="D123">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>36</v>
+      </c>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <v>12008</v>
+      </c>
+      <c r="B124">
+        <v>0.1</v>
+      </c>
+      <c r="C124">
+        <v>0.8</v>
+      </c>
+      <c r="D124">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
+        <v>36</v>
+      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125">
+        <v>12009</v>
+      </c>
+      <c r="B125">
+        <v>0.1</v>
+      </c>
+      <c r="C125">
+        <v>0.9</v>
+      </c>
+      <c r="D125">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>36</v>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126">
+        <v>12010</v>
+      </c>
+      <c r="B126">
+        <v>0.1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>20</v>
+      </c>
+      <c r="G126" t="s">
+        <v>36</v>
+      </c>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <v>13000</v>
+      </c>
+      <c r="B127">
+        <v>0.1</v>
+      </c>
+      <c r="E127">
+        <v>0.2</v>
+      </c>
+      <c r="F127">
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
+        <v>37</v>
+      </c>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
+        <v>13001</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>0.2</v>
+      </c>
+      <c r="F128">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
+        <v>37</v>
+      </c>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <v>13002</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="E129">
+        <v>0.2</v>
+      </c>
+      <c r="F129">
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
+        <v>37</v>
+      </c>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <v>14000</v>
+      </c>
+      <c r="B130">
+        <v>0.1</v>
+      </c>
+      <c r="C130">
+        <v>0.2</v>
+      </c>
+      <c r="D130">
+        <v>20</v>
+      </c>
+      <c r="G130" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131">
+        <v>14001</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>0.2</v>
+      </c>
+      <c r="D131">
+        <v>20</v>
+      </c>
+      <c r="G131" t="s">
+        <v>38</v>
+      </c>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132">
+        <v>14002</v>
+      </c>
+      <c r="B132">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <v>0.2</v>
+      </c>
+      <c r="D132">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
+        <v>38</v>
+      </c>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133">
+        <v>999000</v>
+      </c>
+      <c r="B133">
+        <v>0.1</v>
+      </c>
+      <c r="C133">
+        <v>0.3</v>
+      </c>
+      <c r="D133">
+        <v>20000</v>
+      </c>
+      <c r="E133">
+        <v>0.2</v>
+      </c>
+      <c r="F133">
+        <v>20000</v>
+      </c>
+      <c r="G133" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:R133" xr:uid="{952AE6A6-D48F-4C1F-8A8D-AAE9455BA646}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9686A187-069B-4B8B-88BA-AC20507484E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A1DE4C-999F-4BAD-9340-12A55454F978}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="46">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>F5</t>
+  </si>
+  <si>
+    <t>d + s</t>
+  </si>
+  <si>
+    <t>ds</t>
   </si>
 </sst>
 </file>
@@ -1380,6 +1386,120 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0BDE-4D36-91F1-4C85A6B74F2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TOTAL!$AC$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d + s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>TOTAL!$AC$8:$AC$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44083155650319833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51785714285714279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32051282051282048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0289-48B0-BE8E-9554EEE4014B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TOTAL!$AD$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>TOTAL!$AD$8:$AD$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0289-48B0-BE8E-9554EEE4014B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2727,8 +2847,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>423582</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3055,9 +3175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44CF4C4E-2F04-4B7D-BCDA-A7B67063115F}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -6008,15 +6126,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView topLeftCell="K3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -6048,7 +6166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="32">
         <v>20</v>
       </c>
@@ -6094,7 +6212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="37">
         <v>20</v>
       </c>
@@ -6145,7 +6263,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="37">
         <v>20</v>
       </c>
@@ -6193,7 +6311,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="37">
         <v>20</v>
       </c>
@@ -6241,7 +6359,7 @@
         <v>0.5357142857142857</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="37">
         <v>20</v>
       </c>
@@ -6274,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="37">
         <v>20</v>
       </c>
@@ -6315,8 +6433,14 @@
       <c r="AB7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="37">
         <v>20</v>
       </c>
@@ -6356,11 +6480,19 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <f>+E33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f>+E35</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <f>+AA8+AB8</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <f>+E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="37">
         <v>20</v>
       </c>
@@ -6376,12 +6508,12 @@
         <v>7</v>
       </c>
       <c r="E9" s="56">
-        <f t="shared" ref="E9:E31" si="12">IFERROR(D9/C9, 0)</f>
+        <f t="shared" ref="E9:E33" si="12">IFERROR(D9/C9, 0)</f>
         <v>0.1044776119402985</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="39">
-        <f t="shared" ref="G9:G31" si="13">IFERROR(SQRT(C9*E9*(1-E9))/C9, 0)</f>
+        <f t="shared" ref="G9:G33" si="13">IFERROR(SQRT(C9*E9*(1-E9))/C9, 0)</f>
         <v>3.7369083027573149E-2</v>
       </c>
       <c r="H9" s="39">
@@ -6400,11 +6532,19 @@
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <f>+E30</f>
+        <f>+E32</f>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC9" s="1">
+        <f t="shared" ref="AC9:AC13" si="14">+AA9+AB9</f>
+        <v>0.12</v>
+      </c>
+      <c r="AD9" s="1">
+        <f>+E17</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="37">
         <v>20</v>
       </c>
@@ -6444,11 +6584,19 @@
         <v>0.11940298507462686</v>
       </c>
       <c r="AB10" s="1">
-        <f>+E29</f>
+        <f>+E31</f>
         <v>0.32142857142857145</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC10" s="1">
+        <f t="shared" si="14"/>
+        <v>0.44083155650319833</v>
+      </c>
+      <c r="AD10" s="1">
+        <f>+E13</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="37">
         <v>20</v>
       </c>
@@ -6473,11 +6621,11 @@
         <v>5.6915648063542552E-2</v>
       </c>
       <c r="H11" s="39">
-        <f t="shared" ref="H11:H31" si="14">E11-G11</f>
+        <f t="shared" ref="H11:H33" si="15">E11-G11</f>
         <v>0.22879863765074315</v>
       </c>
       <c r="I11" s="41">
-        <f t="shared" ref="I11:I31" si="15">E11+G11</f>
+        <f t="shared" ref="I11:I33" si="16">E11+G11</f>
         <v>0.34262993377782824</v>
       </c>
       <c r="Z11">
@@ -6488,11 +6636,19 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="AB11" s="1">
-        <f>+E31</f>
+        <f>+E33</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="AC11" s="1">
+        <f t="shared" si="14"/>
+        <v>0.51785714285714279</v>
+      </c>
+      <c r="AD11" s="1">
+        <f>+E21</f>
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="42">
         <v>20</v>
       </c>
@@ -6517,11 +6673,11 @@
         <v>5.9367957650763428E-2</v>
       </c>
       <c r="H12" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.2632126875105269</v>
       </c>
       <c r="I12" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.38194860281205373</v>
       </c>
       <c r="Z12">
@@ -6532,11 +6688,19 @@
         <v>0.15384615384615385</v>
       </c>
       <c r="AB12" s="1">
-        <f>+E32</f>
+        <f>+E34</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC12" s="1">
+        <f t="shared" si="14"/>
+        <v>0.32051282051282048</v>
+      </c>
+      <c r="AD12" s="1">
+        <f>+E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
         <v>20</v>
       </c>
@@ -6561,11 +6725,11 @@
         <v>8.5416626016250496E-2</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.15458337398374949</v>
       </c>
       <c r="I13" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.32541662601625049</v>
       </c>
       <c r="Z13">
@@ -6576,11 +6740,19 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AB13" s="1">
-        <f>+E34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f>+E36</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="14"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD13" s="1">
+        <f>+E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11">
         <v>20</v>
       </c>
@@ -6605,15 +6777,15 @@
         <v>7.0758939308292301E-2</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.3087214537861553E-2</v>
       </c>
       <c r="I14" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.22460509315444616</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="15">
         <v>20</v>
       </c>
@@ -6638,15 +6810,15 @@
         <v>9.293489539618284E-2</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.27743547497418752</v>
       </c>
       <c r="I15" s="50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.46330526576655318</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19">
         <v>20</v>
       </c>
@@ -6671,11 +6843,11 @@
         <v>8.97997772825746E-2</v>
       </c>
       <c r="H16" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.19020022271742543</v>
       </c>
       <c r="I16" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.36979977728257463</v>
       </c>
     </row>
@@ -6704,11 +6876,11 @@
         <v>7.6072577431273075E-2</v>
       </c>
       <c r="H17" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.0594089235393582E-2</v>
       </c>
       <c r="I17" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.24273924409793973</v>
       </c>
     </row>
@@ -6737,11 +6909,11 @@
         <v>7.0758939308292301E-2</v>
       </c>
       <c r="H18" s="29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.3087214537861553E-2</v>
       </c>
       <c r="I18" s="53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.22460509315444616</v>
       </c>
     </row>
@@ -6770,11 +6942,11 @@
         <v>9.293489539618284E-2</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.27743547497418752</v>
       </c>
       <c r="I19" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.46330526576655318</v>
       </c>
     </row>
@@ -6803,11 +6975,11 @@
         <v>7.0758939308292301E-2</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.3087214537861553E-2</v>
       </c>
       <c r="I20" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.22460509315444616</v>
       </c>
     </row>
@@ -6836,11 +7008,11 @@
         <v>9.4249761234240642E-2</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.44146452448004503</v>
       </c>
       <c r="I21" s="49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.62996404694852637</v>
       </c>
     </row>
@@ -6860,20 +7032,20 @@
         <v>0</v>
       </c>
       <c r="E22" s="59">
-        <f t="shared" ref="E22:E28" si="16">IFERROR(D22/C22, 0)</f>
+        <f t="shared" ref="E22:E29" si="17">IFERROR(D22/C22, 0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="13">
-        <f t="shared" ref="G22:G28" si="17">IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
+        <f t="shared" ref="G22:G29" si="18">IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" ref="H22:H28" si="18">E22-G22</f>
+        <f t="shared" ref="H22:H29" si="19">E22-G22</f>
         <v>0</v>
       </c>
       <c r="I22" s="49">
-        <f t="shared" ref="I22:I28" si="19">E22+G22</f>
+        <f t="shared" ref="I22:I29" si="20">E22+G22</f>
         <v>0</v>
       </c>
     </row>
@@ -6893,20 +7065,20 @@
         <v>0</v>
       </c>
       <c r="E23" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H23" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I23" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6926,20 +7098,20 @@
         <v>0</v>
       </c>
       <c r="E24" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H24" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I24" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6948,7 +7120,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="12">
-        <v>9025</v>
+        <v>9018</v>
       </c>
       <c r="C25" s="12">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
@@ -6959,20 +7131,20 @@
         <v>0</v>
       </c>
       <c r="E25" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="E25:E26" si="21">IFERROR(D25/C25, 0)</f>
         <v>0</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="G25:G26" si="22">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="H25:H26" si="23">E25-G25</f>
         <v>0</v>
       </c>
       <c r="I25" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="I25:I26" si="24">E25+G25</f>
         <v>0</v>
       </c>
     </row>
@@ -6981,7 +7153,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="12">
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="C26" s="12">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
@@ -6992,20 +7164,20 @@
         <v>0</v>
       </c>
       <c r="E26" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H26" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I26" s="49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -7014,7 +7186,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="12">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="C27" s="12">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
@@ -7025,29 +7197,29 @@
         <v>0</v>
       </c>
       <c r="E27" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H27" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I27" s="49">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11">
         <v>20</v>
       </c>
       <c r="B28" s="12">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="C28" s="12">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
@@ -7058,218 +7230,284 @@
         <v>0</v>
       </c>
       <c r="E28" s="59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="49">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="11">
+        <v>20</v>
+      </c>
+      <c r="B29" s="12">
+        <v>9028</v>
+      </c>
+      <c r="C29" s="12">
+        <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="59">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H28" s="13">
+      <c r="F29" s="12"/>
+      <c r="G29" s="13">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I28" s="49">
+      <c r="H29" s="13">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="19">
-        <v>20</v>
-      </c>
-      <c r="B29" s="20">
+      <c r="I29" s="49">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A30" s="11">
+        <v>20</v>
+      </c>
+      <c r="B30" s="12">
+        <v>9035</v>
+      </c>
+      <c r="C30" s="12">
+        <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="59">
+        <f t="shared" ref="E30" si="25">IFERROR(D30/C30, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13">
+        <f t="shared" ref="G30" si="26">IFERROR(SQRT(C30*E30*(1-E30))/C30, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" ref="H30" si="27">E30-G30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="49">
+        <f t="shared" ref="I30" si="28">E30+G30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="19">
+        <v>20</v>
+      </c>
+      <c r="B31" s="20">
         <v>10000</v>
       </c>
-      <c r="C29" s="20">
-        <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+      <c r="C31" s="20">
+        <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>28</v>
       </c>
-      <c r="D29" s="20">
-        <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+      <c r="D31" s="20">
+        <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>9</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E31" s="61">
         <f t="shared" si="12"/>
         <v>0.32142857142857145</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21">
+      <c r="F31" s="20"/>
+      <c r="G31" s="21">
         <f t="shared" si="13"/>
         <v>8.8259407612276491E-2</v>
       </c>
-      <c r="H29" s="21">
-        <f t="shared" si="14"/>
+      <c r="H31" s="21">
+        <f t="shared" si="15"/>
         <v>0.23316916381629496</v>
       </c>
-      <c r="I29" s="51">
-        <f t="shared" si="15"/>
+      <c r="I31" s="51">
+        <f t="shared" si="16"/>
         <v>0.40968797904084797</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="23">
-        <v>20</v>
-      </c>
-      <c r="B30" s="24">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="23">
+        <v>20</v>
+      </c>
+      <c r="B32" s="24">
         <v>10001</v>
       </c>
-      <c r="C30" s="24">
-        <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+      <c r="C32" s="24">
+        <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
-      <c r="D30" s="24">
-        <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+      <c r="D32" s="24">
+        <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E30" s="62">
+      <c r="E32" s="62">
         <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25">
+      <c r="F32" s="24"/>
+      <c r="G32" s="25">
         <f t="shared" si="13"/>
         <v>6.4992307237087682E-2</v>
       </c>
-      <c r="H30" s="25">
-        <f t="shared" si="14"/>
+      <c r="H32" s="25">
+        <f t="shared" si="15"/>
         <v>5.5007692762912314E-2</v>
       </c>
-      <c r="I30" s="52">
-        <f t="shared" si="15"/>
+      <c r="I32" s="52">
+        <f t="shared" si="16"/>
         <v>0.18499230723708768</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="23">
-        <v>20</v>
-      </c>
-      <c r="B31" s="24">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="23">
+        <v>20</v>
+      </c>
+      <c r="B33" s="24">
         <v>10002</v>
       </c>
-      <c r="C31" s="24">
-        <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+      <c r="C33" s="24">
+        <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>16</v>
       </c>
-      <c r="D31" s="24">
-        <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+      <c r="D33" s="24">
+        <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E31" s="62">
+      <c r="E33" s="62">
         <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25">
+      <c r="F33" s="24"/>
+      <c r="G33" s="25">
         <f t="shared" si="13"/>
         <v>0.12103072956898178</v>
       </c>
-      <c r="H31" s="25">
-        <f t="shared" si="14"/>
+      <c r="H33" s="25">
+        <f t="shared" si="15"/>
         <v>0.25396927043101825</v>
       </c>
-      <c r="I31" s="52">
-        <f t="shared" si="15"/>
+      <c r="I33" s="52">
+        <f t="shared" si="16"/>
         <v>0.49603072956898175</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="23">
-        <v>20</v>
-      </c>
-      <c r="B32" s="24">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="23">
+        <v>20</v>
+      </c>
+      <c r="B34" s="24">
         <v>10003</v>
       </c>
-      <c r="C32" s="24">
-        <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>12</v>
-      </c>
-      <c r="D32" s="24">
-        <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
-      </c>
-      <c r="E32" s="62">
-        <f t="shared" ref="E32:E33" si="20">IFERROR(D32/C32, 0)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25">
-        <f t="shared" ref="G32:G33" si="21">IFERROR(SQRT(C32*E32*(1-E32))/C32, 0)</f>
-        <v>0.1075828707279838</v>
-      </c>
-      <c r="H32" s="25">
-        <f t="shared" ref="H32:H33" si="22">E32-G32</f>
-        <v>5.9083795938682862E-2</v>
-      </c>
-      <c r="I32" s="52">
-        <f t="shared" ref="I32:I33" si="23">E32+G32</f>
-        <v>0.27424953739465047</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="27">
-        <v>20</v>
-      </c>
-      <c r="B33" s="28">
-        <v>10004</v>
-      </c>
-      <c r="C33" s="28">
-        <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>13</v>
-      </c>
-      <c r="D33" s="28">
-        <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="63">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="29">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="53">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="27">
-        <v>20</v>
-      </c>
-      <c r="B34" s="28">
-        <v>10005</v>
-      </c>
-      <c r="C34" s="28">
+      <c r="C34" s="24">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>12</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="24">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="63">
-        <f t="shared" ref="E34" si="24">IFERROR(D34/C34, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29">
-        <f t="shared" ref="G34" si="25">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="29">
-        <f t="shared" ref="H34" si="26">E34-G34</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="53">
-        <f t="shared" ref="I34" si="27">E34+G34</f>
+        <v>2</v>
+      </c>
+      <c r="E34" s="62">
+        <f t="shared" ref="E34:E35" si="29">IFERROR(D34/C34, 0)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25">
+        <f t="shared" ref="G34:G35" si="30">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
+        <v>0.1075828707279838</v>
+      </c>
+      <c r="H34" s="25">
+        <f t="shared" ref="H34:H35" si="31">E34-G34</f>
+        <v>5.9083795938682862E-2</v>
+      </c>
+      <c r="I34" s="52">
+        <f t="shared" ref="I34:I35" si="32">E34+G34</f>
+        <v>0.27424953739465047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="27">
+        <v>20</v>
+      </c>
+      <c r="B35" s="28">
+        <v>10004</v>
+      </c>
+      <c r="C35" s="28">
+        <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>13</v>
+      </c>
+      <c r="D35" s="28">
+        <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="63">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="29">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="53">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="27">
+        <v>20</v>
+      </c>
+      <c r="B36" s="28">
+        <v>10005</v>
+      </c>
+      <c r="C36" s="28">
+        <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>12</v>
+      </c>
+      <c r="D36" s="28">
+        <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="63">
+        <f t="shared" ref="E36" si="33">IFERROR(D36/C36, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29">
+        <f t="shared" ref="G36" si="34">IFERROR(SQRT(C36*E36*(1-E36))/C36, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="29">
+        <f t="shared" ref="H36" si="35">E36-G36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="53">
+        <f t="shared" ref="I36" si="36">E36+G36</f>
         <v>0</v>
       </c>
     </row>
@@ -9225,13 +9463,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E76DC5-1049-4C8B-9BF5-A40E67654926}">
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="8.83984375" style="2"/>
+    <col min="5" max="5" width="8.83984375" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -9240,13 +9482,13 @@
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
@@ -9278,7 +9520,7 @@
       <c r="B2">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.2</v>
       </c>
       <c r="F2">
@@ -9335,7 +9577,7 @@
       <c r="B3">
         <v>0.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.2</v>
       </c>
       <c r="F3">
@@ -9392,7 +9634,7 @@
       <c r="B4">
         <v>0.1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.2</v>
       </c>
       <c r="F4">
@@ -9449,7 +9691,7 @@
       <c r="B5">
         <v>0.1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.15</v>
       </c>
       <c r="F5">
@@ -9506,7 +9748,7 @@
       <c r="B6">
         <v>0.1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0.3</v>
       </c>
       <c r="F6">
@@ -9563,7 +9805,7 @@
       <c r="B7">
         <v>0.1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0.25</v>
       </c>
       <c r="F7">
@@ -9620,7 +9862,7 @@
       <c r="B8">
         <v>0.1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0.05</v>
       </c>
       <c r="F8">
@@ -9677,7 +9919,7 @@
       <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0.1</v>
       </c>
       <c r="F9">
@@ -9734,7 +9976,7 @@
       <c r="B10">
         <v>0.1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0.35</v>
       </c>
       <c r="F10">
@@ -9791,7 +10033,7 @@
       <c r="B11">
         <v>0.1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>0.4</v>
       </c>
       <c r="F11">
@@ -9848,7 +10090,7 @@
       <c r="B12">
         <v>0.1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>0.45</v>
       </c>
       <c r="F12">
@@ -9905,7 +10147,7 @@
       <c r="B13">
         <v>0.1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>0.5</v>
       </c>
       <c r="F13">
@@ -9962,7 +10204,7 @@
       <c r="B14">
         <v>0.1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>0.55000000000000004</v>
       </c>
       <c r="F14">
@@ -10019,7 +10261,7 @@
       <c r="B15">
         <v>0.1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>0.6</v>
       </c>
       <c r="F15">
@@ -10076,7 +10318,7 @@
       <c r="B16">
         <v>0.1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>0.65</v>
       </c>
       <c r="F16">
@@ -10133,7 +10375,7 @@
       <c r="B17">
         <v>0.1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>0.7</v>
       </c>
       <c r="F17">
@@ -10190,7 +10432,7 @@
       <c r="B18">
         <v>0.1</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>0.75</v>
       </c>
       <c r="F18">
@@ -10247,7 +10489,7 @@
       <c r="B19">
         <v>0.1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>0.8</v>
       </c>
       <c r="F19">
@@ -10304,7 +10546,7 @@
       <c r="B20">
         <v>0.1</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>0.85</v>
       </c>
       <c r="F20">
@@ -10361,7 +10603,7 @@
       <c r="B21">
         <v>0.1</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>0.9</v>
       </c>
       <c r="F21">
@@ -10418,7 +10660,7 @@
       <c r="B22">
         <v>0.1</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>0.95</v>
       </c>
       <c r="F22">
@@ -10475,7 +10717,7 @@
       <c r="B23">
         <v>0.1</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>0.2</v>
       </c>
       <c r="F23">
@@ -10532,7 +10774,7 @@
       <c r="B24">
         <v>0.1</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>0.2</v>
       </c>
       <c r="F24">
@@ -10589,7 +10831,7 @@
       <c r="B25">
         <v>0.1</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>0.2</v>
       </c>
       <c r="F25">
@@ -10646,7 +10888,7 @@
       <c r="B26">
         <v>0.1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>0.2</v>
       </c>
       <c r="F26">
@@ -10703,7 +10945,7 @@
       <c r="B27">
         <v>0.1</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>0.2</v>
       </c>
       <c r="F27">
@@ -10760,7 +11002,7 @@
       <c r="B28">
         <v>0.1</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>0.2</v>
       </c>
       <c r="F28">
@@ -10817,7 +11059,7 @@
       <c r="B29">
         <v>0.1</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>0.2</v>
       </c>
       <c r="F29">
@@ -10874,7 +11116,7 @@
       <c r="B30">
         <v>0.1</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>0.1</v>
       </c>
       <c r="F30">
@@ -10931,7 +11173,7 @@
       <c r="B31">
         <v>0.1</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>0.1</v>
       </c>
       <c r="F31">
@@ -10988,7 +11230,7 @@
       <c r="B32">
         <v>0.1</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>0.1</v>
       </c>
       <c r="F32">
@@ -11045,7 +11287,7 @@
       <c r="B33">
         <v>0.1</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>0.15</v>
       </c>
       <c r="F33">
@@ -11102,7 +11344,7 @@
       <c r="B34">
         <v>0.1</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>0.15</v>
       </c>
       <c r="F34">
@@ -11159,7 +11401,7 @@
       <c r="B35">
         <v>0.1</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>0.15</v>
       </c>
       <c r="F35">
@@ -11216,7 +11458,7 @@
       <c r="B36">
         <v>0.1</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>0.25</v>
       </c>
       <c r="F36">
@@ -11273,7 +11515,7 @@
       <c r="B37">
         <v>0.1</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>0.25</v>
       </c>
       <c r="F37">
@@ -11330,7 +11572,7 @@
       <c r="B38">
         <v>0.1</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>0.25</v>
       </c>
       <c r="F38">
@@ -11387,7 +11629,7 @@
       <c r="B39">
         <v>0.1</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>0.3</v>
       </c>
       <c r="F39">
@@ -11444,7 +11686,7 @@
       <c r="B40">
         <v>0.1</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>0.3</v>
       </c>
       <c r="F40">
@@ -11501,7 +11743,7 @@
       <c r="B41">
         <v>0.1</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>0.3</v>
       </c>
       <c r="F41">
@@ -11558,13 +11800,13 @@
       <c r="B42">
         <v>0.1</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>0.2</v>
       </c>
       <c r="D42">
         <v>10</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>0.2</v>
       </c>
       <c r="F42">
@@ -11621,7 +11863,7 @@
       <c r="B43">
         <v>0.1</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>0.2</v>
       </c>
       <c r="D43">
@@ -11678,7 +11920,7 @@
       <c r="B44">
         <v>0.1</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>0.2</v>
       </c>
       <c r="D44">
@@ -11735,7 +11977,7 @@
       <c r="B45">
         <v>0.1</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>0.2</v>
       </c>
       <c r="D45">
@@ -11792,7 +12034,7 @@
       <c r="B46">
         <v>0.1</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>0.15</v>
       </c>
       <c r="D46">
@@ -11849,7 +12091,7 @@
       <c r="B47">
         <v>0.1</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>0.3</v>
       </c>
       <c r="D47">
@@ -11906,7 +12148,7 @@
       <c r="B48">
         <v>0.1</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>0.25</v>
       </c>
       <c r="D48">
@@ -11963,7 +12205,7 @@
       <c r="B49">
         <v>0.1</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>0.05</v>
       </c>
       <c r="D49">
@@ -12020,7 +12262,7 @@
       <c r="B50">
         <v>0.1</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>0.1</v>
       </c>
       <c r="D50">
@@ -12077,7 +12319,7 @@
       <c r="B51">
         <v>0.1</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>0.35</v>
       </c>
       <c r="D51">
@@ -12134,7 +12376,7 @@
       <c r="B52">
         <v>0.1</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>0.4</v>
       </c>
       <c r="D52">
@@ -12191,7 +12433,7 @@
       <c r="B53">
         <v>0.1</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>0.45</v>
       </c>
       <c r="D53">
@@ -12248,7 +12490,7 @@
       <c r="B54">
         <v>0.1</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>0.5</v>
       </c>
       <c r="D54">
@@ -12305,7 +12547,7 @@
       <c r="B55">
         <v>0.1</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>0.55000000000000004</v>
       </c>
       <c r="D55">
@@ -12362,7 +12604,7 @@
       <c r="B56">
         <v>0.1</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>0.6</v>
       </c>
       <c r="D56">
@@ -12419,7 +12661,7 @@
       <c r="B57">
         <v>0.1</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>0.65</v>
       </c>
       <c r="D57">
@@ -12476,7 +12718,7 @@
       <c r="B58">
         <v>0.1</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>0.7</v>
       </c>
       <c r="D58">
@@ -12533,7 +12775,7 @@
       <c r="B59">
         <v>0.1</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>0.75</v>
       </c>
       <c r="D59">
@@ -12590,7 +12832,7 @@
       <c r="B60">
         <v>0.1</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>0.8</v>
       </c>
       <c r="D60">
@@ -12647,7 +12889,7 @@
       <c r="B61">
         <v>0.1</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>0.85</v>
       </c>
       <c r="D61">
@@ -12704,7 +12946,7 @@
       <c r="B62">
         <v>0.1</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>0.9</v>
       </c>
       <c r="D62">
@@ -12761,7 +13003,7 @@
       <c r="B63">
         <v>0.1</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>0.95</v>
       </c>
       <c r="D63">
@@ -12818,7 +13060,7 @@
       <c r="B64">
         <v>0.1</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>0.2</v>
       </c>
       <c r="D64">
@@ -12875,7 +13117,7 @@
       <c r="B65">
         <v>0.1</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>0.3</v>
       </c>
       <c r="D65">
@@ -12932,7 +13174,7 @@
       <c r="B66">
         <v>0.1</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>0.2</v>
       </c>
       <c r="D66">
@@ -12989,7 +13231,7 @@
       <c r="B67">
         <v>0.1</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>0.2</v>
       </c>
       <c r="D67">
@@ -13046,7 +13288,7 @@
       <c r="B68">
         <v>0.1</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>0.2</v>
       </c>
       <c r="D68">
@@ -13103,7 +13345,7 @@
       <c r="B69">
         <v>0.1</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>0.2</v>
       </c>
       <c r="D69">
@@ -13160,7 +13402,7 @@
       <c r="B70">
         <v>0.1</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>0.2</v>
       </c>
       <c r="D70">
@@ -13217,7 +13459,7 @@
       <c r="B71">
         <v>0.1</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>0.2</v>
       </c>
       <c r="D71">
@@ -13274,7 +13516,7 @@
       <c r="B72">
         <v>0.1</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>0.2</v>
       </c>
       <c r="F72">
@@ -13331,7 +13573,7 @@
       <c r="B73">
         <v>0.1</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>0.2</v>
       </c>
       <c r="F73">
@@ -13388,7 +13630,7 @@
       <c r="B74">
         <v>0.1</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>0.2</v>
       </c>
       <c r="F74">
@@ -13445,7 +13687,7 @@
       <c r="B75">
         <v>0.1</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>0.2</v>
       </c>
       <c r="F75">
@@ -13502,7 +13744,7 @@
       <c r="B76">
         <v>0.1</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>0.2</v>
       </c>
       <c r="F76">
@@ -13559,7 +13801,7 @@
       <c r="B77">
         <v>0.1</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>0.2</v>
       </c>
       <c r="F77">
@@ -13616,7 +13858,7 @@
       <c r="B78">
         <v>0.1</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <v>0.2</v>
       </c>
       <c r="F78">
@@ -13673,13 +13915,13 @@
       <c r="B79">
         <v>0.1</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>0.3</v>
       </c>
       <c r="D79">
         <v>2000</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>0.2</v>
       </c>
       <c r="F79">
@@ -13736,13 +13978,13 @@
       <c r="B80">
         <v>0.1</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>0.3</v>
       </c>
       <c r="D80">
         <v>200</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>0.2</v>
       </c>
       <c r="F80">
@@ -13799,13 +14041,13 @@
       <c r="B81">
         <v>0.1</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>0.3</v>
       </c>
       <c r="D81">
         <v>20</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <v>0.2</v>
       </c>
       <c r="F81">
@@ -13862,13 +14104,13 @@
       <c r="B82">
         <v>0.1</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>0.3</v>
       </c>
       <c r="D82">
         <v>20</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <v>0.2</v>
       </c>
       <c r="F82">
@@ -13925,13 +14167,13 @@
       <c r="B83">
         <v>0.1</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>0.2</v>
       </c>
       <c r="D83">
         <v>10</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <v>0.2</v>
       </c>
       <c r="F83">
@@ -13988,13 +14230,13 @@
       <c r="B84">
         <v>0.1</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>0.2</v>
       </c>
       <c r="D84">
         <v>10</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <v>0.2</v>
       </c>
       <c r="F84">
@@ -14051,13 +14293,13 @@
       <c r="B85">
         <v>0.1</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>0.2</v>
       </c>
       <c r="D85">
         <v>10</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
         <v>0.2</v>
       </c>
       <c r="F85">
@@ -14114,13 +14356,13 @@
       <c r="B86">
         <v>0.1</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>0.2</v>
       </c>
       <c r="D86">
         <v>5</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
         <v>0.2</v>
       </c>
       <c r="F86">
@@ -14177,13 +14419,13 @@
       <c r="B87">
         <v>0.1</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>0.2</v>
       </c>
       <c r="D87">
         <v>5</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2">
         <v>0.2</v>
       </c>
       <c r="F87">
@@ -14240,13 +14482,13 @@
       <c r="B88">
         <v>0.1</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>0.2</v>
       </c>
       <c r="D88">
         <v>5</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2">
         <v>0.2</v>
       </c>
       <c r="F88">
@@ -14303,13 +14545,13 @@
       <c r="B89">
         <v>0.1</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <v>0.2</v>
       </c>
       <c r="D89">
         <v>20</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <v>0.2</v>
       </c>
       <c r="F89">
@@ -14366,13 +14608,13 @@
       <c r="B90">
         <v>0.1</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>0.2</v>
       </c>
       <c r="D90">
         <v>20</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2">
         <v>0.2</v>
       </c>
       <c r="F90">
@@ -14429,13 +14671,13 @@
       <c r="B91">
         <v>0.1</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
         <v>0.2</v>
       </c>
       <c r="D91">
         <v>20</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
         <v>0.2</v>
       </c>
       <c r="F91">
@@ -14492,13 +14734,13 @@
       <c r="B92">
         <v>0.1</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <v>0.2</v>
       </c>
       <c r="D92">
         <v>10</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <v>0.2</v>
       </c>
       <c r="F92">
@@ -14555,13 +14797,13 @@
       <c r="B93">
         <v>0.1</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <v>0.2</v>
       </c>
       <c r="D93">
         <v>5</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>0.2</v>
       </c>
       <c r="F93">
@@ -14618,13 +14860,13 @@
       <c r="B94">
         <v>0.1</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <v>0.2</v>
       </c>
       <c r="D94">
         <v>20</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>0.2</v>
       </c>
       <c r="F94">
@@ -14676,22 +14918,22 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
-        <v>9025</v>
+        <v>9018</v>
       </c>
       <c r="B95">
         <v>0.1</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
         <v>0.2</v>
       </c>
       <c r="D95">
-        <v>50</v>
-      </c>
-      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="E95" s="2">
         <v>0.2</v>
       </c>
       <c r="F95">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -14726,7 +14968,7 @@
       </c>
       <c r="P95" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
       <c r="Q95" s="2" t="str">
         <f t="shared" si="7"/>
@@ -14734,27 +14976,27 @@
       </c>
       <c r="R95" s="2" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="B96">
         <v>0.1</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
         <v>0.2</v>
       </c>
       <c r="D96">
         <v>50</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <v>0.2</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G96" t="s">
         <v>33</v>
@@ -14797,27 +15039,27 @@
       </c>
       <c r="R96" s="2" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="B97">
         <v>0.1</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>0.2</v>
       </c>
       <c r="D97">
         <v>50</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
         <v>0.2</v>
       </c>
       <c r="F97">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" t="s">
         <v>33</v>
@@ -14860,27 +15102,27 @@
       </c>
       <c r="R97" s="2" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="B98">
         <v>0.1</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <v>0.2</v>
       </c>
       <c r="D98">
         <v>50</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
         <v>0.2</v>
       </c>
       <c r="F98">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G98" t="s">
         <v>33</v>
@@ -14923,24 +15165,30 @@
       </c>
       <c r="R98" s="2" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
-        <v>10000</v>
+        <v>9028</v>
       </c>
       <c r="B99">
         <v>0.1</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <v>0.2</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="E99" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F99">
+        <v>50</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I99" s="2">
         <f>+Defaults_3200!B99</f>
@@ -14972,32 +15220,38 @@
       </c>
       <c r="P99" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
       <c r="Q99" s="2" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
       <c r="R99" s="2" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
-        <v>10001</v>
+        <v>9035</v>
       </c>
       <c r="B100">
         <v>0.1</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <v>0.2</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I100" s="2">
         <f>+Defaults_3200!B100</f>
@@ -15029,29 +15283,29 @@
       </c>
       <c r="P100" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
       <c r="Q100" s="2" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
       <c r="R100" s="2" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
-        <v>10002</v>
+        <v>10000</v>
       </c>
       <c r="B101">
         <v>0.1</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <v>0.2</v>
       </c>
       <c r="D101">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G101" t="s">
         <v>34</v>
@@ -15086,7 +15340,7 @@
       </c>
       <c r="P101" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
       <c r="Q101" s="2" t="str">
         <f t="shared" si="7"/>
@@ -15099,16 +15353,16 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B102">
         <v>0.1</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
         <v>0.2</v>
       </c>
       <c r="D102">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -15143,7 +15397,7 @@
       </c>
       <c r="P102" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
       <c r="Q102" s="2" t="str">
         <f t="shared" si="7"/>
@@ -15156,16 +15410,16 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B103">
         <v>0.1</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
         <v>0.2</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -15200,7 +15454,7 @@
       </c>
       <c r="P103" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
       <c r="Q103" s="2" t="str">
         <f t="shared" si="7"/>
@@ -15213,16 +15467,16 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B104">
         <v>0.1</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="2">
         <v>0.2</v>
       </c>
       <c r="D104">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
@@ -15257,7 +15511,7 @@
       </c>
       <c r="P104" s="2" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>!ERR!</v>
       </c>
       <c r="Q104" s="2" t="str">
         <f t="shared" si="7"/>
@@ -15270,19 +15524,19 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <v>11000</v>
+        <v>10004</v>
       </c>
       <c r="B105">
         <v>0.1</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>20</v>
+      <c r="C105" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
@@ -15293,19 +15547,19 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <v>11001</v>
+        <v>10005</v>
       </c>
       <c r="B106">
         <v>0.1</v>
       </c>
-      <c r="E106">
-        <v>0.1</v>
-      </c>
-      <c r="F106">
-        <v>20</v>
+      <c r="C106" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D106">
+        <v>100</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
@@ -15316,13 +15570,13 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <v>11002</v>
+        <v>11000</v>
       </c>
       <c r="B107">
         <v>0.1</v>
       </c>
-      <c r="E107">
-        <v>0.2</v>
+      <c r="E107" s="2">
+        <v>0</v>
       </c>
       <c r="F107">
         <v>20</v>
@@ -15339,13 +15593,13 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <v>11003</v>
+        <v>11001</v>
       </c>
       <c r="B108">
         <v>0.1</v>
       </c>
-      <c r="E108">
-        <v>0.3</v>
+      <c r="E108" s="2">
+        <v>0.1</v>
       </c>
       <c r="F108">
         <v>20</v>
@@ -15362,13 +15616,13 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <v>11004</v>
+        <v>11002</v>
       </c>
       <c r="B109">
         <v>0.1</v>
       </c>
-      <c r="E109">
-        <v>0.4</v>
+      <c r="E109" s="2">
+        <v>0.2</v>
       </c>
       <c r="F109">
         <v>20</v>
@@ -15385,13 +15639,13 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <v>11005</v>
+        <v>11003</v>
       </c>
       <c r="B110">
         <v>0.1</v>
       </c>
-      <c r="E110">
-        <v>0.5</v>
+      <c r="E110" s="2">
+        <v>0.3</v>
       </c>
       <c r="F110">
         <v>20</v>
@@ -15408,13 +15662,13 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <v>11006</v>
+        <v>11004</v>
       </c>
       <c r="B111">
         <v>0.1</v>
       </c>
-      <c r="E111">
-        <v>0.6</v>
+      <c r="E111" s="2">
+        <v>0.4</v>
       </c>
       <c r="F111">
         <v>20</v>
@@ -15431,13 +15685,13 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
-        <v>11007</v>
+        <v>11005</v>
       </c>
       <c r="B112">
         <v>0.1</v>
       </c>
-      <c r="E112">
-        <v>0.7</v>
+      <c r="E112" s="2">
+        <v>0.5</v>
       </c>
       <c r="F112">
         <v>20</v>
@@ -15454,13 +15708,13 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
-        <v>11008</v>
+        <v>11006</v>
       </c>
       <c r="B113">
         <v>0.1</v>
       </c>
-      <c r="E113">
-        <v>0.8</v>
+      <c r="E113" s="2">
+        <v>0.6</v>
       </c>
       <c r="F113">
         <v>20</v>
@@ -15477,13 +15731,13 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
-        <v>11009</v>
+        <v>11007</v>
       </c>
       <c r="B114">
         <v>0.1</v>
       </c>
-      <c r="E114">
-        <v>0.9</v>
+      <c r="E114" s="2">
+        <v>0.7</v>
       </c>
       <c r="F114">
         <v>20</v>
@@ -15500,13 +15754,13 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
-        <v>11010</v>
+        <v>11008</v>
       </c>
       <c r="B115">
         <v>0.1</v>
       </c>
-      <c r="E115">
-        <v>1</v>
+      <c r="E115" s="2">
+        <v>0.8</v>
       </c>
       <c r="F115">
         <v>20</v>
@@ -15523,19 +15777,19 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
-        <v>12000</v>
+        <v>11009</v>
       </c>
       <c r="B116">
         <v>0.1</v>
       </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
+      <c r="E116" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F116">
         <v>20</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -15546,19 +15800,19 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
-        <v>12001</v>
+        <v>11010</v>
       </c>
       <c r="B117">
         <v>0.1</v>
       </c>
-      <c r="C117">
-        <v>0.1</v>
-      </c>
-      <c r="D117">
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117">
         <v>20</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -15569,13 +15823,13 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
-        <v>12002</v>
+        <v>12000</v>
       </c>
       <c r="B118">
         <v>0.1</v>
       </c>
-      <c r="C118">
-        <v>0.2</v>
+      <c r="C118" s="2">
+        <v>0</v>
       </c>
       <c r="D118">
         <v>20</v>
@@ -15592,13 +15846,13 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
-        <v>12003</v>
+        <v>12001</v>
       </c>
       <c r="B119">
         <v>0.1</v>
       </c>
-      <c r="C119">
-        <v>0.3</v>
+      <c r="C119" s="2">
+        <v>0.1</v>
       </c>
       <c r="D119">
         <v>20</v>
@@ -15615,13 +15869,13 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
-        <v>12004</v>
+        <v>12002</v>
       </c>
       <c r="B120">
         <v>0.1</v>
       </c>
-      <c r="C120">
-        <v>0.4</v>
+      <c r="C120" s="2">
+        <v>0.2</v>
       </c>
       <c r="D120">
         <v>20</v>
@@ -15638,13 +15892,13 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
-        <v>12005</v>
+        <v>12003</v>
       </c>
       <c r="B121">
         <v>0.1</v>
       </c>
-      <c r="C121">
-        <v>0.5</v>
+      <c r="C121" s="2">
+        <v>0.3</v>
       </c>
       <c r="D121">
         <v>20</v>
@@ -15661,13 +15915,13 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
-        <v>12006</v>
+        <v>12004</v>
       </c>
       <c r="B122">
         <v>0.1</v>
       </c>
-      <c r="C122">
-        <v>0.6</v>
+      <c r="C122" s="2">
+        <v>0.4</v>
       </c>
       <c r="D122">
         <v>20</v>
@@ -15684,13 +15938,13 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
-        <v>12007</v>
+        <v>12005</v>
       </c>
       <c r="B123">
         <v>0.1</v>
       </c>
-      <c r="C123">
-        <v>0.7</v>
+      <c r="C123" s="2">
+        <v>0.5</v>
       </c>
       <c r="D123">
         <v>20</v>
@@ -15707,13 +15961,13 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
-        <v>12008</v>
+        <v>12006</v>
       </c>
       <c r="B124">
         <v>0.1</v>
       </c>
-      <c r="C124">
-        <v>0.8</v>
+      <c r="C124" s="2">
+        <v>0.6</v>
       </c>
       <c r="D124">
         <v>20</v>
@@ -15730,13 +15984,13 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
-        <v>12009</v>
+        <v>12007</v>
       </c>
       <c r="B125">
         <v>0.1</v>
       </c>
-      <c r="C125">
-        <v>0.9</v>
+      <c r="C125" s="2">
+        <v>0.7</v>
       </c>
       <c r="D125">
         <v>20</v>
@@ -15753,13 +16007,13 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
-        <v>12010</v>
+        <v>12008</v>
       </c>
       <c r="B126">
         <v>0.1</v>
       </c>
-      <c r="C126">
-        <v>1</v>
+      <c r="C126" s="2">
+        <v>0.8</v>
       </c>
       <c r="D126">
         <v>20</v>
@@ -15776,19 +16030,19 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
-        <v>13000</v>
+        <v>12009</v>
       </c>
       <c r="B127">
         <v>0.1</v>
       </c>
-      <c r="E127">
-        <v>0.2</v>
-      </c>
-      <c r="F127">
+      <c r="C127" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="D127">
         <v>20</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
@@ -15799,19 +16053,19 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
-        <v>13001</v>
+        <v>12010</v>
       </c>
       <c r="B128">
+        <v>0.1</v>
+      </c>
+      <c r="C128" s="2">
         <v>1</v>
       </c>
-      <c r="E128">
-        <v>0.2</v>
-      </c>
-      <c r="F128">
+      <c r="D128">
         <v>20</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -15822,12 +16076,12 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
-        <v>13002</v>
+        <v>13000</v>
       </c>
       <c r="B129">
-        <v>10</v>
-      </c>
-      <c r="E129">
+        <v>0.1</v>
+      </c>
+      <c r="E129" s="2">
         <v>0.2</v>
       </c>
       <c r="F129">
@@ -15845,19 +16099,19 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
-        <v>14000</v>
+        <v>13001</v>
       </c>
       <c r="B130">
-        <v>0.1</v>
-      </c>
-      <c r="C130">
-        <v>0.2</v>
-      </c>
-      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F130">
         <v>20</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
@@ -15868,19 +16122,19 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
-        <v>14001</v>
+        <v>13002</v>
       </c>
       <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>0.2</v>
-      </c>
-      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F131">
         <v>20</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
@@ -15891,12 +16145,12 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
-        <v>14002</v>
+        <v>14000</v>
       </c>
       <c r="B132">
-        <v>10</v>
-      </c>
-      <c r="C132">
+        <v>0.1</v>
+      </c>
+      <c r="C132" s="2">
         <v>0.2</v>
       </c>
       <c r="D132">
@@ -15914,25 +16168,19 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
-        <v>999000</v>
+        <v>14001</v>
       </c>
       <c r="B133">
-        <v>0.1</v>
-      </c>
-      <c r="C133">
-        <v>0.3</v>
+        <v>1</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.2</v>
       </c>
       <c r="D133">
-        <v>20000</v>
-      </c>
-      <c r="E133">
-        <v>0.2</v>
-      </c>
-      <c r="F133">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
@@ -15941,6 +16189,46 @@
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
     </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134">
+        <v>14002</v>
+      </c>
+      <c r="B134">
+        <v>10</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D134">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135">
+        <v>999000</v>
+      </c>
+      <c r="B135">
+        <v>0.1</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D135">
+        <v>20000</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F135">
+        <v>20000</v>
+      </c>
+      <c r="G135" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R133" xr:uid="{952AE6A6-D48F-4C1F-8A8D-AAE9455BA646}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A1DE4C-999F-4BAD-9340-12A55454F978}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C90C6-8C69-47A9-AB4E-691C343E30B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="8" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -828,10 +828,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.26923076923076922</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.15384615384615385</c:v>
@@ -866,7 +866,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>0.14814814814814814</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.24</c:v>
@@ -1291,7 +1291,7 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.6923076923076927E-2</c:v>
@@ -1372,10 +1372,10 @@
                   <c:v>0.32142857142857145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.375</c:v>
+                  <c:v>0.35294117647058826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1429,10 +1429,10 @@
                   <c:v>0.44083155650319833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51785714285714279</c:v>
+                  <c:v>0.49579831932773111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32051282051282048</c:v>
+                  <c:v>0.44505494505494503</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7.6923076923076927E-2</c:v>
@@ -1480,7 +1480,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.24</c:v>
@@ -3408,9 +3408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA892EB-1C5D-4DA9-95FA-D6E2F64A7CF0}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3490,16 +3488,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F3" s="2">
-        <v>2.0699999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -3711,16 +3709,16 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F10" s="2">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -4008,16 +4006,16 @@
         <v>10003</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F19" s="2">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -4532,7 +4530,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4584,7 +4582,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4700,16 +4698,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F6" s="2">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -4764,7 +4762,7 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4773,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -4869,16 +4867,16 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="F11" s="2">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -5102,16 +5100,16 @@
         <v>10002</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.25</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="F18" s="2">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -5219,9 +5217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651746D9-3B7C-4EAE-9616-DB19A34F88EC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6128,8 +6124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView topLeftCell="K3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6252,11 +6248,11 @@
       </c>
       <c r="AA3" s="74">
         <f>+E17</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="AB3" s="73">
         <f>+E16</f>
-        <v>0.28000000000000003</v>
+        <v>0.26923076923076922</v>
       </c>
       <c r="AC3" s="75">
         <f>+E18</f>
@@ -6272,7 +6268,7 @@
       </c>
       <c r="C4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="38">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6300,7 +6296,7 @@
       </c>
       <c r="AA4" s="71">
         <f>E14</f>
-        <v>0.15384615384615385</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="AB4" s="70">
         <f>+E13</f>
@@ -6320,7 +6316,7 @@
       </c>
       <c r="C5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="38">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6328,20 +6324,20 @@
       </c>
       <c r="E5" s="56">
         <f t="shared" si="0"/>
-        <v>0.23076923076923078</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="39">
         <f t="shared" si="1"/>
-        <v>8.262863931224225E-2</v>
+        <v>8.0009144424788403E-2</v>
       </c>
       <c r="H5" s="39">
         <f t="shared" si="2"/>
-        <v>0.14814059145698855</v>
+        <v>0.14221307779743381</v>
       </c>
       <c r="I5" s="41">
         <f t="shared" si="3"/>
-        <v>0.31339787008147302</v>
+        <v>0.30223136664701061</v>
       </c>
       <c r="Z5" s="69">
         <v>20</v>
@@ -6449,28 +6445,28 @@
       </c>
       <c r="C8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="38">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="56">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.15384615384615385</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="39">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0.10006825162892168</v>
+        <v>0.10966421051124835</v>
       </c>
       <c r="H8" s="39">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>5.3777902217232179E-2</v>
+        <v>0.10462150377446593</v>
       </c>
       <c r="I8" s="41">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.25391440547507554</v>
+        <v>0.32394992479696261</v>
       </c>
       <c r="Z8">
         <v>2</v>
@@ -6541,7 +6537,7 @@
       </c>
       <c r="AD9" s="1">
         <f>+E17</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6637,11 +6633,11 @@
       </c>
       <c r="AB11" s="1">
         <f>+E33</f>
-        <v>0.375</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" si="14"/>
-        <v>0.51785714285714279</v>
+        <v>0.49579831932773111</v>
       </c>
       <c r="AD11" s="1">
         <f>+E21</f>
@@ -6685,15 +6681,15 @@
       </c>
       <c r="AA12" s="1">
         <f>+E8</f>
-        <v>0.15384615384615385</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="AB12" s="1">
         <f>+E34</f>
-        <v>0.16666666666666666</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" si="14"/>
-        <v>0.32051282051282048</v>
+        <v>0.44505494505494503</v>
       </c>
       <c r="AD12" s="1">
         <f>+E29</f>
@@ -6761,7 +6757,7 @@
       </c>
       <c r="C14" s="12">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="12">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6769,20 +6765,20 @@
       </c>
       <c r="E14" s="59">
         <f t="shared" si="12"/>
-        <v>0.15384615384615385</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="13">
         <f t="shared" si="13"/>
-        <v>7.0758939308292301E-2</v>
+        <v>6.8367274591918312E-2</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="15"/>
-        <v>8.3087214537861553E-2</v>
+        <v>7.9780873556229828E-2</v>
       </c>
       <c r="I14" s="49">
         <f t="shared" si="16"/>
-        <v>0.22460509315444616</v>
+        <v>0.21651542274006647</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -6827,7 +6823,7 @@
       </c>
       <c r="C16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" s="20">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6835,20 +6831,20 @@
       </c>
       <c r="E16" s="61">
         <f t="shared" si="12"/>
-        <v>0.28000000000000003</v>
+        <v>0.26923076923076922</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="21">
         <f t="shared" si="13"/>
-        <v>8.97997772825746E-2</v>
+        <v>8.698929247330861E-2</v>
       </c>
       <c r="H16" s="21">
         <f t="shared" si="15"/>
-        <v>0.19020022271742543</v>
+        <v>0.18224147675746061</v>
       </c>
       <c r="I16" s="51">
         <f t="shared" si="16"/>
-        <v>0.36979977728257463</v>
+        <v>0.35622006170407783</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6860,28 +6856,28 @@
       </c>
       <c r="C17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" s="24">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="62">
         <f t="shared" si="12"/>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
         <f t="shared" si="13"/>
-        <v>7.6072577431273075E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H17" s="25">
         <f t="shared" si="15"/>
-        <v>9.0594089235393582E-2</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="I17" s="52">
         <f t="shared" si="16"/>
-        <v>0.24273924409793973</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7131,20 +7127,20 @@
         <v>0</v>
       </c>
       <c r="E25" s="59">
-        <f t="shared" ref="E25:E26" si="21">IFERROR(D25/C25, 0)</f>
+        <f t="shared" ref="E25" si="21">IFERROR(D25/C25, 0)</f>
         <v>0</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="13">
-        <f t="shared" ref="G25:G26" si="22">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
+        <f t="shared" ref="G25" si="22">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="13">
-        <f t="shared" ref="H25:H26" si="23">E25-G25</f>
+        <f t="shared" ref="H25" si="23">E25-G25</f>
         <v>0</v>
       </c>
       <c r="I25" s="49">
-        <f t="shared" ref="I25:I26" si="24">E25+G25</f>
+        <f t="shared" ref="I25" si="24">E25+G25</f>
         <v>0</v>
       </c>
     </row>
@@ -7388,7 +7384,7 @@
       </c>
       <c r="C33" s="24">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" s="24">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7396,20 +7392,20 @@
       </c>
       <c r="E33" s="62">
         <f t="shared" si="12"/>
-        <v>0.375</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="25">
         <f t="shared" si="13"/>
-        <v>0.12103072956898178</v>
+        <v>0.11590404307573858</v>
       </c>
       <c r="H33" s="25">
         <f t="shared" si="15"/>
-        <v>0.25396927043101825</v>
+        <v>0.23703713339484966</v>
       </c>
       <c r="I33" s="52">
         <f t="shared" si="16"/>
-        <v>0.49603072956898175</v>
+        <v>0.46884521954632685</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7421,28 +7417,28 @@
       </c>
       <c r="C34" s="24">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="24">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="62">
         <f t="shared" ref="E34:E35" si="29">IFERROR(D34/C34, 0)</f>
-        <v>0.16666666666666666</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="25">
         <f t="shared" ref="G34:G35" si="30">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
-        <v>0.1075828707279838</v>
+        <v>0.11685454235580768</v>
       </c>
       <c r="H34" s="25">
         <f t="shared" ref="H34:H35" si="31">E34-G34</f>
-        <v>5.9083795938682862E-2</v>
+        <v>0.1139146884134231</v>
       </c>
       <c r="I34" s="52">
         <f t="shared" ref="I34:I35" si="32">E34+G34</f>
-        <v>0.27424953739465047</v>
+        <v>0.34762377312503845</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -9465,7 +9461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E76DC5-1049-4C8B-9BF5-A40E67654926}">
   <dimension ref="A1:R135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C90C6-8C69-47A9-AB4E-691C343E30B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382CAF9B-45BD-4CA9-97AF-70687EED4040}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -834,7 +834,7 @@
                   <c:v>0.26923076923076922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>0.14814814814814814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4530,7 +4530,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4902,7 +4902,7 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -6124,7 +6124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="AC3" s="75">
         <f>+E18</f>
-        <v>0.15384615384615385</v>
+        <v>0.14814814814814814</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="C18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="28">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6897,20 +6897,20 @@
       </c>
       <c r="E18" s="63">
         <f t="shared" si="12"/>
-        <v>0.15384615384615385</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="29">
         <f t="shared" si="13"/>
-        <v>7.0758939308292301E-2</v>
+        <v>6.8367274591918312E-2</v>
       </c>
       <c r="H18" s="29">
         <f t="shared" si="15"/>
-        <v>8.3087214537861553E-2</v>
+        <v>7.9780873556229828E-2</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="16"/>
-        <v>0.22460509315444616</v>
+        <v>0.21651542274006647</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382CAF9B-45BD-4CA9-97AF-70687EED4040}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCD9224-5ADF-45D5-9714-F7A020040078}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -203,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +228,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -421,207 +439,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -653,7 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -672,35 +493,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,10 +683,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>TOTAL!$AA$3:$AC$3</c:f>
+              <c:f>TOTAL!$AA$3:$AD$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -835,6 +695,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.14814814814814814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,10 +724,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>TOTAL!$AA$4:$AC$4</c:f>
+              <c:f>TOTAL!$AA$4:$AD$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.14814814814814814</c:v>
                 </c:pt>
@@ -873,6 +736,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.37037037037037035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,10 +765,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>TOTAL!$AA$5:$AC$5</c:f>
+              <c:f>TOTAL!$AA$5:$AD$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.15384615384615385</c:v>
                 </c:pt>
@@ -910,7 +776,10 @@
                   <c:v>0.37037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5357142857142857</c:v>
+                  <c:v>0.55172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,6 +787,47 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D255-449B-A493-F43B23E3A661}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>TOTAL!$AA$6:$AD$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-727B-4BDE-87E9-37C6A160C84B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1226,7 +1136,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TOTAL!$AA$7</c:f>
+              <c:f>TOTAL!$AA$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1247,7 +1157,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>TOTAL!$Z$8:$Z$13</c:f>
+              <c:f>TOTAL!$Z$11:$Z$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1274,7 +1184,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TOTAL!$AA$8:$AA$13</c:f>
+              <c:f>TOTAL!$AA$11:$AA$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1310,7 +1220,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>TOTAL!$AB$7</c:f>
+              <c:f>TOTAL!$AB$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1331,7 +1241,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>TOTAL!$Z$8:$Z$13</c:f>
+              <c:f>TOTAL!$Z$11:$Z$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1358,7 +1268,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TOTAL!$AB$8:$AB$13</c:f>
+              <c:f>TOTAL!$AB$11:$AB$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1394,7 +1304,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>TOTAL!$AC$7</c:f>
+              <c:f>TOTAL!$AC$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1415,7 +1325,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>TOTAL!$AC$8:$AC$13</c:f>
+              <c:f>TOTAL!$AC$11:$AC$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1451,7 +1361,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>TOTAL!$AD$7</c:f>
+              <c:f>TOTAL!$AD$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1472,7 +1382,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>TOTAL!$AD$8:$AD$13</c:f>
+              <c:f>TOTAL!$AD$11:$AD$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1486,7 +1396,7 @@
                   <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5357142857142857</c:v>
+                  <c:v>0.55172413793103448</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4527,10 +4437,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4611,16 +4521,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>0.375</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -5007,13 +4917,13 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
-        <v>0.625</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F15" s="2">
         <v>1.63</v>
@@ -5039,19 +4949,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>10000</v>
+        <v>9010</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0.33329999999999999</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>1.2</v>
+        <v>0.85</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -5061,6 +4971,12 @@
       </c>
       <c r="I16">
         <v>10</v>
+      </c>
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5068,19 +4984,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C17">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>0.22220000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F17" s="2">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -5089,7 +5005,7 @@
         <v>0.2</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5097,7 +5013,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -5109,7 +5025,7 @@
         <v>0.22220000000000001</v>
       </c>
       <c r="F18" s="2">
-        <v>1.53</v>
+        <v>1.21</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -5118,7 +5034,7 @@
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5126,19 +5042,19 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>0.1429</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="F19" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -5147,7 +5063,7 @@
         <v>0.2</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5155,19 +5071,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="F20" s="2">
-        <v>0.99</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -5176,7 +5092,7 @@
         <v>0.2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5184,7 +5100,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -5196,15 +5112,44 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10005</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
         <v>1.3</v>
       </c>
-      <c r="G21">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <v>0.2</v>
-      </c>
-      <c r="I21">
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
         <v>100</v>
       </c>
     </row>
@@ -6124,989 +6069,1023 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="46" t="s">
         <v>9</v>
       </c>
       <c r="AA1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="32">
-        <v>20</v>
-      </c>
-      <c r="B2" s="33">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="31">
+        <v>20</v>
+      </c>
+      <c r="B2" s="32">
         <v>7000</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="32">
         <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>67</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <f>IFERROR(VLOOKUP($B2, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B2, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B2, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>8</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="52">
         <f>IFERROR(D2/C2, 0)</f>
         <v>0.11940298507462686</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="34">
         <f>(CLM!F2 * CLM!C2 + ZEN!F2 * ZEN!C2 + THUNDER!F2 * THUNDER!C2) / (CLM!C2 +  ZEN!C2 + THUNDER!C2)</f>
         <v>1.5919402985074627</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <f>IFERROR(SQRT(C2*E2*(1-E2))/C2, 0)</f>
         <v>3.961492109774456E-2</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="33">
         <f>E2-G2</f>
         <v>7.9788063976882304E-2</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="35">
         <f>E2+G2</f>
         <v>0.15901790617237144</v>
       </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="64">
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58">
         <v>5</v>
       </c>
-      <c r="AB2" s="65">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="66">
-        <v>20</v>
+      <c r="AB2" s="58">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="58">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="58">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="37">
-        <v>20</v>
-      </c>
-      <c r="B3" s="38">
+      <c r="A3" s="36">
+        <v>20</v>
+      </c>
+      <c r="B3" s="37">
         <v>7001</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>63</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <f>IFERROR(VLOOKUP($B3, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B3, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B3, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>9</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="53">
         <f t="shared" ref="E3:E5" si="0">IFERROR(D3/C3, 0)</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39">
+      <c r="F3" s="39"/>
+      <c r="G3" s="38">
         <f t="shared" ref="G3:G5" si="1">IFERROR(SQRT(C3*E3*(1-E3))/C3, 0)</f>
         <v>4.4086671417740551E-2</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <f t="shared" ref="H3:H5" si="2">E3-G3</f>
         <v>9.8770471439402291E-2</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="40">
         <f t="shared" ref="I3:I5" si="3">E3+G3</f>
         <v>0.18694381427488341</v>
       </c>
       <c r="Y3" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="67">
+      <c r="Z3" s="84">
         <v>5</v>
       </c>
-      <c r="AA3" s="74">
+      <c r="AA3" s="85">
         <f>+E17</f>
         <v>0.2</v>
       </c>
-      <c r="AB3" s="73">
+      <c r="AB3" s="85">
         <f>+E16</f>
         <v>0.26923076923076922</v>
       </c>
-      <c r="AC3" s="75">
+      <c r="AC3" s="85">
         <f>+E18</f>
         <v>0.14814814814814814</v>
       </c>
+      <c r="AD3" s="85">
+        <f>+E23</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="37">
-        <v>20</v>
-      </c>
-      <c r="B4" s="38">
+      <c r="A4" s="36">
+        <v>20</v>
+      </c>
+      <c r="B4" s="37">
         <v>7002</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="39">
+      <c r="F4" s="39"/>
+      <c r="G4" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="68">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="71">
+      <c r="Z4" s="91">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="92">
         <f>E14</f>
         <v>0.14814814814814814</v>
       </c>
-      <c r="AB4" s="70">
+      <c r="AB4" s="92">
         <f>+E13</f>
         <v>0.24</v>
       </c>
-      <c r="AC4" s="72">
+      <c r="AC4" s="92">
         <f>+E15</f>
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="37">
-        <v>20</v>
-      </c>
-      <c r="B5" s="38">
+      <c r="AD4" s="92">
+        <f>+E22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="36">
+        <v>20</v>
+      </c>
+      <c r="B5" s="37">
         <v>7003</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>27</v>
-      </c>
-      <c r="D5" s="38">
+        <v>28</v>
+      </c>
+      <c r="D5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="53">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="39">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>8.0009144424788403E-2</v>
-      </c>
-      <c r="H5" s="39">
+        <v>7.7544306905972776E-2</v>
+      </c>
+      <c r="H5" s="38">
         <f t="shared" si="2"/>
-        <v>0.14221307779743381</v>
-      </c>
-      <c r="I5" s="41">
+        <v>0.1367414073797415</v>
+      </c>
+      <c r="I5" s="40">
         <f t="shared" si="3"/>
-        <v>0.30223136664701061</v>
-      </c>
-      <c r="Z5" s="69">
-        <v>20</v>
-      </c>
-      <c r="AA5" s="77">
+        <v>0.29183002119168705</v>
+      </c>
+      <c r="Z5" s="103">
+        <v>20</v>
+      </c>
+      <c r="AA5" s="104">
         <f>+E20</f>
         <v>0.15384615384615385</v>
       </c>
-      <c r="AB5" s="76">
+      <c r="AB5" s="104">
         <f>+E19</f>
         <v>0.37037037037037035</v>
       </c>
-      <c r="AC5" s="78">
+      <c r="AC5" s="104">
         <f>+E21</f>
-        <v>0.5357142857142857</v>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="AD5" s="104">
+        <f>+E24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="37">
-        <v>20</v>
-      </c>
-      <c r="B6" s="38">
+      <c r="A6" s="36">
+        <v>20</v>
+      </c>
+      <c r="B6" s="37">
         <v>7004</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>13</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="53">
         <f t="shared" ref="E6:E7" si="4">IFERROR(D6/C6, 0)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="39">
+      <c r="F6" s="39"/>
+      <c r="G6" s="38">
         <f t="shared" ref="G6:G7" si="5">IFERROR(SQRT(C6*E6*(1-E6))/C6, 0)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <f t="shared" ref="H6:H7" si="6">E6-G6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="40">
         <f t="shared" ref="I6:I7" si="7">E6+G6</f>
         <v>0</v>
       </c>
+      <c r="Z6" s="105">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="106">
+        <f>+E26</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="106">
+        <f>+E27</f>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="106">
+        <f>+E28</f>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="106">
+        <f>+E29</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="37">
-        <v>20</v>
-      </c>
-      <c r="B7" s="38">
+      <c r="A7" s="36">
+        <v>20</v>
+      </c>
+      <c r="B7" s="37">
         <v>7005</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>13</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="53">
         <f t="shared" si="4"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="39">
+      <c r="F7" s="39"/>
+      <c r="G7" s="38">
         <f t="shared" si="5"/>
         <v>7.3905301756194058E-2</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="38">
         <f t="shared" si="6"/>
         <v>3.017775166882869E-3</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="40">
         <f t="shared" si="7"/>
         <v>0.15082837867927099</v>
       </c>
-      <c r="Z7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="37">
-        <v>20</v>
-      </c>
-      <c r="B8" s="38">
+      <c r="A8" s="36">
+        <v>20</v>
+      </c>
+      <c r="B8" s="37">
         <v>7006</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>14</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="53">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="39">
+      <c r="F8" s="39"/>
+      <c r="G8" s="38">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
         <v>0.10966421051124835</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="38">
         <f t="shared" ref="H8" si="10">E8-G8</f>
         <v>0.10462150377446593</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="40">
         <f t="shared" ref="I8" si="11">E8+G8</f>
         <v>0.32394992479696261</v>
       </c>
-      <c r="Z8">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="1">
-        <f>+E6</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <f>+E35</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <f>+AA8+AB8</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <f>+E25</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="37">
-        <v>20</v>
-      </c>
-      <c r="B9" s="38">
+      <c r="A9" s="36">
+        <v>20</v>
+      </c>
+      <c r="B9" s="37">
         <v>8000</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>67</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <f>IFERROR(VLOOKUP($B9, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B9, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B9, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>7</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="53">
         <f t="shared" ref="E9:E33" si="12">IFERROR(D9/C9, 0)</f>
         <v>0.1044776119402985</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="39">
+      <c r="F9" s="39"/>
+      <c r="G9" s="38">
         <f t="shared" ref="G9:G33" si="13">IFERROR(SQRT(C9*E9*(1-E9))/C9, 0)</f>
         <v>3.7369083027573149E-2</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="38">
         <f>E9-G9</f>
         <v>6.7108528912725354E-2</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="40">
         <f>E9+G9</f>
         <v>0.14184669496787167</v>
       </c>
-      <c r="Z9">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="36">
+        <v>20</v>
+      </c>
+      <c r="B10" s="37">
+        <v>8001</v>
+      </c>
+      <c r="C10" s="37">
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>62</v>
+      </c>
+      <c r="D10" s="37">
+        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>5</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="E10" s="53">
+        <f t="shared" si="12"/>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="38">
+        <f t="shared" si="13"/>
+        <v>3.4580788823532486E-2</v>
+      </c>
+      <c r="H10" s="38">
+        <f>E10-G10</f>
+        <v>4.6064372466790092E-2</v>
+      </c>
+      <c r="I10" s="40">
+        <f>E10+G10</f>
+        <v>0.11522595011385506</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="36">
+        <v>20</v>
+      </c>
+      <c r="B11" s="37">
+        <v>8002</v>
+      </c>
+      <c r="C11" s="37">
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>63</v>
+      </c>
+      <c r="D11" s="37">
+        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>18</v>
+      </c>
+      <c r="E11" s="53">
+        <f t="shared" si="12"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
+        <f t="shared" si="13"/>
+        <v>5.6915648063542552E-2</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" ref="H11:H33" si="14">E11-G11</f>
+        <v>0.22879863765074315</v>
+      </c>
+      <c r="I11" s="40">
+        <f t="shared" ref="I11:I33" si="15">E11+G11</f>
+        <v>0.34262993377782824</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>+E6</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <f>+E35</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <f>+AA11+AB11</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <f>+E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="41">
+        <v>20</v>
+      </c>
+      <c r="B12" s="42">
+        <v>8003</v>
+      </c>
+      <c r="C12" s="42">
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>62</v>
+      </c>
+      <c r="D12" s="42">
+        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>20</v>
+      </c>
+      <c r="E12" s="54">
+        <f t="shared" si="12"/>
+        <v>0.32258064516129031</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43">
+        <f t="shared" si="13"/>
+        <v>5.9367957650763428E-2</v>
+      </c>
+      <c r="H12" s="43">
+        <f t="shared" si="14"/>
+        <v>0.2632126875105269</v>
+      </c>
+      <c r="I12" s="47">
+        <f t="shared" si="15"/>
+        <v>0.38194860281205373</v>
+      </c>
+      <c r="Z12">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="1">
         <f>+E4</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AB12" s="1">
         <f>+E32</f>
         <v>0.12</v>
       </c>
-      <c r="AC9" s="1">
-        <f t="shared" ref="AC9:AC13" si="14">+AA9+AB9</f>
+      <c r="AC12" s="1">
+        <f t="shared" ref="AC12:AC16" si="16">+AA12+AB12</f>
         <v>0.12</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AD12" s="1">
         <f>+E17</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="37">
-        <v>20</v>
-      </c>
-      <c r="B10" s="38">
-        <v>8001</v>
-      </c>
-      <c r="C10" s="38">
-        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>62</v>
-      </c>
-      <c r="D10" s="38">
-        <f>IFERROR(VLOOKUP($B10, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B10, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B10, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="56">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="93">
+        <v>20</v>
+      </c>
+      <c r="B13" s="94">
+        <v>9000</v>
+      </c>
+      <c r="C13" s="94">
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>25</v>
+      </c>
+      <c r="D13" s="94">
+        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="95">
         <f t="shared" si="12"/>
-        <v>8.0645161290322578E-2</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="39">
+        <v>0.24</v>
+      </c>
+      <c r="F13" s="94"/>
+      <c r="G13" s="96">
         <f t="shared" si="13"/>
-        <v>3.4580788823532486E-2</v>
-      </c>
-      <c r="H10" s="39">
-        <f>E10-G10</f>
-        <v>4.6064372466790092E-2</v>
-      </c>
-      <c r="I10" s="41">
-        <f>E10+G10</f>
-        <v>0.11522595011385506</v>
-      </c>
-      <c r="Z10">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="1">
+        <v>8.5416626016250496E-2</v>
+      </c>
+      <c r="H13" s="96">
+        <f t="shared" si="14"/>
+        <v>0.15458337398374949</v>
+      </c>
+      <c r="I13" s="97">
+        <f t="shared" si="15"/>
+        <v>0.32541662601625049</v>
+      </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="1">
         <f>+E2</f>
         <v>0.11940298507462686</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB13" s="1">
         <f>+E31</f>
         <v>0.32142857142857145</v>
       </c>
-      <c r="AC10" s="1">
-        <f t="shared" si="14"/>
+      <c r="AC13" s="1">
+        <f t="shared" si="16"/>
         <v>0.44083155650319833</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD13" s="1">
         <f>+E13</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="37">
-        <v>20</v>
-      </c>
-      <c r="B11" s="38">
-        <v>8002</v>
-      </c>
-      <c r="C11" s="38">
-        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>63</v>
-      </c>
-      <c r="D11" s="38">
-        <f>IFERROR(VLOOKUP($B11, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B11, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B11, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>18</v>
-      </c>
-      <c r="E11" s="56">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="86">
+        <v>20</v>
+      </c>
+      <c r="B14" s="87">
+        <v>9001</v>
+      </c>
+      <c r="C14" s="87">
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>27</v>
+      </c>
+      <c r="D14" s="87">
+        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="88">
         <f t="shared" si="12"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="F14" s="87"/>
+      <c r="G14" s="89">
         <f t="shared" si="13"/>
-        <v>5.6915648063542552E-2</v>
-      </c>
-      <c r="H11" s="39">
-        <f t="shared" ref="H11:H33" si="15">E11-G11</f>
-        <v>0.22879863765074315</v>
-      </c>
-      <c r="I11" s="41">
-        <f t="shared" ref="I11:I33" si="16">E11+G11</f>
-        <v>0.34262993377782824</v>
-      </c>
-      <c r="Z11">
-        <v>20</v>
-      </c>
-      <c r="AA11" s="1">
+        <v>6.8367274591918312E-2</v>
+      </c>
+      <c r="H14" s="89">
+        <f t="shared" si="14"/>
+        <v>7.9780873556229828E-2</v>
+      </c>
+      <c r="I14" s="90">
+        <f t="shared" si="15"/>
+        <v>0.21651542274006647</v>
+      </c>
+      <c r="Z14">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="1">
         <f>+E3</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB14" s="1">
         <f>+E33</f>
         <v>0.35294117647058826</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC14" s="1">
+        <f t="shared" si="16"/>
+        <v>0.49579831932773111</v>
+      </c>
+      <c r="AD14" s="1">
+        <f>+E21</f>
+        <v>0.55172413793103448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="98">
+        <v>20</v>
+      </c>
+      <c r="B15" s="99">
+        <v>9002</v>
+      </c>
+      <c r="C15" s="99">
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>27</v>
+      </c>
+      <c r="D15" s="99">
+        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="100">
+        <f t="shared" si="12"/>
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="F15" s="99"/>
+      <c r="G15" s="101">
+        <f t="shared" si="13"/>
+        <v>9.293489539618284E-2</v>
+      </c>
+      <c r="H15" s="101">
         <f t="shared" si="14"/>
-        <v>0.49579831932773111</v>
-      </c>
-      <c r="AD11" s="1">
-        <f>+E21</f>
-        <v>0.5357142857142857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="42">
-        <v>20</v>
-      </c>
-      <c r="B12" s="43">
-        <v>8003</v>
-      </c>
-      <c r="C12" s="43">
-        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>62</v>
-      </c>
-      <c r="D12" s="43">
-        <f>IFERROR(VLOOKUP($B12, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B12, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B12, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>20</v>
-      </c>
-      <c r="E12" s="57">
-        <f t="shared" si="12"/>
-        <v>0.32258064516129031</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44">
-        <f t="shared" si="13"/>
-        <v>5.9367957650763428E-2</v>
-      </c>
-      <c r="H12" s="44">
+        <v>0.27743547497418752</v>
+      </c>
+      <c r="I15" s="102">
         <f t="shared" si="15"/>
-        <v>0.2632126875105269</v>
-      </c>
-      <c r="I12" s="48">
-        <f t="shared" si="16"/>
-        <v>0.38194860281205373</v>
-      </c>
-      <c r="Z12">
+        <v>0.46330526576655318</v>
+      </c>
+      <c r="Z15">
         <v>50</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA15" s="1">
         <f>+E8</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB15" s="1">
         <f>+E34</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC15" s="1">
+        <f t="shared" si="16"/>
+        <v>0.44505494505494503</v>
+      </c>
+      <c r="AD15" s="1">
+        <f>+E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="69">
+        <v>20</v>
+      </c>
+      <c r="B16" s="70">
+        <v>9003</v>
+      </c>
+      <c r="C16" s="70">
+        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>26</v>
+      </c>
+      <c r="D16" s="70">
+        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>7</v>
+      </c>
+      <c r="E16" s="71">
+        <f t="shared" si="12"/>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="G16" s="72">
+        <f t="shared" si="13"/>
+        <v>8.698929247330861E-2</v>
+      </c>
+      <c r="H16" s="72">
         <f t="shared" si="14"/>
-        <v>0.44505494505494503</v>
-      </c>
-      <c r="AD12" s="1">
-        <f>+E29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7">
-        <v>20</v>
-      </c>
-      <c r="B13" s="8">
-        <v>9000</v>
-      </c>
-      <c r="C13" s="8">
-        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
-      </c>
-      <c r="D13" s="8">
-        <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
-      </c>
-      <c r="E13" s="58">
-        <f t="shared" si="12"/>
-        <v>0.24</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9">
-        <f t="shared" si="13"/>
-        <v>8.5416626016250496E-2</v>
-      </c>
-      <c r="H13" s="9">
+        <v>0.18224147675746061</v>
+      </c>
+      <c r="I16" s="73">
         <f t="shared" si="15"/>
-        <v>0.15458337398374949</v>
-      </c>
-      <c r="I13" s="31">
-        <f t="shared" si="16"/>
-        <v>0.32541662601625049</v>
-      </c>
-      <c r="Z13">
+        <v>0.35622006170407783</v>
+      </c>
+      <c r="Z16">
         <v>100</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA16" s="1">
         <f>+E7</f>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB16" s="1">
         <f>+E36</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC16" s="1">
+        <f t="shared" si="16"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AD16" s="1">
+        <f>+E30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="74">
+        <v>20</v>
+      </c>
+      <c r="B17" s="75">
+        <v>9004</v>
+      </c>
+      <c r="C17" s="75">
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>25</v>
+      </c>
+      <c r="D17" s="75">
+        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="76">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="75"/>
+      <c r="G17" s="77">
+        <f t="shared" si="13"/>
+        <v>0.08</v>
+      </c>
+      <c r="H17" s="77">
         <f t="shared" si="14"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="AD13" s="1">
-        <f>+E30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="11">
-        <v>20</v>
-      </c>
-      <c r="B14" s="12">
-        <v>9001</v>
-      </c>
-      <c r="C14" s="12">
-        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="I17" s="78">
+        <f t="shared" si="15"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="79">
+        <v>20</v>
+      </c>
+      <c r="B18" s="80">
+        <v>9005</v>
+      </c>
+      <c r="C18" s="80">
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>27</v>
       </c>
-      <c r="D14" s="12">
-        <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+      <c r="D18" s="80">
+        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E18" s="81">
         <f t="shared" si="12"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13">
+      <c r="F18" s="80"/>
+      <c r="G18" s="82">
         <f t="shared" si="13"/>
         <v>6.8367274591918312E-2</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H18" s="82">
+        <f t="shared" si="14"/>
+        <v>7.9780873556229828E-2</v>
+      </c>
+      <c r="I18" s="83">
         <f t="shared" si="15"/>
-        <v>7.9780873556229828E-2</v>
-      </c>
-      <c r="I14" s="49">
-        <f t="shared" si="16"/>
         <v>0.21651542274006647</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="15">
-        <v>20</v>
-      </c>
-      <c r="B15" s="16">
-        <v>9002</v>
-      </c>
-      <c r="C15" s="16">
-        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="19">
+        <v>20</v>
+      </c>
+      <c r="B19" s="20">
+        <v>9006</v>
+      </c>
+      <c r="C19" s="20">
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>27</v>
       </c>
-      <c r="D15" s="16">
-        <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>10</v>
-      </c>
-      <c r="E15" s="60">
+      <c r="D19" s="20">
+        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
+        <v>10</v>
+      </c>
+      <c r="E19" s="56">
         <f t="shared" si="12"/>
         <v>0.37037037037037035</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17">
+      <c r="F19" s="20"/>
+      <c r="G19" s="21">
         <f t="shared" si="13"/>
         <v>9.293489539618284E-2</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H19" s="21">
+        <f t="shared" si="14"/>
+        <v>0.27743547497418752</v>
+      </c>
+      <c r="I19" s="49">
         <f t="shared" si="15"/>
-        <v>0.27743547497418752</v>
-      </c>
-      <c r="I15" s="50">
-        <f t="shared" si="16"/>
         <v>0.46330526576655318</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="19">
-        <v>20</v>
-      </c>
-      <c r="B16" s="20">
-        <v>9003</v>
-      </c>
-      <c r="C16" s="20">
-        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>26</v>
-      </c>
-      <c r="D16" s="20">
-        <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>7</v>
-      </c>
-      <c r="E16" s="61">
-        <f t="shared" si="12"/>
-        <v>0.26923076923076922</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21">
-        <f t="shared" si="13"/>
-        <v>8.698929247330861E-2</v>
-      </c>
-      <c r="H16" s="21">
-        <f t="shared" si="15"/>
-        <v>0.18224147675746061</v>
-      </c>
-      <c r="I16" s="51">
-        <f t="shared" si="16"/>
-        <v>0.35622006170407783</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="23">
-        <v>20</v>
-      </c>
-      <c r="B17" s="24">
-        <v>9004</v>
-      </c>
-      <c r="C17" s="24">
-        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
-      </c>
-      <c r="D17" s="24">
-        <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
-      </c>
-      <c r="E17" s="62">
-        <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25">
-        <f t="shared" si="13"/>
-        <v>0.08</v>
-      </c>
-      <c r="H17" s="25">
-        <f t="shared" si="15"/>
-        <v>0.12000000000000001</v>
-      </c>
-      <c r="I17" s="52">
-        <f t="shared" si="16"/>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="27">
-        <v>20</v>
-      </c>
-      <c r="B18" s="28">
-        <v>9005</v>
-      </c>
-      <c r="C18" s="28">
-        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>27</v>
-      </c>
-      <c r="D18" s="28">
-        <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
-      </c>
-      <c r="E18" s="63">
-        <f t="shared" si="12"/>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29">
-        <f t="shared" si="13"/>
-        <v>6.8367274591918312E-2</v>
-      </c>
-      <c r="H18" s="29">
-        <f t="shared" si="15"/>
-        <v>7.9780873556229828E-2</v>
-      </c>
-      <c r="I18" s="53">
-        <f t="shared" si="16"/>
-        <v>0.21651542274006647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7">
-        <v>20</v>
-      </c>
-      <c r="B19" s="8">
-        <v>9006</v>
-      </c>
-      <c r="C19" s="8">
-        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>27</v>
-      </c>
-      <c r="D19" s="8">
-        <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>10</v>
-      </c>
-      <c r="E19" s="58">
-        <f t="shared" si="12"/>
-        <v>0.37037037037037035</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9">
-        <f t="shared" si="13"/>
-        <v>9.293489539618284E-2</v>
-      </c>
-      <c r="H19" s="9">
-        <f t="shared" si="15"/>
-        <v>0.27743547497418752</v>
-      </c>
-      <c r="I19" s="31">
-        <f t="shared" si="16"/>
-        <v>0.46330526576655318</v>
-      </c>
-    </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="11">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12">
+      <c r="A20" s="23">
+        <v>20</v>
+      </c>
+      <c r="B20" s="24">
         <v>9007</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>26</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>4</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="57">
         <f t="shared" si="12"/>
         <v>0.15384615384615385</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13">
+      <c r="F20" s="24"/>
+      <c r="G20" s="25">
         <f t="shared" si="13"/>
         <v>7.0758939308292301E-2</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="25">
+        <f t="shared" si="14"/>
+        <v>8.3087214537861553E-2</v>
+      </c>
+      <c r="I20" s="50">
         <f t="shared" si="15"/>
-        <v>8.3087214537861553E-2</v>
-      </c>
-      <c r="I20" s="49">
-        <f t="shared" si="16"/>
         <v>0.22460509315444616</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12">
+      <c r="A21" s="23">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24">
         <v>9008</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>28</v>
-      </c>
-      <c r="D21" s="12">
+        <v>29</v>
+      </c>
+      <c r="D21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>15</v>
-      </c>
-      <c r="E21" s="59">
+        <v>16</v>
+      </c>
+      <c r="E21" s="57">
         <f t="shared" si="12"/>
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13">
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25">
         <f t="shared" si="13"/>
-        <v>9.4249761234240642E-2</v>
-      </c>
-      <c r="H21" s="13">
+        <v>9.2349525987860157E-2</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="14"/>
+        <v>0.4593746119431743</v>
+      </c>
+      <c r="I21" s="50">
         <f t="shared" si="15"/>
-        <v>0.44146452448004503</v>
-      </c>
-      <c r="I21" s="49">
-        <f t="shared" si="16"/>
-        <v>0.62996404694852637</v>
+        <v>0.64407366391889465</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="11">
-        <v>20</v>
-      </c>
-      <c r="B22" s="12">
+      <c r="A22" s="86">
+        <v>20</v>
+      </c>
+      <c r="B22" s="87">
         <v>9010</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="59">
+        <v>1</v>
+      </c>
+      <c r="E22" s="88">
         <f t="shared" ref="E22:E29" si="17">IFERROR(D22/C22, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" s="87"/>
+      <c r="G22" s="89">
         <f t="shared" ref="G22:G29" si="18">IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="89">
         <f t="shared" ref="H22:H29" si="19">E22-G22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="49">
+        <v>1</v>
+      </c>
+      <c r="I22" s="90">
         <f t="shared" ref="I22:I29" si="20">E22+G22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="A23" s="74">
+        <v>20</v>
+      </c>
+      <c r="B23" s="75">
         <v>9013</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="59">
+      <c r="E23" s="76">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13">
+      <c r="F23" s="75"/>
+      <c r="G23" s="77">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="77">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="78">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="11">
-        <v>20</v>
-      </c>
-      <c r="B24" s="12">
+      <c r="A24" s="23">
+        <v>20</v>
+      </c>
+      <c r="B24" s="24">
         <v>9016</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="57">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13">
+      <c r="F24" s="24"/>
+      <c r="G24" s="25">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="25">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="50">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -7126,7 +7105,7 @@
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="59">
+      <c r="E25" s="55">
         <f t="shared" ref="E25" si="21">IFERROR(D25/C25, 0)</f>
         <v>0</v>
       </c>
@@ -7139,188 +7118,188 @@
         <f t="shared" ref="H25" si="23">E25-G25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="48">
         <f t="shared" ref="I25" si="24">E25+G25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="11">
-        <v>20</v>
-      </c>
-      <c r="B26" s="12">
+      <c r="A26" s="107">
+        <v>20</v>
+      </c>
+      <c r="B26" s="108">
         <v>9025</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="109">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13">
+      <c r="F26" s="108"/>
+      <c r="G26" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="111">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="11">
-        <v>20</v>
-      </c>
-      <c r="B27" s="12">
+      <c r="A27" s="107">
+        <v>20</v>
+      </c>
+      <c r="B27" s="108">
         <v>9026</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="59">
+      <c r="E27" s="109">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13">
+      <c r="F27" s="108"/>
+      <c r="G27" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="111">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="11">
-        <v>20</v>
-      </c>
-      <c r="B28" s="12">
+      <c r="A28" s="107">
+        <v>20</v>
+      </c>
+      <c r="B28" s="108">
         <v>9027</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="109">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13">
+      <c r="F28" s="108"/>
+      <c r="G28" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="111">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="11">
-        <v>20</v>
-      </c>
-      <c r="B29" s="12">
+      <c r="A29" s="107">
+        <v>20</v>
+      </c>
+      <c r="B29" s="108">
         <v>9028</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="59">
+      <c r="E29" s="109">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13">
+      <c r="F29" s="108"/>
+      <c r="G29" s="110">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="110">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="111">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A30" s="11">
-        <v>20</v>
-      </c>
-      <c r="B30" s="12">
+      <c r="A30" s="107">
+        <v>20</v>
+      </c>
+      <c r="B30" s="108">
         <v>9035</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="108">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="108">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="59">
+      <c r="E30" s="109">
         <f t="shared" ref="E30" si="25">IFERROR(D30/C30, 0)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13">
+      <c r="F30" s="108"/>
+      <c r="G30" s="110">
         <f t="shared" ref="G30" si="26">IFERROR(SQRT(C30*E30*(1-E30))/C30, 0)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="110">
         <f t="shared" ref="H30" si="27">E30-G30</f>
         <v>0</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="111">
         <f t="shared" ref="I30" si="28">E30+G30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="19">
-        <v>20</v>
-      </c>
-      <c r="B31" s="20">
+      <c r="A31" s="59">
+        <v>20</v>
+      </c>
+      <c r="B31" s="60">
         <v>10000</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>28</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>9</v>
       </c>
@@ -7328,181 +7307,181 @@
         <f t="shared" si="12"/>
         <v>0.32142857142857145</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21">
+      <c r="F31" s="60"/>
+      <c r="G31" s="62">
         <f t="shared" si="13"/>
         <v>8.8259407612276491E-2</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="62">
+        <f t="shared" si="14"/>
+        <v>0.23316916381629496</v>
+      </c>
+      <c r="I31" s="63">
         <f t="shared" si="15"/>
-        <v>0.23316916381629496</v>
-      </c>
-      <c r="I31" s="51">
-        <f t="shared" si="16"/>
         <v>0.40968797904084797</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="23">
-        <v>20</v>
-      </c>
-      <c r="B32" s="24">
+      <c r="A32" s="112">
+        <v>20</v>
+      </c>
+      <c r="B32" s="113">
         <v>10001</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>25</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="114">
         <f t="shared" si="12"/>
         <v>0.12</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25">
+      <c r="F32" s="113"/>
+      <c r="G32" s="115">
         <f t="shared" si="13"/>
         <v>6.4992307237087682E-2</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="115">
+        <f t="shared" si="14"/>
+        <v>5.5007692762912314E-2</v>
+      </c>
+      <c r="I32" s="116">
         <f t="shared" si="15"/>
-        <v>5.5007692762912314E-2</v>
-      </c>
-      <c r="I32" s="52">
-        <f t="shared" si="16"/>
         <v>0.18499230723708768</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="23">
-        <v>20</v>
-      </c>
-      <c r="B33" s="24">
+      <c r="A33" s="112">
+        <v>20</v>
+      </c>
+      <c r="B33" s="113">
         <v>10002</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>17</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>6</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="114">
         <f t="shared" si="12"/>
         <v>0.35294117647058826</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25">
+      <c r="F33" s="113"/>
+      <c r="G33" s="115">
         <f t="shared" si="13"/>
         <v>0.11590404307573858</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="115">
+        <f t="shared" si="14"/>
+        <v>0.23703713339484966</v>
+      </c>
+      <c r="I33" s="116">
         <f t="shared" si="15"/>
-        <v>0.23703713339484966</v>
-      </c>
-      <c r="I33" s="52">
-        <f t="shared" si="16"/>
         <v>0.46884521954632685</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="23">
-        <v>20</v>
-      </c>
-      <c r="B34" s="24">
+      <c r="A34" s="112">
+        <v>20</v>
+      </c>
+      <c r="B34" s="113">
         <v>10003</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>13</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>3</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="114">
         <f t="shared" ref="E34:E35" si="29">IFERROR(D34/C34, 0)</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25">
+      <c r="F34" s="113"/>
+      <c r="G34" s="115">
         <f t="shared" ref="G34:G35" si="30">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
         <v>0.11685454235580768</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H34" s="115">
         <f t="shared" ref="H34:H35" si="31">E34-G34</f>
         <v>0.1139146884134231</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I34" s="116">
         <f t="shared" ref="I34:I35" si="32">E34+G34</f>
         <v>0.34762377312503845</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="27">
-        <v>20</v>
-      </c>
-      <c r="B35" s="28">
+      <c r="A35" s="64">
+        <v>20</v>
+      </c>
+      <c r="B35" s="65">
         <v>10004</v>
       </c>
-      <c r="C35" s="28">
+      <c r="C35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>13</v>
       </c>
-      <c r="D35" s="28">
+      <c r="D35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="66">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29">
+      <c r="F35" s="65"/>
+      <c r="G35" s="67">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="H35" s="29">
+      <c r="H35" s="67">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="I35" s="53">
+      <c r="I35" s="68">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="27">
-        <v>20</v>
-      </c>
-      <c r="B36" s="28">
+      <c r="A36" s="64">
+        <v>20</v>
+      </c>
+      <c r="B36" s="65">
         <v>10005</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
         <v>12</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="63">
+      <c r="E36" s="66">
         <f t="shared" ref="E36" si="33">IFERROR(D36/C36, 0)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29">
+      <c r="F36" s="65"/>
+      <c r="G36" s="67">
         <f t="shared" ref="G36" si="34">IFERROR(SQRT(C36*E36*(1-E36))/C36, 0)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="67">
         <f t="shared" ref="H36" si="35">E36-G36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="53">
+      <c r="I36" s="68">
         <f t="shared" ref="I36" si="36">E36+G36</f>
         <v>0</v>
       </c>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCD9224-5ADF-45D5-9714-F7A020040078}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAD1970-FD4A-4645-B4F7-3926A4626BE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -688,16 +688,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.17857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26923076923076922</c:v>
+                  <c:v>0.27586206896551724</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14814814814814814</c:v>
+                  <c:v>0.16129032258064516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,13 +729,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.14814814814814814</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37037037037037035</c:v>
+                  <c:v>0.37931034482758619</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -770,10 +770,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15384615384615385</c:v>
+                  <c:v>0.20689655172413793</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37037037037037035</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.55172413793103448</c:v>
@@ -817,7 +817,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1201,10 +1201,10 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,16 +1276,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.11538461538461539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32142857142857145</c:v>
+                  <c:v>0.32258064516129031</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.35294117647058826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1333,19 +1333,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>0.11538461538461539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44083155650319833</c:v>
+                  <c:v>0.44198363023591719</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.49579831932773111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44505494505494503</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6923076923076927E-2</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,10 +1390,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>0.17857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.55172413793103448</c:v>
@@ -3316,9 +3316,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA892EB-1C5D-4DA9-95FA-D6E2F64A7CF0}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3369,7 +3371,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3378,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>2.46</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -3456,16 +3458,16 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F5" s="2">
-        <v>3.21</v>
+        <v>3.09</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -3549,16 +3551,16 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="2">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -3689,7 +3691,7 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3698,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>2.64</v>
+        <v>2.73</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -3826,19 +3828,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>10000</v>
+        <v>9027</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>1.49</v>
+        <v>0.87</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -3847,7 +3849,13 @@
         <v>0.2</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3855,19 +3863,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F17" s="2">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -3876,7 +3884,7 @@
         <v>0.2</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3884,19 +3892,19 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>2.13</v>
+        <v>1.21</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -3905,7 +3913,7 @@
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3913,7 +3921,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -3925,7 +3933,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="F19" s="2">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -3934,7 +3942,7 @@
         <v>0.2</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3942,19 +3950,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>1.21</v>
+        <v>2.65</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -3963,7 +3971,7 @@
         <v>0.2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3971,27 +3979,56 @@
         <v>20</v>
       </c>
       <c r="B21">
+        <v>10004</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
         <v>10005</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="G21">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <v>0.2</v>
-      </c>
-      <c r="I21">
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
         <v>100</v>
       </c>
     </row>
@@ -4437,11 +4474,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4579,7 +4614,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4588,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -4707,16 +4742,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F9" s="2">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -4742,16 +4777,16 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.22220000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -4847,16 +4882,16 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.1111</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="2">
-        <v>1.17</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -4882,7 +4917,7 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4891,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -4979,24 +5014,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>9013</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.33329999999999999</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -5005,27 +5040,33 @@
         <v>0.2</v>
       </c>
       <c r="I17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>0.2</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>10001</v>
+        <v>9016</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.22220000000000001</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1.21</v>
+        <v>0.93</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -5034,56 +5075,68 @@
         <v>0.2</v>
       </c>
       <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>9025</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+      <c r="K19">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>10002</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.53</v>
-      </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <v>0.2</v>
-      </c>
-      <c r="I19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10003</v>
+        <v>9026</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.43</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -5094,62 +5147,219 @@
       <c r="I20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20">
+        <v>0.2</v>
+      </c>
+      <c r="K20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>9027</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10001</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>10002</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.53</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>10003</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
         <v>10004</v>
       </c>
-      <c r="C21">
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>10005</v>
+      </c>
+      <c r="C27">
         <v>7</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="G21">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <v>0.2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>10005</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
         <v>1.3</v>
       </c>
-      <c r="G22">
-        <v>0.1</v>
-      </c>
-      <c r="H22">
-        <v>0.2</v>
-      </c>
-      <c r="I22">
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
         <v>100</v>
       </c>
     </row>
@@ -5382,7 +5592,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5434,7 +5644,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5443,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>3.19</v>
+        <v>3.43</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -5463,16 +5673,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.2</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>2.56</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -5492,7 +5702,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5501,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -5521,7 +5731,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -5530,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>2.37</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -5550,16 +5760,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="2">
-        <v>2.54</v>
+        <v>2.89</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -5579,16 +5789,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.1429</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="2">
-        <v>2.7</v>
+        <v>3.83</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -5649,16 +5859,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.22220000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="2">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -5684,16 +5894,16 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="F10" s="2">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -5719,16 +5929,16 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F11" s="2">
-        <v>2.4700000000000002</v>
+        <v>2.77</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -5754,16 +5964,16 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>0.3</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="F12" s="2">
-        <v>2.89</v>
+        <v>2.98</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -5824,16 +6034,16 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>0.22220000000000001</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="F14" s="2">
-        <v>2.68</v>
+        <v>2.89</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -5894,16 +6104,16 @@
         <v>10000</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F16" s="2">
-        <v>2.98</v>
+        <v>3.11</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -5981,13 +6191,13 @@
         <v>10003</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="2">
         <v>3.21</v>
@@ -6010,7 +6220,7 @@
         <v>10004</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -6019,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -6039,7 +6249,7 @@
         <v>10005</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6048,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>2.76</v>
+        <v>2.91</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -6069,8 +6279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6196,19 +6406,19 @@
       </c>
       <c r="AA3" s="85">
         <f>+E17</f>
-        <v>0.2</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="AB3" s="85">
         <f>+E16</f>
-        <v>0.26923076923076922</v>
+        <v>0.27586206896551724</v>
       </c>
       <c r="AC3" s="85">
         <f>+E18</f>
-        <v>0.14814814814814814</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AD3" s="85">
         <f>+E23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6220,7 +6430,7 @@
       </c>
       <c r="C4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6248,15 +6458,15 @@
       </c>
       <c r="AA4" s="92">
         <f>E14</f>
-        <v>0.14814814814814814</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB4" s="92">
         <f>+E13</f>
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="AC4" s="92">
         <f>+E15</f>
-        <v>0.37037037037037035</v>
+        <v>0.37931034482758619</v>
       </c>
       <c r="AD4" s="92">
         <f>+E22</f>
@@ -6272,7 +6482,7 @@
       </c>
       <c r="C5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6280,31 +6490,31 @@
       </c>
       <c r="E5" s="53">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>7.7544306905972776E-2</v>
+        <v>7.5221596451532508E-2</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" si="2"/>
-        <v>0.1367414073797415</v>
+        <v>0.13167495527260542</v>
       </c>
       <c r="I5" s="40">
         <f t="shared" si="3"/>
-        <v>0.29183002119168705</v>
+        <v>0.28211814817567044</v>
       </c>
       <c r="Z5" s="103">
         <v>20</v>
       </c>
       <c r="AA5" s="104">
         <f>+E20</f>
-        <v>0.15384615384615385</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="AB5" s="104">
         <f>+E19</f>
-        <v>0.37037037037037035</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="AC5" s="104">
         <f>+E21</f>
@@ -6324,7 +6534,7 @@
       </c>
       <c r="C6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6360,7 +6570,7 @@
       </c>
       <c r="AC6" s="106">
         <f>+E28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="106">
         <f>+E29</f>
@@ -6376,7 +6586,7 @@
       </c>
       <c r="C7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6384,20 +6594,20 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="4"/>
-        <v>7.6923076923076927E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="38">
         <f t="shared" si="5"/>
-        <v>7.3905301756194058E-2</v>
+        <v>5.7067205890901876E-2</v>
       </c>
       <c r="H7" s="38">
         <f t="shared" si="6"/>
-        <v>3.017775166882869E-3</v>
+        <v>1.7563235208628292E-3</v>
       </c>
       <c r="I7" s="40">
         <f t="shared" si="7"/>
-        <v>0.15082837867927099</v>
+        <v>0.11589073530266658</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6409,28 +6619,28 @@
       </c>
       <c r="C8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="53">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.21428571428571427</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="38">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0.10966421051124835</v>
+        <v>0.11417984514369003</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>0.10462150377446593</v>
+        <v>0.15248682152297663</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.32394992479696261</v>
+        <v>0.38084651181035667</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6607,15 +6817,15 @@
       </c>
       <c r="AB12" s="1">
         <f>+E32</f>
-        <v>0.12</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ref="AC12:AC16" si="16">+AA12+AB12</f>
-        <v>0.12</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="AD12" s="1">
         <f>+E17</f>
-        <v>0.2</v>
+        <v>0.17857142857142858</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6627,28 +6837,28 @@
       </c>
       <c r="C13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="95">
         <f t="shared" si="12"/>
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="96">
         <f t="shared" si="13"/>
-        <v>8.5416626016250496E-2</v>
+        <v>8.1831708838497136E-2</v>
       </c>
       <c r="H13" s="96">
         <f t="shared" si="14"/>
-        <v>0.15458337398374949</v>
+        <v>0.16816829116150286</v>
       </c>
       <c r="I13" s="97">
         <f t="shared" si="15"/>
-        <v>0.32541662601625049</v>
+        <v>0.33183170883849711</v>
       </c>
       <c r="Z13">
         <v>10</v>
@@ -6659,15 +6869,15 @@
       </c>
       <c r="AB13" s="1">
         <f>+E31</f>
-        <v>0.32142857142857145</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="16"/>
-        <v>0.44083155650319833</v>
+        <v>0.44198363023591719</v>
       </c>
       <c r="AD13" s="1">
         <f>+E13</f>
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6679,7 +6889,7 @@
       </c>
       <c r="C14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6687,20 +6897,20 @@
       </c>
       <c r="E14" s="88">
         <f t="shared" si="12"/>
-        <v>0.14814814814814814</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="89">
         <f t="shared" si="13"/>
-        <v>6.8367274591918312E-2</v>
+        <v>6.6130007126610824E-2</v>
       </c>
       <c r="H14" s="89">
         <f t="shared" si="14"/>
-        <v>7.9780873556229828E-2</v>
+        <v>7.6727135730532026E-2</v>
       </c>
       <c r="I14" s="90">
         <f t="shared" si="15"/>
-        <v>0.21651542274006647</v>
+        <v>0.20898714998375367</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -6731,43 +6941,43 @@
       </c>
       <c r="C15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="100">
         <f t="shared" si="12"/>
-        <v>0.37037037037037035</v>
+        <v>0.37931034482758619</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="101">
         <f t="shared" si="13"/>
-        <v>9.293489539618284E-2</v>
+        <v>9.0102242142557118E-2</v>
       </c>
       <c r="H15" s="101">
         <f t="shared" si="14"/>
-        <v>0.27743547497418752</v>
+        <v>0.28920810268502906</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" si="15"/>
-        <v>0.46330526576655318</v>
+        <v>0.46941258697014332</v>
       </c>
       <c r="Z15">
         <v>50</v>
       </c>
       <c r="AA15" s="1">
         <f>+E8</f>
-        <v>0.21428571428571427</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="AB15" s="1">
         <f>+E34</f>
-        <v>0.23076923076923078</v>
+        <v>0.2</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="16"/>
-        <v>0.44505494505494503</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="AD15" s="1">
         <f>+E29</f>
@@ -6783,35 +6993,35 @@
       </c>
       <c r="C16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="71">
         <f t="shared" si="12"/>
-        <v>0.26923076923076922</v>
+        <v>0.27586206896551724</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="72">
         <f t="shared" si="13"/>
-        <v>8.698929247330861E-2</v>
+        <v>8.299609211231937E-2</v>
       </c>
       <c r="H16" s="72">
         <f t="shared" si="14"/>
-        <v>0.18224147675746061</v>
+        <v>0.19286597685319787</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" si="15"/>
-        <v>0.35622006170407783</v>
+        <v>0.35885816107783663</v>
       </c>
       <c r="Z16">
         <v>100</v>
       </c>
       <c r="AA16" s="1">
         <f>+E7</f>
-        <v>7.6923076923076927E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="AB16" s="1">
         <f>+E36</f>
@@ -6819,7 +7029,7 @@
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="16"/>
-        <v>7.6923076923076927E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="AD16" s="1">
         <f>+E30</f>
@@ -6835,7 +7045,7 @@
       </c>
       <c r="C17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6843,20 +7053,20 @@
       </c>
       <c r="E17" s="76">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="F17" s="75"/>
       <c r="G17" s="77">
         <f t="shared" si="13"/>
-        <v>0.08</v>
+        <v>7.2378882444444431E-2</v>
       </c>
       <c r="H17" s="77">
         <f t="shared" si="14"/>
-        <v>0.12000000000000001</v>
+        <v>0.10619254612698414</v>
       </c>
       <c r="I17" s="78">
         <f t="shared" si="15"/>
-        <v>0.28000000000000003</v>
+        <v>0.25095031101587301</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -6868,28 +7078,28 @@
       </c>
       <c r="C18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="81">
         <f t="shared" si="12"/>
-        <v>0.14814814814814814</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="82">
         <f t="shared" si="13"/>
-        <v>6.8367274591918312E-2</v>
+        <v>6.6058565028528096E-2</v>
       </c>
       <c r="H18" s="82">
         <f t="shared" si="14"/>
-        <v>7.9780873556229828E-2</v>
+        <v>9.5231757552117061E-2</v>
       </c>
       <c r="I18" s="83">
         <f t="shared" si="15"/>
-        <v>0.21651542274006647</v>
+        <v>0.22734888760917327</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6901,7 +7111,7 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6909,20 +7119,20 @@
       </c>
       <c r="E19" s="56">
         <f t="shared" si="12"/>
-        <v>0.37037037037037035</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="13"/>
-        <v>9.293489539618284E-2</v>
+        <v>9.0552241578055331E-2</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="14"/>
-        <v>0.27743547497418752</v>
+        <v>0.26659061556480179</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="15"/>
-        <v>0.46330526576655318</v>
+        <v>0.44769509872091251</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6934,28 +7144,28 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" s="57">
         <f t="shared" si="12"/>
-        <v>0.15384615384615385</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
         <f t="shared" si="13"/>
-        <v>7.0758939308292301E-2</v>
+        <v>7.5221596451532508E-2</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="14"/>
-        <v>8.3087214537861553E-2</v>
+        <v>0.13167495527260542</v>
       </c>
       <c r="I20" s="50">
         <f t="shared" si="15"/>
-        <v>0.22460509315444616</v>
+        <v>0.28211814817567044</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7033,15 +7243,15 @@
       </c>
       <c r="C23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="76">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="75"/>
       <c r="G23" s="77">
@@ -7050,11 +7260,11 @@
       </c>
       <c r="H23" s="77">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="78">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7066,7 +7276,7 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7132,7 +7342,7 @@
       </c>
       <c r="C26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7165,7 +7375,7 @@
       </c>
       <c r="C27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7198,15 +7408,15 @@
       </c>
       <c r="C28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="109">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="110">
@@ -7215,11 +7425,11 @@
       </c>
       <c r="H28" s="110">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="111">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7297,28 +7507,28 @@
       </c>
       <c r="C31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" s="61">
         <f t="shared" si="12"/>
-        <v>0.32142857142857145</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="62">
         <f t="shared" si="13"/>
-        <v>8.8259407612276491E-2</v>
+        <v>8.3958970880101194E-2</v>
       </c>
       <c r="H31" s="62">
         <f t="shared" si="14"/>
-        <v>0.23316916381629496</v>
+        <v>0.23862167428118913</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" si="15"/>
-        <v>0.40968797904084797</v>
+        <v>0.40653961604139149</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7330,7 +7540,7 @@
       </c>
       <c r="C32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7338,20 +7548,20 @@
       </c>
       <c r="E32" s="114">
         <f t="shared" si="12"/>
-        <v>0.12</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="F32" s="113"/>
       <c r="G32" s="115">
         <f t="shared" si="13"/>
-        <v>6.4992307237087682E-2</v>
+        <v>6.2656268001619442E-2</v>
       </c>
       <c r="H32" s="115">
         <f t="shared" si="14"/>
-        <v>5.5007692762912314E-2</v>
+        <v>5.2728347382995949E-2</v>
       </c>
       <c r="I32" s="116">
         <f t="shared" si="15"/>
-        <v>0.18499230723708768</v>
+        <v>0.17804088338623483</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7396,7 +7606,7 @@
       </c>
       <c r="C34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7404,20 +7614,20 @@
       </c>
       <c r="E34" s="114">
         <f t="shared" ref="E34:E35" si="29">IFERROR(D34/C34, 0)</f>
-        <v>0.23076923076923078</v>
+        <v>0.2</v>
       </c>
       <c r="F34" s="113"/>
       <c r="G34" s="115">
         <f t="shared" ref="G34:G35" si="30">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
-        <v>0.11685454235580768</v>
+        <v>0.10327955589886445</v>
       </c>
       <c r="H34" s="115">
         <f t="shared" ref="H34:H35" si="31">E34-G34</f>
-        <v>0.1139146884134231</v>
+        <v>9.6720444101135561E-2</v>
       </c>
       <c r="I34" s="116">
         <f t="shared" ref="I34:I35" si="32">E34+G34</f>
-        <v>0.34762377312503845</v>
+        <v>0.30327955589886446</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7429,7 +7639,7 @@
       </c>
       <c r="C35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7462,7 +7672,7 @@
       </c>
       <c r="C36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAD1970-FD4A-4645-B4F7-3926A4626BE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C4C4F-426D-4B52-992C-FE970AFCC333}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -688,13 +688,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17857142857142858</c:v>
+                  <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.27586206896551724</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16129032258064516</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -729,10 +729,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.13793103448275862</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.37931034482758619</c:v>
@@ -776,7 +776,7 @@
                   <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -814,13 +814,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,13 +1276,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11538461538461539</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.32258064516129031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35294117647058826</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.2</c:v>
@@ -1333,13 +1333,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11538461538461539</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.44198363023591719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49579831932773111</c:v>
+                  <c:v>0.47619047619047616</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.46666666666666667</c:v>
@@ -1390,16 +1390,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17857142857142858</c:v>
+                  <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55172413793103448</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3316,10 +3316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA892EB-1C5D-4DA9-95FA-D6E2F64A7CF0}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3796,16 +3796,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>0.8</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F15" s="2">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -3828,7 +3828,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>9027</v>
+        <v>9010</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>0.87</v>
+        <v>1.29</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -3849,62 +3849,68 @@
         <v>0.2</v>
       </c>
       <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
         <v>50</v>
       </c>
-      <c r="J16">
-        <v>0.2</v>
-      </c>
-      <c r="K16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>9013</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17">
-        <v>0.2</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17">
+        <v>0.2</v>
+      </c>
+      <c r="K17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>10001</v>
+        <v>9026</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -3913,27 +3919,33 @@
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>10002</v>
+        <v>9027</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.33329999999999999</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>2.13</v>
+        <v>0.87</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -3942,27 +3954,33 @@
         <v>0.2</v>
       </c>
       <c r="I19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10003</v>
+        <v>10000</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F20" s="2">
-        <v>2.65</v>
+        <v>1.49</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -3971,18 +3989,18 @@
         <v>0.2</v>
       </c>
       <c r="I20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4000,35 +4018,122 @@
         <v>0.2</v>
       </c>
       <c r="I21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10005</v>
+        <v>10002</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F22" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10003</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>10004</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>10005</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
         <v>3.08</v>
       </c>
-      <c r="G22">
-        <v>0.1</v>
-      </c>
-      <c r="H22">
-        <v>0.2</v>
-      </c>
-      <c r="I22">
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
         <v>100</v>
       </c>
     </row>
@@ -4474,7 +4579,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4527,7 +4632,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4536,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -4585,7 +4690,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4594,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -4672,16 +4777,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F7" s="2">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -4707,7 +4812,7 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4716,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -4812,13 +4917,13 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>0.1111</v>
+        <v>0.1</v>
       </c>
       <c r="F11" s="2">
         <v>1.6</v>
@@ -4847,13 +4952,13 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F12" s="2">
         <v>1.63</v>
@@ -5194,19 +5299,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10000</v>
+        <v>9028</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>1.2</v>
+        <v>1.66</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -5215,7 +5320,13 @@
         <v>0.2</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5223,19 +5334,19 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F23" s="2">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -5244,7 +5355,7 @@
         <v>0.2</v>
       </c>
       <c r="I23">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5252,19 +5363,19 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>0.22220000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F24" s="2">
-        <v>1.53</v>
+        <v>1.19</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -5273,7 +5384,7 @@
         <v>0.2</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5281,19 +5392,19 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="F25" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.54</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -5302,7 +5413,7 @@
         <v>0.2</v>
       </c>
       <c r="I25">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5310,19 +5421,19 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C26">
         <v>8</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F26" s="2">
-        <v>0.99</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -5331,7 +5442,7 @@
         <v>0.2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5339,27 +5450,56 @@
         <v>20</v>
       </c>
       <c r="B27">
+        <v>10004</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
         <v>10005</v>
       </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="G27">
-        <v>0.1</v>
-      </c>
-      <c r="H27">
-        <v>0.2</v>
-      </c>
-      <c r="I27">
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
         <v>100</v>
       </c>
     </row>
@@ -5592,7 +5732,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5673,16 +5813,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.18179999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>2.5299999999999998</v>
+        <v>2.7</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -5789,16 +5929,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>0.2</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>3.83</v>
+        <v>3.71</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -6133,16 +6273,16 @@
         <v>10001</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.1429</v>
+        <v>0.125</v>
       </c>
       <c r="F17" s="2">
-        <v>2.68</v>
+        <v>3.27</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -6279,7 +6419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -6406,7 +6546,7 @@
       </c>
       <c r="AA3" s="85">
         <f>+E17</f>
-        <v>0.17857142857142858</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="AB3" s="85">
         <f>+E16</f>
@@ -6414,7 +6554,7 @@
       </c>
       <c r="AC3" s="85">
         <f>+E18</f>
-        <v>0.16129032258064516</v>
+        <v>0.1875</v>
       </c>
       <c r="AD3" s="85">
         <f>+E23</f>
@@ -6430,7 +6570,7 @@
       </c>
       <c r="C4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6458,11 +6598,11 @@
       </c>
       <c r="AA4" s="92">
         <f>E14</f>
-        <v>0.14285714285714285</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="AB4" s="92">
         <f>+E13</f>
-        <v>0.25</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="AC4" s="92">
         <f>+E15</f>
@@ -6482,7 +6622,7 @@
       </c>
       <c r="C5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6490,20 +6630,20 @@
       </c>
       <c r="E5" s="53">
         <f t="shared" si="0"/>
-        <v>0.20689655172413793</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>7.5221596451532508E-2</v>
+        <v>7.302967433402216E-2</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" si="2"/>
-        <v>0.13167495527260542</v>
+        <v>0.12697032566597785</v>
       </c>
       <c r="I5" s="40">
         <f t="shared" si="3"/>
-        <v>0.28211814817567044</v>
+        <v>0.27302967433402214</v>
       </c>
       <c r="Z5" s="103">
         <v>20</v>
@@ -6518,7 +6658,7 @@
       </c>
       <c r="AC5" s="104">
         <f>+E21</f>
-        <v>0.55172413793103448</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="AD5" s="104">
         <f>+E24</f>
@@ -6534,7 +6674,7 @@
       </c>
       <c r="C6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6566,7 +6706,7 @@
       </c>
       <c r="AB6" s="106">
         <f>+E27</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC6" s="106">
         <f>+E28</f>
@@ -6574,7 +6714,7 @@
       </c>
       <c r="AD6" s="106">
         <f>+E29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6817,15 +6957,15 @@
       </c>
       <c r="AB12" s="1">
         <f>+E32</f>
-        <v>0.11538461538461539</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ref="AC12:AC16" si="16">+AA12+AB12</f>
-        <v>0.11538461538461539</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AD12" s="1">
         <f>+E17</f>
-        <v>0.17857142857142858</v>
+        <v>0.17241379310344829</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6837,28 +6977,28 @@
       </c>
       <c r="C13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="95">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="96">
         <f t="shared" si="13"/>
-        <v>8.1831708838497136E-2</v>
+        <v>8.0737342775933113E-2</v>
       </c>
       <c r="H13" s="96">
         <f t="shared" si="14"/>
-        <v>0.16816829116150286</v>
+        <v>0.18592932389073355</v>
       </c>
       <c r="I13" s="97">
         <f t="shared" si="15"/>
-        <v>0.33183170883849711</v>
+        <v>0.34740400944259975</v>
       </c>
       <c r="Z13">
         <v>10</v>
@@ -6877,7 +7017,7 @@
       </c>
       <c r="AD13" s="1">
         <f>+E13</f>
-        <v>0.25</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6889,7 +7029,7 @@
       </c>
       <c r="C14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6897,20 +7037,20 @@
       </c>
       <c r="E14" s="88">
         <f t="shared" si="12"/>
-        <v>0.14285714285714285</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="89">
         <f t="shared" si="13"/>
-        <v>6.6130007126610824E-2</v>
+        <v>6.4032875233466152E-2</v>
       </c>
       <c r="H14" s="89">
         <f t="shared" si="14"/>
-        <v>7.6727135730532026E-2</v>
+        <v>7.3898159249292467E-2</v>
       </c>
       <c r="I14" s="90">
         <f t="shared" si="15"/>
-        <v>0.20898714998375367</v>
+        <v>0.20196390971622477</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -6921,15 +7061,15 @@
       </c>
       <c r="AB14" s="1">
         <f>+E33</f>
-        <v>0.35294117647058826</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="16"/>
-        <v>0.49579831932773111</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="AD14" s="1">
         <f>+E21</f>
-        <v>0.55172413793103448</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -6981,7 +7121,7 @@
       </c>
       <c r="AD15" s="1">
         <f>+E29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -7045,7 +7185,7 @@
       </c>
       <c r="C17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7053,20 +7193,20 @@
       </c>
       <c r="E17" s="76">
         <f t="shared" si="12"/>
-        <v>0.17857142857142858</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="F17" s="75"/>
       <c r="G17" s="77">
         <f t="shared" si="13"/>
-        <v>7.2378882444444431E-2</v>
+        <v>7.0144500374566598E-2</v>
       </c>
       <c r="H17" s="77">
         <f t="shared" si="14"/>
-        <v>0.10619254612698414</v>
+        <v>0.10226929272888169</v>
       </c>
       <c r="I17" s="78">
         <f t="shared" si="15"/>
-        <v>0.25095031101587301</v>
+        <v>0.24255829347801489</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7078,28 +7218,28 @@
       </c>
       <c r="C18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="81">
         <f t="shared" si="12"/>
-        <v>0.16129032258064516</v>
+        <v>0.1875</v>
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="82">
         <f t="shared" si="13"/>
-        <v>6.6058565028528096E-2</v>
+        <v>6.899813176818631E-2</v>
       </c>
       <c r="H18" s="82">
         <f t="shared" si="14"/>
-        <v>9.5231757552117061E-2</v>
+        <v>0.11850186823181369</v>
       </c>
       <c r="I18" s="83">
         <f t="shared" si="15"/>
-        <v>0.22734888760917327</v>
+        <v>0.25649813176818631</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7177,7 +7317,7 @@
       </c>
       <c r="C21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7185,20 +7325,20 @@
       </c>
       <c r="E21" s="57">
         <f t="shared" si="12"/>
-        <v>0.55172413793103448</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="25">
         <f t="shared" si="13"/>
-        <v>9.2349525987860157E-2</v>
+        <v>9.1084006808529752E-2</v>
       </c>
       <c r="H21" s="25">
         <f t="shared" si="14"/>
-        <v>0.4593746119431743</v>
+        <v>0.44224932652480359</v>
       </c>
       <c r="I21" s="50">
         <f t="shared" si="15"/>
-        <v>0.64407366391889465</v>
+        <v>0.62441734014186312</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7210,11 +7350,11 @@
       </c>
       <c r="C22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="88">
         <f t="shared" ref="E22:E29" si="17">IFERROR(D22/C22, 0)</f>
@@ -7243,11 +7383,11 @@
       </c>
       <c r="C23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="76">
         <f t="shared" si="17"/>
@@ -7375,28 +7515,28 @@
       </c>
       <c r="C27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="109">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F27" s="108"/>
       <c r="G27" s="110">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="H27" s="110">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.14644660940672621</v>
       </c>
       <c r="I27" s="111">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.85355339059327373</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7441,15 +7581,15 @@
       </c>
       <c r="C29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="109">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="108"/>
       <c r="G29" s="110">
@@ -7458,11 +7598,11 @@
       </c>
       <c r="H29" s="110">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="111">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7540,7 +7680,7 @@
       </c>
       <c r="C32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7548,20 +7688,20 @@
       </c>
       <c r="E32" s="114">
         <f t="shared" si="12"/>
-        <v>0.11538461538461539</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F32" s="113"/>
       <c r="G32" s="115">
         <f t="shared" si="13"/>
-        <v>6.2656268001619442E-2</v>
+        <v>6.0481228216868597E-2</v>
       </c>
       <c r="H32" s="115">
         <f t="shared" si="14"/>
-        <v>5.2728347382995949E-2</v>
+        <v>5.0629882894242507E-2</v>
       </c>
       <c r="I32" s="116">
         <f t="shared" si="15"/>
-        <v>0.17804088338623483</v>
+        <v>0.17159233932797971</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7573,7 +7713,7 @@
       </c>
       <c r="C33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7581,20 +7721,20 @@
       </c>
       <c r="E33" s="114">
         <f t="shared" si="12"/>
-        <v>0.35294117647058826</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F33" s="113"/>
       <c r="G33" s="115">
         <f t="shared" si="13"/>
-        <v>0.11590404307573858</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H33" s="115">
         <f t="shared" si="14"/>
-        <v>0.23703713339484966</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="I33" s="116">
         <f t="shared" si="15"/>
-        <v>0.46884521954632685</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7672,7 +7812,7 @@
       </c>
       <c r="C36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C4C4F-426D-4B52-992C-FE970AFCC333}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3FD350-C79B-43FE-B17A-DE17E9E32557}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -27,6 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Defaults_3201!$A$1:$R$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -691,7 +692,7 @@
                   <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27586206896551724</c:v>
+                  <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1875</c:v>
@@ -729,16 +730,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.13793103448275862</c:v>
+                  <c:v>0.13333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.29032258064516131</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37931034482758619</c:v>
+                  <c:v>0.36666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,16 +771,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.20689655172413793</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35714285714285715</c:v>
+                  <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53333333333333333</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,7 +1202,7 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.8823529411764705E-2</c:v>
@@ -1276,16 +1277,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.10714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32258064516129031</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1333,16 +1334,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.10714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44198363023591719</c:v>
+                  <c:v>0.43190298507462688</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.47619047619047616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46666666666666667</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.8823529411764705E-2</c:v>
@@ -1393,10 +1394,10 @@
                   <c:v>0.17241379310344829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.29032258064516131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53333333333333333</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1481,7 +1482,7 @@
         <c:axId val="938670176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.60000000000000009"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3316,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA892EB-1C5D-4DA9-95FA-D6E2F64A7CF0}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3968,19 +3969,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>10000</v>
+        <v>9028</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -3989,7 +3990,13 @@
         <v>0.2</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="J20">
+        <v>0.2</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3997,19 +4004,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F21" s="2">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -4018,7 +4025,7 @@
         <v>0.2</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4026,19 +4033,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>2.13</v>
+        <v>1.21</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -4047,7 +4054,7 @@
         <v>0.2</v>
       </c>
       <c r="I22">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4055,7 +4062,7 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -4067,7 +4074,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="F23" s="2">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -4076,7 +4083,7 @@
         <v>0.2</v>
       </c>
       <c r="I23">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4084,19 +4091,19 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F24" s="2">
-        <v>1.21</v>
+        <v>2.65</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -4105,7 +4112,7 @@
         <v>0.2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4113,7 +4120,7 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -4125,15 +4132,44 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>10005</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
         <v>3.08</v>
       </c>
-      <c r="G25">
-        <v>0.1</v>
-      </c>
-      <c r="H25">
-        <v>0.2</v>
-      </c>
-      <c r="I25">
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
         <v>100</v>
       </c>
     </row>
@@ -4581,7 +4617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4661,16 +4699,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F3" s="2">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -4748,16 +4786,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="F6" s="2">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -4882,13 +4920,13 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.2</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F10" s="2">
         <v>1.1000000000000001</v>
@@ -4987,13 +5025,13 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.1</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="F13" s="2">
         <v>1.1399999999999999</v>
@@ -5057,16 +5095,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="F15" s="2">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -5092,16 +5130,16 @@
         <v>9010</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="2">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -5162,16 +5200,16 @@
         <v>9016</v>
       </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="2">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -5197,7 +5235,7 @@
         <v>9025</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5206,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -5337,16 +5375,16 @@
         <v>10000</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>0.3</v>
+        <v>0.2727</v>
       </c>
       <c r="F23" s="2">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -5366,16 +5404,16 @@
         <v>10001</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>0.2</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F24" s="2">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -5424,16 +5462,16 @@
         <v>10003</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>0.125</v>
+        <v>0.1111</v>
       </c>
       <c r="F26" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -5453,7 +5491,7 @@
         <v>10004</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5462,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>0.99</v>
+        <v>1.03</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -5732,7 +5770,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5784,7 +5822,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5793,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -5842,7 +5880,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5851,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>2.8</v>
+        <v>3.71</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -5929,16 +5967,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>0.18179999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="2">
-        <v>3.71</v>
+        <v>3.85</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -5964,16 +6002,16 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>0.2727</v>
+        <v>0.25</v>
       </c>
       <c r="F8" s="2">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -5999,16 +6037,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.2</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -6174,16 +6212,16 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>0.36359999999999998</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F14" s="2">
-        <v>2.89</v>
+        <v>2.92</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -6209,16 +6247,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
-        <v>0.45450000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="2">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -6360,7 +6398,7 @@
         <v>10004</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -6369,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>3.32</v>
+        <v>3.96</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -6389,7 +6427,7 @@
         <v>10005</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6398,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>2.91</v>
+        <v>3.46</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -6419,8 +6457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6550,7 +6588,7 @@
       </c>
       <c r="AB3" s="85">
         <f>+E16</f>
-        <v>0.27586206896551724</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="AC3" s="85">
         <f>+E18</f>
@@ -6570,7 +6608,7 @@
       </c>
       <c r="C4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6598,19 +6636,19 @@
       </c>
       <c r="AA4" s="92">
         <f>E14</f>
-        <v>0.13793103448275862</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="AB4" s="92">
         <f>+E13</f>
-        <v>0.26666666666666666</v>
+        <v>0.29032258064516131</v>
       </c>
       <c r="AC4" s="92">
         <f>+E15</f>
-        <v>0.37931034482758619</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="AD4" s="92">
         <f>+E22</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6622,47 +6660,47 @@
       </c>
       <c r="C5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="53">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.22580645161290322</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>7.302967433402216E-2</v>
+        <v>7.5095186483532639E-2</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" si="2"/>
-        <v>0.12697032566597785</v>
+        <v>0.15071126512937058</v>
       </c>
       <c r="I5" s="40">
         <f t="shared" si="3"/>
-        <v>0.27302967433402214</v>
+        <v>0.30090163809643589</v>
       </c>
       <c r="Z5" s="103">
         <v>20</v>
       </c>
       <c r="AA5" s="104">
         <f>+E20</f>
-        <v>0.20689655172413793</v>
+        <v>0.2</v>
       </c>
       <c r="AB5" s="104">
         <f>+E19</f>
-        <v>0.35714285714285715</v>
+        <v>0.34482758620689657</v>
       </c>
       <c r="AC5" s="104">
         <f>+E21</f>
-        <v>0.53333333333333333</v>
+        <v>0.5625</v>
       </c>
       <c r="AD5" s="104">
         <f>+E24</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6674,7 +6712,7 @@
       </c>
       <c r="C6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6759,28 +6797,28 @@
       </c>
       <c r="C8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="53">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.26666666666666666</v>
+        <v>0.3125</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="38">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0.11417984514369003</v>
+        <v>0.11587810136086973</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>0.15248682152297663</v>
+        <v>0.19662189863913027</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.38084651181035667</v>
+        <v>0.42837810136086973</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6957,11 +6995,11 @@
       </c>
       <c r="AB12" s="1">
         <f>+E32</f>
-        <v>0.1111111111111111</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ref="AC12:AC16" si="16">+AA12+AB12</f>
-        <v>0.1111111111111111</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="AD12" s="1">
         <f>+E17</f>
@@ -6977,28 +7015,28 @@
       </c>
       <c r="C13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="95">
         <f t="shared" si="12"/>
-        <v>0.26666666666666666</v>
+        <v>0.29032258064516131</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="96">
         <f t="shared" si="13"/>
-        <v>8.0737342775933113E-2</v>
+        <v>8.1524858629764385E-2</v>
       </c>
       <c r="H13" s="96">
         <f t="shared" si="14"/>
-        <v>0.18592932389073355</v>
+        <v>0.20879772201539692</v>
       </c>
       <c r="I13" s="97">
         <f t="shared" si="15"/>
-        <v>0.34740400944259975</v>
+        <v>0.3718474392749257</v>
       </c>
       <c r="Z13">
         <v>10</v>
@@ -7009,15 +7047,15 @@
       </c>
       <c r="AB13" s="1">
         <f>+E31</f>
-        <v>0.32258064516129031</v>
+        <v>0.3125</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="16"/>
-        <v>0.44198363023591719</v>
+        <v>0.43190298507462688</v>
       </c>
       <c r="AD13" s="1">
         <f>+E13</f>
-        <v>0.26666666666666666</v>
+        <v>0.29032258064516131</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -7029,7 +7067,7 @@
       </c>
       <c r="C14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7037,20 +7075,20 @@
       </c>
       <c r="E14" s="88">
         <f t="shared" si="12"/>
-        <v>0.13793103448275862</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="89">
         <f t="shared" si="13"/>
-        <v>6.4032875233466152E-2</v>
+        <v>6.2063289083417517E-2</v>
       </c>
       <c r="H14" s="89">
         <f t="shared" si="14"/>
-        <v>7.3898159249292467E-2</v>
+        <v>7.1270044249915815E-2</v>
       </c>
       <c r="I14" s="90">
         <f t="shared" si="15"/>
-        <v>0.20196390971622477</v>
+        <v>0.19539662241675085</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -7069,7 +7107,7 @@
       </c>
       <c r="AD14" s="1">
         <f>+E21</f>
-        <v>0.53333333333333333</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7081,7 +7119,7 @@
       </c>
       <c r="C15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7089,35 +7127,35 @@
       </c>
       <c r="E15" s="100">
         <f t="shared" si="12"/>
-        <v>0.37931034482758619</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="101">
         <f t="shared" si="13"/>
-        <v>9.0102242142557118E-2</v>
+        <v>8.7981479532574014E-2</v>
       </c>
       <c r="H15" s="101">
         <f t="shared" si="14"/>
-        <v>0.28920810268502906</v>
+        <v>0.27868518713409263</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" si="15"/>
-        <v>0.46941258697014332</v>
+        <v>0.45464814619924065</v>
       </c>
       <c r="Z15">
         <v>50</v>
       </c>
       <c r="AA15" s="1">
         <f>+E8</f>
-        <v>0.26666666666666666</v>
+        <v>0.3125</v>
       </c>
       <c r="AB15" s="1">
         <f>+E34</f>
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="16"/>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="AD15" s="1">
         <f>+E29</f>
@@ -7133,7 +7171,7 @@
       </c>
       <c r="C16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7141,20 +7179,20 @@
       </c>
       <c r="E16" s="71">
         <f t="shared" si="12"/>
-        <v>0.27586206896551724</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="72">
         <f t="shared" si="13"/>
-        <v>8.299609211231937E-2</v>
+        <v>8.0737342775933113E-2</v>
       </c>
       <c r="H16" s="72">
         <f t="shared" si="14"/>
-        <v>0.19286597685319787</v>
+        <v>0.18592932389073355</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" si="15"/>
-        <v>0.35885816107783663</v>
+        <v>0.34740400944259975</v>
       </c>
       <c r="Z16">
         <v>100</v>
@@ -7251,7 +7289,7 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7259,20 +7297,20 @@
       </c>
       <c r="E19" s="56">
         <f t="shared" si="12"/>
-        <v>0.35714285714285715</v>
+        <v>0.34482758620689657</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="13"/>
-        <v>9.0552241578055331E-2</v>
+        <v>8.8263227395460803E-2</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="14"/>
-        <v>0.26659061556480179</v>
+        <v>0.2565643588114358</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="15"/>
-        <v>0.44769509872091251</v>
+        <v>0.43309081360235735</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7284,7 +7322,7 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7292,20 +7330,20 @@
       </c>
       <c r="E20" s="57">
         <f t="shared" si="12"/>
-        <v>0.20689655172413793</v>
+        <v>0.2</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
         <f t="shared" si="13"/>
-        <v>7.5221596451532508E-2</v>
+        <v>7.302967433402216E-2</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="14"/>
-        <v>0.13167495527260542</v>
+        <v>0.12697032566597785</v>
       </c>
       <c r="I20" s="50">
         <f t="shared" si="15"/>
-        <v>0.28211814817567044</v>
+        <v>0.27302967433402214</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7317,28 +7355,28 @@
       </c>
       <c r="C21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E21" s="57">
         <f t="shared" si="12"/>
-        <v>0.53333333333333333</v>
+        <v>0.5625</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="25">
         <f t="shared" si="13"/>
-        <v>9.1084006808529752E-2</v>
+        <v>8.7695095002514253E-2</v>
       </c>
       <c r="H21" s="25">
         <f t="shared" si="14"/>
-        <v>0.44224932652480359</v>
+        <v>0.47480490499748573</v>
       </c>
       <c r="I21" s="50">
         <f t="shared" si="15"/>
-        <v>0.62441734014186312</v>
+        <v>0.65019509500251427</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7350,7 +7388,7 @@
       </c>
       <c r="C22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7358,20 +7396,20 @@
       </c>
       <c r="E22" s="88">
         <f t="shared" ref="E22:E29" si="17">IFERROR(D22/C22, 0)</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F22" s="87"/>
       <c r="G22" s="89">
         <f t="shared" ref="G22:G29" si="18">IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
-        <v>0</v>
+        <v>0.27216552697590868</v>
       </c>
       <c r="H22" s="89">
         <f t="shared" ref="H22:H29" si="19">E22-G22</f>
-        <v>1</v>
+        <v>0.39450113969075795</v>
       </c>
       <c r="I22" s="90">
         <f t="shared" ref="I22:I29" si="20">E22+G22</f>
-        <v>1</v>
+        <v>0.93883219364257531</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7416,28 +7454,28 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="57">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0.14644660940672621</v>
       </c>
       <c r="I24" s="50">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.85355339059327373</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7482,7 +7520,7 @@
       </c>
       <c r="C26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7581,11 +7619,11 @@
       </c>
       <c r="C29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="109">
         <f t="shared" si="17"/>
@@ -7647,7 +7685,7 @@
       </c>
       <c r="C31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7655,20 +7693,20 @@
       </c>
       <c r="E31" s="61">
         <f t="shared" si="12"/>
-        <v>0.32258064516129031</v>
+        <v>0.3125</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="62">
         <f t="shared" si="13"/>
-        <v>8.3958970880101194E-2</v>
+        <v>8.1938191263293089E-2</v>
       </c>
       <c r="H31" s="62">
         <f t="shared" si="14"/>
-        <v>0.23862167428118913</v>
+        <v>0.2305618087367069</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" si="15"/>
-        <v>0.40653961604139149</v>
+        <v>0.3944381912632931</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7680,7 +7718,7 @@
       </c>
       <c r="C32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7688,20 +7726,20 @@
       </c>
       <c r="E32" s="114">
         <f t="shared" si="12"/>
-        <v>0.1111111111111111</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="F32" s="113"/>
       <c r="G32" s="115">
         <f t="shared" si="13"/>
-        <v>6.0481228216868597E-2</v>
+        <v>5.8451220598926532E-2</v>
       </c>
       <c r="H32" s="115">
         <f t="shared" si="14"/>
-        <v>5.0629882894242507E-2</v>
+        <v>4.8691636543930605E-2</v>
       </c>
       <c r="I32" s="116">
         <f t="shared" si="15"/>
-        <v>0.17159233932797971</v>
+        <v>0.16559407774178367</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7746,7 +7784,7 @@
       </c>
       <c r="C34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7754,20 +7792,20 @@
       </c>
       <c r="E34" s="114">
         <f t="shared" ref="E34:E35" si="29">IFERROR(D34/C34, 0)</f>
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="F34" s="113"/>
       <c r="G34" s="115">
         <f t="shared" ref="G34:G35" si="30">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
-        <v>0.10327955589886445</v>
+        <v>9.7578093724974974E-2</v>
       </c>
       <c r="H34" s="115">
         <f t="shared" ref="H34:H35" si="31">E34-G34</f>
-        <v>9.6720444101135561E-2</v>
+        <v>8.9921906275025026E-2</v>
       </c>
       <c r="I34" s="116">
         <f t="shared" ref="I34:I35" si="32">E34+G34</f>
-        <v>0.30327955589886446</v>
+        <v>0.28507809372497495</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7779,7 +7817,7 @@
       </c>
       <c r="C35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7812,7 +7850,7 @@
       </c>
       <c r="C36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3FD350-C79B-43FE-B17A-DE17E9E32557}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A89CC-A485-49B6-82CC-E792E593C0F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -27,7 +27,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Defaults_3201!$A$1:$R$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -689,16 +688,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17241379310344829</c:v>
+                  <c:v>0.19354838709677419</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.25806451612903225</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,13 +729,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.16129032258064516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29032258064516131</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36666666666666664</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.66666666666666663</c:v>
@@ -771,16 +770,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.19354838709677419</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34482758620689657</c:v>
+                  <c:v>0.36666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,13 +811,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1202,10 +1201,10 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.29411764705882354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8823529411764705E-2</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,13 +1276,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10714285714285714</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.1875</c:v>
@@ -1334,19 +1333,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10714285714285714</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.43190298507462688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47619047619047616</c:v>
+                  <c:v>0.51127819548872178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48161764705882354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8823529411764705E-2</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,10 +1390,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17241379310344829</c:v>
+                  <c:v>0.19354838709677419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29032258064516131</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.5625</c:v>
@@ -3317,10 +3316,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA892EB-1C5D-4DA9-95FA-D6E2F64A7CF0}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3899,19 +3898,19 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>9026</v>
+        <v>9016</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1.31</v>
+        <v>2.41</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -3920,13 +3919,13 @@
         <v>0.2</v>
       </c>
       <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+      <c r="K18">
         <v>50</v>
-      </c>
-      <c r="J18">
-        <v>0.2</v>
-      </c>
-      <c r="K18">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3934,7 +3933,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>9027</v>
+        <v>9025</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3946,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>0.87</v>
+        <v>1.58</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -3961,7 +3960,7 @@
         <v>0.2</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3969,19 +3968,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>9028</v>
+        <v>9026</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -3996,7 +3995,7 @@
         <v>0.2</v>
       </c>
       <c r="K20">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4004,19 +4003,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10000</v>
+        <v>9027</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>1.49</v>
+        <v>0.87</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -4025,7 +4024,13 @@
         <v>0.2</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>0.2</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4033,19 +4038,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10001</v>
+        <v>9028</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -4054,7 +4059,13 @@
         <v>0.2</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>50</v>
+      </c>
+      <c r="J22">
+        <v>0.2</v>
+      </c>
+      <c r="K22">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4062,19 +4073,19 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>10002</v>
+        <v>10000</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F23" s="2">
-        <v>2.13</v>
+        <v>1.49</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -4083,7 +4094,7 @@
         <v>0.2</v>
       </c>
       <c r="I23">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4091,19 +4102,19 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>2.65</v>
+        <v>1.21</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -4112,7 +4123,7 @@
         <v>0.2</v>
       </c>
       <c r="I24">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4120,19 +4131,19 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>1.21</v>
+        <v>2.13</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -4141,7 +4152,7 @@
         <v>0.2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4149,27 +4160,85 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F26" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="G26">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="I26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>10004</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G27">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <v>0.2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>10005</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
         <v>3.08</v>
       </c>
-      <c r="G26">
-        <v>0.1</v>
-      </c>
-      <c r="H26">
-        <v>0.2</v>
-      </c>
-      <c r="I26">
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
         <v>100</v>
       </c>
     </row>
@@ -4615,10 +4684,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4728,7 +4797,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4737,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -4757,7 +4826,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4766,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -4815,16 +4884,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>0.4</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="F7" s="2">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -4885,16 +4954,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>0.4</v>
+        <v>0.45450000000000002</v>
       </c>
       <c r="F9" s="2">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -4955,13 +5024,13 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.1</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F11" s="2">
         <v>1.6</v>
@@ -5060,7 +5129,7 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -5069,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -5165,16 +5234,16 @@
         <v>9013</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="2">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -5232,34 +5301,34 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>9025</v>
+        <v>9018</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="G19">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <v>0.2</v>
-      </c>
-      <c r="I19">
-        <v>50</v>
-      </c>
       <c r="J19">
         <v>0.2</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5267,10 +5336,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5279,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1.43</v>
+        <v>0.99</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -5294,7 +5363,7 @@
         <v>0.2</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5302,19 +5371,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -5329,7 +5398,7 @@
         <v>0.2</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5337,19 +5406,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="2">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -5364,7 +5433,7 @@
         <v>0.2</v>
       </c>
       <c r="K22">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5372,19 +5441,19 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>10000</v>
+        <v>9028</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0.2727</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>1.21</v>
+        <v>1.66</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -5393,7 +5462,13 @@
         <v>0.2</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <v>0.2</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5401,19 +5476,19 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C24">
         <v>11</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>0.18179999999999999</v>
+        <v>0.2727</v>
       </c>
       <c r="F24" s="2">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -5422,7 +5497,7 @@
         <v>0.2</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5430,19 +5505,19 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.2</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -5451,7 +5526,7 @@
         <v>0.2</v>
       </c>
       <c r="I25">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5459,19 +5534,19 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>0.1111</v>
+        <v>0.2727</v>
       </c>
       <c r="F26" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -5480,7 +5555,7 @@
         <v>0.2</v>
       </c>
       <c r="I26">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5488,19 +5563,19 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="F27" s="2">
-        <v>1.03</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -5509,7 +5584,7 @@
         <v>0.2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5517,27 +5592,56 @@
         <v>20</v>
       </c>
       <c r="B28">
+        <v>10004</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
         <v>10005</v>
       </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="G28">
-        <v>0.1</v>
-      </c>
-      <c r="H28">
-        <v>0.2</v>
-      </c>
-      <c r="I28">
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
         <v>100</v>
       </c>
     </row>
@@ -5770,7 +5874,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5822,7 +5926,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5831,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>3.46</v>
+        <v>3.87</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -5851,16 +5955,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -5909,7 +6013,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -5918,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>2.4500000000000002</v>
+        <v>3.06</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -5938,16 +6042,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>2.89</v>
+        <v>3.16</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -6002,16 +6106,16 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>0.25</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="F8" s="2">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -6037,16 +6141,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.18179999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>2.59</v>
+        <v>3.06</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -6072,16 +6176,16 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>0.36359999999999998</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>2.74</v>
+        <v>2.79</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -6107,16 +6211,16 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.2</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="F11" s="2">
-        <v>2.77</v>
+        <v>3.02</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -6177,16 +6281,16 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1">
-        <v>0.6</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="F13" s="2">
-        <v>2.94</v>
+        <v>3.12</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -6311,16 +6415,16 @@
         <v>10001</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="F17" s="2">
-        <v>3.27</v>
+        <v>3.74</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -6457,7 +6561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
@@ -6584,11 +6688,11 @@
       </c>
       <c r="AA3" s="85">
         <f>+E17</f>
-        <v>0.17241379310344829</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="AB3" s="85">
         <f>+E16</f>
-        <v>0.26666666666666666</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="AC3" s="85">
         <f>+E18</f>
@@ -6596,7 +6700,7 @@
       </c>
       <c r="AD3" s="85">
         <f>+E23</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6608,7 +6712,7 @@
       </c>
       <c r="C4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6636,15 +6740,15 @@
       </c>
       <c r="AA4" s="92">
         <f>E14</f>
-        <v>0.13333333333333333</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="AB4" s="92">
         <f>+E13</f>
-        <v>0.29032258064516131</v>
+        <v>0.3125</v>
       </c>
       <c r="AC4" s="92">
         <f>+E15</f>
-        <v>0.36666666666666664</v>
+        <v>0.375</v>
       </c>
       <c r="AD4" s="92">
         <f>+E22</f>
@@ -6660,7 +6764,7 @@
       </c>
       <c r="C5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6668,31 +6772,31 @@
       </c>
       <c r="E5" s="53">
         <f t="shared" si="0"/>
-        <v>0.22580645161290322</v>
+        <v>0.21875</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>7.5095186483532639E-2</v>
+        <v>7.3079245835428547E-2</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" si="2"/>
-        <v>0.15071126512937058</v>
+        <v>0.14567075416457145</v>
       </c>
       <c r="I5" s="40">
         <f t="shared" si="3"/>
-        <v>0.30090163809643589</v>
+        <v>0.29182924583542857</v>
       </c>
       <c r="Z5" s="103">
         <v>20</v>
       </c>
       <c r="AA5" s="104">
         <f>+E20</f>
-        <v>0.2</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="AB5" s="104">
         <f>+E19</f>
-        <v>0.34482758620689657</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="AC5" s="104">
         <f>+E21</f>
@@ -6700,7 +6804,7 @@
       </c>
       <c r="AD5" s="104">
         <f>+E24</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6712,7 +6816,7 @@
       </c>
       <c r="C6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6740,7 +6844,7 @@
       </c>
       <c r="AA6" s="106">
         <f>+E26</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AB6" s="106">
         <f>+E27</f>
@@ -6748,7 +6852,7 @@
       </c>
       <c r="AC6" s="106">
         <f>+E28</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AD6" s="106">
         <f>+E29</f>
@@ -6764,7 +6868,7 @@
       </c>
       <c r="C7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6772,20 +6876,20 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="4"/>
-        <v>5.8823529411764705E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="38">
         <f t="shared" si="5"/>
-        <v>5.7067205890901876E-2</v>
+        <v>5.1227817199188175E-2</v>
       </c>
       <c r="H7" s="38">
         <f t="shared" si="6"/>
-        <v>1.7563235208628292E-3</v>
+        <v>1.4037617481802434E-3</v>
       </c>
       <c r="I7" s="40">
         <f t="shared" si="7"/>
-        <v>0.11589073530266658</v>
+        <v>0.10385939614655659</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6797,7 +6901,7 @@
       </c>
       <c r="C8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6805,20 +6909,20 @@
       </c>
       <c r="E8" s="53">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.3125</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="38">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0.11587810136086973</v>
+        <v>0.11051016901502639</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>0.19662189863913027</v>
+        <v>0.18360747804379715</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.42837810136086973</v>
+        <v>0.4046278160738499</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6995,15 +7099,15 @@
       </c>
       <c r="AB12" s="1">
         <f>+E32</f>
-        <v>0.10714285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ref="AC12:AC16" si="16">+AA12+AB12</f>
-        <v>0.10714285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="AD12" s="1">
         <f>+E17</f>
-        <v>0.17241379310344829</v>
+        <v>0.19354838709677419</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -7015,28 +7119,28 @@
       </c>
       <c r="C13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="95">
         <f t="shared" si="12"/>
-        <v>0.29032258064516131</v>
+        <v>0.3125</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="96">
         <f t="shared" si="13"/>
-        <v>8.1524858629764385E-2</v>
+        <v>8.1938191263293089E-2</v>
       </c>
       <c r="H13" s="96">
         <f t="shared" si="14"/>
-        <v>0.20879772201539692</v>
+        <v>0.2305618087367069</v>
       </c>
       <c r="I13" s="97">
         <f t="shared" si="15"/>
-        <v>0.3718474392749257</v>
+        <v>0.3944381912632931</v>
       </c>
       <c r="Z13">
         <v>10</v>
@@ -7055,7 +7159,7 @@
       </c>
       <c r="AD13" s="1">
         <f>+E13</f>
-        <v>0.29032258064516131</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -7067,28 +7171,28 @@
       </c>
       <c r="C14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="88">
         <f t="shared" si="12"/>
-        <v>0.13333333333333333</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="89">
         <f t="shared" si="13"/>
-        <v>6.2063289083417517E-2</v>
+        <v>6.6058565028528096E-2</v>
       </c>
       <c r="H14" s="89">
         <f t="shared" si="14"/>
-        <v>7.1270044249915815E-2</v>
+        <v>9.5231757552117061E-2</v>
       </c>
       <c r="I14" s="90">
         <f t="shared" si="15"/>
-        <v>0.19539662241675085</v>
+        <v>0.22734888760917327</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -7099,11 +7203,11 @@
       </c>
       <c r="AB14" s="1">
         <f>+E33</f>
-        <v>0.33333333333333331</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="16"/>
-        <v>0.47619047619047616</v>
+        <v>0.51127819548872178</v>
       </c>
       <c r="AD14" s="1">
         <f>+E21</f>
@@ -7119,35 +7223,35 @@
       </c>
       <c r="C15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="100">
         <f t="shared" si="12"/>
-        <v>0.36666666666666664</v>
+        <v>0.375</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="101">
         <f t="shared" si="13"/>
-        <v>8.7981479532574014E-2</v>
+        <v>8.5581649610182206E-2</v>
       </c>
       <c r="H15" s="101">
         <f t="shared" si="14"/>
-        <v>0.27868518713409263</v>
+        <v>0.28941835038981778</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" si="15"/>
-        <v>0.45464814619924065</v>
+        <v>0.46058164961018222</v>
       </c>
       <c r="Z15">
         <v>50</v>
       </c>
       <c r="AA15" s="1">
         <f>+E8</f>
-        <v>0.3125</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="AB15" s="1">
         <f>+E34</f>
@@ -7155,7 +7259,7 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="16"/>
-        <v>0.5</v>
+        <v>0.48161764705882354</v>
       </c>
       <c r="AD15" s="1">
         <f>+E29</f>
@@ -7171,7 +7275,7 @@
       </c>
       <c r="C16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7179,27 +7283,27 @@
       </c>
       <c r="E16" s="71">
         <f t="shared" si="12"/>
-        <v>0.26666666666666666</v>
+        <v>0.25806451612903225</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="72">
         <f t="shared" si="13"/>
-        <v>8.0737342775933113E-2</v>
+        <v>7.8589833875126761E-2</v>
       </c>
       <c r="H16" s="72">
         <f t="shared" si="14"/>
-        <v>0.18592932389073355</v>
+        <v>0.1794746822539055</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" si="15"/>
-        <v>0.34740400944259975</v>
+        <v>0.336654350004159</v>
       </c>
       <c r="Z16">
         <v>100</v>
       </c>
       <c r="AA16" s="1">
         <f>+E7</f>
-        <v>5.8823529411764705E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="AB16" s="1">
         <f>+E36</f>
@@ -7207,7 +7311,7 @@
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="16"/>
-        <v>5.8823529411764705E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="AD16" s="1">
         <f>+E30</f>
@@ -7223,28 +7327,28 @@
       </c>
       <c r="C17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="76">
         <f t="shared" si="12"/>
-        <v>0.17241379310344829</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="F17" s="75"/>
       <c r="G17" s="77">
         <f t="shared" si="13"/>
-        <v>7.0144500374566598E-2</v>
+        <v>7.0958281461945133E-2</v>
       </c>
       <c r="H17" s="77">
         <f t="shared" si="14"/>
-        <v>0.10226929272888169</v>
+        <v>0.12259010563482906</v>
       </c>
       <c r="I17" s="78">
         <f t="shared" si="15"/>
-        <v>0.24255829347801489</v>
+        <v>0.26450666855871929</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7289,28 +7393,28 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="56">
         <f t="shared" si="12"/>
-        <v>0.34482758620689657</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="13"/>
-        <v>8.8263227395460803E-2</v>
+        <v>8.7981479532574014E-2</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="14"/>
-        <v>0.2565643588114358</v>
+        <v>0.27868518713409263</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="15"/>
-        <v>0.43309081360235735</v>
+        <v>0.45464814619924065</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7322,7 +7426,7 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7330,20 +7434,20 @@
       </c>
       <c r="E20" s="57">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.19354838709677419</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
         <f t="shared" si="13"/>
-        <v>7.302967433402216E-2</v>
+        <v>7.0958281461945133E-2</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="14"/>
-        <v>0.12697032566597785</v>
+        <v>0.12259010563482906</v>
       </c>
       <c r="I20" s="50">
         <f t="shared" si="15"/>
-        <v>0.27302967433402214</v>
+        <v>0.26450666855871929</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7421,7 +7525,7 @@
       </c>
       <c r="C23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7429,20 +7533,20 @@
       </c>
       <c r="E23" s="76">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F23" s="75"/>
       <c r="G23" s="77">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.27216552697590868</v>
       </c>
       <c r="H23" s="77">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0.39450113969075795</v>
       </c>
       <c r="I23" s="78">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0.93883219364257531</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7454,7 +7558,7 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7462,20 +7566,20 @@
       </c>
       <c r="E24" s="57">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f t="shared" si="18"/>
-        <v>0.35355339059327379</v>
+        <v>0.27216552697590868</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="19"/>
-        <v>0.14644660940672621</v>
+        <v>6.1167806357424637E-2</v>
       </c>
       <c r="I24" s="50">
         <f t="shared" si="20"/>
-        <v>0.85355339059327373</v>
+        <v>0.60549886030924194</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7487,7 +7591,7 @@
       </c>
       <c r="C25" s="12">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="12">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7520,28 +7624,28 @@
       </c>
       <c r="C26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="109">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F26" s="108"/>
       <c r="G26" s="110">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.27216552697590868</v>
       </c>
       <c r="H26" s="110">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>6.1167806357424637E-2</v>
       </c>
       <c r="I26" s="111">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.60549886030924194</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7553,11 +7657,11 @@
       </c>
       <c r="C27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="109">
         <f t="shared" si="17"/>
@@ -7566,15 +7670,15 @@
       <c r="F27" s="108"/>
       <c r="G27" s="110">
         <f t="shared" si="18"/>
-        <v>0.35355339059327379</v>
+        <v>0.25</v>
       </c>
       <c r="H27" s="110">
         <f t="shared" si="19"/>
-        <v>0.14644660940672621</v>
+        <v>0.25</v>
       </c>
       <c r="I27" s="111">
         <f t="shared" si="20"/>
-        <v>0.85355339059327373</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7586,7 +7690,7 @@
       </c>
       <c r="C28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7594,20 +7698,20 @@
       </c>
       <c r="E28" s="109">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="110">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.27216552697590868</v>
       </c>
       <c r="H28" s="110">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0.39450113969075795</v>
       </c>
       <c r="I28" s="111">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0.93883219364257531</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7619,11 +7723,11 @@
       </c>
       <c r="C29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="109">
         <f t="shared" si="17"/>
@@ -7718,7 +7822,7 @@
       </c>
       <c r="C32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7726,20 +7830,20 @@
       </c>
       <c r="E32" s="114">
         <f t="shared" si="12"/>
-        <v>0.10714285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="F32" s="113"/>
       <c r="G32" s="115">
         <f t="shared" si="13"/>
-        <v>5.8451220598926532E-2</v>
+        <v>5.4772255750516613E-2</v>
       </c>
       <c r="H32" s="115">
         <f t="shared" si="14"/>
-        <v>4.8691636543930605E-2</v>
+        <v>4.5227744249483393E-2</v>
       </c>
       <c r="I32" s="116">
         <f t="shared" si="15"/>
-        <v>0.16559407774178367</v>
+        <v>0.15477225575051662</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7751,28 +7855,28 @@
       </c>
       <c r="C33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33" s="114">
         <f t="shared" si="12"/>
-        <v>0.33333333333333331</v>
+        <v>0.36842105263157893</v>
       </c>
       <c r="F33" s="113"/>
       <c r="G33" s="115">
         <f t="shared" si="13"/>
-        <v>0.1111111111111111</v>
+        <v>0.11066473327112564</v>
       </c>
       <c r="H33" s="115">
         <f t="shared" si="14"/>
-        <v>0.22222222222222221</v>
+        <v>0.25775631936045329</v>
       </c>
       <c r="I33" s="116">
         <f t="shared" si="15"/>
-        <v>0.44444444444444442</v>
+        <v>0.47908578590270456</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7850,7 +7954,7 @@
       </c>
       <c r="C36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A89CC-A485-49B6-82CC-E792E593C0F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A15295-1245-48E7-BF41-37B8DDB26781}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -691,10 +691,10 @@
                   <c:v>0.19354838709677419</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25806451612903225</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.66666666666666663</c:v>
@@ -729,16 +729,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.16129032258064516</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.375</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,16 +770,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.19354838709677419</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36666666666666664</c:v>
+                  <c:v>0.34375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,7 +811,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
@@ -1201,7 +1201,7 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.2631578947368418E-2</c:v>
@@ -1276,16 +1276,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>8.8235294117647065E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.30303030303030304</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.36842105263157893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1333,16 +1333,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>8.8235294117647065E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43190298507462688</c:v>
+                  <c:v>0.42243328810492992</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.51127819548872178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48161764705882354</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5.2631578947368418E-2</c:v>
@@ -1396,13 +1396,13 @@
                   <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5625</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3316,11 +3316,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA892EB-1C5D-4DA9-95FA-D6E2F64A7CF0}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:K28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3368,10 +3366,10 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>7002</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3380,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>2.5099999999999998</v>
+        <v>9.19</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -3389,7 +3387,7 @@
         <v>0.2</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3397,19 +3395,19 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>2.11</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -3418,7 +3416,7 @@
         <v>0.2</v>
       </c>
       <c r="K3">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3426,19 +3424,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="2">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -3447,7 +3445,7 @@
         <v>0.2</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3455,19 +3453,19 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>3.09</v>
+        <v>1.88</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -3476,7 +3474,7 @@
         <v>0.2</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3484,7 +3482,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>7006</v>
+        <v>7005</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -3496,7 +3494,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>2.33</v>
+        <v>3.09</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -3505,7 +3503,7 @@
         <v>0.2</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3513,34 +3511,28 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>9000</v>
+        <v>7006</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.2</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>1.08</v>
+        <v>2.33</v>
       </c>
       <c r="G7">
         <v>0.1</v>
       </c>
-      <c r="H7">
-        <v>0.2</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
       <c r="J7">
         <v>0.2</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3548,7 +3540,7 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>9001</v>
+        <v>9000</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -3560,7 +3552,7 @@
         <v>0.2</v>
       </c>
       <c r="F8" s="2">
-        <v>2.29</v>
+        <v>1.08</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -3575,7 +3567,7 @@
         <v>0.2</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3583,19 +3575,19 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F9" s="2">
-        <v>1.36</v>
+        <v>2.29</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -3610,7 +3602,7 @@
         <v>0.2</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3618,19 +3610,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F10" s="2">
-        <v>2.13</v>
+        <v>1.36</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -3639,13 +3631,13 @@
         <v>0.2</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>0.2</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3653,7 +3645,7 @@
         <v>20</v>
       </c>
       <c r="B11">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -3665,7 +3657,7 @@
         <v>0.4</v>
       </c>
       <c r="F11" s="2">
-        <v>1.77</v>
+        <v>2.13</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -3680,7 +3672,7 @@
         <v>0.2</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3688,19 +3680,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F12" s="2">
-        <v>2.73</v>
+        <v>1.77</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -3715,7 +3707,7 @@
         <v>0.2</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3723,19 +3715,19 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1.08</v>
+        <v>2.73</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -3744,13 +3736,13 @@
         <v>0.2</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>0.2</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3758,19 +3750,19 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="F14" s="2">
-        <v>1.34</v>
+        <v>1.08</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -3785,7 +3777,7 @@
         <v>0.2</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3793,19 +3785,19 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>9008</v>
+        <v>9007</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="F15" s="2">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -3820,7 +3812,7 @@
         <v>0.2</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3828,19 +3820,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>9010</v>
+        <v>9008</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="F16" s="2">
-        <v>1.29</v>
+        <v>1.76</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -3849,13 +3841,13 @@
         <v>0.2</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J16">
         <v>0.2</v>
       </c>
       <c r="K16">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3863,7 +3855,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>9013</v>
+        <v>9010</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3875,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -3884,7 +3876,7 @@
         <v>0.2</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>0.2</v>
@@ -3898,19 +3890,19 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>9016</v>
+        <v>9013</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>2.41</v>
+        <v>1.06</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -3919,7 +3911,7 @@
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>0.2</v>
@@ -3933,19 +3925,19 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>9025</v>
+        <v>9016</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="2">
-        <v>1.58</v>
+        <v>2.19</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -3954,13 +3946,13 @@
         <v>0.2</v>
       </c>
       <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+      <c r="K19">
         <v>50</v>
-      </c>
-      <c r="J19">
-        <v>0.2</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3968,19 +3960,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="2">
-        <v>1.41</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -3995,7 +3987,7 @@
         <v>0.2</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4003,19 +3995,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>0.87</v>
+        <v>1.41</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -4030,7 +4022,7 @@
         <v>0.2</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4038,19 +4030,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>1.52</v>
+        <v>0.87</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -4065,7 +4057,7 @@
         <v>0.2</v>
       </c>
       <c r="K22">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4073,19 +4065,19 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>10000</v>
+        <v>9028</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -4094,7 +4086,13 @@
         <v>0.2</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <v>0.2</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4102,19 +4100,19 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>10001</v>
+        <v>9035</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>1.21</v>
+        <v>1.94</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -4123,7 +4121,13 @@
         <v>0.2</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>0.2</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4131,19 +4135,19 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>10002</v>
+        <v>10000</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F25" s="2">
-        <v>2.13</v>
+        <v>1.49</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -4152,7 +4156,7 @@
         <v>0.2</v>
       </c>
       <c r="I25">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4160,19 +4164,19 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>2.65</v>
+        <v>1.21</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -4181,7 +4185,7 @@
         <v>0.2</v>
       </c>
       <c r="I26">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4189,19 +4193,19 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F27" s="2">
-        <v>1.21</v>
+        <v>2.13</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -4210,7 +4214,7 @@
         <v>0.2</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4218,27 +4222,85 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F28" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="G28">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
+        <v>0.2</v>
+      </c>
+      <c r="I28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>10004</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>10005</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
         <v>3.08</v>
       </c>
-      <c r="G28">
-        <v>0.1</v>
-      </c>
-      <c r="H28">
-        <v>0.2</v>
-      </c>
-      <c r="I28">
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
         <v>100</v>
       </c>
     </row>
@@ -4684,10 +4746,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4739,7 +4801,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4748,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -4768,16 +4830,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.4</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="F3" s="2">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -4855,16 +4917,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.375</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -4919,16 +4981,16 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -4989,16 +5051,16 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.18179999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -5059,16 +5121,16 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>0.1</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -5094,16 +5156,16 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>9.0899999999999995E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -5164,16 +5226,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1">
-        <v>0.7</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="F15" s="2">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -5199,16 +5261,16 @@
         <v>9010</v>
       </c>
       <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F16" s="2">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -5269,16 +5331,16 @@
         <v>9016</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -5339,7 +5401,7 @@
         <v>9025</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5444,16 +5506,16 @@
         <v>9028</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -5476,19 +5538,19 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>10000</v>
+        <v>9035</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>0.2727</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>1.21</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -5497,7 +5559,13 @@
         <v>0.2</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>0.2</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5505,19 +5573,19 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C25">
         <v>11</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>0.18179999999999999</v>
+        <v>0.2727</v>
       </c>
       <c r="F25" s="2">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -5526,7 +5594,7 @@
         <v>0.2</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5534,19 +5602,19 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>0.2727</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F26" s="2">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -5555,7 +5623,7 @@
         <v>0.2</v>
       </c>
       <c r="I26">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5563,19 +5631,19 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>0.1111</v>
+        <v>0.2727</v>
       </c>
       <c r="F27" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -5584,7 +5652,7 @@
         <v>0.2</v>
       </c>
       <c r="I27">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5592,19 +5660,19 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.1111</v>
       </c>
       <c r="F28" s="2">
-        <v>1.03</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -5613,7 +5681,7 @@
         <v>0.2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -5621,7 +5689,7 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -5633,15 +5701,44 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="G29">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <v>0.2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>10005</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
         <v>1.37</v>
       </c>
-      <c r="G29">
-        <v>0.1</v>
-      </c>
-      <c r="H29">
-        <v>0.2</v>
-      </c>
-      <c r="I29">
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
         <v>100</v>
       </c>
     </row>
@@ -5874,7 +5971,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5926,7 +6023,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5935,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>3.87</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -6141,16 +6238,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>3.06</v>
+        <v>3.3</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -6281,16 +6378,16 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13" s="1">
-        <v>0.63639999999999997</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="F13" s="2">
-        <v>3.12</v>
+        <v>3.19</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -6316,16 +6413,16 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="F14" s="2">
-        <v>2.92</v>
+        <v>3.38</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -6351,16 +6448,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1">
-        <v>0.5</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="F15" s="2">
-        <v>2.65</v>
+        <v>2.86</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -6386,16 +6483,16 @@
         <v>10000</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>0.25</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="F16" s="2">
-        <v>3.11</v>
+        <v>3.17</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -6415,16 +6512,16 @@
         <v>10001</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.1</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="F17" s="2">
-        <v>3.74</v>
+        <v>4.3</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -6473,16 +6570,16 @@
         <v>10003</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.25</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F19" s="2">
-        <v>3.21</v>
+        <v>4.37</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -6561,8 +6658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6692,11 +6789,11 @@
       </c>
       <c r="AB3" s="85">
         <f>+E16</f>
-        <v>0.25806451612903225</v>
+        <v>0.25</v>
       </c>
       <c r="AC3" s="85">
         <f>+E18</f>
-        <v>0.1875</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="AD3" s="85">
         <f>+E23</f>
@@ -6712,7 +6809,7 @@
       </c>
       <c r="C4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6740,7 +6837,7 @@
       </c>
       <c r="AA4" s="92">
         <f>E14</f>
-        <v>0.16129032258064516</v>
+        <v>0.1875</v>
       </c>
       <c r="AB4" s="92">
         <f>+E13</f>
@@ -6748,11 +6845,11 @@
       </c>
       <c r="AC4" s="92">
         <f>+E15</f>
-        <v>0.375</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="AD4" s="92">
         <f>+E22</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6764,7 +6861,7 @@
       </c>
       <c r="C5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6772,39 +6869,39 @@
       </c>
       <c r="E5" s="53">
         <f t="shared" si="0"/>
-        <v>0.21875</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>7.3079245835428547E-2</v>
+        <v>7.1164726427906555E-2</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" si="2"/>
-        <v>0.14567075416457145</v>
+        <v>0.14095648569330557</v>
       </c>
       <c r="I5" s="40">
         <f t="shared" si="3"/>
-        <v>0.29182924583542857</v>
+        <v>0.28328593854911865</v>
       </c>
       <c r="Z5" s="103">
         <v>20</v>
       </c>
       <c r="AA5" s="104">
         <f>+E20</f>
-        <v>0.19354838709677419</v>
+        <v>0.1875</v>
       </c>
       <c r="AB5" s="104">
         <f>+E19</f>
-        <v>0.36666666666666664</v>
+        <v>0.34375</v>
       </c>
       <c r="AC5" s="104">
         <f>+E21</f>
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
       <c r="AD5" s="104">
         <f>+E24</f>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6844,7 +6941,7 @@
       </c>
       <c r="AA6" s="106">
         <f>+E26</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="AB6" s="106">
         <f>+E27</f>
@@ -6901,7 +6998,7 @@
       </c>
       <c r="C8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6909,20 +7006,20 @@
       </c>
       <c r="E8" s="53">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.29411764705882354</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="38">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0.11051016901502639</v>
+        <v>0.10557179862029056</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>0.18360747804379715</v>
+        <v>0.17220597915748723</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.4046278160738499</v>
+        <v>0.38334957639806833</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -7099,11 +7196,11 @@
       </c>
       <c r="AB12" s="1">
         <f>+E32</f>
-        <v>0.1</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ref="AC12:AC16" si="16">+AA12+AB12</f>
-        <v>0.1</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="AD12" s="1">
         <f>+E17</f>
@@ -7151,11 +7248,11 @@
       </c>
       <c r="AB13" s="1">
         <f>+E31</f>
-        <v>0.3125</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="16"/>
-        <v>0.43190298507462688</v>
+        <v>0.42243328810492992</v>
       </c>
       <c r="AD13" s="1">
         <f>+E13</f>
@@ -7171,28 +7268,28 @@
       </c>
       <c r="C14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="88">
         <f t="shared" si="12"/>
-        <v>0.16129032258064516</v>
+        <v>0.1875</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="89">
         <f t="shared" si="13"/>
-        <v>6.6058565028528096E-2</v>
+        <v>6.899813176818631E-2</v>
       </c>
       <c r="H14" s="89">
         <f t="shared" si="14"/>
-        <v>9.5231757552117061E-2</v>
+        <v>0.11850186823181369</v>
       </c>
       <c r="I14" s="90">
         <f t="shared" si="15"/>
-        <v>0.22734888760917327</v>
+        <v>0.25649813176818631</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -7211,7 +7308,7 @@
       </c>
       <c r="AD14" s="1">
         <f>+E21</f>
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7223,7 +7320,7 @@
       </c>
       <c r="C15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7231,35 +7328,35 @@
       </c>
       <c r="E15" s="100">
         <f t="shared" si="12"/>
-        <v>0.375</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="101">
         <f t="shared" si="13"/>
-        <v>8.5581649610182206E-2</v>
+        <v>8.3739306631243321E-2</v>
       </c>
       <c r="H15" s="101">
         <f t="shared" si="14"/>
-        <v>0.28941835038981778</v>
+        <v>0.27989705700512035</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" si="15"/>
-        <v>0.46058164961018222</v>
+        <v>0.44737567026760694</v>
       </c>
       <c r="Z15">
         <v>50</v>
       </c>
       <c r="AA15" s="1">
         <f>+E8</f>
-        <v>0.29411764705882354</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="AB15" s="1">
         <f>+E34</f>
-        <v>0.1875</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="16"/>
-        <v>0.48161764705882354</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AD15" s="1">
         <f>+E29</f>
@@ -7275,7 +7372,7 @@
       </c>
       <c r="C16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7283,20 +7380,20 @@
       </c>
       <c r="E16" s="71">
         <f t="shared" si="12"/>
-        <v>0.25806451612903225</v>
+        <v>0.25</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="72">
         <f t="shared" si="13"/>
-        <v>7.8589833875126761E-2</v>
+        <v>7.6546554461974309E-2</v>
       </c>
       <c r="H16" s="72">
         <f t="shared" si="14"/>
-        <v>0.1794746822539055</v>
+        <v>0.17345344553802569</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" si="15"/>
-        <v>0.336654350004159</v>
+        <v>0.32654655446197434</v>
       </c>
       <c r="Z16">
         <v>100</v>
@@ -7315,7 +7412,7 @@
       </c>
       <c r="AD16" s="1">
         <f>+E30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7360,7 +7457,7 @@
       </c>
       <c r="C18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7368,20 +7465,20 @@
       </c>
       <c r="E18" s="81">
         <f t="shared" si="12"/>
-        <v>0.1875</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="82">
         <f t="shared" si="13"/>
-        <v>6.899813176818631E-2</v>
+        <v>6.7140813261454213E-2</v>
       </c>
       <c r="H18" s="82">
         <f t="shared" si="14"/>
-        <v>0.11850186823181369</v>
+        <v>0.11467736855672761</v>
       </c>
       <c r="I18" s="83">
         <f t="shared" si="15"/>
-        <v>0.25649813176818631</v>
+        <v>0.24895899507963604</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7393,7 +7490,7 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7401,20 +7498,20 @@
       </c>
       <c r="E19" s="56">
         <f t="shared" si="12"/>
-        <v>0.36666666666666664</v>
+        <v>0.34375</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="13"/>
-        <v>8.7981479532574014E-2</v>
+        <v>8.396166117267452E-2</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="14"/>
-        <v>0.27868518713409263</v>
+        <v>0.25978833882732549</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="15"/>
-        <v>0.45464814619924065</v>
+        <v>0.42771166117267451</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7426,7 +7523,7 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7434,20 +7531,20 @@
       </c>
       <c r="E20" s="57">
         <f t="shared" si="12"/>
-        <v>0.19354838709677419</v>
+        <v>0.1875</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
         <f t="shared" si="13"/>
-        <v>7.0958281461945133E-2</v>
+        <v>6.899813176818631E-2</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="14"/>
-        <v>0.12259010563482906</v>
+        <v>0.11850186823181369</v>
       </c>
       <c r="I20" s="50">
         <f t="shared" si="15"/>
-        <v>0.26450666855871929</v>
+        <v>0.25649813176818631</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7459,28 +7556,28 @@
       </c>
       <c r="C21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" s="57">
         <f t="shared" si="12"/>
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="25">
         <f t="shared" si="13"/>
-        <v>8.7695095002514253E-2</v>
+        <v>8.2807867121082512E-2</v>
       </c>
       <c r="H21" s="25">
         <f t="shared" si="14"/>
-        <v>0.47480490499748573</v>
+        <v>0.51719213287891752</v>
       </c>
       <c r="I21" s="50">
         <f t="shared" si="15"/>
-        <v>0.65019509500251427</v>
+        <v>0.68280786712108243</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7492,28 +7589,28 @@
       </c>
       <c r="C22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="88">
         <f t="shared" ref="E22:E29" si="17">IFERROR(D22/C22, 0)</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="F22" s="87"/>
       <c r="G22" s="89">
         <f t="shared" ref="G22:G29" si="18">IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
-        <v>0.27216552697590868</v>
+        <v>0.21650635094610965</v>
       </c>
       <c r="H22" s="89">
         <f t="shared" ref="H22:H29" si="19">E22-G22</f>
-        <v>0.39450113969075795</v>
+        <v>0.53349364905389041</v>
       </c>
       <c r="I22" s="90">
         <f t="shared" ref="I22:I29" si="20">E22+G22</f>
-        <v>0.93883219364257531</v>
+        <v>0.96650635094610959</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7558,28 +7655,28 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="57">
         <f t="shared" si="17"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f t="shared" si="18"/>
-        <v>0.27216552697590868</v>
+        <v>0.21908902300206642</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="19"/>
-        <v>6.1167806357424637E-2</v>
+        <v>0.1809109769979336</v>
       </c>
       <c r="I24" s="50">
         <f t="shared" si="20"/>
-        <v>0.60549886030924194</v>
+        <v>0.61908902300206647</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7624,7 +7721,7 @@
       </c>
       <c r="C26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7632,20 +7729,20 @@
       </c>
       <c r="E26" s="109">
         <f t="shared" si="17"/>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="F26" s="108"/>
       <c r="G26" s="110">
         <f t="shared" si="18"/>
-        <v>0.27216552697590868</v>
+        <v>0.17888543819998318</v>
       </c>
       <c r="H26" s="110">
         <f t="shared" si="19"/>
-        <v>6.1167806357424637E-2</v>
+        <v>2.1114561800016834E-2</v>
       </c>
       <c r="I26" s="111">
         <f t="shared" si="20"/>
-        <v>0.60549886030924194</v>
+        <v>0.37888543819998322</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7723,11 +7820,11 @@
       </c>
       <c r="C29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="109">
         <f t="shared" si="17"/>
@@ -7756,15 +7853,15 @@
       </c>
       <c r="C30" s="108">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="108">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="109">
         <f t="shared" ref="E30" si="25">IFERROR(D30/C30, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="108"/>
       <c r="G30" s="110">
@@ -7773,11 +7870,11 @@
       </c>
       <c r="H30" s="110">
         <f t="shared" ref="H30" si="27">E30-G30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="111">
         <f t="shared" ref="I30" si="28">E30+G30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7789,7 +7886,7 @@
       </c>
       <c r="C31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7797,20 +7894,20 @@
       </c>
       <c r="E31" s="61">
         <f t="shared" si="12"/>
-        <v>0.3125</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="62">
         <f t="shared" si="13"/>
-        <v>8.1938191263293089E-2</v>
+        <v>8.0000556527546382E-2</v>
       </c>
       <c r="H31" s="62">
         <f t="shared" si="14"/>
-        <v>0.2305618087367069</v>
+        <v>0.22302974650275664</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" si="15"/>
-        <v>0.3944381912632931</v>
+        <v>0.38303085955784943</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7822,7 +7919,7 @@
       </c>
       <c r="C32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7830,20 +7927,20 @@
       </c>
       <c r="E32" s="114">
         <f t="shared" si="12"/>
-        <v>0.1</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="F32" s="113"/>
       <c r="G32" s="115">
         <f t="shared" si="13"/>
-        <v>5.4772255750516613E-2</v>
+        <v>4.8643307679963839E-2</v>
       </c>
       <c r="H32" s="115">
         <f t="shared" si="14"/>
-        <v>4.5227744249483393E-2</v>
+        <v>3.9591986437683226E-2</v>
       </c>
       <c r="I32" s="116">
         <f t="shared" si="15"/>
-        <v>0.15477225575051662</v>
+        <v>0.13687860179761091</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7888,7 +7985,7 @@
       </c>
       <c r="C34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7896,20 +7993,20 @@
       </c>
       <c r="E34" s="114">
         <f t="shared" ref="E34:E35" si="29">IFERROR(D34/C34, 0)</f>
-        <v>0.1875</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F34" s="113"/>
       <c r="G34" s="115">
         <f t="shared" ref="G34:G35" si="30">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
-        <v>9.7578093724974974E-2</v>
+        <v>8.7841046115788315E-2</v>
       </c>
       <c r="H34" s="115">
         <f t="shared" ref="H34:H35" si="31">E34-G34</f>
-        <v>8.9921906275025026E-2</v>
+        <v>7.8825620550878342E-2</v>
       </c>
       <c r="I34" s="116">
         <f t="shared" ref="I34:I35" si="32">E34+G34</f>
-        <v>0.28507809372497495</v>
+        <v>0.25450771278245499</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7979,6 +8076,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A15295-1245-48E7-BF41-37B8DDB26781}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90CEC1A-5B60-4915-9D73-D5F20290B81E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="ZEN" sheetId="3" r:id="rId1"/>
@@ -688,16 +688,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.19354838709677419</c:v>
+                  <c:v>0.17647058823529413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.24242424242424243</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,13 +729,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.29411764705882354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36363636363636365</c:v>
+                  <c:v>0.35294117647058826</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.75</c:v>
@@ -770,10 +770,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.21212121212121213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34375</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.6</c:v>
@@ -814,10 +814,10 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1201,10 +1201,10 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.26315789473684209</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2631578947368418E-2</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,13 +1279,13 @@
                   <c:v>8.8235294117647065E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30303030303030304</c:v>
+                  <c:v>0.29411764705882354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36842105263157893</c:v>
+                  <c:v>0.31818181818181818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1336,16 +1336,16 @@
                   <c:v>8.8235294117647065E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42243328810492992</c:v>
+                  <c:v>0.41352063213345042</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51127819548872178</c:v>
+                  <c:v>0.46103896103896103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.41315789473684206</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2631578947368418E-2</c:v>
+                  <c:v>4.7619047619047616E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,10 +1390,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19354838709677419</c:v>
+                  <c:v>0.17647058823529413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.29411764705882354</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.6</c:v>
@@ -4748,8 +4748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4859,7 +4859,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -4888,7 +4888,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -4946,16 +4946,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>0.45450000000000002</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="F7" s="2">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -5016,16 +5016,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>0.45450000000000002</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="F9" s="2">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -5086,13 +5086,13 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.18179999999999999</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F11" s="2">
         <v>1.6</v>
@@ -5296,16 +5296,16 @@
         <v>9013</v>
       </c>
       <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F17" s="2">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -5436,16 +5436,16 @@
         <v>9026</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -5471,16 +5471,16 @@
         <v>9027</v>
       </c>
       <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F22" s="2">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -5576,16 +5576,16 @@
         <v>10000</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>0.2727</v>
+        <v>0.25</v>
       </c>
       <c r="F25" s="2">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -5663,16 +5663,16 @@
         <v>10003</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0.1111</v>
+        <v>0.1</v>
       </c>
       <c r="F28" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -5692,7 +5692,7 @@
         <v>10004</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="G29">
         <v>0.1</v>
@@ -5971,7 +5971,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6081,7 +6081,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>3.71</v>
+        <v>3.87</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -6110,7 +6110,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>3.06</v>
+        <v>2.87</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -6139,16 +6139,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F6" s="2">
-        <v>3.16</v>
+        <v>3.33</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -6168,16 +6168,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>0.25</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="F7" s="2">
-        <v>3.85</v>
+        <v>3.98</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -6203,16 +6203,16 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>0.30769999999999997</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F8" s="2">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -6273,16 +6273,16 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="F10" s="2">
-        <v>2.79</v>
+        <v>2.69</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -6308,16 +6308,16 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.18179999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="F11" s="2">
-        <v>3.02</v>
+        <v>3.31</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -6378,16 +6378,16 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1">
-        <v>0.58330000000000004</v>
+        <v>0.61539999999999995</v>
       </c>
       <c r="F13" s="2">
-        <v>3.19</v>
+        <v>3.46</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -6413,16 +6413,16 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>0.30769999999999997</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="F14" s="2">
-        <v>3.38</v>
+        <v>3.26</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -6541,16 +6541,16 @@
         <v>10002</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>0.6</v>
+        <v>0.375</v>
       </c>
       <c r="F18" s="2">
-        <v>2.83</v>
+        <v>3.21</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -6570,13 +6570,13 @@
         <v>10003</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F19" s="2">
         <v>4.37</v>
@@ -6599,7 +6599,7 @@
         <v>10004</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>3.96</v>
+        <v>3.64</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -6628,7 +6628,7 @@
         <v>10005</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>3.46</v>
+        <v>3.81</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -6658,8 +6658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6785,11 +6785,11 @@
       </c>
       <c r="AA3" s="85">
         <f>+E17</f>
-        <v>0.19354838709677419</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="AB3" s="85">
         <f>+E16</f>
-        <v>0.25</v>
+        <v>0.24242424242424243</v>
       </c>
       <c r="AC3" s="85">
         <f>+E18</f>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="AD3" s="85">
         <f>+E23</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6837,15 +6837,15 @@
       </c>
       <c r="AA4" s="92">
         <f>E14</f>
-        <v>0.1875</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="AB4" s="92">
         <f>+E13</f>
-        <v>0.3125</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="AC4" s="92">
         <f>+E15</f>
-        <v>0.36363636363636365</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="AD4" s="92">
         <f>+E22</f>
@@ -6889,11 +6889,11 @@
       </c>
       <c r="AA5" s="104">
         <f>+E20</f>
-        <v>0.1875</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="AB5" s="104">
         <f>+E19</f>
-        <v>0.34375</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="AC5" s="104">
         <f>+E21</f>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="C6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6945,11 +6945,11 @@
       </c>
       <c r="AB6" s="106">
         <f>+E27</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC6" s="106">
         <f>+E28</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="AD6" s="106">
         <f>+E29</f>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="C7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6973,20 +6973,20 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="4"/>
-        <v>5.2631578947368418E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="38">
         <f t="shared" si="5"/>
-        <v>5.1227817199188175E-2</v>
+        <v>4.6471432045168251E-2</v>
       </c>
       <c r="H7" s="38">
         <f t="shared" si="6"/>
-        <v>1.4037617481802434E-3</v>
+        <v>1.1476155738793653E-3</v>
       </c>
       <c r="I7" s="40">
         <f t="shared" si="7"/>
-        <v>0.10385939614655659</v>
+        <v>9.4090479664215868E-2</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="C8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7006,20 +7006,20 @@
       </c>
       <c r="E8" s="53">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.27777777777777779</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="38">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0.10557179862029056</v>
+        <v>0.10102261788814665</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>0.17220597915748723</v>
+        <v>0.16213527684869544</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.38334957639806833</v>
+        <v>0.36418051262498874</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="AD12" s="1">
         <f>+E17</f>
-        <v>0.19354838709677419</v>
+        <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="C13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7224,20 +7224,20 @@
       </c>
       <c r="E13" s="95">
         <f t="shared" si="12"/>
-        <v>0.3125</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="96">
         <f t="shared" si="13"/>
-        <v>8.1938191263293089E-2</v>
+        <v>7.8142489900596634E-2</v>
       </c>
       <c r="H13" s="96">
         <f t="shared" si="14"/>
-        <v>0.2305618087367069</v>
+        <v>0.2159751571582269</v>
       </c>
       <c r="I13" s="97">
         <f t="shared" si="15"/>
-        <v>0.3944381912632931</v>
+        <v>0.37226013695942017</v>
       </c>
       <c r="Z13">
         <v>10</v>
@@ -7248,15 +7248,15 @@
       </c>
       <c r="AB13" s="1">
         <f>+E31</f>
-        <v>0.30303030303030304</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="16"/>
-        <v>0.42243328810492992</v>
+        <v>0.41352063213345042</v>
       </c>
       <c r="AD13" s="1">
         <f>+E13</f>
-        <v>0.3125</v>
+        <v>0.29411764705882354</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="C14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7276,20 +7276,20 @@
       </c>
       <c r="E14" s="88">
         <f t="shared" si="12"/>
-        <v>0.1875</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="89">
         <f t="shared" si="13"/>
-        <v>6.899813176818631E-2</v>
+        <v>6.7140813261454213E-2</v>
       </c>
       <c r="H14" s="89">
         <f t="shared" si="14"/>
-        <v>0.11850186823181369</v>
+        <v>0.11467736855672761</v>
       </c>
       <c r="I14" s="90">
         <f t="shared" si="15"/>
-        <v>0.25649813176818631</v>
+        <v>0.24895899507963604</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -7300,11 +7300,11 @@
       </c>
       <c r="AB14" s="1">
         <f>+E33</f>
-        <v>0.36842105263157893</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="16"/>
-        <v>0.51127819548872178</v>
+        <v>0.46103896103896103</v>
       </c>
       <c r="AD14" s="1">
         <f>+E21</f>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="C15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7328,35 +7328,35 @@
       </c>
       <c r="E15" s="100">
         <f t="shared" si="12"/>
-        <v>0.36363636363636365</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="101">
         <f t="shared" si="13"/>
-        <v>8.3739306631243321E-2</v>
+        <v>8.195653482579246E-2</v>
       </c>
       <c r="H15" s="101">
         <f t="shared" si="14"/>
-        <v>0.27989705700512035</v>
+        <v>0.2709846416447958</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" si="15"/>
-        <v>0.44737567026760694</v>
+        <v>0.43489771129638072</v>
       </c>
       <c r="Z15">
         <v>50</v>
       </c>
       <c r="AA15" s="1">
         <f>+E8</f>
-        <v>0.27777777777777779</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="AB15" s="1">
         <f>+E34</f>
-        <v>0.16666666666666666</v>
+        <v>0.15</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="16"/>
-        <v>0.44444444444444442</v>
+        <v>0.41315789473684206</v>
       </c>
       <c r="AD15" s="1">
         <f>+E29</f>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="C16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7380,27 +7380,27 @@
       </c>
       <c r="E16" s="71">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.24242424242424243</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="72">
         <f t="shared" si="13"/>
-        <v>7.6546554461974309E-2</v>
+        <v>7.4600903623838019E-2</v>
       </c>
       <c r="H16" s="72">
         <f t="shared" si="14"/>
-        <v>0.17345344553802569</v>
+        <v>0.1678233388004044</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" si="15"/>
-        <v>0.32654655446197434</v>
+        <v>0.31702514604808046</v>
       </c>
       <c r="Z16">
         <v>100</v>
       </c>
       <c r="AA16" s="1">
         <f>+E7</f>
-        <v>5.2631578947368418E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="AB16" s="1">
         <f>+E36</f>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="16"/>
-        <v>5.2631578947368418E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="AD16" s="1">
         <f>+E30</f>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="C17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7432,20 +7432,20 @@
       </c>
       <c r="E17" s="76">
         <f t="shared" si="12"/>
-        <v>0.19354838709677419</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="F17" s="75"/>
       <c r="G17" s="77">
         <f t="shared" si="13"/>
-        <v>7.0958281461945133E-2</v>
+        <v>6.5378697673671923E-2</v>
       </c>
       <c r="H17" s="77">
         <f t="shared" si="14"/>
-        <v>0.12259010563482906</v>
+        <v>0.11109189056162221</v>
       </c>
       <c r="I17" s="78">
         <f t="shared" si="15"/>
-        <v>0.26450666855871929</v>
+        <v>0.24184928590896604</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7490,28 +7490,28 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="56">
         <f t="shared" si="12"/>
-        <v>0.34375</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="13"/>
-        <v>8.396166117267452E-2</v>
+        <v>8.3739306631243321E-2</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="14"/>
-        <v>0.25978833882732549</v>
+        <v>0.27989705700512035</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="15"/>
-        <v>0.42771166117267451</v>
+        <v>0.44737567026760694</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7523,28 +7523,28 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" s="57">
         <f t="shared" si="12"/>
-        <v>0.1875</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
         <f t="shared" si="13"/>
-        <v>6.899813176818631E-2</v>
+        <v>7.1164726427906555E-2</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="14"/>
-        <v>0.11850186823181369</v>
+        <v>0.14095648569330557</v>
       </c>
       <c r="I20" s="50">
         <f t="shared" si="15"/>
-        <v>0.25649813176818631</v>
+        <v>0.28328593854911865</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7622,28 +7622,28 @@
       </c>
       <c r="C23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="76">
         <f t="shared" si="17"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="F23" s="75"/>
       <c r="G23" s="77">
         <f t="shared" si="18"/>
-        <v>0.27216552697590868</v>
+        <v>0.21650635094610965</v>
       </c>
       <c r="H23" s="77">
         <f t="shared" si="19"/>
-        <v>0.39450113969075795</v>
+        <v>0.53349364905389041</v>
       </c>
       <c r="I23" s="78">
         <f t="shared" si="20"/>
-        <v>0.93883219364257531</v>
+        <v>0.96650635094610959</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7754,28 +7754,28 @@
       </c>
       <c r="C27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="109">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F27" s="108"/>
       <c r="G27" s="110">
         <f t="shared" si="18"/>
-        <v>0.25</v>
+        <v>0.21908902300206648</v>
       </c>
       <c r="H27" s="110">
         <f t="shared" si="19"/>
-        <v>0.25</v>
+        <v>0.38091097699793353</v>
       </c>
       <c r="I27" s="111">
         <f t="shared" si="20"/>
-        <v>0.75</v>
+        <v>0.81908902300206643</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7787,28 +7787,28 @@
       </c>
       <c r="C28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="109">
         <f t="shared" si="17"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="110">
         <f t="shared" si="18"/>
-        <v>0.27216552697590868</v>
+        <v>0.21650635094610965</v>
       </c>
       <c r="H28" s="110">
         <f t="shared" si="19"/>
-        <v>0.39450113969075795</v>
+        <v>0.53349364905389041</v>
       </c>
       <c r="I28" s="111">
         <f t="shared" si="20"/>
-        <v>0.93883219364257531</v>
+        <v>0.96650635094610959</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="C31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7894,20 +7894,20 @@
       </c>
       <c r="E31" s="61">
         <f t="shared" si="12"/>
-        <v>0.30303030303030304</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="62">
         <f t="shared" si="13"/>
-        <v>8.0000556527546382E-2</v>
+        <v>7.8142489900596634E-2</v>
       </c>
       <c r="H31" s="62">
         <f t="shared" si="14"/>
-        <v>0.22302974650275664</v>
+        <v>0.2159751571582269</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" si="15"/>
-        <v>0.38303085955784943</v>
+        <v>0.37226013695942017</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="C33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="E33" s="114">
         <f t="shared" si="12"/>
-        <v>0.36842105263157893</v>
+        <v>0.31818181818181818</v>
       </c>
       <c r="F33" s="113"/>
       <c r="G33" s="115">
         <f t="shared" si="13"/>
-        <v>0.11066473327112564</v>
+        <v>9.9302601989238987E-2</v>
       </c>
       <c r="H33" s="115">
         <f t="shared" si="14"/>
-        <v>0.25775631936045329</v>
+        <v>0.21887921619257919</v>
       </c>
       <c r="I33" s="116">
         <f t="shared" si="15"/>
-        <v>0.47908578590270456</v>
+        <v>0.41748442017105714</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="C34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7993,20 +7993,20 @@
       </c>
       <c r="E34" s="114">
         <f t="shared" ref="E34:E35" si="29">IFERROR(D34/C34, 0)</f>
-        <v>0.16666666666666666</v>
+        <v>0.15</v>
       </c>
       <c r="F34" s="113"/>
       <c r="G34" s="115">
         <f t="shared" ref="G34:G35" si="30">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
-        <v>8.7841046115788315E-2</v>
+        <v>7.9843597113356563E-2</v>
       </c>
       <c r="H34" s="115">
         <f t="shared" ref="H34:H35" si="31">E34-G34</f>
-        <v>7.8825620550878342E-2</v>
+        <v>7.0156402886643432E-2</v>
       </c>
       <c r="I34" s="116">
         <f t="shared" ref="I34:I35" si="32">E34+G34</f>
-        <v>0.25450771278245499</v>
+        <v>0.22984359711335656</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="C35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="C36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90CEC1A-5B60-4915-9D73-D5F20290B81E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3CABF5-6261-44A9-9AEF-826256843120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="50">
   <si>
     <t>numberOfAminoAcids</t>
   </si>
@@ -180,6 +180,18 @@
   </si>
   <si>
     <t>ds</t>
+  </si>
+  <si>
+    <t>sigma(d)</t>
+  </si>
+  <si>
+    <t>sigma(s)</t>
+  </si>
+  <si>
+    <t>sigma(ds)</t>
+  </si>
+  <si>
+    <t>sigma(d + s)</t>
   </si>
 </sst>
 </file>
@@ -688,16 +700,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>0.17142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24242424242424243</c:v>
+                  <c:v>0.23529411764705882</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,16 +741,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0.20588235294117646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35294117647058826</c:v>
+                  <c:v>0.34285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,16 +782,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.21212121212121213</c:v>
+                  <c:v>0.23529411764705882</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.55263157894736847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,13 +823,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -1201,7 +1213,7 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.26315789473684209</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.7619047619047616E-2</c:v>
@@ -1279,10 +1291,10 @@
                   <c:v>8.8235294117647065E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31818181818181818</c:v>
+                  <c:v>0.30434782608695654</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.15</c:v>
@@ -1336,13 +1348,13 @@
                   <c:v>8.8235294117647065E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41352063213345042</c:v>
+                  <c:v>0.40511727078891258</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46103896103896103</c:v>
+                  <c:v>0.44720496894409939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41315789473684206</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.7619047619047616E-2</c:v>
@@ -1387,16 +1399,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>0.17142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.55263157894736847</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -3316,9 +3328,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA892EB-1C5D-4DA9-95FA-D6E2F64A7CF0}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3823,16 +3837,16 @@
         <v>9008</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.625</v>
       </c>
       <c r="F16" s="2">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -3858,16 +3872,16 @@
         <v>9010</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F17" s="2">
-        <v>1.29</v>
+        <v>2.06</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -3893,16 +3907,16 @@
         <v>9013</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>1.06</v>
+        <v>1.83</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -3928,16 +3942,16 @@
         <v>9016</v>
       </c>
       <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19" s="1">
-        <v>0.5</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F19" s="2">
-        <v>2.19</v>
+        <v>1.86</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -3960,34 +3974,34 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>9025</v>
+        <v>9018</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="H20">
-        <v>0.2</v>
-      </c>
-      <c r="I20">
-        <v>50</v>
-      </c>
       <c r="J20">
         <v>0.2</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -3995,19 +4009,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9026</v>
+        <v>9025</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="2">
-        <v>1.41</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -4022,7 +4036,7 @@
         <v>0.2</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4030,19 +4044,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F22" s="2">
-        <v>0.87</v>
+        <v>1.34</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -4057,7 +4071,7 @@
         <v>0.2</v>
       </c>
       <c r="K22">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4065,19 +4079,19 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -4092,7 +4106,7 @@
         <v>0.2</v>
       </c>
       <c r="K23">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4100,19 +4114,19 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>9035</v>
+        <v>9028</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>1.94</v>
+        <v>1.58</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -4121,13 +4135,13 @@
         <v>0.2</v>
       </c>
       <c r="I24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>0.2</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4135,19 +4149,19 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>10000</v>
+        <v>9035</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F25" s="2">
-        <v>1.49</v>
+        <v>1.94</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -4156,7 +4170,13 @@
         <v>0.2</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>0.2</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4164,19 +4184,19 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>10001</v>
+        <v>10000</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F26" s="2">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -4185,7 +4205,7 @@
         <v>0.2</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4193,19 +4213,19 @@
         <v>20</v>
       </c>
       <c r="B27">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>2.13</v>
+        <v>1.21</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -4214,7 +4234,7 @@
         <v>0.2</v>
       </c>
       <c r="I27">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4222,7 +4242,7 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -4234,7 +4254,7 @@
         <v>0.33329999999999999</v>
       </c>
       <c r="F28" s="2">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -4243,7 +4263,7 @@
         <v>0.2</v>
       </c>
       <c r="I28">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4251,19 +4271,19 @@
         <v>20</v>
       </c>
       <c r="B29">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F29" s="2">
-        <v>1.21</v>
+        <v>2.65</v>
       </c>
       <c r="G29">
         <v>0.1</v>
@@ -4272,7 +4292,7 @@
         <v>0.2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -4280,7 +4300,7 @@
         <v>20</v>
       </c>
       <c r="B30">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -4292,15 +4312,44 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G30">
+        <v>0.1</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>10005</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
         <v>3.08</v>
       </c>
-      <c r="G30">
-        <v>0.1</v>
-      </c>
-      <c r="H30">
-        <v>0.2</v>
-      </c>
-      <c r="I30">
+      <c r="G31">
+        <v>0.1</v>
+      </c>
+      <c r="H31">
+        <v>0.2</v>
+      </c>
+      <c r="I31">
         <v>100</v>
       </c>
     </row>
@@ -4749,7 +4798,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:K30"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4801,7 +4850,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4810,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -4830,16 +4879,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.36359999999999998</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -4917,16 +4966,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="F6" s="2">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -4981,16 +5030,16 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>9.0899999999999995E-2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F8" s="2">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -5051,16 +5100,16 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -5121,16 +5170,16 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>9.0899999999999995E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -5191,16 +5240,16 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8.3299999999999999E-2</v>
       </c>
       <c r="F14" s="2">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -5226,16 +5275,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15" s="1">
-        <v>0.72729999999999995</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F15" s="2">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -5261,16 +5310,16 @@
         <v>9010</v>
       </c>
       <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
       <c r="E16" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="F16" s="2">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -5331,16 +5380,16 @@
         <v>9016</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F18" s="2">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -5366,16 +5415,16 @@
         <v>9018</v>
       </c>
       <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="2">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -5401,7 +5450,7 @@
         <v>9025</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5506,16 +5555,16 @@
         <v>9028</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -5541,16 +5590,16 @@
         <v>9035</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>2.0499999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -5634,16 +5683,16 @@
         <v>10002</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>0.2727</v>
+        <v>0.25</v>
       </c>
       <c r="F27" s="2">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -5721,7 +5770,7 @@
         <v>10005</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5730,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="G30">
         <v>0.1</v>
@@ -5968,10 +6017,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43E6145-0F41-4387-AAD0-38B2DC27CF88}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6081,7 +6130,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -6090,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>3.87</v>
+        <v>3.56</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -6168,16 +6217,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>0.23080000000000001</v>
+        <v>0.21429999999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>3.98</v>
+        <v>3.84</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -6238,16 +6287,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>0.15379999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F9" s="2">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -6308,16 +6357,16 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.15379999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F11" s="2">
-        <v>3.31</v>
+        <v>3.15</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -6343,16 +6392,16 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
-        <v>0.30769999999999997</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="F12" s="2">
-        <v>2.98</v>
+        <v>2.89</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -6448,16 +6497,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" s="1">
-        <v>0.53849999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="2">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -6480,19 +6529,19 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>10000</v>
+        <v>9016</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>0.23080000000000001</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>3.17</v>
+        <v>2.15</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -6501,56 +6550,68 @@
         <v>0.2</v>
       </c>
       <c r="I16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>10001</v>
+        <v>9025</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>0.2</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>9026</v>
+      </c>
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="E17" s="1">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="G17">
-        <v>0.1</v>
-      </c>
-      <c r="H17">
-        <v>0.2</v>
-      </c>
-      <c r="I17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>10002</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>3.21</v>
+        <v>1.9</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -6559,27 +6620,33 @@
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>0.2</v>
+      </c>
+      <c r="K18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>10003</v>
+        <v>9027</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>4.37</v>
+        <v>1.99</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -6590,62 +6657,184 @@
       <c r="I19">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
+        <v>10000</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3.08</v>
+      </c>
+      <c r="G20">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <v>0.2</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10001</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G21">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <v>0.2</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>10002</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3.21</v>
+      </c>
+      <c r="G22">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>10003</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.37</v>
+      </c>
+      <c r="G23">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <v>0.2</v>
+      </c>
+      <c r="I23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
         <v>10004</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>8</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
         <v>3.64</v>
       </c>
-      <c r="G20">
-        <v>0.1</v>
-      </c>
-      <c r="H20">
-        <v>0.2</v>
-      </c>
-      <c r="I20">
+      <c r="G24">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <v>0.2</v>
+      </c>
+      <c r="I24">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25">
         <v>10005</v>
       </c>
-      <c r="C21">
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
         <v>3.81</v>
       </c>
-      <c r="G21">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <v>0.2</v>
-      </c>
-      <c r="I21">
+      <c r="G25">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <v>0.2</v>
+      </c>
+      <c r="I25">
         <v>100</v>
       </c>
     </row>
@@ -6656,15 +6845,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:35" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -6696,7 +6883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="31">
         <v>20</v>
       </c>
@@ -6745,7 +6932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>20</v>
       </c>
@@ -6785,22 +6972,22 @@
       </c>
       <c r="AA3" s="85">
         <f>+E17</f>
-        <v>0.17647058823529413</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="AB3" s="85">
         <f>+E16</f>
-        <v>0.24242424242424243</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="AC3" s="85">
         <f>+E18</f>
-        <v>0.18181818181818182</v>
+        <v>0.2</v>
       </c>
       <c r="AD3" s="85">
         <f>+E23</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>20</v>
       </c>
@@ -6809,7 +6996,7 @@
       </c>
       <c r="C4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6837,22 +7024,22 @@
       </c>
       <c r="AA4" s="92">
         <f>E14</f>
-        <v>0.18181818181818182</v>
+        <v>0.20588235294117646</v>
       </c>
       <c r="AB4" s="92">
         <f>+E13</f>
-        <v>0.29411764705882354</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AC4" s="92">
         <f>+E15</f>
-        <v>0.35294117647058826</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="AD4" s="92">
         <f>+E22</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
         <v>20</v>
       </c>
@@ -6861,7 +7048,7 @@
       </c>
       <c r="C5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6869,27 +7056,27 @@
       </c>
       <c r="E5" s="53">
         <f t="shared" si="0"/>
-        <v>0.21212121212121213</v>
+        <v>0.20588235294117646</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>7.1164726427906555E-2</v>
+        <v>6.9344580705297865E-2</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" si="2"/>
-        <v>0.14095648569330557</v>
+        <v>0.1365377722358786</v>
       </c>
       <c r="I5" s="40">
         <f t="shared" si="3"/>
-        <v>0.28328593854911865</v>
+        <v>0.27522693364647433</v>
       </c>
       <c r="Z5" s="103">
         <v>20</v>
       </c>
       <c r="AA5" s="104">
         <f>+E20</f>
-        <v>0.21212121212121213</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="AB5" s="104">
         <f>+E19</f>
@@ -6897,14 +7084,14 @@
       </c>
       <c r="AC5" s="104">
         <f>+E21</f>
-        <v>0.6</v>
+        <v>0.55263157894736847</v>
       </c>
       <c r="AD5" s="104">
         <f>+E24</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
         <v>20</v>
       </c>
@@ -6913,7 +7100,7 @@
       </c>
       <c r="C6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -6941,22 +7128,22 @@
       </c>
       <c r="AA6" s="106">
         <f>+E26</f>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB6" s="106">
         <f>+E27</f>
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AC6" s="106">
         <f>+E28</f>
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AD6" s="106">
         <f>+E29</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
         <v>20</v>
       </c>
@@ -6989,7 +7176,7 @@
         <v>9.4090479664215868E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>20</v>
       </c>
@@ -6998,7 +7185,7 @@
       </c>
       <c r="C8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7006,23 +7193,23 @@
       </c>
       <c r="E8" s="53">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.26315789473684209</v>
+        <v>0.25</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="38">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>0.10102261788814665</v>
+        <v>9.6824583655185426E-2</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>0.16213527684869544</v>
+        <v>0.15317541634481457</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.36418051262498874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+        <v>0.34682458365518543</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
         <v>20</v>
       </c>
@@ -7055,7 +7242,7 @@
         <v>0.14184669496787167</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
         <v>20</v>
       </c>
@@ -7102,8 +7289,20 @@
       <c r="AD10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="AF10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>20</v>
       </c>
@@ -7139,11 +7338,11 @@
         <v>2</v>
       </c>
       <c r="AA11" s="1">
-        <f>+E6</f>
+        <f>+$E$6</f>
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <f>+E35</f>
+        <f>+$E$35</f>
         <v>0</v>
       </c>
       <c r="AC11" s="1">
@@ -7151,11 +7350,24 @@
         <v>0</v>
       </c>
       <c r="AD11" s="1">
-        <f>+E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <f>+$E$25</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF11" s="1">
+        <f>+$G$6</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1">
+        <f>+$G$35</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1">
+        <f>+$G$25</f>
+        <v>0.27216552697590868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="41">
         <v>20</v>
       </c>
@@ -7191,11 +7403,11 @@
         <v>5</v>
       </c>
       <c r="AA12" s="1">
-        <f>+E4</f>
+        <f>+$E$4</f>
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <f>+E32</f>
+        <f>+$E$32</f>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="AC12" s="1">
@@ -7203,11 +7415,24 @@
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="AD12" s="1">
-        <f>+E17</f>
-        <v>0.17647058823529413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+        <f>+$E$17</f>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="AF12" s="1">
+        <f>+$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <f>+$G$32</f>
+        <v>4.8643307679963839E-2</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1">
+        <f>+$G$17</f>
+        <v>6.3704858824903413E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="93">
         <v>20</v>
       </c>
@@ -7216,7 +7441,7 @@
       </c>
       <c r="C13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7224,42 +7449,55 @@
       </c>
       <c r="E13" s="95">
         <f t="shared" si="12"/>
-        <v>0.29411764705882354</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="96">
         <f t="shared" si="13"/>
-        <v>7.8142489900596634E-2</v>
+        <v>7.6360354832121252E-2</v>
       </c>
       <c r="H13" s="96">
         <f t="shared" si="14"/>
-        <v>0.2159751571582269</v>
+        <v>0.20935393088216445</v>
       </c>
       <c r="I13" s="97">
         <f t="shared" si="15"/>
-        <v>0.37226013695942017</v>
+        <v>0.36207464054640692</v>
       </c>
       <c r="Z13">
         <v>10</v>
       </c>
       <c r="AA13" s="1">
-        <f>+E2</f>
+        <f>+$E$2</f>
         <v>0.11940298507462686</v>
       </c>
       <c r="AB13" s="1">
-        <f>+E31</f>
-        <v>0.29411764705882354</v>
+        <f>+$E$31</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="16"/>
-        <v>0.41352063213345042</v>
+        <v>0.40511727078891258</v>
       </c>
       <c r="AD13" s="1">
-        <f>+E13</f>
-        <v>0.29411764705882354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+        <f>+$E$13</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AF13" s="1">
+        <f>+$G$2</f>
+        <v>3.961492109774456E-2</v>
+      </c>
+      <c r="AG13" s="1">
+        <f>+$G$31</f>
+        <v>7.6360354832121252E-2</v>
+      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1">
+        <f>+$G$13</f>
+        <v>7.6360354832121252E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="86">
         <v>20</v>
       </c>
@@ -7268,50 +7506,63 @@
       </c>
       <c r="C14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" s="88">
         <f t="shared" si="12"/>
-        <v>0.18181818181818182</v>
+        <v>0.20588235294117646</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="89">
         <f t="shared" si="13"/>
-        <v>6.7140813261454213E-2</v>
+        <v>6.9344580705297865E-2</v>
       </c>
       <c r="H14" s="89">
         <f t="shared" si="14"/>
-        <v>0.11467736855672761</v>
+        <v>0.1365377722358786</v>
       </c>
       <c r="I14" s="90">
         <f t="shared" si="15"/>
-        <v>0.24895899507963604</v>
+        <v>0.27522693364647433</v>
       </c>
       <c r="Z14">
         <v>20</v>
       </c>
       <c r="AA14" s="1">
-        <f>+E3</f>
+        <f>+$E$3</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="AB14" s="1">
-        <f>+E33</f>
-        <v>0.31818181818181818</v>
+        <f>+$E$33</f>
+        <v>0.30434782608695654</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="16"/>
-        <v>0.46103896103896103</v>
+        <v>0.44720496894409939</v>
       </c>
       <c r="AD14" s="1">
-        <f>+E21</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <f>+$E$21</f>
+        <v>0.55263157894736847</v>
+      </c>
+      <c r="AF14" s="1">
+        <f>+$G$3</f>
+        <v>4.4086671417740551E-2</v>
+      </c>
+      <c r="AG14" s="1">
+        <f>+$G$33</f>
+        <v>9.5943875542151391E-2</v>
+      </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1">
+        <f>+$G$21</f>
+        <v>8.0660092019977481E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="98">
         <v>20</v>
       </c>
@@ -7320,7 +7571,7 @@
       </c>
       <c r="C15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7328,42 +7579,55 @@
       </c>
       <c r="E15" s="100">
         <f t="shared" si="12"/>
-        <v>0.35294117647058826</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="101">
         <f t="shared" si="13"/>
-        <v>8.195653482579246E-2</v>
+        <v>8.0232897144853002E-2</v>
       </c>
       <c r="H15" s="101">
         <f t="shared" si="14"/>
-        <v>0.2709846416447958</v>
+        <v>0.26262424571228987</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" si="15"/>
-        <v>0.43489771129638072</v>
+        <v>0.42309004000199585</v>
       </c>
       <c r="Z15">
         <v>50</v>
       </c>
       <c r="AA15" s="1">
-        <f>+E8</f>
-        <v>0.26315789473684209</v>
+        <f>+$E$8</f>
+        <v>0.25</v>
       </c>
       <c r="AB15" s="1">
-        <f>+E34</f>
+        <f>+$E$34</f>
         <v>0.15</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="16"/>
-        <v>0.41315789473684206</v>
+        <v>0.4</v>
       </c>
       <c r="AD15" s="1">
-        <f>+E29</f>
+        <f>+$E$29</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="AF15" s="1">
+        <f>+$G$8</f>
+        <v>9.6824583655185426E-2</v>
+      </c>
+      <c r="AG15" s="1">
+        <f>+$G$34</f>
+        <v>7.9843597113356563E-2</v>
+      </c>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1">
+        <f>+$G$29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="69">
         <v>20</v>
       </c>
@@ -7372,7 +7636,7 @@
       </c>
       <c r="C16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7380,30 +7644,30 @@
       </c>
       <c r="E16" s="71">
         <f t="shared" si="12"/>
-        <v>0.24242424242424243</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="72">
         <f t="shared" si="13"/>
-        <v>7.4600903623838019E-2</v>
+        <v>7.2746699105981444E-2</v>
       </c>
       <c r="H16" s="72">
         <f t="shared" si="14"/>
-        <v>0.1678233388004044</v>
+        <v>0.16254741854107738</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" si="15"/>
-        <v>0.31702514604808046</v>
+        <v>0.30804081675304029</v>
       </c>
       <c r="Z16">
         <v>100</v>
       </c>
       <c r="AA16" s="1">
-        <f>+E7</f>
+        <f>+$E$7</f>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="AB16" s="1">
-        <f>+E36</f>
+        <f>+$E$36</f>
         <v>0</v>
       </c>
       <c r="AC16" s="1">
@@ -7411,8 +7675,21 @@
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="AD16" s="1">
-        <f>+E30</f>
+        <f>+$E$30</f>
         <v>1</v>
+      </c>
+      <c r="AF16" s="1">
+        <f>+$G$7</f>
+        <v>4.6471432045168251E-2</v>
+      </c>
+      <c r="AG16" s="1">
+        <f>+$G$36</f>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1">
+        <f>+$G$30</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7424,7 +7701,7 @@
       </c>
       <c r="C17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7432,20 +7709,20 @@
       </c>
       <c r="E17" s="76">
         <f t="shared" si="12"/>
-        <v>0.17647058823529413</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="F17" s="75"/>
       <c r="G17" s="77">
         <f t="shared" si="13"/>
-        <v>6.5378697673671923E-2</v>
+        <v>6.3704858824903413E-2</v>
       </c>
       <c r="H17" s="77">
         <f t="shared" si="14"/>
-        <v>0.11109189056162221</v>
+        <v>0.10772371260366802</v>
       </c>
       <c r="I17" s="78">
         <f t="shared" si="15"/>
-        <v>0.24184928590896604</v>
+        <v>0.23513343025347483</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7457,28 +7734,28 @@
       </c>
       <c r="C18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="81">
         <f t="shared" si="12"/>
-        <v>0.18181818181818182</v>
+        <v>0.2</v>
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="82">
         <f t="shared" si="13"/>
-        <v>6.7140813261454213E-2</v>
+        <v>6.761234037828133E-2</v>
       </c>
       <c r="H18" s="82">
         <f t="shared" si="14"/>
-        <v>0.11467736855672761</v>
+        <v>0.13238765962171867</v>
       </c>
       <c r="I18" s="83">
         <f t="shared" si="15"/>
-        <v>0.24895899507963604</v>
+        <v>0.26761234037828135</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7523,28 +7800,28 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" s="57">
         <f t="shared" si="12"/>
-        <v>0.21212121212121213</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
         <f t="shared" si="13"/>
-        <v>7.1164726427906555E-2</v>
+        <v>7.2746699105981444E-2</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="14"/>
-        <v>0.14095648569330557</v>
+        <v>0.16254741854107738</v>
       </c>
       <c r="I20" s="50">
         <f t="shared" si="15"/>
-        <v>0.28328593854911865</v>
+        <v>0.30804081675304029</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7556,7 +7833,7 @@
       </c>
       <c r="C21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7564,20 +7841,20 @@
       </c>
       <c r="E21" s="57">
         <f t="shared" si="12"/>
-        <v>0.6</v>
+        <v>0.55263157894736847</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="25">
         <f t="shared" si="13"/>
-        <v>8.2807867121082512E-2</v>
+        <v>8.0660092019977481E-2</v>
       </c>
       <c r="H21" s="25">
         <f t="shared" si="14"/>
-        <v>0.51719213287891752</v>
+        <v>0.47197148692739099</v>
       </c>
       <c r="I21" s="50">
         <f t="shared" si="15"/>
-        <v>0.68280786712108243</v>
+        <v>0.63329167096734595</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7589,28 +7866,28 @@
       </c>
       <c r="C22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" s="88">
         <f t="shared" ref="E22:E29" si="17">IFERROR(D22/C22, 0)</f>
-        <v>0.75</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F22" s="87"/>
       <c r="G22" s="89">
         <f t="shared" ref="G22:G29" si="18">IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
-        <v>0.21650635094610965</v>
+        <v>0.18704390591656492</v>
       </c>
       <c r="H22" s="89">
         <f t="shared" ref="H22:H29" si="19">E22-G22</f>
-        <v>0.53349364905389041</v>
+        <v>0.38438466551200645</v>
       </c>
       <c r="I22" s="90">
         <f t="shared" ref="I22:I29" si="20">E22+G22</f>
-        <v>0.96650635094610959</v>
+        <v>0.75847247734513634</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7622,7 +7899,7 @@
       </c>
       <c r="C23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7630,20 +7907,20 @@
       </c>
       <c r="E23" s="76">
         <f t="shared" si="17"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="75"/>
       <c r="G23" s="77">
         <f t="shared" si="18"/>
-        <v>0.21650635094610965</v>
+        <v>0.20412414523193148</v>
       </c>
       <c r="H23" s="77">
         <f t="shared" si="19"/>
-        <v>0.53349364905389041</v>
+        <v>0.29587585476806855</v>
       </c>
       <c r="I23" s="78">
         <f t="shared" si="20"/>
-        <v>0.96650635094610959</v>
+        <v>0.70412414523193145</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7655,28 +7932,28 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="57">
         <f t="shared" si="17"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f t="shared" si="18"/>
-        <v>0.21908902300206642</v>
+        <v>0.17677669529663689</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="19"/>
-        <v>0.1809109769979336</v>
+        <v>0.32322330470336313</v>
       </c>
       <c r="I24" s="50">
         <f t="shared" si="20"/>
-        <v>0.61908902300206647</v>
+        <v>0.67677669529663687</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7688,28 +7965,28 @@
       </c>
       <c r="C25" s="12">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" s="12">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="55">
         <f t="shared" ref="E25" si="21">IFERROR(D25/C25, 0)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="13">
         <f t="shared" ref="G25" si="22">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
-        <v>0</v>
+        <v>0.27216552697590868</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" ref="H25" si="23">E25-G25</f>
-        <v>0</v>
+        <v>6.1167806357424637E-2</v>
       </c>
       <c r="I25" s="48">
         <f t="shared" ref="I25" si="24">E25+G25</f>
-        <v>0</v>
+        <v>0.60549886030924194</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7721,7 +7998,7 @@
       </c>
       <c r="C26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7729,20 +8006,20 @@
       </c>
       <c r="E26" s="109">
         <f t="shared" si="17"/>
-        <v>0.2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F26" s="108"/>
       <c r="G26" s="110">
         <f t="shared" si="18"/>
-        <v>0.17888543819998318</v>
+        <v>0.13226001425322165</v>
       </c>
       <c r="H26" s="110">
         <f t="shared" si="19"/>
-        <v>2.1114561800016834E-2</v>
+        <v>1.0597128603921202E-2</v>
       </c>
       <c r="I26" s="111">
         <f t="shared" si="20"/>
-        <v>0.37888543819998322</v>
+        <v>0.2751171571103645</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7754,28 +8031,28 @@
       </c>
       <c r="C27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="109">
         <f t="shared" si="17"/>
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F27" s="108"/>
       <c r="G27" s="110">
         <f t="shared" si="18"/>
-        <v>0.21908902300206648</v>
+        <v>0.18704390591656492</v>
       </c>
       <c r="H27" s="110">
         <f t="shared" si="19"/>
-        <v>0.38091097699793353</v>
+        <v>0.38438466551200645</v>
       </c>
       <c r="I27" s="111">
         <f t="shared" si="20"/>
-        <v>0.81908902300206643</v>
+        <v>0.75847247734513634</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7787,28 +8064,28 @@
       </c>
       <c r="C28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" s="109">
         <f t="shared" si="17"/>
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="110">
         <f t="shared" si="18"/>
-        <v>0.21650635094610965</v>
+        <v>0.17074694419062766</v>
       </c>
       <c r="H28" s="110">
         <f t="shared" si="19"/>
-        <v>0.53349364905389041</v>
+        <v>0.54353877009508667</v>
       </c>
       <c r="I28" s="111">
         <f t="shared" si="20"/>
-        <v>0.96650635094610959</v>
+        <v>0.88503265847634194</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7820,11 +8097,11 @@
       </c>
       <c r="C29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29" s="109">
         <f t="shared" si="17"/>
@@ -7853,11 +8130,11 @@
       </c>
       <c r="C30" s="108">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="108">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="109">
         <f t="shared" ref="E30" si="25">IFERROR(D30/C30, 0)</f>
@@ -7886,7 +8163,7 @@
       </c>
       <c r="C31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7894,20 +8171,20 @@
       </c>
       <c r="E31" s="61">
         <f t="shared" si="12"/>
-        <v>0.29411764705882354</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="62">
         <f t="shared" si="13"/>
-        <v>7.8142489900596634E-2</v>
+        <v>7.6360354832121252E-2</v>
       </c>
       <c r="H31" s="62">
         <f t="shared" si="14"/>
-        <v>0.2159751571582269</v>
+        <v>0.20935393088216445</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" si="15"/>
-        <v>0.37226013695942017</v>
+        <v>0.36207464054640692</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7952,7 +8229,7 @@
       </c>
       <c r="C33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7960,20 +8237,20 @@
       </c>
       <c r="E33" s="114">
         <f t="shared" si="12"/>
-        <v>0.31818181818181818</v>
+        <v>0.30434782608695654</v>
       </c>
       <c r="F33" s="113"/>
       <c r="G33" s="115">
         <f t="shared" si="13"/>
-        <v>9.9302601989238987E-2</v>
+        <v>9.5943875542151391E-2</v>
       </c>
       <c r="H33" s="115">
         <f t="shared" si="14"/>
-        <v>0.21887921619257919</v>
+        <v>0.20840395054480515</v>
       </c>
       <c r="I33" s="116">
         <f t="shared" si="15"/>
-        <v>0.41748442017105714</v>
+        <v>0.40029170162910793</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8051,7 +8328,7 @@
       </c>
       <c r="C36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3CABF5-6261-44A9-9AEF-826256843120}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AA8347-EF62-4671-B25E-9F26EB3F8FAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -741,7 +741,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.20588235294117646</c:v>
+                  <c:v>0.17142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2857142857142857</c:v>
@@ -782,16 +782,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.23529411764705882</c:v>
+                  <c:v>0.25714285714285712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36363636363636365</c:v>
+                  <c:v>0.35294117647058826</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.55263157894736847</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,16 +823,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,10 +1213,10 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.23809523809523808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,16 +1288,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8235294117647065E-2</c:v>
+                  <c:v>0.11428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30434782608695654</c:v>
+                  <c:v>0.2608695652173913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>9.5238095238095233E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1345,19 +1345,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8235294117647065E-2</c:v>
+                  <c:v>0.11428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40511727078891258</c:v>
+                  <c:v>0.39718076285240467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44720496894409939</c:v>
+                  <c:v>0.40372670807453415</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,7 +1411,7 @@
                   <c:v>0.55263157894736847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -3330,9 +3330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA892EB-1C5D-4DA9-95FA-D6E2F64A7CF0}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3595,10 +3593,10 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
         <v>2.29</v>
@@ -3945,10 +3943,10 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F19" s="2">
         <v>1.86</v>
@@ -4012,16 +4010,16 @@
         <v>9025</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>2.2400000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -4050,10 +4048,10 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F22" s="2">
         <v>1.34</v>
@@ -4120,10 +4118,10 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F24" s="2">
         <v>1.58</v>
@@ -4248,10 +4246,10 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
         <v>2.13</v>
@@ -4277,10 +4275,10 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.33329999999999999</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
         <v>2.65</v>
@@ -4797,9 +4795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -5205,13 +5201,13 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>8.3299999999999999E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="F13" s="2">
         <v>1.1299999999999999</v>
@@ -5625,16 +5621,16 @@
         <v>10000</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>0.25</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="F25" s="2">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -5654,16 +5650,16 @@
         <v>10001</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="F26" s="2">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -5712,13 +5708,13 @@
         <v>10003</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>0.1</v>
+        <v>9.0899999999999995E-2</v>
       </c>
       <c r="F28" s="2">
         <v>1.1599999999999999</v>
@@ -5741,7 +5737,7 @@
         <v>10004</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5750,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G29">
         <v>0.1</v>
@@ -6020,7 +6016,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6159,7 +6155,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -6168,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -6188,16 +6184,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.1429</v>
+        <v>0.125</v>
       </c>
       <c r="F6" s="2">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -6252,16 +6248,16 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>0.28570000000000001</v>
+        <v>0.26669999999999999</v>
       </c>
       <c r="F8" s="2">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -6462,16 +6458,16 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1">
-        <v>0.35709999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="F14" s="2">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -6847,7 +6843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -7024,7 +7020,7 @@
       </c>
       <c r="AA4" s="92">
         <f>E14</f>
-        <v>0.20588235294117646</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="AB4" s="92">
         <f>+E13</f>
@@ -7076,11 +7072,11 @@
       </c>
       <c r="AA5" s="104">
         <f>+E20</f>
-        <v>0.23529411764705882</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="AB5" s="104">
         <f>+E19</f>
-        <v>0.36363636363636365</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="AC5" s="104">
         <f>+E21</f>
@@ -7088,7 +7084,7 @@
       </c>
       <c r="AD5" s="104">
         <f>+E24</f>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7128,11 +7124,11 @@
       </c>
       <c r="AA6" s="106">
         <f>+E26</f>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="106">
         <f>+E27</f>
-        <v>0.5714285714285714</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="AC6" s="106">
         <f>+E28</f>
@@ -7140,7 +7136,7 @@
       </c>
       <c r="AD6" s="106">
         <f>+E29</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7152,7 +7148,7 @@
       </c>
       <c r="C7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7160,20 +7156,20 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="4"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="38">
         <f t="shared" si="5"/>
-        <v>4.6471432045168251E-2</v>
+        <v>4.4409473678108838E-2</v>
       </c>
       <c r="H7" s="38">
         <f t="shared" si="6"/>
-        <v>1.1476155738793653E-3</v>
+        <v>1.045071776436618E-3</v>
       </c>
       <c r="I7" s="40">
         <f t="shared" si="7"/>
-        <v>9.4090479664215868E-2</v>
+        <v>8.9864019132654294E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7185,7 +7181,7 @@
       </c>
       <c r="C8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7193,20 +7189,20 @@
       </c>
       <c r="E8" s="53">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.25</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="38">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>9.6824583655185426E-2</v>
+        <v>9.2942864090336502E-2</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>0.15317541634481457</v>
+        <v>0.14515237400490158</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.34682458365518543</v>
+        <v>0.33103810218557461</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7408,11 +7404,11 @@
       </c>
       <c r="AB12" s="1">
         <f>+$E$32</f>
-        <v>8.8235294117647065E-2</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ref="AC12:AC16" si="16">+AA12+AB12</f>
-        <v>8.8235294117647065E-2</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="AD12" s="1">
         <f>+$E$17</f>
@@ -7424,7 +7420,7 @@
       </c>
       <c r="AG12" s="1">
         <f>+$G$32</f>
-        <v>4.8643307679963839E-2</v>
+        <v>5.3778511320818297E-2</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1">
@@ -7473,11 +7469,11 @@
       </c>
       <c r="AB13" s="1">
         <f>+$E$31</f>
-        <v>0.2857142857142857</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="16"/>
-        <v>0.40511727078891258</v>
+        <v>0.39718076285240467</v>
       </c>
       <c r="AD13" s="1">
         <f>+$E$13</f>
@@ -7489,7 +7485,7 @@
       </c>
       <c r="AG13" s="1">
         <f>+$G$31</f>
-        <v>7.6360354832121252E-2</v>
+        <v>7.4650534706468041E-2</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1">
@@ -7506,28 +7502,28 @@
       </c>
       <c r="C14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="88">
         <f t="shared" si="12"/>
-        <v>0.20588235294117646</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="89">
         <f t="shared" si="13"/>
-        <v>6.9344580705297865E-2</v>
+        <v>6.3704858824903413E-2</v>
       </c>
       <c r="H14" s="89">
         <f t="shared" si="14"/>
-        <v>0.1365377722358786</v>
+        <v>0.10772371260366802</v>
       </c>
       <c r="I14" s="90">
         <f t="shared" si="15"/>
-        <v>0.27522693364647433</v>
+        <v>0.23513343025347483</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -7538,11 +7534,11 @@
       </c>
       <c r="AB14" s="1">
         <f>+$E$33</f>
-        <v>0.30434782608695654</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="16"/>
-        <v>0.44720496894409939</v>
+        <v>0.40372670807453415</v>
       </c>
       <c r="AD14" s="1">
         <f>+$E$21</f>
@@ -7554,7 +7550,7 @@
       </c>
       <c r="AG14" s="1">
         <f>+$G$33</f>
-        <v>9.5943875542151391E-2</v>
+        <v>9.1560537151700067E-2</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1">
@@ -7599,32 +7595,32 @@
       </c>
       <c r="AA15" s="1">
         <f>+$E$8</f>
-        <v>0.25</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="AB15" s="1">
         <f>+$E$34</f>
-        <v>0.15</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="16"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD15" s="1">
         <f>+$E$29</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AF15" s="1">
         <f>+$G$8</f>
-        <v>9.6824583655185426E-2</v>
+        <v>9.2942864090336502E-2</v>
       </c>
       <c r="AG15" s="1">
         <f>+$G$34</f>
-        <v>7.9843597113356563E-2</v>
+        <v>6.4056448489004686E-2</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1">
         <f>+$G$29</f>
-        <v>0</v>
+        <v>0.15214515486254612</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7664,7 +7660,7 @@
       </c>
       <c r="AA16" s="1">
         <f>+$E$7</f>
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="AB16" s="1">
         <f>+$E$36</f>
@@ -7672,7 +7668,7 @@
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="16"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="AD16" s="1">
         <f>+$E$30</f>
@@ -7680,7 +7676,7 @@
       </c>
       <c r="AF16" s="1">
         <f>+$G$7</f>
-        <v>4.6471432045168251E-2</v>
+        <v>4.4409473678108838E-2</v>
       </c>
       <c r="AG16" s="1">
         <f>+$G$36</f>
@@ -7767,7 +7763,7 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7775,20 +7771,20 @@
       </c>
       <c r="E19" s="56">
         <f t="shared" si="12"/>
-        <v>0.36363636363636365</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="13"/>
-        <v>8.3739306631243321E-2</v>
+        <v>8.195653482579246E-2</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="14"/>
-        <v>0.27989705700512035</v>
+        <v>0.2709846416447958</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="15"/>
-        <v>0.44737567026760694</v>
+        <v>0.43489771129638072</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7800,28 +7796,28 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="57">
         <f t="shared" si="12"/>
-        <v>0.23529411764705882</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
         <f t="shared" si="13"/>
-        <v>7.2746699105981444E-2</v>
+        <v>7.387642348897154E-2</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="14"/>
-        <v>0.16254741854107738</v>
+        <v>0.18326643365388556</v>
       </c>
       <c r="I20" s="50">
         <f t="shared" si="15"/>
-        <v>0.30804081675304029</v>
+        <v>0.33101928063182867</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7936,24 +7932,24 @@
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="57">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f t="shared" si="18"/>
-        <v>0.17677669529663689</v>
+        <v>0.17116329922036441</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="19"/>
-        <v>0.32322330470336313</v>
+        <v>0.20383670077963559</v>
       </c>
       <c r="I24" s="50">
         <f t="shared" si="20"/>
-        <v>0.67677669529663687</v>
+        <v>0.54616329922036444</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7998,28 +7994,28 @@
       </c>
       <c r="C26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="109">
         <f t="shared" si="17"/>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="F26" s="108"/>
       <c r="G26" s="110">
         <f t="shared" si="18"/>
-        <v>0.13226001425322165</v>
+        <v>0</v>
       </c>
       <c r="H26" s="110">
         <f t="shared" si="19"/>
-        <v>1.0597128603921202E-2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="111">
         <f t="shared" si="20"/>
-        <v>0.2751171571103645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8035,24 +8031,24 @@
       </c>
       <c r="D27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="109">
         <f t="shared" si="17"/>
-        <v>0.5714285714285714</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F27" s="108"/>
       <c r="G27" s="110">
         <f t="shared" si="18"/>
-        <v>0.18704390591656492</v>
+        <v>0.18704390591656489</v>
       </c>
       <c r="H27" s="110">
         <f t="shared" si="19"/>
-        <v>0.38438466551200645</v>
+        <v>0.24152752265486366</v>
       </c>
       <c r="I27" s="111">
         <f t="shared" si="20"/>
-        <v>0.75847247734513634</v>
+        <v>0.61561533448799344</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8101,24 +8097,24 @@
       </c>
       <c r="D29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" s="109">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F29" s="108"/>
       <c r="G29" s="110">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.15214515486254612</v>
       </c>
       <c r="H29" s="110">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0.68118817847078728</v>
       </c>
       <c r="I29" s="111">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0.98547848819587947</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -8163,7 +8159,7 @@
       </c>
       <c r="C31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8171,20 +8167,20 @@
       </c>
       <c r="E31" s="61">
         <f t="shared" si="12"/>
-        <v>0.2857142857142857</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="62">
         <f t="shared" si="13"/>
-        <v>7.6360354832121252E-2</v>
+        <v>7.4650534706468041E-2</v>
       </c>
       <c r="H31" s="62">
         <f t="shared" si="14"/>
-        <v>0.20935393088216445</v>
+        <v>0.20312724307130975</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" si="15"/>
-        <v>0.36207464054640692</v>
+        <v>0.35242831248424583</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8196,28 +8192,28 @@
       </c>
       <c r="C32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" s="114">
         <f t="shared" si="12"/>
-        <v>8.8235294117647065E-2</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="F32" s="113"/>
       <c r="G32" s="115">
         <f t="shared" si="13"/>
-        <v>4.8643307679963839E-2</v>
+        <v>5.3778511320818297E-2</v>
       </c>
       <c r="H32" s="115">
         <f t="shared" si="14"/>
-        <v>3.9591986437683226E-2</v>
+        <v>6.0507202964895986E-2</v>
       </c>
       <c r="I32" s="116">
         <f t="shared" si="15"/>
-        <v>0.13687860179761091</v>
+        <v>0.16806422560653259</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8233,24 +8229,24 @@
       </c>
       <c r="D33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="114">
         <f t="shared" si="12"/>
-        <v>0.30434782608695654</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="F33" s="113"/>
       <c r="G33" s="115">
         <f t="shared" si="13"/>
-        <v>9.5943875542151391E-2</v>
+        <v>9.1560537151700067E-2</v>
       </c>
       <c r="H33" s="115">
         <f t="shared" si="14"/>
-        <v>0.20840395054480515</v>
+        <v>0.16930902806569123</v>
       </c>
       <c r="I33" s="116">
         <f t="shared" si="15"/>
-        <v>0.40029170162910793</v>
+        <v>0.35243010236909134</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8262,28 +8258,28 @@
       </c>
       <c r="C34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="114">
         <f t="shared" ref="E34:E35" si="29">IFERROR(D34/C34, 0)</f>
-        <v>0.15</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="F34" s="113"/>
       <c r="G34" s="115">
         <f t="shared" ref="G34:G35" si="30">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
-        <v>7.9843597113356563E-2</v>
+        <v>6.4056448489004686E-2</v>
       </c>
       <c r="H34" s="115">
         <f t="shared" ref="H34:H35" si="31">E34-G34</f>
-        <v>7.0156402886643432E-2</v>
+        <v>3.1181646749090547E-2</v>
       </c>
       <c r="I34" s="116">
         <f t="shared" ref="I34:I35" si="32">E34+G34</f>
-        <v>0.22984359711335656</v>
+        <v>0.15929454372709992</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -8295,7 +8291,7 @@
       </c>
       <c r="C35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AA8347-EF62-4671-B25E-9F26EB3F8FAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E07968-7796-47F7-9E76-604BCA20C445}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -700,16 +700,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17142857142857143</c:v>
+                  <c:v>0.11428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23529411764705882</c:v>
+                  <c:v>0.14705882352941177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,13 +741,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17142857142857143</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34285714285714286</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.5714285714285714</c:v>
@@ -782,13 +782,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.25714285714285712</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35294117647058826</c:v>
+                  <c:v>0.31428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55263157894736847</c:v>
+                  <c:v>0.38461538461538464</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.375</c:v>
@@ -826,13 +826,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,10 +1213,10 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23809523809523808</c:v>
+                  <c:v>0.19047619047619047</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5454545454545456E-2</c:v>
+                  <c:v>4.3478260869565216E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,16 +1288,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11428571428571428</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.19444444444444445</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2608695652173913</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1345,19 +1345,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11428571428571428</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39718076285240467</c:v>
+                  <c:v>0.3138474295190713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40372670807453415</c:v>
+                  <c:v>0.36024844720496896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.2813852813852814</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5454545454545456E-2</c:v>
+                  <c:v>4.3478260869565216E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,22 +1399,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17142857142857143</c:v>
+                  <c:v>0.11428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55263157894736847</c:v>
+                  <c:v>0.38461538461538464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3330,7 +3330,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA892EB-1C5D-4DA9-95FA-D6E2F64A7CF0}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -3835,16 +3837,16 @@
         <v>9008</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" s="1">
-        <v>0.625</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="F16" s="2">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -3975,7 +3977,7 @@
         <v>9018</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3984,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1.68</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -4080,16 +4082,16 @@
         <v>9027</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F23" s="2">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -4150,16 +4152,16 @@
         <v>9035</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="2">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -4795,7 +4797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4904,7 +4908,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4913,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -4933,7 +4937,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4942,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -4991,16 +4995,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>0.41670000000000001</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="F7" s="2">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -5061,16 +5065,16 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>0.41670000000000001</v>
+        <v>0.3846</v>
       </c>
       <c r="F9" s="2">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G9">
         <v>0.1</v>
@@ -5236,13 +5240,13 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>8.3299999999999999E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="F14" s="2">
         <v>1.35</v>
@@ -5274,10 +5278,10 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F15" s="2">
         <v>1.71</v>
@@ -5341,16 +5345,16 @@
         <v>9013</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="2">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -5411,16 +5415,16 @@
         <v>9018</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.5</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F19" s="2">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -5481,16 +5485,16 @@
         <v>9026</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="2">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -5516,16 +5520,16 @@
         <v>9027</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="2">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -5554,10 +5558,10 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F23" s="2">
         <v>1.82</v>
@@ -5624,10 +5628,10 @@
         <v>13</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.23080000000000001</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="F25" s="2">
         <v>1.21</v>
@@ -5682,10 +5686,10 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>0.25</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F27" s="2">
         <v>1.57</v>
@@ -5766,7 +5770,7 @@
         <v>10005</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5775,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G30">
         <v>0.1</v>
@@ -6016,7 +6020,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6097,16 +6101,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.15379999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F3" s="2">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -6187,10 +6191,10 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <v>3.24</v>
@@ -6251,10 +6255,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>0.26669999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="2">
         <v>2.52</v>
@@ -6321,10 +6325,10 @@
         <v>13</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>0.30769999999999997</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="F10" s="2">
         <v>2.69</v>
@@ -6356,10 +6360,10 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0.1429</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>3.15</v>
@@ -6388,16 +6392,16 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>0.35709999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="2">
-        <v>2.89</v>
+        <v>2.81</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -6423,16 +6427,16 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1">
-        <v>0.61539999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="2">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -6461,10 +6465,10 @@
         <v>15</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1">
-        <v>0.4</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F14" s="2">
         <v>3.14</v>
@@ -6496,10 +6500,10 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>0.5</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="F15" s="2">
         <v>2.82</v>
@@ -6671,10 +6675,10 @@
         <v>14</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0.21429999999999999</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="F20" s="2">
         <v>3.08</v>
@@ -6697,16 +6701,16 @@
         <v>10001</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>7.6899999999999996E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>4.3</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -6755,16 +6759,16 @@
         <v>10003</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>0.1429</v>
+        <v>0.125</v>
       </c>
       <c r="F23" s="2">
-        <v>4.37</v>
+        <v>4.18</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -6813,7 +6817,7 @@
         <v>10005</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -6822,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>3.81</v>
+        <v>3.68</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -6843,7 +6847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -6968,19 +6972,19 @@
       </c>
       <c r="AA3" s="85">
         <f>+E17</f>
-        <v>0.17142857142857143</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="AB3" s="85">
         <f>+E16</f>
-        <v>0.23529411764705882</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="AC3" s="85">
         <f>+E18</f>
-        <v>0.2</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="AD3" s="85">
         <f>+E23</f>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7020,15 +7024,15 @@
       </c>
       <c r="AA4" s="92">
         <f>E14</f>
-        <v>0.17142857142857143</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AB4" s="92">
         <f>+E13</f>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="AC4" s="92">
         <f>+E15</f>
-        <v>0.34285714285714286</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AD4" s="92">
         <f>+E22</f>
@@ -7044,7 +7048,7 @@
       </c>
       <c r="C5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7052,35 +7056,35 @@
       </c>
       <c r="E5" s="53">
         <f t="shared" si="0"/>
-        <v>0.20588235294117646</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>6.9344580705297865E-2</v>
+        <v>6.761234037828133E-2</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" si="2"/>
-        <v>0.1365377722358786</v>
+        <v>0.13238765962171867</v>
       </c>
       <c r="I5" s="40">
         <f t="shared" si="3"/>
-        <v>0.27522693364647433</v>
+        <v>0.26761234037828135</v>
       </c>
       <c r="Z5" s="103">
         <v>20</v>
       </c>
       <c r="AA5" s="104">
         <f>+E20</f>
-        <v>0.25714285714285712</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="AB5" s="104">
         <f>+E19</f>
-        <v>0.35294117647058826</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="AC5" s="104">
         <f>+E21</f>
-        <v>0.55263157894736847</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AD5" s="104">
         <f>+E24</f>
@@ -7096,7 +7100,7 @@
       </c>
       <c r="C6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7128,15 +7132,15 @@
       </c>
       <c r="AB6" s="106">
         <f>+E27</f>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="AC6" s="106">
         <f>+E28</f>
-        <v>0.7142857142857143</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="AD6" s="106">
         <f>+E29</f>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7148,7 +7152,7 @@
       </c>
       <c r="C7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7156,20 +7160,20 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="4"/>
-        <v>4.5454545454545456E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="38">
         <f t="shared" si="5"/>
-        <v>4.4409473678108838E-2</v>
+        <v>4.2522577993202242E-2</v>
       </c>
       <c r="H7" s="38">
         <f t="shared" si="6"/>
-        <v>1.045071776436618E-3</v>
+        <v>9.5568287636297461E-4</v>
       </c>
       <c r="I7" s="40">
         <f t="shared" si="7"/>
-        <v>8.9864019132654294E-2</v>
+        <v>8.6000838862767465E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7185,24 +7189,24 @@
       </c>
       <c r="D8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="53">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.23809523809523808</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="38">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>9.2942864090336502E-2</v>
+        <v>8.568908674689879E-2</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>0.14515237400490158</v>
+        <v>0.10478710372929168</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.33103810218557461</v>
+        <v>0.27616527722308926</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7347,7 +7351,7 @@
       </c>
       <c r="AD11" s="1">
         <f>+$E$25</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AF11" s="1">
         <f>+$G$6</f>
@@ -7360,7 +7364,7 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1">
         <f>+$G$25</f>
-        <v>0.27216552697590868</v>
+        <v>0.15214515486254615</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7404,15 +7408,15 @@
       </c>
       <c r="AB12" s="1">
         <f>+$E$32</f>
-        <v>0.11428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ref="AC12:AC16" si="16">+AA12+AB12</f>
-        <v>0.11428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AD12" s="1">
         <f>+$E$17</f>
-        <v>0.17142857142857143</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="AF12" s="1">
         <f>+$G$4</f>
@@ -7420,12 +7424,12 @@
       </c>
       <c r="AG12" s="1">
         <f>+$G$32</f>
-        <v>5.3778511320818297E-2</v>
+        <v>5.2378280087892408E-2</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1">
         <f>+$G$17</f>
-        <v>6.3704858824903413E-2</v>
+        <v>5.3778511320818297E-2</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7437,28 +7441,28 @@
       </c>
       <c r="C13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="95">
         <f t="shared" si="12"/>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="96">
         <f t="shared" si="13"/>
-        <v>7.6360354832121252E-2</v>
+        <v>7.2168783648703216E-2</v>
       </c>
       <c r="H13" s="96">
         <f t="shared" si="14"/>
-        <v>0.20935393088216445</v>
+        <v>0.17783121635129678</v>
       </c>
       <c r="I13" s="97">
         <f t="shared" si="15"/>
-        <v>0.36207464054640692</v>
+        <v>0.32216878364870322</v>
       </c>
       <c r="Z13">
         <v>10</v>
@@ -7469,15 +7473,15 @@
       </c>
       <c r="AB13" s="1">
         <f>+$E$31</f>
-        <v>0.27777777777777779</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="16"/>
-        <v>0.39718076285240467</v>
+        <v>0.3138474295190713</v>
       </c>
       <c r="AD13" s="1">
         <f>+$E$13</f>
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="AF13" s="1">
         <f>+$G$2</f>
@@ -7485,12 +7489,12 @@
       </c>
       <c r="AG13" s="1">
         <f>+$G$31</f>
-        <v>7.4650534706468041E-2</v>
+        <v>6.5962068744328736E-2</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1">
         <f>+$G$13</f>
-        <v>7.6360354832121252E-2</v>
+        <v>7.2168783648703216E-2</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7506,24 +7510,24 @@
       </c>
       <c r="D14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="88">
         <f t="shared" si="12"/>
-        <v>0.17142857142857143</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="89">
         <f t="shared" si="13"/>
-        <v>6.3704858824903413E-2</v>
+        <v>5.9148476515058931E-2</v>
       </c>
       <c r="H14" s="89">
         <f t="shared" si="14"/>
-        <v>0.10772371260366802</v>
+        <v>8.3708666342083918E-2</v>
       </c>
       <c r="I14" s="90">
         <f t="shared" si="15"/>
-        <v>0.23513343025347483</v>
+        <v>0.20200561937220179</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -7534,15 +7538,15 @@
       </c>
       <c r="AB14" s="1">
         <f>+$E$33</f>
-        <v>0.2608695652173913</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="16"/>
-        <v>0.40372670807453415</v>
+        <v>0.36024844720496896</v>
       </c>
       <c r="AD14" s="1">
         <f>+$E$21</f>
-        <v>0.55263157894736847</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="AF14" s="1">
         <f>+$G$3</f>
@@ -7550,12 +7554,12 @@
       </c>
       <c r="AG14" s="1">
         <f>+$G$33</f>
-        <v>9.1560537151700067E-2</v>
+        <v>8.6006148703798302E-2</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1">
         <f>+$G$21</f>
-        <v>8.0660092019977481E-2</v>
+        <v>7.790302823720513E-2</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7567,7 +7571,7 @@
       </c>
       <c r="C15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7575,52 +7579,52 @@
       </c>
       <c r="E15" s="100">
         <f t="shared" si="12"/>
-        <v>0.34285714285714286</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="101">
         <f t="shared" si="13"/>
-        <v>8.0232897144853002E-2</v>
+        <v>7.8567420131838622E-2</v>
       </c>
       <c r="H15" s="101">
         <f t="shared" si="14"/>
-        <v>0.26262424571228987</v>
+        <v>0.25476591320149466</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" si="15"/>
-        <v>0.42309004000199585</v>
+        <v>0.41190075346517196</v>
       </c>
       <c r="Z15">
         <v>50</v>
       </c>
       <c r="AA15" s="1">
         <f>+$E$8</f>
-        <v>0.23809523809523808</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="AB15" s="1">
         <f>+$E$34</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="16"/>
-        <v>0.33333333333333331</v>
+        <v>0.2813852813852814</v>
       </c>
       <c r="AD15" s="1">
         <f>+$E$29</f>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AF15" s="1">
         <f>+$G$8</f>
-        <v>9.2942864090336502E-2</v>
+        <v>8.568908674689879E-2</v>
       </c>
       <c r="AG15" s="1">
         <f>+$G$34</f>
-        <v>6.4056448489004686E-2</v>
+        <v>6.1290896587567457E-2</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1">
         <f>+$G$29</f>
-        <v>0.15214515486254612</v>
+        <v>0.19245008972987529</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7636,31 +7640,31 @@
       </c>
       <c r="D16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16" s="71">
         <f t="shared" si="12"/>
-        <v>0.23529411764705882</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="72">
         <f t="shared" si="13"/>
-        <v>7.2746699105981444E-2</v>
+        <v>6.0738718621252449E-2</v>
       </c>
       <c r="H16" s="72">
         <f t="shared" si="14"/>
-        <v>0.16254741854107738</v>
+        <v>8.632010490815932E-2</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" si="15"/>
-        <v>0.30804081675304029</v>
+        <v>0.20779754215066421</v>
       </c>
       <c r="Z16">
         <v>100</v>
       </c>
       <c r="AA16" s="1">
         <f>+$E$7</f>
-        <v>4.5454545454545456E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="AB16" s="1">
         <f>+$E$36</f>
@@ -7668,15 +7672,15 @@
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="16"/>
-        <v>4.5454545454545456E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="AD16" s="1">
         <f>+$E$30</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AF16" s="1">
         <f>+$G$7</f>
-        <v>4.4409473678108838E-2</v>
+        <v>4.2522577993202242E-2</v>
       </c>
       <c r="AG16" s="1">
         <f>+$G$36</f>
@@ -7685,7 +7689,7 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1">
         <f>+$G$30</f>
-        <v>0</v>
+        <v>0.21650635094610965</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7701,24 +7705,24 @@
       </c>
       <c r="D17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="76">
         <f t="shared" si="12"/>
-        <v>0.17142857142857143</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="F17" s="75"/>
       <c r="G17" s="77">
         <f t="shared" si="13"/>
-        <v>6.3704858824903413E-2</v>
+        <v>5.3778511320818297E-2</v>
       </c>
       <c r="H17" s="77">
         <f t="shared" si="14"/>
-        <v>0.10772371260366802</v>
+        <v>6.0507202964895986E-2</v>
       </c>
       <c r="I17" s="78">
         <f t="shared" si="15"/>
-        <v>0.23513343025347483</v>
+        <v>0.16806422560653259</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7730,28 +7734,28 @@
       </c>
       <c r="C18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E18" s="81">
         <f t="shared" si="12"/>
-        <v>0.2</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="82">
         <f t="shared" si="13"/>
-        <v>6.761234037828133E-2</v>
+        <v>5.763842406476264E-2</v>
       </c>
       <c r="H18" s="82">
         <f t="shared" si="14"/>
-        <v>0.13238765962171867</v>
+        <v>8.1250464824126262E-2</v>
       </c>
       <c r="I18" s="83">
         <f t="shared" si="15"/>
-        <v>0.26761234037828135</v>
+        <v>0.19652731295365153</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7763,28 +7767,28 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="56">
         <f t="shared" si="12"/>
-        <v>0.35294117647058826</v>
+        <v>0.31428571428571428</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="13"/>
-        <v>8.195653482579246E-2</v>
+        <v>7.846932140863945E-2</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="14"/>
-        <v>0.2709846416447958</v>
+        <v>0.23581639287707484</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="15"/>
-        <v>0.43489771129638072</v>
+        <v>0.39275503569435372</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7796,28 +7800,28 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="57">
         <f t="shared" si="12"/>
-        <v>0.25714285714285712</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
         <f t="shared" si="13"/>
-        <v>7.387642348897154E-2</v>
+        <v>6.9289951606924832E-2</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="14"/>
-        <v>0.18326643365388556</v>
+        <v>0.15293227061529738</v>
       </c>
       <c r="I20" s="50">
         <f t="shared" si="15"/>
-        <v>0.33101928063182867</v>
+        <v>0.29151217382914707</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7829,28 +7833,28 @@
       </c>
       <c r="C21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E21" s="57">
         <f t="shared" si="12"/>
-        <v>0.55263157894736847</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="25">
         <f t="shared" si="13"/>
-        <v>8.0660092019977481E-2</v>
+        <v>7.790302823720513E-2</v>
       </c>
       <c r="H21" s="25">
         <f t="shared" si="14"/>
-        <v>0.47197148692739099</v>
+        <v>0.30671235637817951</v>
       </c>
       <c r="I21" s="50">
         <f t="shared" si="15"/>
-        <v>0.63329167096734595</v>
+        <v>0.46251841285258977</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7895,7 +7899,7 @@
       </c>
       <c r="C23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7903,20 +7907,20 @@
       </c>
       <c r="E23" s="76">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F23" s="75"/>
       <c r="G23" s="77">
         <f t="shared" si="18"/>
-        <v>0.20412414523193148</v>
+        <v>0.18704390591656489</v>
       </c>
       <c r="H23" s="77">
         <f t="shared" si="19"/>
-        <v>0.29587585476806855</v>
+        <v>0.24152752265486366</v>
       </c>
       <c r="I23" s="78">
         <f t="shared" si="20"/>
-        <v>0.70412414523193145</v>
+        <v>0.61561533448799344</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7961,7 +7965,7 @@
       </c>
       <c r="C25" s="12">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" s="12">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7969,20 +7973,20 @@
       </c>
       <c r="E25" s="55">
         <f t="shared" ref="E25" si="21">IFERROR(D25/C25, 0)</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="13">
         <f t="shared" ref="G25" si="22">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
-        <v>0.27216552697590868</v>
+        <v>0.15214515486254615</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" ref="H25" si="23">E25-G25</f>
-        <v>6.1167806357424637E-2</v>
+        <v>1.4521511804120507E-2</v>
       </c>
       <c r="I25" s="48">
         <f t="shared" ref="I25" si="24">E25+G25</f>
-        <v>0.60549886030924194</v>
+        <v>0.31881182152921284</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8027,28 +8031,28 @@
       </c>
       <c r="C27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="109">
         <f t="shared" si="17"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="F27" s="108"/>
       <c r="G27" s="110">
         <f t="shared" si="18"/>
-        <v>0.18704390591656489</v>
+        <v>0.17677669529663689</v>
       </c>
       <c r="H27" s="110">
         <f t="shared" si="19"/>
-        <v>0.24152752265486366</v>
+        <v>0.32322330470336313</v>
       </c>
       <c r="I27" s="111">
         <f t="shared" si="20"/>
-        <v>0.61561533448799344</v>
+        <v>0.67677669529663687</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8060,7 +8064,7 @@
       </c>
       <c r="C28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8068,20 +8072,20 @@
       </c>
       <c r="E28" s="109">
         <f t="shared" si="17"/>
-        <v>0.7142857142857143</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="110">
         <f t="shared" si="18"/>
-        <v>0.17074694419062766</v>
+        <v>0.16563466499998442</v>
       </c>
       <c r="H28" s="110">
         <f t="shared" si="19"/>
-        <v>0.54353877009508667</v>
+        <v>0.38992089055557116</v>
       </c>
       <c r="I28" s="111">
         <f t="shared" si="20"/>
-        <v>0.88503265847634194</v>
+        <v>0.72119022055554005</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8097,24 +8101,24 @@
       </c>
       <c r="D29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" s="109">
         <f t="shared" si="17"/>
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F29" s="108"/>
       <c r="G29" s="110">
         <f t="shared" si="18"/>
-        <v>0.15214515486254612</v>
+        <v>0.19245008972987529</v>
       </c>
       <c r="H29" s="110">
         <f t="shared" si="19"/>
-        <v>0.68118817847078728</v>
+        <v>0.47421657693679131</v>
       </c>
       <c r="I29" s="111">
         <f t="shared" si="20"/>
-        <v>0.98547848819587947</v>
+        <v>0.85911675639654195</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -8126,7 +8130,7 @@
       </c>
       <c r="C30" s="108">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" s="108">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8134,20 +8138,20 @@
       </c>
       <c r="E30" s="109">
         <f t="shared" ref="E30" si="25">IFERROR(D30/C30, 0)</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F30" s="108"/>
       <c r="G30" s="110">
         <f t="shared" ref="G30" si="26">IFERROR(SQRT(C30*E30*(1-E30))/C30, 0)</f>
-        <v>0</v>
+        <v>0.21650635094610965</v>
       </c>
       <c r="H30" s="110">
         <f t="shared" ref="H30" si="27">E30-G30</f>
-        <v>1</v>
+        <v>0.53349364905389041</v>
       </c>
       <c r="I30" s="111">
         <f t="shared" ref="I30" si="28">E30+G30</f>
-        <v>1</v>
+        <v>0.96650635094610959</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8163,24 +8167,24 @@
       </c>
       <c r="D31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E31" s="61">
         <f t="shared" si="12"/>
-        <v>0.27777777777777779</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="62">
         <f t="shared" si="13"/>
-        <v>7.4650534706468041E-2</v>
+        <v>6.5962068744328736E-2</v>
       </c>
       <c r="H31" s="62">
         <f t="shared" si="14"/>
-        <v>0.20312724307130975</v>
+        <v>0.12848237570011573</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" si="15"/>
-        <v>0.35242831248424583</v>
+        <v>0.26040651318877317</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8192,7 +8196,7 @@
       </c>
       <c r="C32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8200,20 +8204,20 @@
       </c>
       <c r="E32" s="114">
         <f t="shared" si="12"/>
-        <v>0.11428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F32" s="113"/>
       <c r="G32" s="115">
         <f t="shared" si="13"/>
-        <v>5.3778511320818297E-2</v>
+        <v>5.2378280087892408E-2</v>
       </c>
       <c r="H32" s="115">
         <f t="shared" si="14"/>
-        <v>6.0507202964895986E-2</v>
+        <v>5.8732831023218697E-2</v>
       </c>
       <c r="I32" s="116">
         <f t="shared" si="15"/>
-        <v>0.16806422560653259</v>
+        <v>0.16348939119900352</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8229,24 +8233,24 @@
       </c>
       <c r="D33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33" s="114">
         <f t="shared" si="12"/>
-        <v>0.2608695652173913</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="F33" s="113"/>
       <c r="G33" s="115">
         <f t="shared" si="13"/>
-        <v>9.1560537151700067E-2</v>
+        <v>8.6006148703798302E-2</v>
       </c>
       <c r="H33" s="115">
         <f t="shared" si="14"/>
-        <v>0.16930902806569123</v>
+        <v>0.13138515564402778</v>
       </c>
       <c r="I33" s="116">
         <f t="shared" si="15"/>
-        <v>0.35243010236909134</v>
+        <v>0.30339745305162436</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8258,7 +8262,7 @@
       </c>
       <c r="C34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8266,20 +8270,20 @@
       </c>
       <c r="E34" s="114">
         <f t="shared" ref="E34:E35" si="29">IFERROR(D34/C34, 0)</f>
-        <v>9.5238095238095233E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F34" s="113"/>
       <c r="G34" s="115">
         <f t="shared" ref="G34:G35" si="30">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
-        <v>6.4056448489004686E-2</v>
+        <v>6.1290896587567457E-2</v>
       </c>
       <c r="H34" s="115">
         <f t="shared" ref="H34:H35" si="31">E34-G34</f>
-        <v>3.1181646749090547E-2</v>
+        <v>2.9618194321523454E-2</v>
       </c>
       <c r="I34" s="116">
         <f t="shared" ref="I34:I35" si="32">E34+G34</f>
-        <v>0.15929454372709992</v>
+        <v>0.15219998749665836</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -8324,7 +8328,7 @@
       </c>
       <c r="C36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E07968-7796-47F7-9E76-604BCA20C445}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F87CDE-B54C-4BBE-8A7A-FB38E068B102}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -700,16 +700,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.11428571428571428</c:v>
+                  <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14705882352941177</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1388888888888889</c:v>
+                  <c:v>0.13513513513513514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,16 +741,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.13513513513513514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.24324324324324326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.32432432432432434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,16 +782,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.21621621621621623</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31428571428571428</c:v>
+                  <c:v>0.30555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.375</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,13 +826,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,10 +1213,10 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19047619047619047</c:v>
+                  <c:v>0.22727272727272727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3478260869565216E-2</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,16 +1288,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19444444444444445</c:v>
+                  <c:v>0.1891891891891892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21739130434782608</c:v>
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.13043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1345,19 +1345,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1111111111111111</c:v>
+                  <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3138474295190713</c:v>
+                  <c:v>0.30859217426381608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36024844720496896</c:v>
+                  <c:v>0.35119047619047616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2813852813852814</c:v>
+                  <c:v>0.35770750988142291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3478260869565216E-2</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,22 +1399,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11428571428571428</c:v>
+                  <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.24324324324324326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3331,7 +3331,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3977,7 +3977,7 @@
         <v>9018</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>2.2200000000000002</v>
+        <v>2.04</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -4797,9 +4797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53871AB-6ECF-45F9-A8A5-AF6AEDD22179}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4850,7 +4848,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4859,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -4879,16 +4877,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="F3" s="2">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -4908,7 +4906,7 @@
         <v>7004</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4917,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="G4">
         <v>0.1</v>
@@ -4937,7 +4935,7 @@
         <v>7005</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4946,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="G5">
         <v>0.1</v>
@@ -4966,16 +4964,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>0.3</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="F6" s="2">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -4995,16 +4993,16 @@
         <v>9000</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>0.30769999999999997</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F7" s="2">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G7">
         <v>0.1</v>
@@ -5030,16 +5028,16 @@
         <v>9001</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F8" s="2">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -5065,13 +5063,13 @@
         <v>9002</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>0.3846</v>
+        <v>0.35709999999999997</v>
       </c>
       <c r="F9" s="2">
         <v>1.25</v>
@@ -5100,16 +5098,16 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.15379999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F10" s="2">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -5135,16 +5133,16 @@
         <v>9004</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F11" s="2">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G11">
         <v>0.1</v>
@@ -5170,16 +5168,16 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>8.3299999999999999E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -5205,16 +5203,16 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>7.6899999999999996E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G13">
         <v>0.1</v>
@@ -5240,16 +5238,16 @@
         <v>9007</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>7.6899999999999996E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="F14" s="2">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G14">
         <v>0.1</v>
@@ -5275,16 +5273,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3846</v>
       </c>
       <c r="F15" s="2">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -5310,16 +5308,16 @@
         <v>9010</v>
       </c>
       <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
       <c r="E16" s="1">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F16" s="2">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -5345,16 +5343,16 @@
         <v>9013</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F17" s="2">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -5380,16 +5378,16 @@
         <v>9016</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="F18" s="2">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G18">
         <v>0.1</v>
@@ -5415,13 +5413,13 @@
         <v>9018</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="2">
         <v>1.66</v>
@@ -5450,7 +5448,7 @@
         <v>9025</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5459,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -5485,16 +5483,16 @@
         <v>9026</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F21" s="2">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -5520,16 +5518,16 @@
         <v>9027</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F22" s="2">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G22">
         <v>0.1</v>
@@ -5555,16 +5553,16 @@
         <v>9028</v>
       </c>
       <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
       <c r="E23" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="F23" s="2">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G23">
         <v>0.1</v>
@@ -5590,16 +5588,16 @@
         <v>9035</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="2">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -5625,16 +5623,16 @@
         <v>10000</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" s="1">
-        <v>0.15379999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F25" s="2">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="G25">
         <v>0.1</v>
@@ -5654,16 +5652,16 @@
         <v>10001</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>0.23080000000000001</v>
+        <v>0.21429999999999999</v>
       </c>
       <c r="F26" s="2">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -5683,16 +5681,16 @@
         <v>10002</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.15379999999999999</v>
       </c>
       <c r="F27" s="2">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -5712,16 +5710,16 @@
         <v>10003</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>9.0899999999999995E-2</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F28" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="G28">
         <v>0.1</v>
@@ -5741,7 +5739,7 @@
         <v>10004</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5750,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="G29">
         <v>0.1</v>
@@ -5770,7 +5768,7 @@
         <v>10005</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -5779,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G30">
         <v>0.1</v>
@@ -6847,7 +6845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -6972,19 +6970,19 @@
       </c>
       <c r="AA3" s="85">
         <f>+E17</f>
-        <v>0.11428571428571428</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="AB3" s="85">
         <f>+E16</f>
-        <v>0.14705882352941177</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="AC3" s="85">
         <f>+E18</f>
-        <v>0.1388888888888889</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="AD3" s="85">
         <f>+E23</f>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -6996,7 +6994,7 @@
       </c>
       <c r="C4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7024,19 +7022,19 @@
       </c>
       <c r="AA4" s="92">
         <f>E14</f>
-        <v>0.14285714285714285</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="AB4" s="92">
         <f>+E13</f>
-        <v>0.25</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="AC4" s="92">
         <f>+E15</f>
-        <v>0.33333333333333331</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="AD4" s="92">
         <f>+E22</f>
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7048,7 +7046,7 @@
       </c>
       <c r="C5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7056,39 +7054,39 @@
       </c>
       <c r="E5" s="53">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.19444444444444445</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>6.761234037828133E-2</v>
+        <v>6.5962068744328736E-2</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" si="2"/>
-        <v>0.13238765962171867</v>
+        <v>0.12848237570011573</v>
       </c>
       <c r="I5" s="40">
         <f t="shared" si="3"/>
-        <v>0.26761234037828135</v>
+        <v>0.26040651318877317</v>
       </c>
       <c r="Z5" s="103">
         <v>20</v>
       </c>
       <c r="AA5" s="104">
         <f>+E20</f>
-        <v>0.22222222222222221</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="AB5" s="104">
         <f>+E19</f>
-        <v>0.31428571428571428</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="AC5" s="104">
         <f>+E21</f>
-        <v>0.38461538461538464</v>
+        <v>0.4</v>
       </c>
       <c r="AD5" s="104">
         <f>+E24</f>
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7100,7 +7098,7 @@
       </c>
       <c r="C6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="37">
         <f>IFERROR(VLOOKUP($B6, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B6, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B6, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7132,15 +7130,15 @@
       </c>
       <c r="AB6" s="106">
         <f>+E27</f>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AC6" s="106">
         <f>+E28</f>
-        <v>0.55555555555555558</v>
+        <v>0.6</v>
       </c>
       <c r="AD6" s="106">
         <f>+E29</f>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7152,7 +7150,7 @@
       </c>
       <c r="C7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="37">
         <f>IFERROR(VLOOKUP($B7, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B7, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B7, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7160,20 +7158,20 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="4"/>
-        <v>4.3478260869565216E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="38">
         <f t="shared" si="5"/>
-        <v>4.2522577993202242E-2</v>
+        <v>4.0789375432190036E-2</v>
       </c>
       <c r="H7" s="38">
         <f t="shared" si="6"/>
-        <v>9.5568287636297461E-4</v>
+        <v>8.7729123447662788E-4</v>
       </c>
       <c r="I7" s="40">
         <f t="shared" si="7"/>
-        <v>8.6000838862767465E-2</v>
+        <v>8.2456042098856708E-2</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7185,28 +7183,28 @@
       </c>
       <c r="C8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="53">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.19047619047619047</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="38">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>8.568908674689879E-2</v>
+        <v>8.9346067398510962E-2</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>0.10478710372929168</v>
+        <v>0.13792665987421632</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.27616527722308926</v>
+        <v>0.31661879467123821</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7351,7 +7349,7 @@
       </c>
       <c r="AD11" s="1">
         <f>+$E$25</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="AF11" s="1">
         <f>+$G$6</f>
@@ -7364,7 +7362,7 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1">
         <f>+$G$25</f>
-        <v>0.15214515486254615</v>
+        <v>0.11692679333668567</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7408,15 +7406,15 @@
       </c>
       <c r="AB12" s="1">
         <f>+$E$32</f>
-        <v>0.1111111111111111</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ref="AC12:AC16" si="16">+AA12+AB12</f>
-        <v>0.1111111111111111</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="AD12" s="1">
         <f>+$E$17</f>
-        <v>0.11428571428571428</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="AF12" s="1">
         <f>+$G$4</f>
@@ -7424,12 +7422,12 @@
       </c>
       <c r="AG12" s="1">
         <f>+$G$32</f>
-        <v>5.2378280087892408E-2</v>
+        <v>5.1048663870434323E-2</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1">
         <f>+$G$17</f>
-        <v>5.3778511320818297E-2</v>
+        <v>5.1048663870434323E-2</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7441,7 +7439,7 @@
       </c>
       <c r="C13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="94">
         <f>IFERROR(VLOOKUP($B13, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B13, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B13, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7449,20 +7447,20 @@
       </c>
       <c r="E13" s="95">
         <f t="shared" si="12"/>
-        <v>0.25</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="F13" s="94"/>
       <c r="G13" s="96">
         <f t="shared" si="13"/>
-        <v>7.2168783648703216E-2</v>
+        <v>7.0533865329865955E-2</v>
       </c>
       <c r="H13" s="96">
         <f t="shared" si="14"/>
-        <v>0.17783121635129678</v>
+        <v>0.17270937791337732</v>
       </c>
       <c r="I13" s="97">
         <f t="shared" si="15"/>
-        <v>0.32216878364870322</v>
+        <v>0.3137771085731092</v>
       </c>
       <c r="Z13">
         <v>10</v>
@@ -7473,15 +7471,15 @@
       </c>
       <c r="AB13" s="1">
         <f>+$E$31</f>
-        <v>0.19444444444444445</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" si="16"/>
-        <v>0.3138474295190713</v>
+        <v>0.30859217426381608</v>
       </c>
       <c r="AD13" s="1">
         <f>+$E$13</f>
-        <v>0.25</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="AF13" s="1">
         <f>+$G$2</f>
@@ -7489,12 +7487,12 @@
       </c>
       <c r="AG13" s="1">
         <f>+$G$31</f>
-        <v>6.5962068744328736E-2</v>
+        <v>6.4388315181998571E-2</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1">
         <f>+$G$13</f>
-        <v>7.2168783648703216E-2</v>
+        <v>7.0533865329865955E-2</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7506,7 +7504,7 @@
       </c>
       <c r="C14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="87">
         <f>IFERROR(VLOOKUP($B14, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B14, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B14, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7514,20 +7512,20 @@
       </c>
       <c r="E14" s="88">
         <f t="shared" si="12"/>
-        <v>0.14285714285714285</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="89">
         <f t="shared" si="13"/>
-        <v>5.9148476515058931E-2</v>
+        <v>5.6202729179463388E-2</v>
       </c>
       <c r="H14" s="89">
         <f t="shared" si="14"/>
-        <v>8.3708666342083918E-2</v>
+        <v>7.8932405955671747E-2</v>
       </c>
       <c r="I14" s="90">
         <f t="shared" si="15"/>
-        <v>0.20200561937220179</v>
+        <v>0.19133786431459854</v>
       </c>
       <c r="Z14">
         <v>20</v>
@@ -7538,15 +7536,15 @@
       </c>
       <c r="AB14" s="1">
         <f>+$E$33</f>
-        <v>0.21739130434782608</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="16"/>
-        <v>0.36024844720496896</v>
+        <v>0.35119047619047616</v>
       </c>
       <c r="AD14" s="1">
         <f>+$E$21</f>
-        <v>0.38461538461538464</v>
+        <v>0.4</v>
       </c>
       <c r="AF14" s="1">
         <f>+$G$3</f>
@@ -7554,12 +7552,12 @@
       </c>
       <c r="AG14" s="1">
         <f>+$G$33</f>
-        <v>8.6006148703798302E-2</v>
+        <v>8.2898169349398074E-2</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1">
         <f>+$G$21</f>
-        <v>7.790302823720513E-2</v>
+        <v>7.7459666924148338E-2</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7571,7 +7569,7 @@
       </c>
       <c r="C15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="99">
         <f>IFERROR(VLOOKUP($B15, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B15, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B15, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7579,52 +7577,52 @@
       </c>
       <c r="E15" s="100">
         <f t="shared" si="12"/>
-        <v>0.33333333333333331</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="101">
         <f t="shared" si="13"/>
-        <v>7.8567420131838622E-2</v>
+        <v>7.6958756412364784E-2</v>
       </c>
       <c r="H15" s="101">
         <f t="shared" si="14"/>
-        <v>0.25476591320149466</v>
+        <v>0.24736556791195957</v>
       </c>
       <c r="I15" s="102">
         <f t="shared" si="15"/>
-        <v>0.41190075346517196</v>
+        <v>0.40128308073668911</v>
       </c>
       <c r="Z15">
         <v>50</v>
       </c>
       <c r="AA15" s="1">
         <f>+$E$8</f>
-        <v>0.19047619047619047</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="AB15" s="1">
         <f>+$E$34</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="16"/>
-        <v>0.2813852813852814</v>
+        <v>0.35770750988142291</v>
       </c>
       <c r="AD15" s="1">
         <f>+$E$29</f>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="AF15" s="1">
         <f>+$G$8</f>
-        <v>8.568908674689879E-2</v>
+        <v>8.9346067398510962E-2</v>
       </c>
       <c r="AG15" s="1">
         <f>+$G$34</f>
-        <v>6.1290896587567457E-2</v>
+        <v>7.0223726355412894E-2</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1">
         <f>+$G$29</f>
-        <v>0.19245008972987529</v>
+        <v>0.17116329922036441</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7636,7 +7634,7 @@
       </c>
       <c r="C16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7644,27 +7642,27 @@
       </c>
       <c r="E16" s="71">
         <f t="shared" si="12"/>
-        <v>0.14705882352941177</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="72">
         <f t="shared" si="13"/>
-        <v>6.0738718621252449E-2</v>
+        <v>5.9148476515058931E-2</v>
       </c>
       <c r="H16" s="72">
         <f t="shared" si="14"/>
-        <v>8.632010490815932E-2</v>
+        <v>8.3708666342083918E-2</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" si="15"/>
-        <v>0.20779754215066421</v>
+        <v>0.20200561937220179</v>
       </c>
       <c r="Z16">
         <v>100</v>
       </c>
       <c r="AA16" s="1">
         <f>+$E$7</f>
-        <v>4.3478260869565216E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AB16" s="1">
         <f>+$E$36</f>
@@ -7672,15 +7670,15 @@
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="16"/>
-        <v>4.3478260869565216E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AD16" s="1">
         <f>+$E$30</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AF16" s="1">
         <f>+$G$7</f>
-        <v>4.2522577993202242E-2</v>
+        <v>4.0789375432190036E-2</v>
       </c>
       <c r="AG16" s="1">
         <f>+$G$36</f>
@@ -7689,7 +7687,7 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1">
         <f>+$G$30</f>
-        <v>0.21650635094610965</v>
+        <v>0.17888543819998315</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7701,7 +7699,7 @@
       </c>
       <c r="C17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="75">
         <f>IFERROR(VLOOKUP($B17, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B17, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B17, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7709,20 +7707,20 @@
       </c>
       <c r="E17" s="76">
         <f t="shared" si="12"/>
-        <v>0.11428571428571428</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="F17" s="75"/>
       <c r="G17" s="77">
         <f t="shared" si="13"/>
-        <v>5.3778511320818297E-2</v>
+        <v>5.1048663870434323E-2</v>
       </c>
       <c r="H17" s="77">
         <f t="shared" si="14"/>
-        <v>6.0507202964895986E-2</v>
+        <v>5.7059444237673791E-2</v>
       </c>
       <c r="I17" s="78">
         <f t="shared" si="15"/>
-        <v>0.16806422560653259</v>
+        <v>0.15915677197854244</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7734,7 +7732,7 @@
       </c>
       <c r="C18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7742,20 +7740,20 @@
       </c>
       <c r="E18" s="81">
         <f t="shared" si="12"/>
-        <v>0.1388888888888889</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="82">
         <f t="shared" si="13"/>
-        <v>5.763842406476264E-2</v>
+        <v>5.6202729179463388E-2</v>
       </c>
       <c r="H18" s="82">
         <f t="shared" si="14"/>
-        <v>8.1250464824126262E-2</v>
+        <v>7.8932405955671747E-2</v>
       </c>
       <c r="I18" s="83">
         <f t="shared" si="15"/>
-        <v>0.19652731295365153</v>
+        <v>0.19133786431459854</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7767,7 +7765,7 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7775,20 +7773,20 @@
       </c>
       <c r="E19" s="56">
         <f t="shared" si="12"/>
-        <v>0.31428571428571428</v>
+        <v>0.30555555555555558</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="13"/>
-        <v>7.846932140863945E-2</v>
+        <v>7.6773721998967592E-2</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="14"/>
-        <v>0.23581639287707484</v>
+        <v>0.22878183355658799</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="15"/>
-        <v>0.39275503569435372</v>
+        <v>0.38232927755452317</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7800,7 +7798,7 @@
       </c>
       <c r="C20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="24">
         <f>IFERROR(VLOOKUP($B20, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B20, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B20, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7808,20 +7806,20 @@
       </c>
       <c r="E20" s="57">
         <f t="shared" si="12"/>
-        <v>0.22222222222222221</v>
+        <v>0.21621621621621623</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="25">
         <f t="shared" si="13"/>
-        <v>6.9289951606924832E-2</v>
+        <v>6.7677047900075796E-2</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="14"/>
-        <v>0.15293227061529738</v>
+        <v>0.14853916831614045</v>
       </c>
       <c r="I20" s="50">
         <f t="shared" si="15"/>
-        <v>0.29151217382914707</v>
+        <v>0.28389326411629201</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7833,28 +7831,28 @@
       </c>
       <c r="C21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" s="57">
         <f t="shared" si="12"/>
-        <v>0.38461538461538464</v>
+        <v>0.4</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="25">
         <f t="shared" si="13"/>
-        <v>7.790302823720513E-2</v>
+        <v>7.7459666924148338E-2</v>
       </c>
       <c r="H21" s="25">
         <f t="shared" si="14"/>
-        <v>0.30671235637817951</v>
+        <v>0.32254033307585167</v>
       </c>
       <c r="I21" s="50">
         <f t="shared" si="15"/>
-        <v>0.46251841285258977</v>
+        <v>0.47745966692414837</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7866,28 +7864,28 @@
       </c>
       <c r="C22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" s="88">
         <f t="shared" ref="E22:E29" si="17">IFERROR(D22/C22, 0)</f>
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="F22" s="87"/>
       <c r="G22" s="89">
         <f t="shared" ref="G22:G29" si="18">IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
-        <v>0.18704390591656492</v>
+        <v>0.17116329922036441</v>
       </c>
       <c r="H22" s="89">
         <f t="shared" ref="H22:H29" si="19">E22-G22</f>
-        <v>0.38438466551200645</v>
+        <v>0.45383670077963556</v>
       </c>
       <c r="I22" s="90">
         <f t="shared" ref="I22:I29" si="20">E22+G22</f>
-        <v>0.75847247734513634</v>
+        <v>0.79616329922036444</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7899,28 +7897,28 @@
       </c>
       <c r="C23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D23" s="75">
         <f>IFERROR(VLOOKUP($B23, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B23, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B23, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" s="76">
         <f t="shared" si="17"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="75"/>
       <c r="G23" s="77">
         <f t="shared" si="18"/>
-        <v>0.18704390591656489</v>
+        <v>0.17677669529663689</v>
       </c>
       <c r="H23" s="77">
         <f t="shared" si="19"/>
-        <v>0.24152752265486366</v>
+        <v>0.32322330470336313</v>
       </c>
       <c r="I23" s="78">
         <f t="shared" si="20"/>
-        <v>0.61561533448799344</v>
+        <v>0.67677669529663687</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7932,28 +7930,28 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" s="57">
         <f t="shared" si="17"/>
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f t="shared" si="18"/>
-        <v>0.17116329922036441</v>
+        <v>0.16563466499998442</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="19"/>
-        <v>0.20383670077963559</v>
+        <v>0.27880977944446</v>
       </c>
       <c r="I24" s="50">
         <f t="shared" si="20"/>
-        <v>0.54616329922036444</v>
+        <v>0.61007910944442889</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7965,7 +7963,7 @@
       </c>
       <c r="C25" s="12">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="12">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7973,20 +7971,20 @@
       </c>
       <c r="E25" s="55">
         <f t="shared" ref="E25" si="21">IFERROR(D25/C25, 0)</f>
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="13">
         <f t="shared" ref="G25" si="22">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
-        <v>0.15214515486254615</v>
+        <v>0.11692679333668567</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" ref="H25" si="23">E25-G25</f>
-        <v>1.4521511804120507E-2</v>
+        <v>8.0732066633143335E-3</v>
       </c>
       <c r="I25" s="48">
         <f t="shared" ref="I25" si="24">E25+G25</f>
-        <v>0.31881182152921284</v>
+        <v>0.24192679333668565</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7998,7 +7996,7 @@
       </c>
       <c r="C26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="108">
         <f>IFERROR(VLOOKUP($B26, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B26, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B26, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8031,7 +8029,7 @@
       </c>
       <c r="C27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="108">
         <f>IFERROR(VLOOKUP($B27, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B27, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B27, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8039,20 +8037,20 @@
       </c>
       <c r="E27" s="109">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F27" s="108"/>
       <c r="G27" s="110">
         <f t="shared" si="18"/>
-        <v>0.17677669529663689</v>
+        <v>0.16563466499998442</v>
       </c>
       <c r="H27" s="110">
         <f t="shared" si="19"/>
-        <v>0.32322330470336313</v>
+        <v>0.27880977944446</v>
       </c>
       <c r="I27" s="111">
         <f t="shared" si="20"/>
-        <v>0.67677669529663687</v>
+        <v>0.61007910944442889</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8064,28 +8062,28 @@
       </c>
       <c r="C28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="108">
         <f>IFERROR(VLOOKUP($B28, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B28, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B28, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" s="109">
         <f t="shared" si="17"/>
-        <v>0.55555555555555558</v>
+        <v>0.6</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="110">
         <f t="shared" si="18"/>
-        <v>0.16563466499998442</v>
+        <v>0.15491933384829668</v>
       </c>
       <c r="H28" s="110">
         <f t="shared" si="19"/>
-        <v>0.38992089055557116</v>
+        <v>0.44508066615170327</v>
       </c>
       <c r="I28" s="111">
         <f t="shared" si="20"/>
-        <v>0.72119022055554005</v>
+        <v>0.75491933384829668</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8097,28 +8095,28 @@
       </c>
       <c r="C29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" s="108">
         <f>IFERROR(VLOOKUP($B29, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B29, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B29, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29" s="109">
         <f t="shared" si="17"/>
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="F29" s="108"/>
       <c r="G29" s="110">
         <f t="shared" si="18"/>
-        <v>0.19245008972987529</v>
+        <v>0.17116329922036441</v>
       </c>
       <c r="H29" s="110">
         <f t="shared" si="19"/>
-        <v>0.47421657693679131</v>
+        <v>0.45383670077963556</v>
       </c>
       <c r="I29" s="111">
         <f t="shared" si="20"/>
-        <v>0.85911675639654195</v>
+        <v>0.79616329922036444</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -8130,28 +8128,28 @@
       </c>
       <c r="C30" s="108">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="108">
         <f>IFERROR(VLOOKUP($B30, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B30, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B30, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="109">
         <f t="shared" ref="E30" si="25">IFERROR(D30/C30, 0)</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F30" s="108"/>
       <c r="G30" s="110">
         <f t="shared" ref="G30" si="26">IFERROR(SQRT(C30*E30*(1-E30))/C30, 0)</f>
-        <v>0.21650635094610965</v>
+        <v>0.17888543819998315</v>
       </c>
       <c r="H30" s="110">
         <f t="shared" ref="H30" si="27">E30-G30</f>
-        <v>0.53349364905389041</v>
+        <v>0.6211145618000169</v>
       </c>
       <c r="I30" s="111">
         <f t="shared" ref="I30" si="28">E30+G30</f>
-        <v>0.96650635094610959</v>
+        <v>0.97888543819998319</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8163,7 +8161,7 @@
       </c>
       <c r="C31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="60">
         <f>IFERROR(VLOOKUP($B31, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B31, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B31, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8171,20 +8169,20 @@
       </c>
       <c r="E31" s="61">
         <f t="shared" si="12"/>
-        <v>0.19444444444444445</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="62">
         <f t="shared" si="13"/>
-        <v>6.5962068744328736E-2</v>
+        <v>6.4388315181998571E-2</v>
       </c>
       <c r="H31" s="62">
         <f t="shared" si="14"/>
-        <v>0.12848237570011573</v>
+        <v>0.12480087400719063</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" si="15"/>
-        <v>0.26040651318877317</v>
+        <v>0.25357750437118776</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8196,7 +8194,7 @@
       </c>
       <c r="C32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="113">
         <f>IFERROR(VLOOKUP($B32, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B32, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B32, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8204,20 +8202,20 @@
       </c>
       <c r="E32" s="114">
         <f t="shared" si="12"/>
-        <v>0.1111111111111111</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="F32" s="113"/>
       <c r="G32" s="115">
         <f t="shared" si="13"/>
-        <v>5.2378280087892408E-2</v>
+        <v>5.1048663870434323E-2</v>
       </c>
       <c r="H32" s="115">
         <f t="shared" si="14"/>
-        <v>5.8732831023218697E-2</v>
+        <v>5.7059444237673791E-2</v>
       </c>
       <c r="I32" s="116">
         <f t="shared" si="15"/>
-        <v>0.16348939119900352</v>
+        <v>0.15915677197854244</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8229,7 +8227,7 @@
       </c>
       <c r="C33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D33" s="113">
         <f>IFERROR(VLOOKUP($B33, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B33, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B33, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8237,20 +8235,20 @@
       </c>
       <c r="E33" s="114">
         <f t="shared" si="12"/>
-        <v>0.21739130434782608</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="F33" s="113"/>
       <c r="G33" s="115">
         <f t="shared" si="13"/>
-        <v>8.6006148703798302E-2</v>
+        <v>8.2898169349398074E-2</v>
       </c>
       <c r="H33" s="115">
         <f t="shared" si="14"/>
-        <v>0.13138515564402778</v>
+        <v>0.12543516398393528</v>
       </c>
       <c r="I33" s="116">
         <f t="shared" si="15"/>
-        <v>0.30339745305162436</v>
+        <v>0.2912315026827314</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8262,28 +8260,28 @@
       </c>
       <c r="C34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" s="113">
         <f>IFERROR(VLOOKUP($B34, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B34, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B34, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="114">
         <f t="shared" ref="E34:E35" si="29">IFERROR(D34/C34, 0)</f>
-        <v>9.0909090909090912E-2</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="F34" s="113"/>
       <c r="G34" s="115">
         <f t="shared" ref="G34:G35" si="30">IFERROR(SQRT(C34*E34*(1-E34))/C34, 0)</f>
-        <v>6.1290896587567457E-2</v>
+        <v>7.0223726355412894E-2</v>
       </c>
       <c r="H34" s="115">
         <f t="shared" ref="H34:H35" si="31">E34-G34</f>
-        <v>2.9618194321523454E-2</v>
+        <v>6.0211056253282755E-2</v>
       </c>
       <c r="I34" s="116">
         <f t="shared" ref="I34:I35" si="32">E34+G34</f>
-        <v>0.15219998749665836</v>
+        <v>0.20065850896410853</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -8295,7 +8293,7 @@
       </c>
       <c r="C35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" s="65">
         <f>IFERROR(VLOOKUP($B35, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B35, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B35, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -8328,7 +8326,7 @@
       </c>
       <c r="C36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" s="65">
         <f>IFERROR(VLOOKUP($B36, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B36, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B36, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>

--- a/Math/Results_20190626.xlsx
+++ b/Math/Results_20190626.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F87CDE-B54C-4BBE-8A7A-FB38E068B102}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F06C176-0514-47F1-B598-548011A72F00}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="6" xr2:uid="{F30BEC68-5FC4-4FD1-AF5F-E57D6551BD0B}"/>
   </bookViews>
@@ -703,10 +703,10 @@
                   <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.1388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13513513513513514</c:v>
+                  <c:v>0.13157894736842105</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.5</c:v>
@@ -750,7 +750,7 @@
                   <c:v>0.32432432432432434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.625</c:v>
+                  <c:v>0.45454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,13 +785,13 @@
                   <c:v>0.21621621621621623</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30555555555555558</c:v>
+                  <c:v>0.29729729729729731</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.41463414634146339</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.45454545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,7 +832,7 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.625</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,7 +1213,7 @@
                   <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22727272727272727</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.1666666666666664E-2</c:v>
@@ -1288,13 +1288,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10810810810810811</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1891891891891892</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20833333333333334</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.13043478260869565</c:v>
@@ -1345,16 +1345,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10810810810810811</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.30859217426381608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35119047619047616</c:v>
+                  <c:v>0.34285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35770750988142291</c:v>
+                  <c:v>0.34782608695652173</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.1666666666666664E-2</c:v>
@@ -1399,7 +1399,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.10810810810810811</c:v>
@@ -1408,13 +1408,13 @@
                   <c:v>0.24324324324324326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4</c:v>
+                  <c:v>0.41463414634146339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.625</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3330,8 +3330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA892EB-1C5D-4DA9-95FA-D6E2F64A7CF0}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3872,16 +3872,16 @@
         <v>9010</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F17" s="2">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -3942,16 +3942,16 @@
         <v>9016</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="2">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="G19">
         <v>0.1</v>
@@ -3977,7 +3977,7 @@
         <v>9018</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -4012,7 +4012,7 @@
         <v>9025</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="G21">
         <v>0.1</v>
@@ -4117,16 +4117,16 @@
         <v>9028</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="F24" s="2">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="G24">
         <v>0.1</v>
@@ -4848,7 +4848,7 @@
         <v>7002</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -4877,16 +4877,16 @@
         <v>7003</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.30769999999999997</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="F3" s="2">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G3">
         <v>0.1</v>
@@ -4964,16 +4964,16 @@
         <v>7006</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>0.36359999999999998</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G6">
         <v>0.1</v>
@@ -5098,16 +5098,16 @@
         <v>9003</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>0.1429</v>
+        <v>0.1333</v>
       </c>
       <c r="F10" s="2">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="G10">
         <v>0.1</v>
@@ -5168,16 +5168,16 @@
         <v>9005</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>7.6899999999999996E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="F12" s="2">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G12">
         <v>0.1</v>
@@ -5203,13 +5203,13 @@
         <v>9006</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>7.1400000000000005E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="F13" s="2">
         <v>1.1200000000000001</v>
@@ -5273,16 +5273,16 @@
         <v>9008</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
-        <v>0.3846</v>
+        <v>0.42859999999999998</v>
       </c>
       <c r="F15" s="2">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="G15">
         <v>0.1</v>
@@ -5308,16 +5308,16 @@
         <v>9010</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>0.8</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="F16" s="2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0.1</v>
@@ -5378,13 +5378,13 @@
         <v>9016</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F18" s="2">
         <v>0.92</v>
@@ -5448,7 +5448,7 @@
         <v>9025</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5457,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="G20">
         <v>0.1</v>
@@ -5588,13 +5588,13 @@
         <v>9035</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F24" s="2">
         <v>1.94</v>
@@ -5652,16 +5652,16 @@
         <v>10001</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>0.21429999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F26" s="2">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="G26">
         <v>0.1</v>
@@ -5681,16 +5681,16 @@
         <v>10002</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" s="1">
-        <v>0.15379999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="F27" s="2">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G27">
         <v>0.1</v>
@@ -5739,7 +5739,7 @@
         <v>10004</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -6845,7 +6845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FF1825-D8E5-4ED0-A241-603EC8F66EAC}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -6974,11 +6976,11 @@
       </c>
       <c r="AB3" s="85">
         <f>+E16</f>
-        <v>0.14285714285714285</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="AC3" s="85">
         <f>+E18</f>
-        <v>0.13513513513513514</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="AD3" s="85">
         <f>+E23</f>
@@ -6994,7 +6996,7 @@
       </c>
       <c r="C4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="37">
         <f>IFERROR(VLOOKUP($B4, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B4, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B4, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7034,7 +7036,7 @@
       </c>
       <c r="AD4" s="92">
         <f>+E22</f>
-        <v>0.625</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7046,7 +7048,7 @@
       </c>
       <c r="C5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="37">
         <f>IFERROR(VLOOKUP($B5, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B5, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B5, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7054,20 +7056,20 @@
       </c>
       <c r="E5" s="53">
         <f t="shared" si="0"/>
-        <v>0.19444444444444445</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="38">
         <f t="shared" si="1"/>
-        <v>6.5962068744328736E-2</v>
+        <v>6.4388315181998571E-2</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" si="2"/>
-        <v>0.12848237570011573</v>
+        <v>0.12480087400719063</v>
       </c>
       <c r="I5" s="40">
         <f t="shared" si="3"/>
-        <v>0.26040651318877317</v>
+        <v>0.25357750437118776</v>
       </c>
       <c r="Z5" s="103">
         <v>20</v>
@@ -7078,15 +7080,15 @@
       </c>
       <c r="AB5" s="104">
         <f>+E19</f>
-        <v>0.30555555555555558</v>
+        <v>0.29729729729729731</v>
       </c>
       <c r="AC5" s="104">
         <f>+E21</f>
-        <v>0.4</v>
+        <v>0.41463414634146339</v>
       </c>
       <c r="AD5" s="104">
         <f>+E24</f>
-        <v>0.44444444444444442</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7138,7 +7140,7 @@
       </c>
       <c r="AD6" s="106">
         <f>+E29</f>
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7183,7 +7185,7 @@
       </c>
       <c r="C8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="37">
         <f>IFERROR(VLOOKUP($B8, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B8, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B8, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7191,20 +7193,20 @@
       </c>
       <c r="E8" s="53">
         <f t="shared" ref="E8" si="8">IFERROR(D8/C8, 0)</f>
-        <v>0.22727272727272727</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="38">
         <f t="shared" ref="G8" si="9">IFERROR(SQRT(C8*E8*(1-E8))/C8, 0)</f>
-        <v>8.9346067398510962E-2</v>
+        <v>8.6006148703798302E-2</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" ref="H8" si="10">E8-G8</f>
-        <v>0.13792665987421632</v>
+        <v>0.13138515564402778</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" ref="I8" si="11">E8+G8</f>
-        <v>0.31661879467123821</v>
+        <v>0.30339745305162436</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7349,7 +7351,7 @@
       </c>
       <c r="AD11" s="1">
         <f>+$E$25</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AF11" s="1">
         <f>+$G$6</f>
@@ -7362,7 +7364,7 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1">
         <f>+$G$25</f>
-        <v>0.11692679333668567</v>
+        <v>0.10475656017578482</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7406,11 +7408,11 @@
       </c>
       <c r="AB12" s="1">
         <f>+$E$32</f>
-        <v>0.10810810810810811</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ref="AC12:AC16" si="16">+AA12+AB12</f>
-        <v>0.10810810810810811</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="AD12" s="1">
         <f>+$E$17</f>
@@ -7422,7 +7424,7 @@
       </c>
       <c r="AG12" s="1">
         <f>+$G$32</f>
-        <v>5.1048663870434323E-2</v>
+        <v>4.9784489627732492E-2</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1">
@@ -7536,15 +7538,15 @@
       </c>
       <c r="AB14" s="1">
         <f>+$E$33</f>
-        <v>0.20833333333333334</v>
+        <v>0.2</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" si="16"/>
-        <v>0.35119047619047616</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="AD14" s="1">
         <f>+$E$21</f>
-        <v>0.4</v>
+        <v>0.41463414634146339</v>
       </c>
       <c r="AF14" s="1">
         <f>+$G$3</f>
@@ -7552,12 +7554,12 @@
       </c>
       <c r="AG14" s="1">
         <f>+$G$33</f>
-        <v>8.2898169349398074E-2</v>
+        <v>0.08</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1">
         <f>+$G$21</f>
-        <v>7.7459666924148338E-2</v>
+        <v>7.6940374606661477E-2</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -7597,7 +7599,7 @@
       </c>
       <c r="AA15" s="1">
         <f>+$E$8</f>
-        <v>0.22727272727272727</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="AB15" s="1">
         <f>+$E$34</f>
@@ -7605,15 +7607,15 @@
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="16"/>
-        <v>0.35770750988142291</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="AD15" s="1">
         <f>+$E$29</f>
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="AF15" s="1">
         <f>+$G$8</f>
-        <v>8.9346067398510962E-2</v>
+        <v>8.6006148703798302E-2</v>
       </c>
       <c r="AG15" s="1">
         <f>+$G$34</f>
@@ -7622,7 +7624,7 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1">
         <f>+$G$29</f>
-        <v>0.17116329922036441</v>
+        <v>0.14491376746189438</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
@@ -7634,7 +7636,7 @@
       </c>
       <c r="C16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="70">
         <f>IFERROR(VLOOKUP($B16, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B16, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B16, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7642,20 +7644,20 @@
       </c>
       <c r="E16" s="71">
         <f t="shared" si="12"/>
-        <v>0.14285714285714285</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="72">
         <f t="shared" si="13"/>
-        <v>5.9148476515058931E-2</v>
+        <v>5.763842406476264E-2</v>
       </c>
       <c r="H16" s="72">
         <f t="shared" si="14"/>
-        <v>8.3708666342083918E-2</v>
+        <v>8.1250464824126262E-2</v>
       </c>
       <c r="I16" s="73">
         <f t="shared" si="15"/>
-        <v>0.20200561937220179</v>
+        <v>0.19652731295365153</v>
       </c>
       <c r="Z16">
         <v>100</v>
@@ -7674,7 +7676,7 @@
       </c>
       <c r="AD16" s="1">
         <f>+$E$30</f>
-        <v>0.8</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AF16" s="1">
         <f>+$G$7</f>
@@ -7687,7 +7689,7 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1">
         <f>+$G$30</f>
-        <v>0.17888543819998315</v>
+        <v>0.19245008972987529</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7732,7 +7734,7 @@
       </c>
       <c r="C18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="80">
         <f>IFERROR(VLOOKUP($B18, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B18, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B18, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7740,20 +7742,20 @@
       </c>
       <c r="E18" s="81">
         <f t="shared" si="12"/>
-        <v>0.13513513513513514</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="82">
         <f t="shared" si="13"/>
-        <v>5.6202729179463388E-2</v>
+        <v>5.4836102201742815E-2</v>
       </c>
       <c r="H18" s="82">
         <f t="shared" si="14"/>
-        <v>7.8932405955671747E-2</v>
+        <v>7.6742845166678231E-2</v>
       </c>
       <c r="I18" s="83">
         <f t="shared" si="15"/>
-        <v>0.19133786431459854</v>
+        <v>0.18641504957016386</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7765,7 +7767,7 @@
       </c>
       <c r="C19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="20">
         <f>IFERROR(VLOOKUP($B19, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B19, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B19, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7773,20 +7775,20 @@
       </c>
       <c r="E19" s="56">
         <f t="shared" si="12"/>
-        <v>0.30555555555555558</v>
+        <v>0.29729729729729731</v>
       </c>
       <c r="F19" s="20"/>
       <c r="G19" s="21">
         <f t="shared" si="13"/>
-        <v>7.6773721998967592E-2</v>
+        <v>7.5141598641537688E-2</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="14"/>
-        <v>0.22878183355658799</v>
+        <v>0.22215569865575963</v>
       </c>
       <c r="I19" s="49">
         <f t="shared" si="15"/>
-        <v>0.38232927755452317</v>
+        <v>0.372438895938835</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7831,28 +7833,28 @@
       </c>
       <c r="C21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" s="24">
         <f>IFERROR(VLOOKUP($B21, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B21, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B21, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="57">
         <f t="shared" si="12"/>
-        <v>0.4</v>
+        <v>0.41463414634146339</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="25">
         <f t="shared" si="13"/>
-        <v>7.7459666924148338E-2</v>
+        <v>7.6940374606661477E-2</v>
       </c>
       <c r="H21" s="25">
         <f t="shared" si="14"/>
-        <v>0.32254033307585167</v>
+        <v>0.33769377173480192</v>
       </c>
       <c r="I21" s="50">
         <f t="shared" si="15"/>
-        <v>0.47745966692414837</v>
+        <v>0.49157452094812487</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7864,7 +7866,7 @@
       </c>
       <c r="C22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D22" s="87">
         <f>IFERROR(VLOOKUP($B22, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B22, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B22, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7872,20 +7874,20 @@
       </c>
       <c r="E22" s="88">
         <f t="shared" ref="E22:E29" si="17">IFERROR(D22/C22, 0)</f>
-        <v>0.625</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="F22" s="87"/>
       <c r="G22" s="89">
         <f t="shared" ref="G22:G29" si="18">IFERROR(SQRT(C22*E22*(1-E22))/C22, 0)</f>
-        <v>0.17116329922036441</v>
+        <v>0.15013142251723099</v>
       </c>
       <c r="H22" s="89">
         <f t="shared" ref="H22:H29" si="19">E22-G22</f>
-        <v>0.45383670077963556</v>
+        <v>0.30441403202822354</v>
       </c>
       <c r="I22" s="90">
         <f t="shared" ref="I22:I29" si="20">E22+G22</f>
-        <v>0.79616329922036444</v>
+        <v>0.60467687706268558</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7930,28 +7932,28 @@
       </c>
       <c r="C24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D24" s="24">
         <f>IFERROR(VLOOKUP($B24, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B24, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B24, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24" s="57">
         <f t="shared" si="17"/>
-        <v>0.44444444444444442</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25">
         <f t="shared" si="18"/>
-        <v>0.16563466499998442</v>
+        <v>0.15013142251723099</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="19"/>
-        <v>0.27880977944446</v>
+        <v>0.30441403202822354</v>
       </c>
       <c r="I24" s="50">
         <f t="shared" si="20"/>
-        <v>0.61007910944442889</v>
+        <v>0.60467687706268558</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7963,7 +7965,7 @@
       </c>
       <c r="C25" s="12">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 2,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 2,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 2,FALSE), 0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="12">
         <f>IFERROR(VLOOKUP($B25, ZEN!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, ZEN_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, CLM!$B$2:$D$101, 3,FALSE), 0)+ IFERROR(VLOOKUP($B25, CLM_3200!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER!$B$2:$D$101, 3,FALSE), 0) + IFERROR(VLOOKUP($B25, THUNDER_3200!$B$2:$D$101, 3,FALSE), 0)</f>
@@ -7971,20 +7973,20 @@
       </c>
       <c r="E25" s="55">
         <f t="shared" ref="E25" si="21">IFERROR(D25/C25, 0)</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="13">
         <f t="shared" ref="G25" si="22">IFERROR(SQRT(C25*E25*(1-E25))/C25, 0)</f>
-        <v>0.11692679333668567</v>
+        <v>0.10475656017578482</v>
       </c>
       <c r="H25" s="13">
         <f t="shared" ref="H25" si="23">E25-G25</f>
